--- a/wolf/Excel/Shop_商店物品表.xlsx
+++ b/wolf/Excel/Shop_商店物品表.xlsx
@@ -59,34 +59,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -108,13 +80,20 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9.75"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FF606266"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -164,6 +143,27 @@
     </font>
     <font>
       <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -171,7 +171,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -220,6 +220,24 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
@@ -232,19 +250,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
+        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -262,13 +280,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -281,18 +293,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -505,40 +505,40 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="3" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="4" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="3" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="5" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="7" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="6" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="0" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="7" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="8" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="9" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="10" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -547,22 +547,22 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="12" fontId="17" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="13" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="14" fontId="19" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="15" fontId="20" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="16" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="17" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="18" fontId="23" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -892,29 +892,29 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="27"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="29"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="18"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="15"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="15"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="29"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="31"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="19"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="23" r="1">
+    <row customHeight="true" ht="25" r="1">
       <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
@@ -967,7 +967,7 @@
         <v>Int[]</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="2">
+    <row customHeight="true" ht="25" r="2">
       <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>SuitItems</v>
       </c>
     </row>
-    <row customHeight="true" ht="92" r="3">
+    <row customHeight="true" ht="97" r="3">
       <c r="A3" s="1" t="str">
         <v>物品序号
 10000近战
@@ -1086,7 +1086,7 @@
         <v>套装内容（角色表序号）</v>
       </c>
     </row>
-    <row customHeight="true" ht="23" r="4">
+    <row customHeight="true" ht="25" r="4">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="str">
@@ -1107,74 +1107,74 @@
       <c r="P4" s="2"/>
       <c r="Q4" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="5">
-      <c r="A5" s="4">
+    <row customHeight="true" ht="25" r="5">
+      <c r="A5" s="10">
         <v>9999</v>
       </c>
-      <c r="B5" s="5" t="str">
+      <c r="B5" s="11" t="str">
         <v>物品种类</v>
       </c>
-      <c r="C5" s="4" t="str">
+      <c r="C5" s="10" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="10">
         <v>5</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="5"/>
-      <c r="N5" s="5"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="5"/>
-      <c r="Q5" s="5"/>
-    </row>
-    <row customHeight="true" ht="23" r="6">
-      <c r="A6" s="4">
+      <c r="E5" s="10"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10"/>
+      <c r="I5" s="10"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="10"/>
+      <c r="L5" s="10"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+    </row>
+    <row customHeight="true" ht="25" r="6">
+      <c r="A6" s="10">
         <v>10000</v>
       </c>
-      <c r="B6" s="5" t="str">
+      <c r="B6" s="11" t="str">
         <v>近战数量</v>
       </c>
-      <c r="C6" s="4" t="str">
+      <c r="C6" s="10" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="10">
         <v>35</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4">
+      <c r="E6" s="10"/>
+      <c r="F6" s="11"/>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10">
         <v>3</v>
       </c>
-      <c r="I6" s="5"/>
-      <c r="J6" s="5"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="5"/>
-      <c r="N6" s="5"/>
-      <c r="O6" s="5"/>
-      <c r="P6" s="5"/>
-      <c r="Q6" s="5"/>
-    </row>
-    <row customHeight="true" ht="23" r="7">
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="M6" s="11"/>
+      <c r="N6" s="11"/>
+      <c r="O6" s="11"/>
+      <c r="P6" s="11"/>
+      <c r="Q6" s="11"/>
+    </row>
+    <row customHeight="true" ht="25" r="7">
       <c r="A7" s="1">
         <v>10001</v>
       </c>
-      <c r="B7" s="9" t="str">
+      <c r="B7" s="5" t="str">
         <v>斧子</v>
       </c>
       <c r="C7" s="1" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="9">
+      <c r="E7" s="5">
         <v>43677</v>
       </c>
       <c r="F7" s="2">
@@ -1200,18 +1200,18 @@
       <c r="P7" s="1"/>
       <c r="Q7" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="8">
+    <row customHeight="true" ht="25" r="8">
       <c r="A8" s="1">
         <v>10002</v>
       </c>
-      <c r="B8" s="9" t="str">
+      <c r="B8" s="5" t="str">
         <v>尼泊尔军刀</v>
       </c>
       <c r="C8" s="1" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="9">
+      <c r="E8" s="5">
         <v>94178</v>
       </c>
       <c r="F8" s="2">
@@ -1237,7 +1237,7 @@
       <c r="P8" s="1"/>
       <c r="Q8" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="9">
+    <row customHeight="true" ht="25" r="9">
       <c r="A9" s="1">
         <v>10003</v>
       </c>
@@ -1274,7 +1274,7 @@
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="10">
+    <row customHeight="true" ht="25" r="10">
       <c r="A10" s="1">
         <v>10004</v>
       </c>
@@ -1311,7 +1311,7 @@
       <c r="P10" s="1"/>
       <c r="Q10" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="11">
+    <row customHeight="true" ht="25" r="11">
       <c r="A11" s="1">
         <v>10005</v>
       </c>
@@ -1348,7 +1348,7 @@
       <c r="P11" s="1"/>
       <c r="Q11" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="12">
+    <row customHeight="true" ht="25" r="12">
       <c r="A12" s="1">
         <v>10006</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="P12" s="1"/>
       <c r="Q12" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="13">
+    <row customHeight="true" ht="25" r="13">
       <c r="A13" s="1">
         <v>10007</v>
       </c>
@@ -1422,7 +1422,7 @@
       <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="14">
+    <row customHeight="true" ht="25" r="14">
       <c r="A14" s="1">
         <v>10008</v>
       </c>
@@ -1459,7 +1459,7 @@
       <c r="P14" s="1"/>
       <c r="Q14" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="15">
+    <row customHeight="true" ht="25" r="15">
       <c r="A15" s="1">
         <v>10009</v>
       </c>
@@ -1496,7 +1496,7 @@
       <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="16">
+    <row customHeight="true" ht="25" r="16">
       <c r="A16" s="1">
         <v>10010</v>
       </c>
@@ -1533,7 +1533,7 @@
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="17">
+    <row customHeight="true" ht="25" r="17">
       <c r="A17" s="1">
         <v>10011</v>
       </c>
@@ -1570,7 +1570,7 @@
       <c r="P17" s="1"/>
       <c r="Q17" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="18">
+    <row customHeight="true" ht="25" r="18">
       <c r="A18" s="1">
         <v>10012</v>
       </c>
@@ -1607,7 +1607,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="19">
+    <row customHeight="true" ht="25" r="19">
       <c r="A19" s="1">
         <v>10013</v>
       </c>
@@ -1644,7 +1644,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="20">
+    <row customHeight="true" ht="25" r="20">
       <c r="A20" s="1">
         <v>10014</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="P20" s="1"/>
       <c r="Q20" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="21">
+    <row customHeight="true" ht="25" r="21">
       <c r="A21" s="1">
         <v>10015</v>
       </c>
@@ -1718,7 +1718,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="22">
+    <row customHeight="true" ht="25" r="22">
       <c r="A22" s="1">
         <v>10016</v>
       </c>
@@ -1755,7 +1755,7 @@
       <c r="P22" s="1"/>
       <c r="Q22" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="23">
+    <row customHeight="true" ht="25" r="23">
       <c r="A23" s="1">
         <v>10017</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="P23" s="1"/>
       <c r="Q23" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="24">
+    <row customHeight="true" ht="25" r="24">
       <c r="A24" s="1">
         <v>10018</v>
       </c>
@@ -1829,7 +1829,7 @@
       <c r="P24" s="1"/>
       <c r="Q24" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="25">
+    <row customHeight="true" ht="25" r="25">
       <c r="A25" s="1">
         <v>10019</v>
       </c>
@@ -1866,7 +1866,7 @@
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="26">
+    <row customHeight="true" ht="25" r="26">
       <c r="A26" s="1">
         <v>10020</v>
       </c>
@@ -1903,7 +1903,7 @@
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="27">
+    <row customHeight="true" ht="25" r="27">
       <c r="A27" s="1">
         <v>10021</v>
       </c>
@@ -1940,11 +1940,11 @@
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="28">
+    <row customHeight="true" ht="25" r="28">
       <c r="A28" s="1">
         <v>10022</v>
       </c>
-      <c r="B28" s="15" t="str">
+      <c r="B28" s="14" t="str">
         <v>虚数之杖</v>
       </c>
       <c r="C28" s="1" t="str">
@@ -1959,7 +1959,7 @@
         <v>2</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="7">
+      <c r="I28" s="3">
         <v>192891</v>
       </c>
       <c r="J28" s="2">
@@ -1975,7 +1975,7 @@
       <c r="P28" s="1"/>
       <c r="Q28" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="29">
+    <row customHeight="true" ht="25" r="29">
       <c r="A29" s="1">
         <v>10023</v>
       </c>
@@ -1994,7 +1994,7 @@
         <v>2</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="7">
+      <c r="I29" s="3">
         <v>192883</v>
       </c>
       <c r="J29" s="2">
@@ -2010,7 +2010,7 @@
       <c r="P29" s="1"/>
       <c r="Q29" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="30">
+    <row customHeight="true" ht="25" r="30">
       <c r="A30" s="1">
         <v>10024</v>
       </c>
@@ -2029,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="7">
+      <c r="I30" s="3">
         <v>192895</v>
       </c>
       <c r="J30" s="2">
@@ -2045,7 +2045,7 @@
       <c r="P30" s="1"/>
       <c r="Q30" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="31">
+    <row customHeight="true" ht="25" r="31">
       <c r="A31" s="1">
         <v>10025</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="7">
+      <c r="I31" s="3">
         <v>192903</v>
       </c>
       <c r="J31" s="2">
@@ -2080,7 +2080,7 @@
       <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="32">
+    <row customHeight="true" ht="25" r="32">
       <c r="A32" s="1">
         <v>10026</v>
       </c>
@@ -2099,7 +2099,7 @@
         <v>2</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="7">
+      <c r="I32" s="3">
         <v>192894</v>
       </c>
       <c r="J32" s="2">
@@ -2115,7 +2115,7 @@
       <c r="P32" s="1"/>
       <c r="Q32" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="33">
+    <row customHeight="true" ht="25" r="33">
       <c r="A33" s="1">
         <v>10027</v>
       </c>
@@ -2134,7 +2134,7 @@
         <v>2</v>
       </c>
       <c r="H33" s="1"/>
-      <c r="I33" s="7">
+      <c r="I33" s="3">
         <v>192905</v>
       </c>
       <c r="J33" s="2">
@@ -2150,11 +2150,11 @@
       <c r="P33" s="1"/>
       <c r="Q33" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="34">
+    <row customHeight="true" ht="25" r="34">
       <c r="A34" s="1">
         <v>10028</v>
       </c>
-      <c r="B34" s="8" t="str">
+      <c r="B34" s="4" t="str">
         <v>唤雷(符文)</v>
       </c>
       <c r="C34" s="1" t="str">
@@ -2169,7 +2169,7 @@
         <v>2</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="7">
+      <c r="I34" s="3">
         <v>192897</v>
       </c>
       <c r="J34" s="2">
@@ -2185,11 +2185,11 @@
       <c r="P34" s="1"/>
       <c r="Q34" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="35">
+    <row customHeight="true" ht="25" r="35">
       <c r="A35" s="1">
         <v>10029</v>
       </c>
-      <c r="B35" s="8" t="str">
+      <c r="B35" s="4" t="str">
         <v>雷神之锤</v>
       </c>
       <c r="C35" s="1" t="str">
@@ -2204,7 +2204,7 @@
         <v>2</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="7">
+      <c r="I35" s="3">
         <v>192898</v>
       </c>
       <c r="J35" s="2">
@@ -2220,11 +2220,11 @@
       <c r="P35" s="1"/>
       <c r="Q35" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="36">
+    <row customHeight="true" ht="25" r="36">
       <c r="A36" s="1">
         <v>10030</v>
       </c>
-      <c r="B36" s="8" t="str">
+      <c r="B36" s="4" t="str">
         <v>骨刺剑(圣)</v>
       </c>
       <c r="C36" s="1" t="str">
@@ -2239,7 +2239,7 @@
         <v>2</v>
       </c>
       <c r="H36" s="1"/>
-      <c r="I36" s="7">
+      <c r="I36" s="3">
         <v>192896</v>
       </c>
       <c r="J36" s="2">
@@ -2255,11 +2255,11 @@
       <c r="P36" s="1"/>
       <c r="Q36" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="37">
+    <row customHeight="true" ht="25" r="37">
       <c r="A37" s="1">
         <v>10031</v>
       </c>
-      <c r="B37" s="8" t="str">
+      <c r="B37" s="4" t="str">
         <v>骨刺剑(恋)</v>
       </c>
       <c r="C37" s="1" t="str">
@@ -2274,7 +2274,7 @@
         <v>2</v>
       </c>
       <c r="H37" s="1"/>
-      <c r="I37" s="7">
+      <c r="I37" s="3">
         <v>192906</v>
       </c>
       <c r="J37" s="2">
@@ -2290,11 +2290,11 @@
       <c r="P37" s="1"/>
       <c r="Q37" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="38">
+    <row customHeight="true" ht="25" r="38">
       <c r="A38" s="1">
         <v>10032</v>
       </c>
-      <c r="B38" s="8" t="str">
+      <c r="B38" s="4" t="str">
         <v>骨刺剑(炽)</v>
       </c>
       <c r="C38" s="1" t="str">
@@ -2309,7 +2309,7 @@
         <v>2</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="7">
+      <c r="I38" s="3">
         <v>192886</v>
       </c>
       <c r="J38" s="2">
@@ -2325,11 +2325,11 @@
       <c r="P38" s="1"/>
       <c r="Q38" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="39">
+    <row customHeight="true" ht="25" r="39">
       <c r="A39" s="1">
         <v>10033</v>
       </c>
-      <c r="B39" s="8" t="str">
+      <c r="B39" s="4" t="str">
         <v>骨刺剑(霜)</v>
       </c>
       <c r="C39" s="1" t="str">
@@ -2344,7 +2344,7 @@
         <v>2</v>
       </c>
       <c r="H39" s="1"/>
-      <c r="I39" s="7">
+      <c r="I39" s="3">
         <v>192885</v>
       </c>
       <c r="J39" s="2">
@@ -2360,11 +2360,11 @@
       <c r="P39" s="1"/>
       <c r="Q39" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="40">
+    <row customHeight="true" ht="25" r="40">
       <c r="A40" s="1">
         <v>10034</v>
       </c>
-      <c r="B40" s="10" t="str">
+      <c r="B40" s="13" t="str">
         <v>樱</v>
       </c>
       <c r="C40" s="1" t="str">
@@ -2379,9 +2379,9 @@
         <v>5</v>
       </c>
       <c r="H40" s="1">
-        <v>299</v>
-      </c>
-      <c r="I40" s="7">
+        <v>30</v>
+      </c>
+      <c r="I40" s="3">
         <v>192902</v>
       </c>
       <c r="J40" s="2">
@@ -2395,11 +2395,11 @@
       <c r="P40" s="1"/>
       <c r="Q40" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="41">
+    <row customHeight="true" ht="25" r="41">
       <c r="A41" s="1">
         <v>10035</v>
       </c>
-      <c r="B41" s="14" t="str">
+      <c r="B41" s="9" t="str">
         <v>黄金球棍(虹彩)</v>
       </c>
       <c r="C41" s="1" t="str">
@@ -2414,9 +2414,9 @@
         <v>5</v>
       </c>
       <c r="H41" s="1">
-        <v>299</v>
-      </c>
-      <c r="I41" s="7">
+        <v>30</v>
+      </c>
+      <c r="I41" s="3">
         <v>192890</v>
       </c>
       <c r="J41" s="2">
@@ -2430,47 +2430,47 @@
       <c r="P41" s="1"/>
       <c r="Q41" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="42">
-      <c r="A42" s="4">
+    <row customHeight="true" ht="25" r="42">
+      <c r="A42" s="10">
         <v>20000</v>
       </c>
-      <c r="B42" s="16" t="str">
+      <c r="B42" s="12" t="str">
         <v>远程数量</v>
       </c>
-      <c r="C42" s="4" t="str">
+      <c r="C42" s="10" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D42" s="4">
+      <c r="D42" s="10">
         <v>12</v>
       </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="5"/>
-      <c r="G42" s="4"/>
-      <c r="H42" s="4">
+      <c r="E42" s="12"/>
+      <c r="F42" s="11"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10">
         <v>4</v>
       </c>
-      <c r="I42" s="4"/>
-      <c r="J42" s="5"/>
-      <c r="K42" s="4"/>
-      <c r="L42" s="4"/>
-      <c r="M42" s="5"/>
-      <c r="N42" s="5"/>
-      <c r="O42" s="5"/>
-      <c r="P42" s="5"/>
-      <c r="Q42" s="5"/>
-    </row>
-    <row customHeight="true" ht="23" r="43">
+      <c r="I42" s="10"/>
+      <c r="J42" s="11"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="11"/>
+      <c r="N42" s="11"/>
+      <c r="O42" s="11"/>
+      <c r="P42" s="11"/>
+      <c r="Q42" s="11"/>
+    </row>
+    <row customHeight="true" ht="25" r="43">
       <c r="A43" s="1">
         <v>20001</v>
       </c>
-      <c r="B43" s="9" t="str">
+      <c r="B43" s="5" t="str">
         <v>冲锋枪</v>
       </c>
       <c r="C43" s="1" t="str">
         <v>Weapon_WeaponName_20002</v>
       </c>
       <c r="D43" s="1"/>
-      <c r="E43" s="9">
+      <c r="E43" s="5">
         <v>99701</v>
       </c>
       <c r="F43" s="2">
@@ -2496,18 +2496,18 @@
       <c r="P43" s="2"/>
       <c r="Q43" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="44">
+    <row customHeight="true" ht="25" r="44">
       <c r="A44" s="1">
         <v>20002</v>
       </c>
-      <c r="B44" s="9" t="str">
+      <c r="B44" s="5" t="str">
         <v>步枪</v>
       </c>
       <c r="C44" s="1" t="str">
         <v>Weapon_WeaponName_20003</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="9">
+      <c r="E44" s="5">
         <v>45000</v>
       </c>
       <c r="F44" s="2">
@@ -2533,18 +2533,18 @@
       <c r="P44" s="1"/>
       <c r="Q44" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="45">
+    <row customHeight="true" ht="25" r="45">
       <c r="A45" s="1">
         <v>20003</v>
       </c>
-      <c r="B45" s="17" t="str">
+      <c r="B45" s="19" t="str">
         <v>奇点之枪</v>
       </c>
       <c r="C45" s="1" t="str">
         <v>Weapon_WeaponName_20004</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="9"/>
+      <c r="E45" s="5"/>
       <c r="F45" s="2">
         <v>2</v>
       </c>
@@ -2552,7 +2552,7 @@
         <v>2</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="7">
+      <c r="I45" s="3">
         <v>192887</v>
       </c>
       <c r="J45" s="2">
@@ -2568,7 +2568,7 @@
       <c r="P45" s="1"/>
       <c r="Q45" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="46">
+    <row customHeight="true" ht="25" r="46">
       <c r="A46" s="1">
         <v>20004</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>Weapon_WeaponName_20005</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="9"/>
+      <c r="E46" s="5"/>
       <c r="F46" s="2">
         <v>2</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>2</v>
       </c>
       <c r="H46" s="1"/>
-      <c r="I46" s="7">
+      <c r="I46" s="3">
         <v>192901</v>
       </c>
       <c r="J46" s="2">
@@ -2603,7 +2603,7 @@
       <c r="P46" s="1"/>
       <c r="Q46" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="47">
+    <row customHeight="true" ht="25" r="47">
       <c r="A47" s="1">
         <v>20005</v>
       </c>
@@ -2614,7 +2614,7 @@
         <v>Weapon_WeaponName_20006</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="9"/>
+      <c r="E47" s="5"/>
       <c r="F47" s="2">
         <v>2</v>
       </c>
@@ -2622,7 +2622,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="7">
+      <c r="I47" s="3">
         <v>192889</v>
       </c>
       <c r="J47" s="2">
@@ -2638,7 +2638,7 @@
       <c r="P47" s="1"/>
       <c r="Q47" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="48">
+    <row customHeight="true" ht="25" r="48">
       <c r="A48" s="1">
         <v>20006</v>
       </c>
@@ -2649,7 +2649,7 @@
         <v>Weapon_WeaponName_20007</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="9"/>
+      <c r="E48" s="5"/>
       <c r="F48" s="2">
         <v>2</v>
       </c>
@@ -2657,7 +2657,7 @@
         <v>2</v>
       </c>
       <c r="H48" s="1"/>
-      <c r="I48" s="7">
+      <c r="I48" s="3">
         <v>192888</v>
       </c>
       <c r="J48" s="2">
@@ -2673,18 +2673,18 @@
       <c r="P48" s="1"/>
       <c r="Q48" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="49">
+    <row customHeight="true" ht="25" r="49">
       <c r="A49" s="1">
         <v>20007</v>
       </c>
-      <c r="B49" s="8" t="str">
+      <c r="B49" s="4" t="str">
         <v>逐日(符文)</v>
       </c>
       <c r="C49" s="1" t="str">
         <v>Weapon_WeaponName_20008</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="9"/>
+      <c r="E49" s="5"/>
       <c r="F49" s="2">
         <v>2</v>
       </c>
@@ -2692,7 +2692,7 @@
         <v>2</v>
       </c>
       <c r="H49" s="1"/>
-      <c r="I49" s="7">
+      <c r="I49" s="3">
         <v>192904</v>
       </c>
       <c r="J49" s="2">
@@ -2708,18 +2708,18 @@
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="50">
+    <row customHeight="true" ht="25" r="50">
       <c r="A50" s="1">
         <v>20008</v>
       </c>
-      <c r="B50" s="8" t="str">
+      <c r="B50" s="4" t="str">
         <v>火铳</v>
       </c>
       <c r="C50" s="1" t="str">
         <v>Weapon_WeaponName_20009</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="9"/>
+      <c r="E50" s="5"/>
       <c r="F50" s="2">
         <v>2</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>2</v>
       </c>
       <c r="H50" s="1"/>
-      <c r="I50" s="7">
+      <c r="I50" s="3">
         <v>192899</v>
       </c>
       <c r="J50" s="2">
@@ -2743,18 +2743,18 @@
       <c r="P50" s="1"/>
       <c r="Q50" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="51">
+    <row customHeight="true" ht="25" r="51">
       <c r="A51" s="1">
         <v>20009</v>
       </c>
-      <c r="B51" s="8" t="str">
+      <c r="B51" s="4" t="str">
         <v>左轮(圣)</v>
       </c>
       <c r="C51" s="1" t="str">
         <v>Weapon_WeaponName_20010</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="9"/>
+      <c r="E51" s="5"/>
       <c r="F51" s="2">
         <v>2</v>
       </c>
@@ -2762,7 +2762,7 @@
         <v>2</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="7">
+      <c r="I51" s="3">
         <v>192884</v>
       </c>
       <c r="J51" s="2">
@@ -2778,18 +2778,18 @@
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="52">
+    <row customHeight="true" ht="25" r="52">
       <c r="A52" s="1">
         <v>20010</v>
       </c>
-      <c r="B52" s="8" t="str">
+      <c r="B52" s="4" t="str">
         <v>左轮(恋)</v>
       </c>
       <c r="C52" s="1" t="str">
         <v>Weapon_WeaponName_20011</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="9"/>
+      <c r="E52" s="5"/>
       <c r="F52" s="2">
         <v>2</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>2</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="7">
+      <c r="I52" s="3">
         <v>192892</v>
       </c>
       <c r="J52" s="2">
@@ -2813,18 +2813,18 @@
       <c r="P52" s="1"/>
       <c r="Q52" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="53">
+    <row customHeight="true" ht="25" r="53">
       <c r="A53" s="1">
         <v>20011</v>
       </c>
-      <c r="B53" s="10" t="str">
+      <c r="B53" s="13" t="str">
         <v>蝶</v>
       </c>
       <c r="C53" s="1" t="str">
         <v>Weapon_WeaponName_20012</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="9"/>
+      <c r="E53" s="5"/>
       <c r="F53" s="2">
         <v>2</v>
       </c>
@@ -2832,9 +2832,9 @@
         <v>5</v>
       </c>
       <c r="H53" s="1">
-        <v>299</v>
-      </c>
-      <c r="I53" s="7">
+        <v>30</v>
+      </c>
+      <c r="I53" s="3">
         <v>192893</v>
       </c>
       <c r="J53" s="2">
@@ -2848,18 +2848,18 @@
       <c r="P53" s="1"/>
       <c r="Q53" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="54">
+    <row customHeight="true" ht="25" r="54">
       <c r="A54" s="1">
         <v>20012</v>
       </c>
-      <c r="B54" s="14" t="str">
+      <c r="B54" s="9" t="str">
         <v>黄金左轮(虹彩)</v>
       </c>
       <c r="C54" s="1" t="str">
         <v>Weapon_WeaponName_20013</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="9"/>
+      <c r="E54" s="5"/>
       <c r="F54" s="2">
         <v>2</v>
       </c>
@@ -2867,9 +2867,9 @@
         <v>5</v>
       </c>
       <c r="H54" s="1">
-        <v>299</v>
-      </c>
-      <c r="I54" s="7">
+        <v>30</v>
+      </c>
+      <c r="I54" s="3">
         <v>192900</v>
       </c>
       <c r="J54" s="2">
@@ -2883,36 +2883,36 @@
       <c r="P54" s="1"/>
       <c r="Q54" s="1"/>
     </row>
-    <row customHeight="true" ht="23" r="55">
-      <c r="A55" s="4">
+    <row customHeight="true" ht="25" r="55">
+      <c r="A55" s="10">
         <v>30000</v>
       </c>
-      <c r="B55" s="5" t="str">
+      <c r="B55" s="11" t="str">
         <v>拖尾数量</v>
       </c>
-      <c r="C55" s="4" t="str">
+      <c r="C55" s="10" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D55" s="4">
+      <c r="D55" s="10">
         <v>12</v>
       </c>
-      <c r="E55" s="4"/>
-      <c r="F55" s="5"/>
-      <c r="G55" s="4"/>
-      <c r="H55" s="4">
-        <v>2</v>
-      </c>
-      <c r="I55" s="4"/>
-      <c r="J55" s="5"/>
-      <c r="K55" s="4"/>
-      <c r="L55" s="4"/>
-      <c r="M55" s="5"/>
-      <c r="N55" s="5"/>
-      <c r="O55" s="5"/>
-      <c r="P55" s="5"/>
-      <c r="Q55" s="5"/>
-    </row>
-    <row customHeight="true" ht="23" r="56">
+      <c r="E55" s="10"/>
+      <c r="F55" s="11"/>
+      <c r="G55" s="10"/>
+      <c r="H55" s="10">
+        <v>2</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="11"/>
+      <c r="K55" s="10"/>
+      <c r="L55" s="10"/>
+      <c r="M55" s="11"/>
+      <c r="N55" s="11"/>
+      <c r="O55" s="11"/>
+      <c r="P55" s="11"/>
+      <c r="Q55" s="11"/>
+    </row>
+    <row customHeight="true" ht="25" r="56">
       <c r="A56" s="1">
         <v>30001</v>
       </c>
@@ -2948,7 +2948,7 @@
       <c r="P56" s="2"/>
       <c r="Q56" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="57">
+    <row customHeight="true" ht="25" r="57">
       <c r="A57" s="1">
         <v>30002</v>
       </c>
@@ -2984,43 +2984,43 @@
       <c r="P57" s="2"/>
       <c r="Q57" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="58">
-      <c r="A58" s="12">
+    <row customHeight="true" ht="25" r="58">
+      <c r="A58" s="15">
         <v>30003</v>
       </c>
-      <c r="B58" s="13" t="str">
+      <c r="B58" s="16" t="str">
         <v>雷霆
 参考翻译：Lighting</v>
       </c>
-      <c r="C58" s="12" t="str">
+      <c r="C58" s="15" t="str">
         <v>Item_Name_20003</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12">
+      <c r="D58" s="15"/>
+      <c r="E58" s="15">
         <v>145503</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="12">
-        <v>0</v>
-      </c>
-      <c r="H58" s="12">
+      <c r="F58" s="16"/>
+      <c r="G58" s="15">
+        <v>0</v>
+      </c>
+      <c r="H58" s="15">
         <v>300</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I58" s="15">
         <v>108510</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J58" s="16">
         <v>4</v>
       </c>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-    </row>
-    <row customHeight="true" ht="23" r="59">
+      <c r="K58" s="15"/>
+      <c r="L58" s="15"/>
+      <c r="M58" s="16"/>
+      <c r="N58" s="16"/>
+      <c r="O58" s="16"/>
+      <c r="P58" s="16"/>
+      <c r="Q58" s="16"/>
+    </row>
+    <row customHeight="true" ht="25" r="59">
       <c r="A59" s="1">
         <v>30004</v>
       </c>
@@ -3056,7 +3056,7 @@
       <c r="P59" s="2"/>
       <c r="Q59" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="60">
+    <row customHeight="true" ht="25" r="60">
       <c r="A60" s="1">
         <v>30005</v>
       </c>
@@ -3092,7 +3092,7 @@
       <c r="P60" s="2"/>
       <c r="Q60" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="61">
+    <row customHeight="true" ht="25" r="61">
       <c r="A61" s="1">
         <v>30006</v>
       </c>
@@ -3128,112 +3128,112 @@
       <c r="P61" s="2"/>
       <c r="Q61" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="62">
-      <c r="A62" s="12">
+    <row customHeight="true" ht="25" r="62">
+      <c r="A62" s="15">
         <v>30007</v>
       </c>
-      <c r="B62" s="13" t="str">
+      <c r="B62" s="16" t="str">
         <v>火焰</v>
       </c>
-      <c r="C62" s="12" t="str">
+      <c r="C62" s="15" t="str">
         <v>Item_Name_20007</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12">
+      <c r="D62" s="15"/>
+      <c r="E62" s="15">
         <v>88021</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="12">
-        <v>0</v>
-      </c>
-      <c r="H62" s="12">
+      <c r="F62" s="16"/>
+      <c r="G62" s="15">
+        <v>0</v>
+      </c>
+      <c r="H62" s="15">
         <v>800</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I62" s="16">
         <v>141806</v>
       </c>
-      <c r="J62" s="13">
-        <v>2</v>
-      </c>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-    </row>
-    <row customHeight="true" ht="23" r="63">
-      <c r="A63" s="12">
+      <c r="J62" s="16">
+        <v>2</v>
+      </c>
+      <c r="K62" s="15"/>
+      <c r="L62" s="15"/>
+      <c r="M62" s="16"/>
+      <c r="N62" s="16"/>
+      <c r="O62" s="16"/>
+      <c r="P62" s="16"/>
+      <c r="Q62" s="16"/>
+    </row>
+    <row customHeight="true" ht="25" r="63">
+      <c r="A63" s="15">
         <v>30008</v>
       </c>
-      <c r="B63" s="13" t="str">
+      <c r="B63" s="16" t="str">
         <v>女巫</v>
       </c>
-      <c r="C63" s="12" t="str">
+      <c r="C63" s="15" t="str">
         <v>Item_Name_20008</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12">
+      <c r="D63" s="15"/>
+      <c r="E63" s="15">
         <v>88441</v>
       </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="12">
-        <v>0</v>
-      </c>
-      <c r="H63" s="12">
+      <c r="F63" s="16"/>
+      <c r="G63" s="15">
+        <v>0</v>
+      </c>
+      <c r="H63" s="15">
         <v>1200</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I63" s="16">
         <v>141805</v>
       </c>
-      <c r="J63" s="13">
-        <v>1</v>
-      </c>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-    </row>
-    <row customHeight="true" ht="23" r="64">
-      <c r="A64" s="12">
+      <c r="J63" s="16">
+        <v>1</v>
+      </c>
+      <c r="K63" s="15"/>
+      <c r="L63" s="15"/>
+      <c r="M63" s="16"/>
+      <c r="N63" s="16"/>
+      <c r="O63" s="16"/>
+      <c r="P63" s="16"/>
+      <c r="Q63" s="16"/>
+    </row>
+    <row customHeight="true" ht="25" r="64">
+      <c r="A64" s="15">
         <v>30009</v>
       </c>
-      <c r="B64" s="13" t="str">
+      <c r="B64" s="16" t="str">
         <v>骑士</v>
       </c>
-      <c r="C64" s="12" t="str">
+      <c r="C64" s="15" t="str">
         <v>Item_Name_20009</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12">
+      <c r="D64" s="15"/>
+      <c r="E64" s="15">
         <v>88443</v>
       </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="12">
-        <v>0</v>
-      </c>
-      <c r="H64" s="12">
+      <c r="F64" s="16"/>
+      <c r="G64" s="15">
+        <v>0</v>
+      </c>
+      <c r="H64" s="15">
         <v>1200</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I64" s="16">
         <v>141802</v>
       </c>
-      <c r="J64" s="13">
-        <v>1</v>
-      </c>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-    </row>
-    <row customHeight="true" ht="23" r="65">
+      <c r="J64" s="16">
+        <v>1</v>
+      </c>
+      <c r="K64" s="15"/>
+      <c r="L64" s="15"/>
+      <c r="M64" s="16"/>
+      <c r="N64" s="16"/>
+      <c r="O64" s="16"/>
+      <c r="P64" s="16"/>
+      <c r="Q64" s="16"/>
+    </row>
+    <row customHeight="true" ht="25" r="65">
       <c r="A65" s="1">
         <v>30010</v>
       </c>
@@ -3268,7 +3268,7 @@
       <c r="P65" s="2"/>
       <c r="Q65" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="66">
+    <row customHeight="true" ht="25" r="66">
       <c r="A66" s="1">
         <v>30011</v>
       </c>
@@ -3303,7 +3303,7 @@
       <c r="P66" s="2"/>
       <c r="Q66" s="2"/>
     </row>
-    <row customHeight="true" ht="23" r="67">
+    <row customHeight="true" ht="25" r="67">
       <c r="A67" s="1">
         <v>30012</v>
       </c>
@@ -3322,7 +3322,7 @@
         <v>5</v>
       </c>
       <c r="H67" s="1">
-        <v>299</v>
+        <v>30</v>
       </c>
       <c r="I67" s="2">
         <v>148829</v>
@@ -3338,38 +3338,38 @@
       <c r="P67" s="2"/>
       <c r="Q67" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="68">
-      <c r="A68" s="4">
+    <row customHeight="true" ht="23" r="68">
+      <c r="A68" s="10">
         <v>40000</v>
       </c>
-      <c r="B68" s="5" t="str">
+      <c r="B68" s="11" t="str">
         <v>套装数量</v>
       </c>
-      <c r="C68" s="4" t="str">
+      <c r="C68" s="10" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D68" s="4">
+      <c r="D68" s="10">
         <v>29</v>
       </c>
-      <c r="E68" s="4"/>
-      <c r="F68" s="5"/>
-      <c r="G68" s="4">
-        <v>0</v>
-      </c>
-      <c r="H68" s="4">
-        <v>-1</v>
+      <c r="E68" s="10"/>
+      <c r="F68" s="11"/>
+      <c r="G68" s="10">
+        <v>0</v>
+      </c>
+      <c r="H68" s="10">
+        <v>5</v>
       </c>
       <c r="I68" s="18"/>
-      <c r="J68" s="19"/>
-      <c r="K68" s="19"/>
-      <c r="L68" s="19"/>
-      <c r="M68" s="5"/>
-      <c r="N68" s="5"/>
-      <c r="O68" s="4"/>
-      <c r="P68" s="4"/>
-      <c r="Q68" s="19"/>
-    </row>
-    <row customHeight="true" ht="21" r="69">
+      <c r="J68" s="17"/>
+      <c r="K68" s="17"/>
+      <c r="L68" s="17"/>
+      <c r="M68" s="11"/>
+      <c r="N68" s="11"/>
+      <c r="O68" s="10"/>
+      <c r="P68" s="10"/>
+      <c r="Q68" s="17"/>
+    </row>
+    <row customHeight="true" ht="23" r="69">
       <c r="A69" s="1">
         <v>40001</v>
       </c>
@@ -3383,18 +3383,20 @@
       <c r="E69" s="1"/>
       <c r="F69" s="2"/>
       <c r="G69" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H69" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I69" s="1">
         <v>86337</v>
       </c>
-      <c r="J69" s="3"/>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="3"/>
+      <c r="J69" s="7">
+        <v>4</v>
+      </c>
+      <c r="K69" s="7"/>
+      <c r="L69" s="7"/>
+      <c r="M69" s="7"/>
       <c r="N69" s="2"/>
       <c r="O69" s="1"/>
       <c r="P69" s="2"/>
@@ -3402,7 +3404,7 @@
         <v>10001</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="70">
+    <row customHeight="true" ht="23" r="70">
       <c r="A70" s="1">
         <v>40002</v>
       </c>
@@ -3416,18 +3418,20 @@
       <c r="E70" s="1"/>
       <c r="F70" s="2"/>
       <c r="G70" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H70" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I70" s="1">
         <v>86335</v>
       </c>
-      <c r="J70" s="3"/>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="3"/>
+      <c r="J70" s="7">
+        <v>4</v>
+      </c>
+      <c r="K70" s="7"/>
+      <c r="L70" s="7"/>
+      <c r="M70" s="7"/>
       <c r="N70" s="2"/>
       <c r="O70" s="1"/>
       <c r="P70" s="2"/>
@@ -3435,7 +3439,7 @@
         <v>10002</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="71">
+    <row customHeight="true" ht="23" r="71">
       <c r="A71" s="1">
         <v>40003</v>
       </c>
@@ -3449,18 +3453,20 @@
       <c r="E71" s="1"/>
       <c r="F71" s="2"/>
       <c r="G71" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H71" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I71" s="1">
         <v>86333</v>
       </c>
-      <c r="J71" s="3"/>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
+      <c r="J71" s="7">
+        <v>4</v>
+      </c>
+      <c r="K71" s="7"/>
+      <c r="L71" s="7"/>
+      <c r="M71" s="7"/>
       <c r="N71" s="2"/>
       <c r="O71" s="1"/>
       <c r="P71" s="2"/>
@@ -3468,7 +3474,7 @@
         <v>20001</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="72">
+    <row customHeight="true" ht="23" r="72">
       <c r="A72" s="1">
         <v>40004</v>
       </c>
@@ -3482,18 +3488,20 @@
       <c r="E72" s="1"/>
       <c r="F72" s="2"/>
       <c r="G72" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H72" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I72" s="1">
         <v>86334</v>
       </c>
-      <c r="J72" s="3"/>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
+      <c r="J72" s="7">
+        <v>4</v>
+      </c>
+      <c r="K72" s="7"/>
+      <c r="L72" s="7"/>
+      <c r="M72" s="7"/>
       <c r="N72" s="2"/>
       <c r="O72" s="1"/>
       <c r="P72" s="2"/>
@@ -3501,7 +3509,7 @@
         <v>20002</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="73">
+    <row customHeight="true" ht="23" r="73">
       <c r="A73" s="1">
         <v>40005</v>
       </c>
@@ -3515,18 +3523,20 @@
       <c r="E73" s="1"/>
       <c r="F73" s="2"/>
       <c r="G73" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H73" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I73" s="1">
         <v>94181</v>
       </c>
-      <c r="J73" s="3"/>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
+      <c r="J73" s="7">
+        <v>4</v>
+      </c>
+      <c r="K73" s="7"/>
+      <c r="L73" s="7"/>
+      <c r="M73" s="7"/>
       <c r="N73" s="2"/>
       <c r="O73" s="1"/>
       <c r="P73" s="2"/>
@@ -3534,7 +3544,7 @@
         <v>30001</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="74">
+    <row customHeight="true" ht="23" r="74">
       <c r="A74" s="1">
         <v>40006</v>
       </c>
@@ -3548,18 +3558,20 @@
       <c r="E74" s="1"/>
       <c r="F74" s="2"/>
       <c r="G74" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H74" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I74" s="1">
         <v>94180</v>
       </c>
-      <c r="J74" s="3"/>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
+      <c r="J74" s="7">
+        <v>4</v>
+      </c>
+      <c r="K74" s="7"/>
+      <c r="L74" s="7"/>
+      <c r="M74" s="7"/>
       <c r="N74" s="2"/>
       <c r="O74" s="1"/>
       <c r="P74" s="2"/>
@@ -3567,7 +3579,7 @@
         <v>30002</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="75">
+    <row customHeight="true" ht="23" r="75">
       <c r="A75" s="1">
         <v>40007</v>
       </c>
@@ -3581,18 +3593,20 @@
       <c r="E75" s="1"/>
       <c r="F75" s="2"/>
       <c r="G75" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H75" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I75" s="1">
         <v>94184</v>
       </c>
-      <c r="J75" s="3"/>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
+      <c r="J75" s="7">
+        <v>4</v>
+      </c>
+      <c r="K75" s="7"/>
+      <c r="L75" s="7"/>
+      <c r="M75" s="7"/>
       <c r="N75" s="2"/>
       <c r="O75" s="1"/>
       <c r="P75" s="2"/>
@@ -3600,7 +3614,7 @@
         <v>30003</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="76">
+    <row customHeight="true" ht="23" r="76">
       <c r="A76" s="1">
         <v>40008</v>
       </c>
@@ -3614,18 +3628,20 @@
       <c r="E76" s="1"/>
       <c r="F76" s="2"/>
       <c r="G76" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H76" s="1">
-        <v>300</v>
+        <v>1</v>
       </c>
       <c r="I76" s="1">
         <v>94182</v>
       </c>
-      <c r="J76" s="3"/>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
+      <c r="J76" s="7">
+        <v>4</v>
+      </c>
+      <c r="K76" s="7"/>
+      <c r="L76" s="7"/>
+      <c r="M76" s="7"/>
       <c r="N76" s="2"/>
       <c r="O76" s="1"/>
       <c r="P76" s="2"/>
@@ -3633,7 +3649,7 @@
         <v>30004</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="77">
+    <row customHeight="true" ht="23" r="77">
       <c r="A77" s="1">
         <v>40009</v>
       </c>
@@ -3647,18 +3663,20 @@
       <c r="E77" s="1"/>
       <c r="F77" s="2"/>
       <c r="G77" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H77" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I77" s="1">
         <v>110493</v>
       </c>
-      <c r="J77" s="3"/>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
+      <c r="J77" s="7">
+        <v>4</v>
+      </c>
+      <c r="K77" s="7"/>
+      <c r="L77" s="7"/>
+      <c r="M77" s="7"/>
       <c r="N77" s="2"/>
       <c r="O77" s="1"/>
       <c r="P77" s="2"/>
@@ -3666,7 +3684,7 @@
         <v>30009</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="78">
+    <row customHeight="true" ht="23" r="78">
       <c r="A78" s="1">
         <v>40010</v>
       </c>
@@ -3680,18 +3698,20 @@
       <c r="E78" s="1"/>
       <c r="F78" s="2"/>
       <c r="G78" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H78" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I78" s="1">
         <v>110508</v>
       </c>
-      <c r="J78" s="3"/>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
+      <c r="J78" s="7">
+        <v>4</v>
+      </c>
+      <c r="K78" s="7"/>
+      <c r="L78" s="7"/>
+      <c r="M78" s="7"/>
       <c r="N78" s="2"/>
       <c r="O78" s="1"/>
       <c r="P78" s="2"/>
@@ -3699,7 +3719,7 @@
         <v>30010</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="79">
+    <row customHeight="true" ht="23" r="79">
       <c r="A79" s="1">
         <v>40011</v>
       </c>
@@ -3713,18 +3733,20 @@
       <c r="E79" s="1"/>
       <c r="F79" s="2"/>
       <c r="G79" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H79" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I79" s="1">
         <v>110522</v>
       </c>
-      <c r="J79" s="3"/>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
+      <c r="J79" s="7">
+        <v>4</v>
+      </c>
+      <c r="K79" s="7"/>
+      <c r="L79" s="7"/>
+      <c r="M79" s="7"/>
       <c r="N79" s="2"/>
       <c r="O79" s="1"/>
       <c r="P79" s="2"/>
@@ -3732,7 +3754,7 @@
         <v>30011</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="80">
+    <row customHeight="true" ht="23" r="80">
       <c r="A80" s="1">
         <v>40012</v>
       </c>
@@ -3746,18 +3768,20 @@
       <c r="E80" s="1"/>
       <c r="F80" s="2"/>
       <c r="G80" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H80" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I80" s="1">
         <v>110490</v>
       </c>
-      <c r="J80" s="3"/>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
+      <c r="J80" s="7">
+        <v>4</v>
+      </c>
+      <c r="K80" s="7"/>
+      <c r="L80" s="7"/>
+      <c r="M80" s="7"/>
       <c r="N80" s="2"/>
       <c r="O80" s="1"/>
       <c r="P80" s="2"/>
@@ -3765,7 +3789,7 @@
         <v>30012</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="81">
+    <row customHeight="true" ht="23" r="81">
       <c r="A81" s="1">
         <v>40013</v>
       </c>
@@ -3779,18 +3803,20 @@
       <c r="E81" s="1"/>
       <c r="F81" s="2"/>
       <c r="G81" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H81" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I81" s="1">
         <v>110500</v>
       </c>
-      <c r="J81" s="3"/>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
+      <c r="J81" s="7">
+        <v>4</v>
+      </c>
+      <c r="K81" s="7"/>
+      <c r="L81" s="7"/>
+      <c r="M81" s="7"/>
       <c r="N81" s="2"/>
       <c r="O81" s="1"/>
       <c r="P81" s="2"/>
@@ -3798,7 +3824,7 @@
         <v>30013</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="82">
+    <row customHeight="true" ht="23" r="82">
       <c r="A82" s="1">
         <v>40014</v>
       </c>
@@ -3812,18 +3838,20 @@
       <c r="E82" s="1"/>
       <c r="F82" s="2"/>
       <c r="G82" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H82" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I82" s="1">
         <v>110498</v>
       </c>
-      <c r="J82" s="3"/>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
+      <c r="J82" s="7">
+        <v>4</v>
+      </c>
+      <c r="K82" s="7"/>
+      <c r="L82" s="7"/>
+      <c r="M82" s="7"/>
       <c r="N82" s="2"/>
       <c r="O82" s="1"/>
       <c r="P82" s="2"/>
@@ -3831,7 +3859,7 @@
         <v>30014</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="83">
+    <row customHeight="true" ht="23" r="83">
       <c r="A83" s="1">
         <v>40015</v>
       </c>
@@ -3845,18 +3873,20 @@
       <c r="E83" s="1"/>
       <c r="F83" s="2"/>
       <c r="G83" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H83" s="1">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="I83" s="2">
         <v>141795</v>
       </c>
-      <c r="J83" s="3"/>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
+      <c r="J83" s="7">
+        <v>4</v>
+      </c>
+      <c r="K83" s="7"/>
+      <c r="L83" s="7"/>
+      <c r="M83" s="7"/>
       <c r="N83" s="2"/>
       <c r="O83" s="1"/>
       <c r="P83" s="2"/>
@@ -3864,7 +3894,7 @@
         <v>30015</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="84">
+    <row customHeight="true" ht="23" r="84">
       <c r="A84" s="1">
         <v>40016</v>
       </c>
@@ -3878,18 +3908,20 @@
       <c r="E84" s="1"/>
       <c r="F84" s="2"/>
       <c r="G84" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H84" s="1">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="I84" s="2">
         <v>141819</v>
       </c>
-      <c r="J84" s="3"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
+      <c r="J84" s="7">
+        <v>3</v>
+      </c>
+      <c r="K84" s="7"/>
+      <c r="L84" s="7"/>
+      <c r="M84" s="7"/>
       <c r="N84" s="2"/>
       <c r="O84" s="1"/>
       <c r="P84" s="2"/>
@@ -3897,7 +3929,7 @@
         <v>30016</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="85">
+    <row customHeight="true" ht="23" r="85">
       <c r="A85" s="1">
         <v>40017</v>
       </c>
@@ -3911,18 +3943,20 @@
       <c r="E85" s="1"/>
       <c r="F85" s="2"/>
       <c r="G85" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H85" s="1">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="I85" s="2">
         <v>141810</v>
       </c>
-      <c r="J85" s="3"/>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
+      <c r="J85" s="7">
+        <v>3</v>
+      </c>
+      <c r="K85" s="7"/>
+      <c r="L85" s="7"/>
+      <c r="M85" s="7"/>
       <c r="N85" s="2"/>
       <c r="O85" s="1"/>
       <c r="P85" s="2"/>
@@ -3930,7 +3964,7 @@
         <v>30017</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="86">
+    <row customHeight="true" ht="23" r="86">
       <c r="A86" s="1">
         <v>40018</v>
       </c>
@@ -3944,18 +3978,20 @@
       <c r="E86" s="1"/>
       <c r="F86" s="2"/>
       <c r="G86" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H86" s="1">
-        <v>2000</v>
+        <v>2</v>
       </c>
       <c r="I86" s="2">
         <v>141798</v>
       </c>
-      <c r="J86" s="3"/>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
+      <c r="J86" s="7">
+        <v>3</v>
+      </c>
+      <c r="K86" s="7"/>
+      <c r="L86" s="7"/>
+      <c r="M86" s="7"/>
       <c r="N86" s="2"/>
       <c r="O86" s="1"/>
       <c r="P86" s="2"/>
@@ -3963,7 +3999,7 @@
         <v>30018</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="87">
+    <row customHeight="true" ht="23" r="87">
       <c r="A87" s="1">
         <v>40019</v>
       </c>
@@ -3977,18 +4013,20 @@
       <c r="E87" s="1"/>
       <c r="F87" s="2"/>
       <c r="G87" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H87" s="1">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="I87" s="2">
         <v>141787</v>
       </c>
-      <c r="J87" s="3"/>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
+      <c r="J87" s="7">
+        <v>2</v>
+      </c>
+      <c r="K87" s="7"/>
+      <c r="L87" s="7"/>
+      <c r="M87" s="7"/>
       <c r="N87" s="2"/>
       <c r="O87" s="1"/>
       <c r="P87" s="2"/>
@@ -3996,7 +4034,7 @@
         <v>30019</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="88">
+    <row customHeight="true" ht="23" r="88">
       <c r="A88" s="1">
         <v>40020</v>
       </c>
@@ -4010,18 +4048,20 @@
       <c r="E88" s="1"/>
       <c r="F88" s="2"/>
       <c r="G88" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H88" s="1">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="I88" s="2">
         <v>141814</v>
       </c>
-      <c r="J88" s="3"/>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
+      <c r="J88" s="7">
+        <v>2</v>
+      </c>
+      <c r="K88" s="7"/>
+      <c r="L88" s="7"/>
+      <c r="M88" s="7"/>
       <c r="N88" s="2"/>
       <c r="O88" s="1"/>
       <c r="P88" s="2"/>
@@ -4029,7 +4069,7 @@
         <v>30020</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="89">
+    <row customHeight="true" ht="23" r="89">
       <c r="A89" s="1">
         <v>40021</v>
       </c>
@@ -4043,18 +4083,20 @@
       <c r="E89" s="1"/>
       <c r="F89" s="2"/>
       <c r="G89" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H89" s="1">
-        <v>3000</v>
+        <v>3</v>
       </c>
       <c r="I89" s="2">
         <v>141803</v>
       </c>
-      <c r="J89" s="3"/>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
+      <c r="J89" s="7">
+        <v>2</v>
+      </c>
+      <c r="K89" s="7"/>
+      <c r="L89" s="7"/>
+      <c r="M89" s="7"/>
       <c r="N89" s="2"/>
       <c r="O89" s="1"/>
       <c r="P89" s="2"/>
@@ -4062,7 +4104,7 @@
         <v>30021</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="90">
+    <row customHeight="true" ht="23" r="90">
       <c r="A90" s="1">
         <v>40022</v>
       </c>
@@ -4076,18 +4118,20 @@
       <c r="E90" s="1"/>
       <c r="F90" s="2"/>
       <c r="G90" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H90" s="1">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="I90" s="2">
         <v>141801</v>
       </c>
-      <c r="J90" s="3"/>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
+      <c r="J90" s="7">
+        <v>1</v>
+      </c>
+      <c r="K90" s="7"/>
+      <c r="L90" s="7"/>
+      <c r="M90" s="7"/>
       <c r="N90" s="2"/>
       <c r="O90" s="1"/>
       <c r="P90" s="2"/>
@@ -4095,7 +4139,7 @@
         <v>30022</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="91">
+    <row customHeight="true" ht="23" r="91">
       <c r="A91" s="1">
         <v>40023</v>
       </c>
@@ -4109,18 +4153,20 @@
       <c r="E91" s="1"/>
       <c r="F91" s="2"/>
       <c r="G91" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H91" s="1">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="I91" s="2">
         <v>141815</v>
       </c>
-      <c r="J91" s="3"/>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
+      <c r="J91" s="7">
+        <v>1</v>
+      </c>
+      <c r="K91" s="7"/>
+      <c r="L91" s="7"/>
+      <c r="M91" s="7"/>
       <c r="N91" s="2"/>
       <c r="O91" s="1"/>
       <c r="P91" s="2"/>
@@ -4128,7 +4174,7 @@
         <v>30023</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="92">
+    <row customHeight="true" ht="23" r="92">
       <c r="A92" s="1">
         <v>40024</v>
       </c>
@@ -4142,18 +4188,20 @@
       <c r="E92" s="1"/>
       <c r="F92" s="2"/>
       <c r="G92" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H92" s="1">
-        <v>4000</v>
+        <v>4</v>
       </c>
       <c r="I92" s="2">
         <v>141808</v>
       </c>
-      <c r="J92" s="3"/>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
+      <c r="J92" s="7">
+        <v>1</v>
+      </c>
+      <c r="K92" s="7"/>
+      <c r="L92" s="7"/>
+      <c r="M92" s="7"/>
       <c r="N92" s="2"/>
       <c r="O92" s="1"/>
       <c r="P92" s="2"/>
@@ -4161,7 +4209,7 @@
         <v>30024</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="93">
+    <row customHeight="true" ht="23" r="93">
       <c r="A93" s="1">
         <v>40025</v>
       </c>
@@ -4175,18 +4223,20 @@
       <c r="E93" s="1"/>
       <c r="F93" s="2"/>
       <c r="G93" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H93" s="1">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="I93" s="2">
         <v>141792</v>
       </c>
-      <c r="J93" s="3"/>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
+      <c r="J93" s="7">
+        <v>0</v>
+      </c>
+      <c r="K93" s="7"/>
+      <c r="L93" s="7"/>
+      <c r="M93" s="7"/>
       <c r="N93" s="2"/>
       <c r="O93" s="1"/>
       <c r="P93" s="2"/>
@@ -4194,7 +4244,7 @@
         <v>30025</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="94">
+    <row customHeight="true" ht="23" r="94">
       <c r="A94" s="1">
         <v>40026</v>
       </c>
@@ -4208,18 +4258,20 @@
       <c r="E94" s="1"/>
       <c r="F94" s="2"/>
       <c r="G94" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H94" s="1">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="I94" s="2">
         <v>141816</v>
       </c>
-      <c r="J94" s="3"/>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
+      <c r="J94" s="7">
+        <v>0</v>
+      </c>
+      <c r="K94" s="7"/>
+      <c r="L94" s="7"/>
+      <c r="M94" s="7"/>
       <c r="N94" s="2"/>
       <c r="O94" s="1"/>
       <c r="P94" s="2"/>
@@ -4227,7 +4279,7 @@
         <v>30026</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="95">
+    <row customHeight="true" ht="23" r="95">
       <c r="A95" s="1">
         <v>40027</v>
       </c>
@@ -4241,18 +4293,20 @@
       <c r="E95" s="1"/>
       <c r="F95" s="2"/>
       <c r="G95" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H95" s="1">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="I95" s="2">
         <v>141807</v>
       </c>
-      <c r="J95" s="3"/>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
+      <c r="J95" s="7">
+        <v>0</v>
+      </c>
+      <c r="K95" s="7"/>
+      <c r="L95" s="7"/>
+      <c r="M95" s="7"/>
       <c r="N95" s="2"/>
       <c r="O95" s="1"/>
       <c r="P95" s="2"/>
@@ -4260,7 +4314,7 @@
         <v>30027</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="96">
+    <row customHeight="true" ht="23" r="96">
       <c r="A96" s="1">
         <v>40028</v>
       </c>
@@ -4274,18 +4328,20 @@
       <c r="E96" s="1"/>
       <c r="F96" s="2"/>
       <c r="G96" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H96" s="1">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="I96" s="2">
         <v>141799</v>
       </c>
-      <c r="J96" s="3"/>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
+      <c r="J96" s="7">
+        <v>0</v>
+      </c>
+      <c r="K96" s="7"/>
+      <c r="L96" s="7"/>
+      <c r="M96" s="7"/>
       <c r="N96" s="2"/>
       <c r="O96" s="1"/>
       <c r="P96" s="2"/>
@@ -4293,7 +4349,7 @@
         <v>30028</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="97">
+    <row customHeight="true" ht="23" r="97">
       <c r="A97" s="1">
         <v>40029</v>
       </c>
@@ -4307,18 +4363,20 @@
       <c r="E97" s="1"/>
       <c r="F97" s="2"/>
       <c r="G97" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H97" s="1">
-        <v>5000</v>
+        <v>5</v>
       </c>
       <c r="I97" s="2">
         <v>141789</v>
       </c>
-      <c r="J97" s="3"/>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
+      <c r="J97" s="7">
+        <v>0</v>
+      </c>
+      <c r="K97" s="7"/>
+      <c r="L97" s="7"/>
+      <c r="M97" s="7"/>
       <c r="N97" s="2"/>
       <c r="O97" s="1"/>
       <c r="P97" s="2"/>
@@ -4326,43 +4384,43 @@
         <v>30029</v>
       </c>
     </row>
-    <row customHeight="true" ht="21" r="98">
-      <c r="A98" s="4">
+    <row customHeight="true" ht="23" r="98">
+      <c r="A98" s="10">
         <v>50000</v>
       </c>
-      <c r="B98" s="5" t="str">
+      <c r="B98" s="11" t="str">
         <v>挂件数量</v>
       </c>
-      <c r="C98" s="19" t="str">
+      <c r="C98" s="17" t="str">
         <v>Shop_Name_40001</v>
       </c>
-      <c r="D98" s="4">
+      <c r="D98" s="10">
         <v>9</v>
       </c>
-      <c r="E98" s="4"/>
-      <c r="F98" s="5"/>
-      <c r="G98" s="4"/>
-      <c r="H98" s="4">
-        <v>1</v>
-      </c>
-      <c r="I98" s="5"/>
-      <c r="J98" s="5"/>
-      <c r="K98" s="4"/>
-      <c r="L98" s="5"/>
-      <c r="M98" s="5"/>
-      <c r="N98" s="5"/>
-      <c r="O98" s="5"/>
-      <c r="P98" s="5"/>
-      <c r="Q98" s="5"/>
-    </row>
-    <row customHeight="true" ht="21" r="99">
+      <c r="E98" s="10"/>
+      <c r="F98" s="11"/>
+      <c r="G98" s="10"/>
+      <c r="H98" s="10">
+        <v>1</v>
+      </c>
+      <c r="I98" s="11"/>
+      <c r="J98" s="11"/>
+      <c r="K98" s="10"/>
+      <c r="L98" s="11"/>
+      <c r="M98" s="11"/>
+      <c r="N98" s="11"/>
+      <c r="O98" s="11"/>
+      <c r="P98" s="11"/>
+      <c r="Q98" s="11"/>
+    </row>
+    <row customHeight="true" ht="23" r="99">
       <c r="A99" s="1">
         <v>50001</v>
       </c>
       <c r="B99" s="2" t="str">
         <v>彩虹马桶人</v>
       </c>
-      <c r="C99" s="3" t="str">
+      <c r="C99" s="7" t="str">
         <v>Shop_Name_40001</v>
       </c>
       <c r="D99" s="1"/>
@@ -4376,7 +4434,7 @@
       <c r="H99" s="1">
         <v>10</v>
       </c>
-      <c r="I99" s="11">
+      <c r="I99" s="8">
         <v>186661</v>
       </c>
       <c r="J99" s="2">
@@ -4398,14 +4456,14 @@
       </c>
       <c r="Q99" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="100">
+    <row customHeight="true" ht="23" r="100">
       <c r="A100" s="1">
         <v>50002</v>
       </c>
       <c r="B100" s="2" t="str">
         <v>公主马桶人</v>
       </c>
-      <c r="C100" s="3" t="str">
+      <c r="C100" s="7" t="str">
         <v>Shop_Name_40002</v>
       </c>
       <c r="D100" s="1"/>
@@ -4419,7 +4477,7 @@
       <c r="H100" s="1">
         <v>500</v>
       </c>
-      <c r="I100" s="11">
+      <c r="I100" s="8">
         <v>186663</v>
       </c>
       <c r="J100" s="2">
@@ -4441,14 +4499,14 @@
       </c>
       <c r="Q100" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="101">
+    <row customHeight="true" ht="23" r="101">
       <c r="A101" s="1">
         <v>50003</v>
       </c>
       <c r="B101" s="2" t="str">
         <v>太空马桶人</v>
       </c>
-      <c r="C101" s="3" t="str">
+      <c r="C101" s="7" t="str">
         <v>Shop_Name_40003</v>
       </c>
       <c r="D101" s="1"/>
@@ -4462,7 +4520,7 @@
       <c r="H101" s="1">
         <v>1000</v>
       </c>
-      <c r="I101" s="11">
+      <c r="I101" s="8">
         <v>186662</v>
       </c>
       <c r="J101" s="2">
@@ -4484,14 +4542,14 @@
       </c>
       <c r="Q101" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="102">
+    <row customHeight="true" ht="23" r="102">
       <c r="A102" s="1">
         <v>50004</v>
       </c>
       <c r="B102" s="2" t="str">
         <v>蜘蛛马桶人</v>
       </c>
-      <c r="C102" s="3" t="str">
+      <c r="C102" s="7" t="str">
         <v>Shop_Name_40004</v>
       </c>
       <c r="D102" s="1"/>
@@ -4505,7 +4563,7 @@
       <c r="H102" s="1">
         <v>3000</v>
       </c>
-      <c r="I102" s="11">
+      <c r="I102" s="8">
         <v>186664</v>
       </c>
       <c r="J102" s="2">
@@ -4527,14 +4585,14 @@
       </c>
       <c r="Q102" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="103">
+    <row customHeight="true" ht="23" r="103">
       <c r="A103" s="1">
         <v>50005</v>
       </c>
       <c r="B103" s="2" t="str">
         <v>监控人</v>
       </c>
-      <c r="C103" s="3" t="str">
+      <c r="C103" s="7" t="str">
         <v>Shop_Name_40005</v>
       </c>
       <c r="D103" s="1"/>
@@ -4548,7 +4606,7 @@
       <c r="H103" s="1">
         <v>10</v>
       </c>
-      <c r="I103" s="11">
+      <c r="I103" s="8">
         <v>186110</v>
       </c>
       <c r="J103" s="2">
@@ -4570,14 +4628,14 @@
       </c>
       <c r="Q103" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="104">
+    <row customHeight="true" ht="23" r="104">
       <c r="A104" s="1">
         <v>50006</v>
       </c>
       <c r="B104" s="2" t="str">
         <v>音响人</v>
       </c>
-      <c r="C104" s="3" t="str">
+      <c r="C104" s="7" t="str">
         <v>Shop_Name_40006</v>
       </c>
       <c r="D104" s="1"/>
@@ -4591,7 +4649,7 @@
       <c r="H104" s="1">
         <v>500</v>
       </c>
-      <c r="I104" s="11">
+      <c r="I104" s="8">
         <v>186115</v>
       </c>
       <c r="J104" s="2">
@@ -4613,14 +4671,14 @@
       </c>
       <c r="Q104" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="105">
+    <row customHeight="true" ht="23" r="105">
       <c r="A105" s="1">
         <v>50007</v>
       </c>
       <c r="B105" s="2" t="str">
         <v>电视人</v>
       </c>
-      <c r="C105" s="3" t="str">
+      <c r="C105" s="7" t="str">
         <v>Shop_Name_40007</v>
       </c>
       <c r="D105" s="1"/>
@@ -4634,7 +4692,7 @@
       <c r="H105" s="1">
         <v>1000</v>
       </c>
-      <c r="I105" s="11">
+      <c r="I105" s="8">
         <v>186121</v>
       </c>
       <c r="J105" s="2">
@@ -4656,14 +4714,14 @@
       </c>
       <c r="Q105" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="106">
+    <row customHeight="true" ht="23" r="106">
       <c r="A106" s="1">
         <v>50008</v>
       </c>
       <c r="B106" s="2" t="str">
         <v>卡通音响人</v>
       </c>
-      <c r="C106" s="3" t="str">
+      <c r="C106" s="7" t="str">
         <v>Shop_Name_40008</v>
       </c>
       <c r="D106" s="1"/>
@@ -4677,7 +4735,7 @@
       <c r="H106" s="1">
         <v>3000</v>
       </c>
-      <c r="I106" s="11">
+      <c r="I106" s="8">
         <v>186130</v>
       </c>
       <c r="J106" s="2">
@@ -4699,14 +4757,14 @@
       </c>
       <c r="Q106" s="2"/>
     </row>
-    <row customHeight="true" ht="21" r="107">
+    <row customHeight="true" ht="23" r="107">
       <c r="A107" s="1">
         <v>50009</v>
       </c>
       <c r="B107" s="2" t="str">
         <v>卡通电视人</v>
       </c>
-      <c r="C107" s="3" t="str">
+      <c r="C107" s="7" t="str">
         <v>Shop_Name_40009</v>
       </c>
       <c r="D107" s="1"/>
@@ -4720,7 +4778,7 @@
       <c r="H107" s="1">
         <v>5000</v>
       </c>
-      <c r="I107" s="11">
+      <c r="I107" s="8">
         <v>186127</v>
       </c>
       <c r="J107" s="2">
@@ -4744,7 +4802,6 @@
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <picture r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4759,1105 +4816,1104 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="19"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="21"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="10"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="36"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="13"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="16"/>
-    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="16"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="1" min="1" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="2" min="2" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="3" min="3" style="0" width="23"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="4" min="4" style="0" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="5" min="5" style="0" width="38"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="6" min="6" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="7" min="7" style="0" width="14"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="8" min="8" style="0" width="12"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="9" min="9" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="10" min="10" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="11" min="11" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="12" min="12" style="0" width="18"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="13" min="13" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="14" min="14" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="15" min="15" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="16" min="16" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="17" min="17" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="18" min="18" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="19" min="19" style="0" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" max="20" min="20" style="0" width="17"/>
   </cols>
   <sheetData>
-    <row customHeight="true" ht="21" r="1">
-      <c r="A1" s="21">
+    <row customHeight="true" ht="23" r="1">
+      <c r="A1" s="20">
         <v>40000</v>
       </c>
-      <c r="B1" s="22" t="str">
+      <c r="B1" s="21" t="str">
         <v>种类三数量</v>
       </c>
-      <c r="C1" s="21" t="str">
+      <c r="C1" s="20" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="20">
         <v>29</v>
       </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="21">
-        <v>0</v>
-      </c>
-      <c r="H1" s="21"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="20">
+        <v>0</v>
+      </c>
+      <c r="H1" s="20"/>
       <c r="I1" s="23"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="20"/>
-      <c r="O1" s="20"/>
-      <c r="P1" s="20"/>
-      <c r="Q1" s="20"/>
-      <c r="R1" s="20"/>
-      <c r="S1" s="20"/>
-      <c r="T1" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="2">
-      <c r="A2" s="21">
+      <c r="J1" s="21"/>
+      <c r="K1" s="21"/>
+      <c r="L1" s="20"/>
+      <c r="M1" s="20"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="2">
+      <c r="A2" s="20">
         <v>40001</v>
       </c>
-      <c r="B2" s="22" t="str">
+      <c r="B2" s="21" t="str">
         <v>温柔学姐</v>
       </c>
-      <c r="C2" s="21" t="str">
+      <c r="C2" s="20" t="str">
         <v>Item_Name_30001</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="21">
-        <v>0</v>
-      </c>
-      <c r="H2" s="21">
+      <c r="D2" s="20"/>
+      <c r="E2" s="20"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="20">
+        <v>0</v>
+      </c>
+      <c r="H2" s="20">
         <v>300</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="20">
         <v>86337</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="21">
         <v>10001</v>
       </c>
-      <c r="K2" s="22"/>
-      <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="20"/>
-      <c r="O2" s="20"/>
-      <c r="P2" s="20"/>
-      <c r="Q2" s="20"/>
-      <c r="R2" s="20"/>
-      <c r="S2" s="20"/>
-      <c r="T2" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="3">
-      <c r="A3" s="21">
+      <c r="K2" s="21"/>
+      <c r="L2" s="20"/>
+      <c r="M2" s="21"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="3">
+      <c r="A3" s="20">
         <v>40002</v>
       </c>
-      <c r="B3" s="22" t="str">
+      <c r="B3" s="21" t="str">
         <v>风纪委员</v>
       </c>
-      <c r="C3" s="21" t="str">
+      <c r="C3" s="20" t="str">
         <v>Item_Name_30002</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
+      <c r="D3" s="20"/>
+      <c r="E3" s="20"/>
+      <c r="F3" s="21"/>
+      <c r="G3" s="20">
+        <v>0</v>
+      </c>
+      <c r="H3" s="20">
         <v>300</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="20">
         <v>86335</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="21">
         <v>10002</v>
       </c>
-      <c r="K3" s="22"/>
-      <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="20"/>
-      <c r="O3" s="20"/>
-      <c r="P3" s="20"/>
-      <c r="Q3" s="20"/>
-      <c r="R3" s="20"/>
-      <c r="S3" s="20"/>
-      <c r="T3" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="4">
-      <c r="A4" s="21">
+      <c r="K3" s="21"/>
+      <c r="L3" s="20"/>
+      <c r="M3" s="21"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="4">
+      <c r="A4" s="20">
         <v>40003</v>
       </c>
-      <c r="B4" s="22" t="str">
+      <c r="B4" s="21" t="str">
         <v>不良少女</v>
       </c>
-      <c r="C4" s="21" t="str">
+      <c r="C4" s="20" t="str">
         <v>Item_Name_30003</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
+      <c r="D4" s="20"/>
+      <c r="E4" s="20"/>
+      <c r="F4" s="21"/>
+      <c r="G4" s="20">
+        <v>0</v>
+      </c>
+      <c r="H4" s="20">
         <v>300</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="20">
         <v>86333</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="21">
         <v>20001</v>
       </c>
-      <c r="K4" s="22"/>
-      <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="20"/>
-      <c r="O4" s="20"/>
-      <c r="P4" s="20"/>
-      <c r="Q4" s="20"/>
-      <c r="R4" s="20"/>
-      <c r="S4" s="20"/>
-      <c r="T4" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="5">
-      <c r="A5" s="21">
+      <c r="K4" s="21"/>
+      <c r="L4" s="20"/>
+      <c r="M4" s="21"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="5">
+      <c r="A5" s="20">
         <v>40004</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="21" t="str">
         <v>韩式淑女</v>
       </c>
-      <c r="C5" s="21" t="str">
+      <c r="C5" s="20" t="str">
         <v>Item_Name_30004</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="21">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="21"/>
+      <c r="G5" s="20">
+        <v>0</v>
+      </c>
+      <c r="H5" s="20">
         <v>300</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="20">
         <v>86334</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="21">
         <v>20002</v>
       </c>
-      <c r="K5" s="22"/>
-      <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="20"/>
-      <c r="O5" s="20"/>
-      <c r="P5" s="20"/>
-      <c r="Q5" s="20"/>
-      <c r="R5" s="20"/>
-      <c r="S5" s="20"/>
-      <c r="T5" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="6">
-      <c r="A6" s="21">
+      <c r="K5" s="21"/>
+      <c r="L5" s="20"/>
+      <c r="M5" s="21"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="6">
+      <c r="A6" s="20">
         <v>40005</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="21" t="str">
         <v>可爱学妹</v>
       </c>
-      <c r="C6" s="21" t="str">
+      <c r="C6" s="20" t="str">
         <v>Item_Name_30005</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="20">
+        <v>0</v>
+      </c>
+      <c r="H6" s="20">
         <v>300</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="20">
         <v>94181</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="21">
         <v>30001</v>
       </c>
-      <c r="K6" s="22"/>
-      <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="20"/>
-      <c r="O6" s="20"/>
-      <c r="P6" s="20"/>
-      <c r="Q6" s="20"/>
-      <c r="R6" s="20"/>
-      <c r="S6" s="20"/>
-      <c r="T6" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="7">
-      <c r="A7" s="21">
+      <c r="K6" s="21"/>
+      <c r="L6" s="20"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="7">
+      <c r="A7" s="20">
         <v>40006</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="21" t="str">
         <v>奇幻少女</v>
       </c>
-      <c r="C7" s="21" t="str">
+      <c r="C7" s="20" t="str">
         <v>Item_Name_30006</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
+      <c r="D7" s="20"/>
+      <c r="E7" s="20"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="20">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20">
         <v>300</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="20">
         <v>94180</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="21">
         <v>30002</v>
       </c>
-      <c r="K7" s="22"/>
-      <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="20"/>
-      <c r="O7" s="20"/>
-      <c r="P7" s="20"/>
-      <c r="Q7" s="20"/>
-      <c r="R7" s="20"/>
-      <c r="S7" s="20"/>
-      <c r="T7" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="8">
-      <c r="A8" s="21">
+      <c r="K7" s="21"/>
+      <c r="L7" s="20"/>
+      <c r="M7" s="21"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="8">
+      <c r="A8" s="20">
         <v>40007</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="21" t="str">
         <v>温柔学长</v>
       </c>
-      <c r="C8" s="21" t="str">
+      <c r="C8" s="20" t="str">
         <v>Item_Name_30007</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="21">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="D8" s="20"/>
+      <c r="E8" s="20"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="20">
+        <v>0</v>
+      </c>
+      <c r="H8" s="20">
         <v>300</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="20">
         <v>94184</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="21">
         <v>30003</v>
       </c>
-      <c r="K8" s="22"/>
-      <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="20"/>
-      <c r="O8" s="20"/>
-      <c r="P8" s="20"/>
-      <c r="Q8" s="20"/>
-      <c r="R8" s="20"/>
-      <c r="S8" s="20"/>
-      <c r="T8" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="9">
-      <c r="A9" s="21">
+      <c r="K8" s="21"/>
+      <c r="L8" s="20"/>
+      <c r="M8" s="21"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="9">
+      <c r="A9" s="20">
         <v>40008</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="21" t="str">
         <v>不良少年</v>
       </c>
-      <c r="C9" s="21" t="str">
+      <c r="C9" s="20" t="str">
         <v>Item_Name_30008</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="D9" s="20"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="21"/>
+      <c r="G9" s="20">
+        <v>0</v>
+      </c>
+      <c r="H9" s="20">
         <v>300</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="20">
         <v>94182</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="21">
         <v>30004</v>
       </c>
-      <c r="K9" s="22"/>
-      <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="20"/>
-      <c r="O9" s="20"/>
-      <c r="P9" s="20"/>
-      <c r="Q9" s="20"/>
-      <c r="R9" s="20"/>
-      <c r="S9" s="20"/>
-      <c r="T9" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="10">
-      <c r="A10" s="21">
+      <c r="K9" s="21"/>
+      <c r="L9" s="20"/>
+      <c r="M9" s="21"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="10">
+      <c r="A10" s="20">
         <v>40009</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="20" t="str">
         <v>啦啦队长</v>
       </c>
-      <c r="C10" s="21" t="str">
+      <c r="C10" s="20" t="str">
         <v>Item_Name_30009</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
+      <c r="D10" s="20"/>
+      <c r="E10" s="20"/>
+      <c r="F10" s="21"/>
+      <c r="G10" s="20">
+        <v>0</v>
+      </c>
+      <c r="H10" s="20">
         <v>1000</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="20">
         <v>110493</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="21">
         <v>30009</v>
       </c>
-      <c r="K10" s="22"/>
-      <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="20"/>
-      <c r="O10" s="20"/>
-      <c r="P10" s="20"/>
-      <c r="Q10" s="20"/>
-      <c r="R10" s="20"/>
-      <c r="S10" s="20"/>
-      <c r="T10" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="11">
-      <c r="A11" s="21">
+      <c r="K10" s="21"/>
+      <c r="L10" s="20"/>
+      <c r="M10" s="21"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="11">
+      <c r="A11" s="20">
         <v>40010</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="B11" s="20" t="str">
         <v>艺术生</v>
       </c>
-      <c r="C11" s="21" t="str">
+      <c r="C11" s="20" t="str">
         <v>Item_Name_30010</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21">
+      <c r="D11" s="20"/>
+      <c r="E11" s="20"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="20">
+        <v>0</v>
+      </c>
+      <c r="H11" s="20">
         <v>1000</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="20">
         <v>110508</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="21">
         <v>30010</v>
       </c>
-      <c r="K11" s="22"/>
-      <c r="L11" s="21"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="20"/>
-      <c r="O11" s="20"/>
-      <c r="P11" s="20"/>
-      <c r="Q11" s="20"/>
-      <c r="R11" s="20"/>
-      <c r="S11" s="20"/>
-      <c r="T11" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="12">
-      <c r="A12" s="21">
+      <c r="K11" s="21"/>
+      <c r="L11" s="20"/>
+      <c r="M11" s="21"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="12">
+      <c r="A12" s="20">
         <v>40011</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="20" t="str">
         <v>二次元少女</v>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="20" t="str">
         <v>Item_Name_30011</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
+      <c r="D12" s="20"/>
+      <c r="E12" s="20"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
         <v>1000</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="20">
         <v>110522</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="21">
         <v>30011</v>
       </c>
-      <c r="K12" s="22"/>
-      <c r="L12" s="21"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="20"/>
-      <c r="O12" s="20"/>
-      <c r="P12" s="20"/>
-      <c r="Q12" s="20"/>
-      <c r="R12" s="20"/>
-      <c r="S12" s="20"/>
-      <c r="T12" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="13">
-      <c r="A13" s="21">
+      <c r="K12" s="21"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="21"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="13">
+      <c r="A13" s="20">
         <v>40012</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="20" t="str">
         <v>英语老师</v>
       </c>
-      <c r="C13" s="21" t="str">
+      <c r="C13" s="20" t="str">
         <v>Item_Name_30012</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
+      <c r="D13" s="20"/>
+      <c r="E13" s="20"/>
+      <c r="F13" s="21"/>
+      <c r="G13" s="20">
+        <v>0</v>
+      </c>
+      <c r="H13" s="20">
         <v>1000</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="20">
         <v>110490</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="21">
         <v>30012</v>
       </c>
-      <c r="K13" s="22"/>
-      <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="20"/>
-      <c r="O13" s="20"/>
-      <c r="P13" s="20"/>
-      <c r="Q13" s="20"/>
-      <c r="R13" s="20"/>
-      <c r="S13" s="20"/>
-      <c r="T13" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="14">
-      <c r="A14" s="21">
+      <c r="K13" s="21"/>
+      <c r="L13" s="20"/>
+      <c r="M13" s="21"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="14">
+      <c r="A14" s="20">
         <v>40013</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="20" t="str">
         <v>正义少年</v>
       </c>
-      <c r="C14" s="21" t="str">
+      <c r="C14" s="20" t="str">
         <v>Item_Name_30013</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="21"/>
+      <c r="G14" s="20">
+        <v>0</v>
+      </c>
+      <c r="H14" s="20">
         <v>1000</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="20">
         <v>110500</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="21">
         <v>30013</v>
       </c>
-      <c r="K14" s="22"/>
-      <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="20"/>
-      <c r="S14" s="20"/>
-      <c r="T14" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="15">
-      <c r="A15" s="21">
+      <c r="K14" s="21"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="21"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="15">
+      <c r="A15" s="20">
         <v>40014</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="20" t="str">
         <v>潮流少女</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="20" t="str">
         <v>Item_Name_30014</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="21">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21">
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="21"/>
+      <c r="G15" s="20">
+        <v>0</v>
+      </c>
+      <c r="H15" s="20">
         <v>1000</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="20">
         <v>110498</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="21">
         <v>30014</v>
       </c>
-      <c r="K15" s="22"/>
-      <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="20"/>
-      <c r="S15" s="20"/>
-      <c r="T15" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="16">
-      <c r="A16" s="21">
+      <c r="K15" s="21"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="21"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="16">
+      <c r="A16" s="20">
         <v>40015</v>
       </c>
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="21" t="str">
         <v>学生会长</v>
       </c>
-      <c r="C16" s="21" t="str">
+      <c r="C16" s="20" t="str">
         <v>Item_Name_30015</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="21">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21">
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="21"/>
+      <c r="G16" s="20">
+        <v>0</v>
+      </c>
+      <c r="H16" s="20">
         <v>1000</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="21">
         <v>141795</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="21">
         <v>30015</v>
       </c>
-      <c r="K16" s="22"/>
-      <c r="L16" s="21"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="20"/>
-      <c r="O16" s="20"/>
-      <c r="P16" s="20"/>
-      <c r="Q16" s="20"/>
-      <c r="R16" s="20"/>
-      <c r="S16" s="20"/>
-      <c r="T16" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="17">
-      <c r="A17" s="21">
+      <c r="K16" s="21"/>
+      <c r="L16" s="20"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="17">
+      <c r="A17" s="20">
         <v>40016</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="21" t="str">
         <v>女老师</v>
       </c>
-      <c r="C17" s="21" t="str">
+      <c r="C17" s="20" t="str">
         <v>Item_Name_30016</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="21">
-        <v>0</v>
-      </c>
-      <c r="H17" s="21">
+      <c r="D17" s="20"/>
+      <c r="E17" s="20"/>
+      <c r="F17" s="21"/>
+      <c r="G17" s="20">
+        <v>0</v>
+      </c>
+      <c r="H17" s="20">
         <v>2000</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="21">
         <v>141819</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="21">
         <v>30016</v>
       </c>
-      <c r="K17" s="22"/>
-      <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="20"/>
-      <c r="O17" s="20"/>
-      <c r="P17" s="20"/>
-      <c r="Q17" s="20"/>
-      <c r="R17" s="20"/>
-      <c r="S17" s="20"/>
-      <c r="T17" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="18">
-      <c r="A18" s="21">
+      <c r="K17" s="21"/>
+      <c r="L17" s="20"/>
+      <c r="M17" s="21"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="18">
+      <c r="A18" s="20">
         <v>40017</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="21" t="str">
         <v>班主任</v>
       </c>
-      <c r="C18" s="21" t="str">
+      <c r="C18" s="20" t="str">
         <v>Item_Name_30017</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="21">
-        <v>0</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="D18" s="20"/>
+      <c r="E18" s="20"/>
+      <c r="F18" s="21"/>
+      <c r="G18" s="20">
+        <v>0</v>
+      </c>
+      <c r="H18" s="20">
         <v>2000</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="21">
         <v>141810</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="21">
         <v>30017</v>
       </c>
-      <c r="K18" s="22"/>
-      <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="20"/>
-      <c r="O18" s="20"/>
-      <c r="P18" s="20"/>
-      <c r="Q18" s="20"/>
-      <c r="R18" s="20"/>
-      <c r="S18" s="20"/>
-      <c r="T18" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="19">
-      <c r="A19" s="21">
+      <c r="K18" s="21"/>
+      <c r="L18" s="20"/>
+      <c r="M18" s="21"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="19">
+      <c r="A19" s="20">
         <v>40018</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="21" t="str">
         <v>海边姐姐</v>
       </c>
-      <c r="C19" s="21" t="str">
+      <c r="C19" s="20" t="str">
         <v>Item_Name_30018</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="21">
-        <v>0</v>
-      </c>
-      <c r="H19" s="21">
+      <c r="D19" s="20"/>
+      <c r="E19" s="20"/>
+      <c r="F19" s="21"/>
+      <c r="G19" s="20">
+        <v>0</v>
+      </c>
+      <c r="H19" s="20">
         <v>2000</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="21">
         <v>141798</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="21">
         <v>30018</v>
       </c>
-      <c r="K19" s="22"/>
-      <c r="L19" s="21"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="20"/>
-      <c r="O19" s="20"/>
-      <c r="P19" s="20"/>
-      <c r="Q19" s="20"/>
-      <c r="R19" s="20"/>
-      <c r="S19" s="20"/>
-      <c r="T19" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="20">
-      <c r="A20" s="21">
+      <c r="K19" s="21"/>
+      <c r="L19" s="20"/>
+      <c r="M19" s="21"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="20">
+      <c r="A20" s="20">
         <v>40019</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="21" t="str">
         <v>邻家妹妹</v>
       </c>
-      <c r="C20" s="21" t="str">
+      <c r="C20" s="20" t="str">
         <v>Item_Name_30019</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="21">
-        <v>0</v>
-      </c>
-      <c r="H20" s="21">
+      <c r="D20" s="20"/>
+      <c r="E20" s="20"/>
+      <c r="F20" s="21"/>
+      <c r="G20" s="20">
+        <v>0</v>
+      </c>
+      <c r="H20" s="20">
         <v>3000</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="21">
         <v>141787</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="21">
         <v>30019</v>
       </c>
-      <c r="K20" s="22"/>
-      <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="20"/>
-      <c r="O20" s="20"/>
-      <c r="P20" s="20"/>
-      <c r="Q20" s="20"/>
-      <c r="R20" s="20"/>
-      <c r="S20" s="20"/>
-      <c r="T20" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="21">
-      <c r="A21" s="21">
+      <c r="K20" s="21"/>
+      <c r="L20" s="20"/>
+      <c r="M20" s="21"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="21">
+      <c r="A21" s="20">
         <v>40020</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="21" t="str">
         <v>健身教练</v>
       </c>
-      <c r="C21" s="21" t="str">
+      <c r="C21" s="20" t="str">
         <v>Item_Name_30020</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="21">
+      <c r="D21" s="20"/>
+      <c r="E21" s="20"/>
+      <c r="F21" s="21"/>
+      <c r="G21" s="20">
+        <v>0</v>
+      </c>
+      <c r="H21" s="20">
         <v>3000</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="21">
         <v>141814</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="21">
         <v>30020</v>
       </c>
-      <c r="K21" s="22"/>
-      <c r="L21" s="21"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="20"/>
-      <c r="O21" s="20"/>
-      <c r="P21" s="20"/>
-      <c r="Q21" s="20"/>
-      <c r="R21" s="20"/>
-      <c r="S21" s="20"/>
-      <c r="T21" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="22">
-      <c r="A22" s="21">
+      <c r="K21" s="21"/>
+      <c r="L21" s="20"/>
+      <c r="M21" s="21"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="22">
+      <c r="A22" s="20">
         <v>40021</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="21" t="str">
         <v>优雅少女</v>
       </c>
-      <c r="C22" s="21" t="str">
+      <c r="C22" s="20" t="str">
         <v>Item_Name_30021</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
-      <c r="H22" s="21">
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="21"/>
+      <c r="G22" s="20">
+        <v>0</v>
+      </c>
+      <c r="H22" s="20">
         <v>3000</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="21">
         <v>141803</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="21">
         <v>30021</v>
       </c>
-      <c r="K22" s="22"/>
-      <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="23">
-      <c r="A23" s="21">
+      <c r="K22" s="21"/>
+      <c r="L22" s="20"/>
+      <c r="M22" s="21"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="23">
+      <c r="A23" s="20">
         <v>40022</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="21" t="str">
         <v>探险家</v>
       </c>
-      <c r="C23" s="21" t="str">
+      <c r="C23" s="20" t="str">
         <v>Item_Name_30022</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="21">
-        <v>0</v>
-      </c>
-      <c r="H23" s="21">
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20">
         <v>4000</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="21">
         <v>141801</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="21">
         <v>30022</v>
       </c>
-      <c r="K23" s="22"/>
-      <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="24">
-      <c r="A24" s="21">
+      <c r="K23" s="21"/>
+      <c r="L23" s="20"/>
+      <c r="M23" s="21"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="24">
+      <c r="A24" s="20">
         <v>40023</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="21" t="str">
         <v>民国学生</v>
       </c>
-      <c r="C24" s="21" t="str">
+      <c r="C24" s="20" t="str">
         <v>Item_Name_30023</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="21">
-        <v>0</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="D24" s="20"/>
+      <c r="E24" s="20"/>
+      <c r="F24" s="21"/>
+      <c r="G24" s="20">
+        <v>0</v>
+      </c>
+      <c r="H24" s="20">
         <v>4000</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="21">
         <v>141815</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="21">
         <v>30023</v>
       </c>
-      <c r="K24" s="22"/>
-      <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="20"/>
-      <c r="O24" s="20"/>
-      <c r="P24" s="20"/>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="20"/>
-      <c r="S24" s="20"/>
-      <c r="T24" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="25">
-      <c r="A25" s="21">
+      <c r="K24" s="21"/>
+      <c r="L24" s="20"/>
+      <c r="M24" s="21"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="25">
+      <c r="A25" s="20">
         <v>40024</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="21" t="str">
         <v>可可少女</v>
       </c>
-      <c r="C25" s="21" t="str">
+      <c r="C25" s="20" t="str">
         <v>Item_Name_30024</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
+      <c r="D25" s="20"/>
+      <c r="E25" s="20"/>
+      <c r="F25" s="21"/>
+      <c r="G25" s="20">
+        <v>0</v>
+      </c>
+      <c r="H25" s="20">
         <v>4000</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="21">
         <v>141808</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="21">
         <v>30024</v>
       </c>
-      <c r="K25" s="22"/>
-      <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="20"/>
-      <c r="O25" s="20"/>
-      <c r="P25" s="20"/>
-      <c r="Q25" s="20"/>
-      <c r="R25" s="20"/>
-      <c r="S25" s="20"/>
-      <c r="T25" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="26">
-      <c r="A26" s="21">
+      <c r="K25" s="21"/>
+      <c r="L25" s="20"/>
+      <c r="M25" s="21"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="26">
+      <c r="A26" s="20">
         <v>40025</v>
       </c>
-      <c r="B26" s="22" t="str">
+      <c r="B26" s="21" t="str">
         <v>猫猫店员</v>
       </c>
-      <c r="C26" s="21" t="str">
+      <c r="C26" s="20" t="str">
         <v>Item_Name_30025</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="21">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21">
+      <c r="D26" s="20"/>
+      <c r="E26" s="20"/>
+      <c r="F26" s="21"/>
+      <c r="G26" s="20">
+        <v>0</v>
+      </c>
+      <c r="H26" s="20">
         <v>5000</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="21">
         <v>141792</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="21">
         <v>30025</v>
       </c>
-      <c r="K26" s="22"/>
-      <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="20"/>
-      <c r="O26" s="20"/>
-      <c r="P26" s="20"/>
-      <c r="Q26" s="20"/>
-      <c r="R26" s="20"/>
-      <c r="S26" s="20"/>
-      <c r="T26" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="27">
-      <c r="A27" s="21">
+      <c r="K26" s="21"/>
+      <c r="L26" s="20"/>
+      <c r="M26" s="21"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="27">
+      <c r="A27" s="20">
         <v>40026</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="21" t="str">
         <v>女仆甜心</v>
       </c>
-      <c r="C27" s="21" t="str">
+      <c r="C27" s="20" t="str">
         <v>Item_Name_30026</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="21">
-        <v>0</v>
-      </c>
-      <c r="H27" s="21">
+      <c r="D27" s="20"/>
+      <c r="E27" s="20"/>
+      <c r="F27" s="21"/>
+      <c r="G27" s="20">
+        <v>0</v>
+      </c>
+      <c r="H27" s="20">
         <v>5000</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="21">
         <v>141816</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="21">
         <v>30026</v>
       </c>
-      <c r="K27" s="22"/>
-      <c r="L27" s="21"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="20"/>
-      <c r="O27" s="20"/>
-      <c r="P27" s="20"/>
-      <c r="Q27" s="20"/>
-      <c r="R27" s="20"/>
-      <c r="S27" s="20"/>
-      <c r="T27" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="28">
-      <c r="A28" s="21">
+      <c r="K27" s="21"/>
+      <c r="L27" s="20"/>
+      <c r="M27" s="21"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="28">
+      <c r="A28" s="20">
         <v>40027</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="21" t="str">
         <v>猫耳女仆</v>
       </c>
-      <c r="C28" s="21" t="str">
+      <c r="C28" s="20" t="str">
         <v>Item_Name_30027</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="21">
-        <v>0</v>
-      </c>
-      <c r="H28" s="21">
+      <c r="D28" s="20"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="20">
+        <v>0</v>
+      </c>
+      <c r="H28" s="20">
         <v>5000</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="21">
         <v>141807</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="21">
         <v>30027</v>
       </c>
-      <c r="K28" s="22"/>
-      <c r="L28" s="21"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="20"/>
-      <c r="O28" s="20"/>
-      <c r="P28" s="20"/>
-      <c r="Q28" s="20"/>
-      <c r="R28" s="20"/>
-      <c r="S28" s="20"/>
-      <c r="T28" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="29">
-      <c r="A29" s="21">
+      <c r="K28" s="21"/>
+      <c r="L28" s="20"/>
+      <c r="M28" s="21"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="29">
+      <c r="A29" s="20">
         <v>40028</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="21" t="str">
         <v>少女偶像</v>
       </c>
-      <c r="C29" s="21" t="str">
+      <c r="C29" s="20" t="str">
         <v>Item_Name_30028</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
-      <c r="G29" s="21">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21">
+      <c r="D29" s="20"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="20">
+        <v>0</v>
+      </c>
+      <c r="H29" s="20">
         <v>5000</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="21">
         <v>141799</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="21">
         <v>30028</v>
       </c>
-      <c r="K29" s="22"/>
-      <c r="L29" s="21"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="20"/>
-      <c r="O29" s="20"/>
-      <c r="P29" s="20"/>
-      <c r="Q29" s="20"/>
-      <c r="R29" s="20"/>
-      <c r="S29" s="20"/>
-      <c r="T29" s="20"/>
-    </row>
-    <row customHeight="true" ht="21" r="30">
-      <c r="A30" s="21">
+      <c r="K29" s="21"/>
+      <c r="L29" s="20"/>
+      <c r="M29" s="21"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
+    </row>
+    <row customHeight="true" ht="23" r="30">
+      <c r="A30" s="20">
         <v>40029</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="21" t="str">
         <v>圣诞少女</v>
       </c>
-      <c r="C30" s="21" t="str">
+      <c r="C30" s="20" t="str">
         <v>Item_Name_30029</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
-      <c r="G30" s="21">
-        <v>0</v>
-      </c>
-      <c r="H30" s="21">
+      <c r="D30" s="20"/>
+      <c r="E30" s="20"/>
+      <c r="F30" s="21"/>
+      <c r="G30" s="20">
+        <v>0</v>
+      </c>
+      <c r="H30" s="20">
         <v>5000</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="21">
         <v>141789</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="21">
         <v>30029</v>
       </c>
-      <c r="K30" s="22"/>
-      <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="20"/>
-      <c r="O30" s="20"/>
-      <c r="P30" s="20"/>
-      <c r="Q30" s="20"/>
-      <c r="R30" s="20"/>
-      <c r="S30" s="20"/>
-      <c r="T30" s="20"/>
+      <c r="K30" s="21"/>
+      <c r="L30" s="20"/>
+      <c r="M30" s="21"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
     </row>
   </sheetData>
-  <picture r:id="rId1"/>
 </worksheet>
 </file>
--- a/wolf/Excel/Shop_商店物品表.xlsx
+++ b/wolf/Excel/Shop_商店物品表.xlsx
@@ -66,14 +66,21 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FF606266"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -101,14 +108,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF606266"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -143,14 +143,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -245,6 +245,18 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFAF1D1"/>
         <bgColor/>
       </patternFill>
@@ -263,30 +275,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
@@ -299,7 +287,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -516,48 +516,48 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="2" fontId="6" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="6" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="7" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="8" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="9" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="10" fontId="14" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="0" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="0" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="5" fontId="11" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="6" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="7" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="8" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="9" fontId="15" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="10" fontId="16" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="11" fontId="17" numFmtId="0" xfId="0">
@@ -567,19 +567,19 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="13" fontId="19" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="14" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="15" fontId="21" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="16" fontId="22" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="17" fontId="23" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="18" fontId="24" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -947,7 +947,7 @@
       <c r="E1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="F1" s="3" t="str">
+      <c r="F1" s="2" t="str">
         <v>Int</v>
       </c>
       <c r="G1" s="1" t="str">
@@ -959,28 +959,28 @@
       <c r="I1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="J1" s="3" t="str">
+      <c r="J1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="K1" s="3" t="str">
+      <c r="K1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="L1" s="3" t="str">
+      <c r="L1" s="2" t="str">
         <v>String</v>
       </c>
-      <c r="M1" s="3" t="str">
+      <c r="M1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="N1" s="3" t="str">
+      <c r="N1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="O1" s="3" t="str">
+      <c r="O1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="P1" s="3" t="str">
+      <c r="P1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="Q1" s="3" t="str">
+      <c r="Q1" s="2" t="str">
         <v>Int[]</v>
       </c>
     </row>
@@ -1000,7 +1000,7 @@
       <c r="E2" s="1" t="str">
         <v>ModelGuid</v>
       </c>
-      <c r="F2" s="3" t="str">
+      <c r="F2" s="2" t="str">
         <v>WeaponType</v>
       </c>
       <c r="G2" s="1" t="str">
@@ -1012,28 +1012,28 @@
       <c r="I2" s="1" t="str">
         <v>IconGuid</v>
       </c>
-      <c r="J2" s="3" t="str">
+      <c r="J2" s="2" t="str">
         <v>Rarity</v>
       </c>
       <c r="K2" s="1" t="str">
         <v>Reclaim</v>
       </c>
-      <c r="L2" s="3" t="str">
+      <c r="L2" s="2" t="str">
         <v>Comment</v>
       </c>
-      <c r="M2" s="3" t="str">
+      <c r="M2" s="2" t="str">
         <v>RabbetPart</v>
       </c>
-      <c r="N2" s="3" t="str">
+      <c r="N2" s="2" t="str">
         <v>Scale</v>
       </c>
-      <c r="O2" s="3" t="str">
+      <c r="O2" s="2" t="str">
         <v>Rotation</v>
       </c>
-      <c r="P2" s="3" t="str">
+      <c r="P2" s="2" t="str">
         <v>Offset</v>
       </c>
-      <c r="Q2" s="3" t="str">
+      <c r="Q2" s="2" t="str">
         <v>SuitItems</v>
       </c>
     </row>
@@ -1057,12 +1057,12 @@
       <c r="E3" s="1" t="str">
         <v>模型资源Guid【优先读武器表】</v>
       </c>
-      <c r="F3" s="3" t="str">
+      <c r="F3" s="2" t="str">
         <v>武器类型
 1为凶手专用
 2为侦探专用</v>
       </c>
-      <c r="G3" s="3" t="str">
+      <c r="G3" s="2" t="str">
         <v>货币类型
 0金币
 1钻石
@@ -1078,28 +1078,28 @@
       <c r="I3" s="1" t="str">
         <v>物品图标Guid</v>
       </c>
-      <c r="J3" s="3" t="str">
+      <c r="J3" s="2" t="str">
         <v>稀有度（0红，紫1，蓝2，绿3，白4）</v>
       </c>
       <c r="K3" s="1" t="str">
         <v>回收价格</v>
       </c>
-      <c r="L3" s="3" t="str">
+      <c r="L3" s="2" t="str">
         <v>备注</v>
       </c>
-      <c r="M3" s="3" t="str">
+      <c r="M3" s="2" t="str">
         <v>挂点</v>
       </c>
-      <c r="N3" s="3" t="str">
+      <c r="N3" s="2" t="str">
         <v>缩放</v>
       </c>
-      <c r="O3" s="3" t="str">
+      <c r="O3" s="2" t="str">
         <v>旋转</v>
       </c>
-      <c r="P3" s="3" t="str">
+      <c r="P3" s="2" t="str">
         <v>偏移</v>
       </c>
-      <c r="Q3" s="3" t="str">
+      <c r="Q3" s="2" t="str">
         <v>套装内容（角色表序号）</v>
       </c>
     </row>
@@ -1111,90 +1111,90 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="3"/>
+      <c r="F4" s="2"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="3"/>
+      <c r="J4" s="2"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="3"/>
-      <c r="M4" s="3"/>
-      <c r="N4" s="3"/>
-      <c r="O4" s="3"/>
-      <c r="P4" s="3"/>
-      <c r="Q4" s="3"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row customHeight="true" ht="27" r="5">
-      <c r="A5" s="7">
+      <c r="A5" s="9">
         <v>9999</v>
       </c>
-      <c r="B5" s="8" t="str">
+      <c r="B5" s="7" t="str">
         <v>物品种类</v>
       </c>
-      <c r="C5" s="7" t="str">
+      <c r="C5" s="9" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D5" s="7">
+      <c r="D5" s="9">
         <v>5</v>
       </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="8"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="7"/>
-      <c r="I5" s="7"/>
-      <c r="J5" s="8"/>
-      <c r="K5" s="7"/>
-      <c r="L5" s="7"/>
-      <c r="M5" s="8"/>
-      <c r="N5" s="8"/>
-      <c r="O5" s="8"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="7"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="7"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="7"/>
+      <c r="N5" s="7"/>
+      <c r="O5" s="7"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="7"/>
     </row>
     <row customHeight="true" ht="27" r="6">
-      <c r="A6" s="7">
+      <c r="A6" s="9">
         <v>10000</v>
       </c>
-      <c r="B6" s="8" t="str">
+      <c r="B6" s="7" t="str">
         <v>近战数量</v>
       </c>
-      <c r="C6" s="7" t="str">
+      <c r="C6" s="9" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D6" s="7">
-        <v>35</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="8"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7">
+      <c r="D6" s="9">
+        <v>36</v>
+      </c>
+      <c r="E6" s="9"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9">
         <v>3</v>
       </c>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="7"/>
-      <c r="L6" s="7"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="7"/>
+      <c r="N6" s="7"/>
+      <c r="O6" s="7"/>
+      <c r="P6" s="7"/>
+      <c r="Q6" s="7"/>
     </row>
     <row customHeight="true" ht="27" r="7">
       <c r="A7" s="1">
         <v>10001</v>
       </c>
-      <c r="B7" s="5" t="str">
+      <c r="B7" s="15" t="str">
         <v>斧子</v>
       </c>
       <c r="C7" s="1" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="5">
+      <c r="E7" s="15">
         <v>43677</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="1">
@@ -1203,10 +1203,10 @@
       <c r="H7" s="1">
         <v>300</v>
       </c>
-      <c r="I7" s="3">
+      <c r="I7" s="2">
         <v>148622</v>
       </c>
-      <c r="J7" s="3">
+      <c r="J7" s="2">
         <v>4</v>
       </c>
       <c r="K7" s="1"/>
@@ -1221,17 +1221,17 @@
       <c r="A8" s="1">
         <v>10002</v>
       </c>
-      <c r="B8" s="5" t="str">
+      <c r="B8" s="15" t="str">
         <v>尼泊尔军刀</v>
       </c>
       <c r="C8" s="1" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="5">
+      <c r="E8" s="15">
         <v>94178</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -1240,10 +1240,10 @@
       <c r="H8" s="1">
         <v>300</v>
       </c>
-      <c r="I8" s="3">
+      <c r="I8" s="2">
         <v>148649</v>
       </c>
-      <c r="J8" s="3">
+      <c r="J8" s="2">
         <v>4</v>
       </c>
       <c r="K8" s="1"/>
@@ -1258,7 +1258,7 @@
       <c r="A9" s="1">
         <v>10003</v>
       </c>
-      <c r="B9" s="3" t="str">
+      <c r="B9" s="2" t="str">
         <v>匕首1</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -1268,7 +1268,7 @@
       <c r="E9" s="1">
         <v>146262</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
       <c r="G9" s="1">
@@ -1280,7 +1280,7 @@
       <c r="I9" s="1">
         <v>148634</v>
       </c>
-      <c r="J9" s="3">
+      <c r="J9" s="2">
         <v>3</v>
       </c>
       <c r="K9" s="1"/>
@@ -1295,7 +1295,7 @@
       <c r="A10" s="1">
         <v>10004</v>
       </c>
-      <c r="B10" s="3" t="str">
+      <c r="B10" s="2" t="str">
         <v>匕首2</v>
       </c>
       <c r="C10" s="1" t="str">
@@ -1305,7 +1305,7 @@
       <c r="E10" s="1">
         <v>146269</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
       <c r="G10" s="1">
@@ -1317,7 +1317,7 @@
       <c r="I10" s="1">
         <v>150744</v>
       </c>
-      <c r="J10" s="3">
+      <c r="J10" s="2">
         <v>3</v>
       </c>
       <c r="K10" s="1"/>
@@ -1332,7 +1332,7 @@
       <c r="A11" s="1">
         <v>10005</v>
       </c>
-      <c r="B11" s="3" t="str">
+      <c r="B11" s="2" t="str">
         <v>菜刀（带光）</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -1342,7 +1342,7 @@
       <c r="E11" s="1" t="str">
         <v>373B20D3447D1B11F9D78B8C9EF0AAD4</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
       <c r="G11" s="1">
@@ -1354,7 +1354,7 @@
       <c r="I11" s="1">
         <v>148631</v>
       </c>
-      <c r="J11" s="3">
+      <c r="J11" s="2">
         <v>0</v>
       </c>
       <c r="K11" s="1"/>
@@ -1379,7 +1379,7 @@
       <c r="E12" s="1" t="str">
         <v>3B9C5AAC466DB4D92C584FB0D5EBCEA4</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
       <c r="G12" s="1">
@@ -1391,7 +1391,7 @@
       <c r="I12" s="1">
         <v>157173</v>
       </c>
-      <c r="J12" s="3">
+      <c r="J12" s="2">
         <v>4</v>
       </c>
       <c r="K12" s="1">
@@ -1418,7 +1418,7 @@
       <c r="E13" s="1" t="str">
         <v>FAA45FEE4E0880E51DA7C39397D9D738</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
       <c r="G13" s="1">
@@ -1430,7 +1430,7 @@
       <c r="I13" s="1">
         <v>157172</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="2">
         <v>3</v>
       </c>
       <c r="K13" s="1">
@@ -1457,7 +1457,7 @@
       <c r="E14" s="1" t="str">
         <v>62A347CA44F4CB950123F78EA77E083D</v>
       </c>
-      <c r="F14" s="3">
+      <c r="F14" s="2">
         <v>1</v>
       </c>
       <c r="G14" s="1">
@@ -1469,7 +1469,7 @@
       <c r="I14" s="1">
         <v>157179</v>
       </c>
-      <c r="J14" s="3">
+      <c r="J14" s="2">
         <v>2</v>
       </c>
       <c r="K14" s="1">
@@ -1496,7 +1496,7 @@
       <c r="E15" s="1" t="str">
         <v>3BDC79004184A9A4F3D501AD555E110C</v>
       </c>
-      <c r="F15" s="3">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
       <c r="G15" s="1">
@@ -1508,7 +1508,7 @@
       <c r="I15" s="1">
         <v>157167</v>
       </c>
-      <c r="J15" s="3">
+      <c r="J15" s="2">
         <v>2</v>
       </c>
       <c r="K15" s="1">
@@ -1535,7 +1535,7 @@
       <c r="E16" s="1" t="str">
         <v>4BFB03B542702DDC40A2F6964505166B</v>
       </c>
-      <c r="F16" s="3">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
       <c r="G16" s="1">
@@ -1547,7 +1547,7 @@
       <c r="I16" s="1">
         <v>157182</v>
       </c>
-      <c r="J16" s="3">
+      <c r="J16" s="2">
         <v>1</v>
       </c>
       <c r="K16" s="1">
@@ -1574,7 +1574,7 @@
       <c r="E17" s="1" t="str">
         <v>C1C893FD454A0C5C307F0FA250289511</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
       <c r="G17" s="1">
@@ -1586,7 +1586,7 @@
       <c r="I17" s="1">
         <v>157170</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>1</v>
       </c>
       <c r="K17" s="1">
@@ -1613,7 +1613,7 @@
       <c r="E18" s="1" t="str">
         <v>70400ACD4448B1AB37BAB091499D296C</v>
       </c>
-      <c r="F18" s="3">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="1">
@@ -1625,7 +1625,7 @@
       <c r="I18" s="1">
         <v>157180</v>
       </c>
-      <c r="J18" s="3">
+      <c r="J18" s="2">
         <v>1</v>
       </c>
       <c r="K18" s="1">
@@ -1652,7 +1652,7 @@
       <c r="E19" s="1" t="str">
         <v>3B9C5AAC466DB4D92C584FB0D5EBCEA4</v>
       </c>
-      <c r="F19" s="3">
+      <c r="F19" s="2">
         <v>1</v>
       </c>
       <c r="G19" s="1">
@@ -1664,7 +1664,7 @@
       <c r="I19" s="1">
         <v>157176</v>
       </c>
-      <c r="J19" s="3">
+      <c r="J19" s="2">
         <v>0</v>
       </c>
       <c r="K19" s="1">
@@ -1691,7 +1691,7 @@
       <c r="E20" s="1">
         <v>140609</v>
       </c>
-      <c r="F20" s="3">
+      <c r="F20" s="2">
         <v>1</v>
       </c>
       <c r="G20" s="1">
@@ -1703,7 +1703,7 @@
       <c r="I20" s="1">
         <v>157174</v>
       </c>
-      <c r="J20" s="3">
+      <c r="J20" s="2">
         <v>4</v>
       </c>
       <c r="K20" s="1">
@@ -1730,7 +1730,7 @@
       <c r="E21" s="1">
         <v>136408</v>
       </c>
-      <c r="F21" s="3">
+      <c r="F21" s="2">
         <v>1</v>
       </c>
       <c r="G21" s="1">
@@ -1742,7 +1742,7 @@
       <c r="I21" s="1">
         <v>157168</v>
       </c>
-      <c r="J21" s="3">
+      <c r="J21" s="2">
         <v>3</v>
       </c>
       <c r="K21" s="1">
@@ -1769,7 +1769,7 @@
       <c r="E22" s="1">
         <v>123357</v>
       </c>
-      <c r="F22" s="3">
+      <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -1781,7 +1781,7 @@
       <c r="I22" s="1">
         <v>157169</v>
       </c>
-      <c r="J22" s="3">
+      <c r="J22" s="2">
         <v>2</v>
       </c>
       <c r="K22" s="1">
@@ -1808,7 +1808,7 @@
       <c r="E23" s="1">
         <v>138213</v>
       </c>
-      <c r="F23" s="3">
+      <c r="F23" s="2">
         <v>1</v>
       </c>
       <c r="G23" s="1">
@@ -1820,7 +1820,7 @@
       <c r="I23" s="1">
         <v>157181</v>
       </c>
-      <c r="J23" s="3">
+      <c r="J23" s="2">
         <v>2</v>
       </c>
       <c r="K23" s="1">
@@ -1847,7 +1847,7 @@
       <c r="E24" s="1">
         <v>123355</v>
       </c>
-      <c r="F24" s="3">
+      <c r="F24" s="2">
         <v>1</v>
       </c>
       <c r="G24" s="1">
@@ -1859,7 +1859,7 @@
       <c r="I24" s="1">
         <v>157171</v>
       </c>
-      <c r="J24" s="3">
+      <c r="J24" s="2">
         <v>1</v>
       </c>
       <c r="K24" s="1">
@@ -1886,7 +1886,7 @@
       <c r="E25" s="1">
         <v>136410</v>
       </c>
-      <c r="F25" s="3">
+      <c r="F25" s="2">
         <v>1</v>
       </c>
       <c r="G25" s="1">
@@ -1898,7 +1898,7 @@
       <c r="I25" s="1">
         <v>157177</v>
       </c>
-      <c r="J25" s="3">
+      <c r="J25" s="2">
         <v>1</v>
       </c>
       <c r="K25" s="1">
@@ -1925,7 +1925,7 @@
       <c r="E26" s="1" t="str">
         <v>9B714F6B46D81A39F2280EA7EA8E6521</v>
       </c>
-      <c r="F26" s="3">
+      <c r="F26" s="2">
         <v>1</v>
       </c>
       <c r="G26" s="1">
@@ -1937,7 +1937,7 @@
       <c r="I26" s="1">
         <v>157175</v>
       </c>
-      <c r="J26" s="3">
+      <c r="J26" s="2">
         <v>1</v>
       </c>
       <c r="K26" s="1">
@@ -1964,7 +1964,7 @@
       <c r="E27" s="1" t="str">
         <v>8184DD79492D2AFE55FEA4848A040C18</v>
       </c>
-      <c r="F27" s="3">
+      <c r="F27" s="2">
         <v>1</v>
       </c>
       <c r="G27" s="1">
@@ -1976,7 +1976,7 @@
       <c r="I27" s="1">
         <v>157178</v>
       </c>
-      <c r="J27" s="3">
+      <c r="J27" s="2">
         <v>0</v>
       </c>
       <c r="K27" s="1">
@@ -1993,7 +1993,7 @@
       <c r="A28" s="1">
         <v>10022</v>
       </c>
-      <c r="B28" s="19" t="str">
+      <c r="B28" s="20" t="str">
         <v>虚数之杖</v>
       </c>
       <c r="C28" s="1" t="str">
@@ -2001,7 +2001,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="3">
+      <c r="F28" s="2">
         <v>1</v>
       </c>
       <c r="G28" s="1">
@@ -2010,10 +2010,10 @@
       <c r="H28" s="1">
         <v>120</v>
       </c>
-      <c r="I28" s="4">
+      <c r="I28" s="6">
         <v>192891</v>
       </c>
-      <c r="J28" s="3">
+      <c r="J28" s="2">
         <v>0</v>
       </c>
       <c r="K28" s="1">
@@ -2030,7 +2030,7 @@
       <c r="A29" s="1">
         <v>10023</v>
       </c>
-      <c r="B29" s="6" t="str">
+      <c r="B29" s="5" t="str">
         <v>光谱矛</v>
       </c>
       <c r="C29" s="1" t="str">
@@ -2038,7 +2038,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="3">
+      <c r="F29" s="2">
         <v>1</v>
       </c>
       <c r="G29" s="1">
@@ -2047,10 +2047,10 @@
       <c r="H29" s="1">
         <v>2000</v>
       </c>
-      <c r="I29" s="4">
+      <c r="I29" s="6">
         <v>192883</v>
       </c>
-      <c r="J29" s="3">
+      <c r="J29" s="2">
         <v>1</v>
       </c>
       <c r="K29" s="1">
@@ -2067,7 +2067,7 @@
       <c r="A30" s="1">
         <v>10024</v>
       </c>
-      <c r="B30" s="6" t="str">
+      <c r="B30" s="5" t="str">
         <v>光谱剑</v>
       </c>
       <c r="C30" s="1" t="str">
@@ -2075,7 +2075,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="3">
+      <c r="F30" s="2">
         <v>1</v>
       </c>
       <c r="G30" s="1">
@@ -2084,10 +2084,10 @@
       <c r="H30" s="1">
         <v>1000</v>
       </c>
-      <c r="I30" s="4">
+      <c r="I30" s="6">
         <v>192895</v>
       </c>
-      <c r="J30" s="3">
+      <c r="J30" s="2">
         <v>2</v>
       </c>
       <c r="K30" s="1">
@@ -2104,7 +2104,7 @@
       <c r="A31" s="1">
         <v>10025</v>
       </c>
-      <c r="B31" s="6" t="str">
+      <c r="B31" s="5" t="str">
         <v>光谱剑(晶红)</v>
       </c>
       <c r="C31" s="1" t="str">
@@ -2112,7 +2112,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="3">
+      <c r="F31" s="2">
         <v>1</v>
       </c>
       <c r="G31" s="1">
@@ -2121,10 +2121,10 @@
       <c r="H31" s="1">
         <v>1000</v>
       </c>
-      <c r="I31" s="4">
+      <c r="I31" s="6">
         <v>192903</v>
       </c>
-      <c r="J31" s="3">
+      <c r="J31" s="2">
         <v>2</v>
       </c>
       <c r="K31" s="1">
@@ -2141,7 +2141,7 @@
       <c r="A32" s="1">
         <v>10026</v>
       </c>
-      <c r="B32" s="6" t="str">
+      <c r="B32" s="5" t="str">
         <v>匕首(模拟)</v>
       </c>
       <c r="C32" s="1" t="str">
@@ -2149,7 +2149,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="3">
+      <c r="F32" s="2">
         <v>1</v>
       </c>
       <c r="G32" s="1">
@@ -2158,10 +2158,10 @@
       <c r="H32" s="1">
         <v>250</v>
       </c>
-      <c r="I32" s="4">
+      <c r="I32" s="6">
         <v>192894</v>
       </c>
-      <c r="J32" s="3">
+      <c r="J32" s="2">
         <v>4</v>
       </c>
       <c r="K32" s="1">
@@ -2178,7 +2178,7 @@
       <c r="A33" s="1">
         <v>10027</v>
       </c>
-      <c r="B33" s="6" t="str">
+      <c r="B33" s="5" t="str">
         <v>军刀(模拟)</v>
       </c>
       <c r="C33" s="1" t="str">
@@ -2186,7 +2186,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="3">
+      <c r="F33" s="2">
         <v>1</v>
       </c>
       <c r="G33" s="1">
@@ -2195,10 +2195,10 @@
       <c r="H33" s="1">
         <v>500</v>
       </c>
-      <c r="I33" s="4">
+      <c r="I33" s="6">
         <v>192905</v>
       </c>
-      <c r="J33" s="3">
+      <c r="J33" s="2">
         <v>3</v>
       </c>
       <c r="K33" s="1">
@@ -2223,7 +2223,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="3">
+      <c r="F34" s="2">
         <v>1</v>
       </c>
       <c r="G34" s="1">
@@ -2232,10 +2232,10 @@
       <c r="H34" s="1">
         <v>120</v>
       </c>
-      <c r="I34" s="4">
+      <c r="I34" s="6">
         <v>192897</v>
       </c>
-      <c r="J34" s="3">
+      <c r="J34" s="2">
         <v>0</v>
       </c>
       <c r="K34" s="1">
@@ -2260,7 +2260,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="3">
+      <c r="F35" s="2">
         <v>1</v>
       </c>
       <c r="G35" s="1">
@@ -2269,10 +2269,10 @@
       <c r="H35" s="1">
         <v>2000</v>
       </c>
-      <c r="I35" s="4">
+      <c r="I35" s="6">
         <v>192898</v>
       </c>
-      <c r="J35" s="3">
+      <c r="J35" s="2">
         <v>1</v>
       </c>
       <c r="K35" s="1">
@@ -2297,7 +2297,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="3">
+      <c r="F36" s="2">
         <v>1</v>
       </c>
       <c r="G36" s="1">
@@ -2306,10 +2306,10 @@
       <c r="H36" s="1">
         <v>1000</v>
       </c>
-      <c r="I36" s="4">
+      <c r="I36" s="6">
         <v>192896</v>
       </c>
-      <c r="J36" s="3">
+      <c r="J36" s="2">
         <v>2</v>
       </c>
       <c r="K36" s="1">
@@ -2334,7 +2334,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="3">
+      <c r="F37" s="2">
         <v>1</v>
       </c>
       <c r="G37" s="1">
@@ -2343,10 +2343,10 @@
       <c r="H37" s="1">
         <v>500</v>
       </c>
-      <c r="I37" s="4">
+      <c r="I37" s="6">
         <v>192906</v>
       </c>
-      <c r="J37" s="3">
+      <c r="J37" s="2">
         <v>3</v>
       </c>
       <c r="K37" s="1">
@@ -2371,7 +2371,7 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="3">
+      <c r="F38" s="2">
         <v>1</v>
       </c>
       <c r="G38" s="1">
@@ -2380,10 +2380,10 @@
       <c r="H38" s="1">
         <v>250</v>
       </c>
-      <c r="I38" s="4">
+      <c r="I38" s="6">
         <v>192886</v>
       </c>
-      <c r="J38" s="3">
+      <c r="J38" s="2">
         <v>4</v>
       </c>
       <c r="K38" s="1">
@@ -2408,7 +2408,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="3">
+      <c r="F39" s="2">
         <v>1</v>
       </c>
       <c r="G39" s="1">
@@ -2417,10 +2417,10 @@
       <c r="H39" s="1">
         <v>250</v>
       </c>
-      <c r="I39" s="4">
+      <c r="I39" s="6">
         <v>192885</v>
       </c>
-      <c r="J39" s="3">
+      <c r="J39" s="2">
         <v>4</v>
       </c>
       <c r="K39" s="1">
@@ -2437,7 +2437,7 @@
       <c r="A40" s="1">
         <v>10034</v>
       </c>
-      <c r="B40" s="17" t="str">
+      <c r="B40" s="14" t="str">
         <v>樱</v>
       </c>
       <c r="C40" s="1" t="str">
@@ -2445,7 +2445,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="3">
+      <c r="F40" s="2">
         <v>1</v>
       </c>
       <c r="G40" s="1">
@@ -2454,10 +2454,10 @@
       <c r="H40" s="1">
         <v>1000</v>
       </c>
-      <c r="I40" s="4">
+      <c r="I40" s="6">
         <v>192902</v>
       </c>
-      <c r="J40" s="3">
+      <c r="J40" s="2">
         <v>0</v>
       </c>
       <c r="K40" s="1"/>
@@ -2480,7 +2480,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="3">
+      <c r="F41" s="2">
         <v>1</v>
       </c>
       <c r="G41" s="1">
@@ -2489,10 +2489,10 @@
       <c r="H41" s="1">
         <v>1000</v>
       </c>
-      <c r="I41" s="4">
+      <c r="I41" s="6">
         <v>192890</v>
       </c>
-      <c r="J41" s="3">
+      <c r="J41" s="2">
         <v>0</v>
       </c>
       <c r="K41" s="1"/>
@@ -2504,138 +2504,136 @@
       <c r="Q41" s="1"/>
     </row>
     <row customHeight="true" ht="27" r="42">
-      <c r="A42" s="7">
+      <c r="A42" s="1">
+        <v>10036</v>
+      </c>
+      <c r="B42" s="14" t="str">
+        <v>紫光剑</v>
+      </c>
+      <c r="C42" s="1" t="str">
+        <v>Weapon_WeaponName_10037</v>
+      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2">
+        <v>1</v>
+      </c>
+      <c r="G42" s="1">
+        <v>5</v>
+      </c>
+      <c r="H42" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I42" s="6" t="str">
+        <v>mode_304952</v>
+      </c>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
+    </row>
+    <row customHeight="true" ht="27" r="43">
+      <c r="A43" s="9">
         <v>20000</v>
       </c>
-      <c r="B42" s="20" t="str">
+      <c r="B43" s="19" t="str">
         <v>远程数量</v>
       </c>
-      <c r="C42" s="7" t="str">
+      <c r="C43" s="9" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D42" s="7">
-        <v>12</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="8"/>
-      <c r="G42" s="7"/>
-      <c r="H42" s="7">
+      <c r="D43" s="9">
+        <v>13</v>
+      </c>
+      <c r="E43" s="19"/>
+      <c r="F43" s="7"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9">
         <v>4</v>
       </c>
-      <c r="I42" s="7"/>
-      <c r="J42" s="8"/>
-      <c r="K42" s="7"/>
-      <c r="L42" s="7"/>
-      <c r="M42" s="8"/>
-      <c r="N42" s="8"/>
-      <c r="O42" s="8"/>
-      <c r="P42" s="8"/>
-      <c r="Q42" s="8"/>
-    </row>
-    <row customHeight="true" ht="27" r="43">
-      <c r="A43" s="1">
-        <v>20001</v>
-      </c>
-      <c r="B43" s="5" t="str">
-        <v>冲锋枪</v>
-      </c>
-      <c r="C43" s="1" t="str">
-        <v>Weapon_WeaponName_20002</v>
-      </c>
-      <c r="D43" s="1"/>
-      <c r="E43" s="5">
-        <v>99701</v>
-      </c>
-      <c r="F43" s="3">
-        <v>2</v>
-      </c>
-      <c r="G43" s="1">
-        <v>0</v>
-      </c>
-      <c r="H43" s="1">
-        <v>500</v>
-      </c>
-      <c r="I43" s="3">
-        <v>148626</v>
-      </c>
-      <c r="J43" s="3">
-        <v>4</v>
-      </c>
-      <c r="K43" s="1"/>
-      <c r="L43" s="1"/>
-      <c r="M43" s="3"/>
-      <c r="N43" s="3"/>
-      <c r="O43" s="3"/>
-      <c r="P43" s="3"/>
-      <c r="Q43" s="3"/>
+      <c r="I43" s="9"/>
+      <c r="J43" s="7"/>
+      <c r="K43" s="9"/>
+      <c r="L43" s="9"/>
+      <c r="M43" s="7"/>
+      <c r="N43" s="7"/>
+      <c r="O43" s="7"/>
+      <c r="P43" s="7"/>
+      <c r="Q43" s="7"/>
     </row>
     <row customHeight="true" ht="27" r="44">
       <c r="A44" s="1">
-        <v>20002</v>
-      </c>
-      <c r="B44" s="5" t="str">
-        <v>步枪</v>
+        <v>20001</v>
+      </c>
+      <c r="B44" s="15" t="str">
+        <v>冲锋枪</v>
       </c>
       <c r="C44" s="1" t="str">
-        <v>Weapon_WeaponName_20003</v>
+        <v>Weapon_WeaponName_20002</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="5">
-        <v>45000</v>
-      </c>
-      <c r="F44" s="3">
+      <c r="E44" s="15">
+        <v>99701</v>
+      </c>
+      <c r="F44" s="2">
         <v>2</v>
       </c>
       <c r="G44" s="1">
         <v>0</v>
       </c>
       <c r="H44" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I44" s="3">
-        <v>148630</v>
-      </c>
-      <c r="J44" s="3">
+        <v>500</v>
+      </c>
+      <c r="I44" s="2">
+        <v>148626</v>
+      </c>
+      <c r="J44" s="2">
         <v>4</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
     </row>
     <row customHeight="true" ht="27" r="45">
       <c r="A45" s="1">
-        <v>20003</v>
-      </c>
-      <c r="B45" s="14" t="str">
-        <v>奇点之枪</v>
+        <v>20002</v>
+      </c>
+      <c r="B45" s="15" t="str">
+        <v>步枪</v>
       </c>
       <c r="C45" s="1" t="str">
-        <v>Weapon_WeaponName_20004</v>
+        <v>Weapon_WeaponName_20003</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="5"/>
-      <c r="F45" s="3">
+      <c r="E45" s="15">
+        <v>45000</v>
+      </c>
+      <c r="F45" s="2">
         <v>2</v>
       </c>
       <c r="G45" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H45" s="1">
-        <v>120</v>
-      </c>
-      <c r="I45" s="4">
-        <v>192887</v>
-      </c>
-      <c r="J45" s="3">
-        <v>0</v>
-      </c>
-      <c r="K45" s="1">
-        <v>6000</v>
-      </c>
+        <v>1000</v>
+      </c>
+      <c r="I45" s="2">
+        <v>148630</v>
+      </c>
+      <c r="J45" s="2">
+        <v>4</v>
+      </c>
+      <c r="K45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
@@ -2645,33 +2643,33 @@
     </row>
     <row customHeight="true" ht="27" r="46">
       <c r="A46" s="1">
-        <v>20004</v>
-      </c>
-      <c r="B46" s="6" t="str">
-        <v>反物质枪</v>
+        <v>20003</v>
+      </c>
+      <c r="B46" s="17" t="str">
+        <v>奇点之枪</v>
       </c>
       <c r="C46" s="1" t="str">
-        <v>Weapon_WeaponName_20005</v>
+        <v>Weapon_WeaponName_20004</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="3">
+      <c r="E46" s="15"/>
+      <c r="F46" s="2">
         <v>2</v>
       </c>
       <c r="G46" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H46" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I46" s="4">
-        <v>192901</v>
-      </c>
-      <c r="J46" s="3">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I46" s="6">
+        <v>192887</v>
+      </c>
+      <c r="J46" s="2">
+        <v>0</v>
       </c>
       <c r="K46" s="1">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="L46" s="1"/>
       <c r="M46" s="1"/>
@@ -2682,33 +2680,33 @@
     </row>
     <row customHeight="true" ht="27" r="47">
       <c r="A47" s="1">
-        <v>20005</v>
-      </c>
-      <c r="B47" s="6" t="str">
-        <v>左轮(模拟)</v>
+        <v>20004</v>
+      </c>
+      <c r="B47" s="5" t="str">
+        <v>反物质枪</v>
       </c>
       <c r="C47" s="1" t="str">
-        <v>Weapon_WeaponName_20006</v>
+        <v>Weapon_WeaponName_20005</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="5"/>
-      <c r="F47" s="3">
+      <c r="E47" s="15"/>
+      <c r="F47" s="2">
         <v>2</v>
       </c>
       <c r="G47" s="1">
         <v>0</v>
       </c>
       <c r="H47" s="1">
-        <v>250</v>
-      </c>
-      <c r="I47" s="4">
-        <v>192889</v>
-      </c>
-      <c r="J47" s="3">
-        <v>4</v>
+        <v>2000</v>
+      </c>
+      <c r="I47" s="6">
+        <v>192901</v>
+      </c>
+      <c r="J47" s="2">
+        <v>1</v>
       </c>
       <c r="K47" s="1">
-        <v>125</v>
+        <v>1000</v>
       </c>
       <c r="L47" s="1"/>
       <c r="M47" s="1"/>
@@ -2719,33 +2717,33 @@
     </row>
     <row customHeight="true" ht="27" r="48">
       <c r="A48" s="1">
-        <v>20006</v>
-      </c>
-      <c r="B48" s="6" t="str">
-        <v>冲锋枪(模拟)</v>
+        <v>20005</v>
+      </c>
+      <c r="B48" s="5" t="str">
+        <v>左轮(模拟)</v>
       </c>
       <c r="C48" s="1" t="str">
-        <v>Weapon_WeaponName_20007</v>
+        <v>Weapon_WeaponName_20006</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="5"/>
-      <c r="F48" s="3">
+      <c r="E48" s="15"/>
+      <c r="F48" s="2">
         <v>2</v>
       </c>
       <c r="G48" s="1">
         <v>0</v>
       </c>
       <c r="H48" s="1">
-        <v>500</v>
-      </c>
-      <c r="I48" s="4">
-        <v>192888</v>
-      </c>
-      <c r="J48" s="3">
-        <v>3</v>
+        <v>250</v>
+      </c>
+      <c r="I48" s="6">
+        <v>192889</v>
+      </c>
+      <c r="J48" s="2">
+        <v>4</v>
       </c>
       <c r="K48" s="1">
-        <v>250</v>
+        <v>125</v>
       </c>
       <c r="L48" s="1"/>
       <c r="M48" s="1"/>
@@ -2756,33 +2754,33 @@
     </row>
     <row customHeight="true" ht="27" r="49">
       <c r="A49" s="1">
-        <v>20007</v>
-      </c>
-      <c r="B49" s="11" t="str">
-        <v>逐日(符文)</v>
+        <v>20006</v>
+      </c>
+      <c r="B49" s="5" t="str">
+        <v>冲锋枪(模拟)</v>
       </c>
       <c r="C49" s="1" t="str">
-        <v>Weapon_WeaponName_20008</v>
+        <v>Weapon_WeaponName_20007</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="5"/>
-      <c r="F49" s="3">
+      <c r="E49" s="15"/>
+      <c r="F49" s="2">
         <v>2</v>
       </c>
       <c r="G49" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H49" s="1">
-        <v>120</v>
-      </c>
-      <c r="I49" s="4">
-        <v>192904</v>
-      </c>
-      <c r="J49" s="3">
-        <v>0</v>
+        <v>500</v>
+      </c>
+      <c r="I49" s="6">
+        <v>192888</v>
+      </c>
+      <c r="J49" s="2">
+        <v>3</v>
       </c>
       <c r="K49" s="1">
-        <v>6000</v>
+        <v>250</v>
       </c>
       <c r="L49" s="1"/>
       <c r="M49" s="1"/>
@@ -2793,33 +2791,33 @@
     </row>
     <row customHeight="true" ht="27" r="50">
       <c r="A50" s="1">
-        <v>20008</v>
+        <v>20007</v>
       </c>
       <c r="B50" s="11" t="str">
-        <v>火铳</v>
+        <v>逐日(符文)</v>
       </c>
       <c r="C50" s="1" t="str">
-        <v>Weapon_WeaponName_20009</v>
+        <v>Weapon_WeaponName_20008</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="5"/>
-      <c r="F50" s="3">
+      <c r="E50" s="15"/>
+      <c r="F50" s="2">
         <v>2</v>
       </c>
       <c r="G50" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H50" s="1">
-        <v>2000</v>
-      </c>
-      <c r="I50" s="4">
-        <v>192899</v>
-      </c>
-      <c r="J50" s="3">
-        <v>1</v>
+        <v>120</v>
+      </c>
+      <c r="I50" s="6">
+        <v>192904</v>
+      </c>
+      <c r="J50" s="2">
+        <v>0</v>
       </c>
       <c r="K50" s="1">
-        <v>1000</v>
+        <v>6000</v>
       </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
@@ -2830,33 +2828,33 @@
     </row>
     <row customHeight="true" ht="27" r="51">
       <c r="A51" s="1">
-        <v>20009</v>
+        <v>20008</v>
       </c>
       <c r="B51" s="11" t="str">
-        <v>左轮(圣)</v>
+        <v>火铳</v>
       </c>
       <c r="C51" s="1" t="str">
-        <v>Weapon_WeaponName_20010</v>
+        <v>Weapon_WeaponName_20009</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="5"/>
-      <c r="F51" s="3">
+      <c r="E51" s="15"/>
+      <c r="F51" s="2">
         <v>2</v>
       </c>
       <c r="G51" s="1">
         <v>0</v>
       </c>
       <c r="H51" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I51" s="6">
+        <v>192899</v>
+      </c>
+      <c r="J51" s="2">
+        <v>1</v>
+      </c>
+      <c r="K51" s="1">
         <v>1000</v>
-      </c>
-      <c r="I51" s="4">
-        <v>192884</v>
-      </c>
-      <c r="J51" s="3">
-        <v>2</v>
-      </c>
-      <c r="K51" s="1">
-        <v>333</v>
       </c>
       <c r="L51" s="1"/>
       <c r="M51" s="1"/>
@@ -2867,33 +2865,33 @@
     </row>
     <row customHeight="true" ht="27" r="52">
       <c r="A52" s="1">
-        <v>20010</v>
+        <v>20009</v>
       </c>
       <c r="B52" s="11" t="str">
-        <v>左轮(恋)</v>
+        <v>左轮(圣)</v>
       </c>
       <c r="C52" s="1" t="str">
-        <v>Weapon_WeaponName_20011</v>
+        <v>Weapon_WeaponName_20010</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="5"/>
-      <c r="F52" s="3">
+      <c r="E52" s="15"/>
+      <c r="F52" s="2">
         <v>2</v>
       </c>
       <c r="G52" s="1">
         <v>0</v>
       </c>
       <c r="H52" s="1">
-        <v>500</v>
-      </c>
-      <c r="I52" s="4">
-        <v>192892</v>
-      </c>
-      <c r="J52" s="3">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="I52" s="6">
+        <v>192884</v>
+      </c>
+      <c r="J52" s="2">
+        <v>2</v>
       </c>
       <c r="K52" s="1">
-        <v>125</v>
+        <v>333</v>
       </c>
       <c r="L52" s="1"/>
       <c r="M52" s="1"/>
@@ -2904,32 +2902,34 @@
     </row>
     <row customHeight="true" ht="27" r="53">
       <c r="A53" s="1">
-        <v>20011</v>
-      </c>
-      <c r="B53" s="17" t="str">
-        <v>蝶</v>
+        <v>20010</v>
+      </c>
+      <c r="B53" s="11" t="str">
+        <v>左轮(恋)</v>
       </c>
       <c r="C53" s="1" t="str">
-        <v>Weapon_WeaponName_20012</v>
+        <v>Weapon_WeaponName_20011</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="5"/>
-      <c r="F53" s="3">
+      <c r="E53" s="15"/>
+      <c r="F53" s="2">
         <v>2</v>
       </c>
       <c r="G53" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H53" s="1">
-        <v>1500</v>
-      </c>
-      <c r="I53" s="4">
-        <v>192893</v>
-      </c>
-      <c r="J53" s="3">
-        <v>0</v>
-      </c>
-      <c r="K53" s="1"/>
+        <v>500</v>
+      </c>
+      <c r="I53" s="6">
+        <v>192892</v>
+      </c>
+      <c r="J53" s="2">
+        <v>3</v>
+      </c>
+      <c r="K53" s="1">
+        <v>125</v>
+      </c>
       <c r="L53" s="1"/>
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
@@ -2939,17 +2939,17 @@
     </row>
     <row customHeight="true" ht="27" r="54">
       <c r="A54" s="1">
-        <v>20012</v>
-      </c>
-      <c r="B54" s="18" t="str">
-        <v>黄金左轮(虹彩)</v>
+        <v>20011</v>
+      </c>
+      <c r="B54" s="14" t="str">
+        <v>蝶</v>
       </c>
       <c r="C54" s="1" t="str">
-        <v>Weapon_WeaponName_20013</v>
+        <v>Weapon_WeaponName_20012</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="5"/>
-      <c r="F54" s="3">
+      <c r="E54" s="15"/>
+      <c r="F54" s="2">
         <v>2</v>
       </c>
       <c r="G54" s="1">
@@ -2958,10 +2958,10 @@
       <c r="H54" s="1">
         <v>1500</v>
       </c>
-      <c r="I54" s="4">
-        <v>192900</v>
-      </c>
-      <c r="J54" s="3">
+      <c r="I54" s="6">
+        <v>192893</v>
+      </c>
+      <c r="J54" s="2">
         <v>0</v>
       </c>
       <c r="K54" s="1"/>
@@ -2973,889 +2973,889 @@
       <c r="Q54" s="1"/>
     </row>
     <row customHeight="true" ht="27" r="55">
-      <c r="A55" s="7">
-        <v>30000</v>
-      </c>
-      <c r="B55" s="8" t="str">
-        <v>拖尾数量</v>
-      </c>
-      <c r="C55" s="7" t="str">
-        <v>Item_Name_20001</v>
-      </c>
-      <c r="D55" s="7">
-        <v>12</v>
-      </c>
-      <c r="E55" s="7"/>
-      <c r="F55" s="8"/>
-      <c r="G55" s="7"/>
-      <c r="H55" s="7">
+      <c r="A55" s="1">
+        <v>20012</v>
+      </c>
+      <c r="B55" s="18" t="str">
+        <v>黄金左轮(虹彩)</v>
+      </c>
+      <c r="C55" s="1" t="str">
+        <v>Weapon_WeaponName_20013</v>
+      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="15"/>
+      <c r="F55" s="2">
         <v>2</v>
       </c>
-      <c r="I55" s="7"/>
-      <c r="J55" s="8"/>
-      <c r="K55" s="7"/>
-      <c r="L55" s="7"/>
-      <c r="M55" s="8"/>
-      <c r="N55" s="8"/>
-      <c r="O55" s="8"/>
-      <c r="P55" s="8"/>
-      <c r="Q55" s="8"/>
+      <c r="G55" s="1">
+        <v>5</v>
+      </c>
+      <c r="H55" s="1">
+        <v>1500</v>
+      </c>
+      <c r="I55" s="6">
+        <v>192900</v>
+      </c>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
     </row>
     <row customHeight="true" ht="27" r="56">
       <c r="A56" s="1">
+        <v>20013</v>
+      </c>
+      <c r="B56" s="11" t="str">
+        <v>冰寒弓箭</v>
+      </c>
+      <c r="C56" s="1" t="str">
+        <v>Weapon_WeaponName_20014</v>
+      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="15"/>
+      <c r="F56" s="2">
+        <v>2</v>
+      </c>
+      <c r="G56" s="1">
+        <v>5</v>
+      </c>
+      <c r="H56" s="1">
+        <v>2000</v>
+      </c>
+      <c r="I56" s="6" t="str">
+        <v>mode_304643</v>
+      </c>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
+    </row>
+    <row customHeight="true" ht="27" r="57">
+      <c r="A57" s="9">
+        <v>30000</v>
+      </c>
+      <c r="B57" s="7" t="str">
+        <v>拖尾数量</v>
+      </c>
+      <c r="C57" s="9" t="str">
+        <v>Item_Name_20001</v>
+      </c>
+      <c r="D57" s="9">
+        <v>12</v>
+      </c>
+      <c r="E57" s="9"/>
+      <c r="F57" s="7"/>
+      <c r="G57" s="9"/>
+      <c r="H57" s="9">
+        <v>2</v>
+      </c>
+      <c r="I57" s="9"/>
+      <c r="J57" s="7"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="7"/>
+      <c r="N57" s="7"/>
+      <c r="O57" s="7"/>
+      <c r="P57" s="7"/>
+      <c r="Q57" s="7"/>
+    </row>
+    <row customHeight="true" ht="27" r="58">
+      <c r="A58" s="1">
         <v>30001</v>
       </c>
-      <c r="B56" s="3" t="str">
+      <c r="B58" s="2" t="str">
         <v>烟雾
 参考翻译：Somke</v>
       </c>
-      <c r="C56" s="1" t="str">
+      <c r="C58" s="1" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D56" s="1"/>
-      <c r="E56" s="1">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
         <v>4395</v>
       </c>
-      <c r="F56" s="3"/>
-      <c r="G56" s="1">
-        <v>0</v>
-      </c>
-      <c r="H56" s="1">
+      <c r="F58" s="2"/>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="1">
         <v>1500</v>
       </c>
-      <c r="I56" s="1">
+      <c r="I58" s="1">
         <v>108513</v>
       </c>
-      <c r="J56" s="3">
+      <c r="J58" s="2">
         <v>4</v>
       </c>
-      <c r="K56" s="1"/>
-      <c r="L56" s="1"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
-    </row>
-    <row customHeight="true" ht="27" r="57">
-      <c r="A57" s="1">
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
+    </row>
+    <row customHeight="true" ht="27" r="59">
+      <c r="A59" s="1">
         <v>30002</v>
       </c>
-      <c r="B57" s="3" t="str">
+      <c r="B59" s="2" t="str">
         <v>紫电
 参考翻译：Purple Lighting</v>
       </c>
-      <c r="C57" s="1" t="str">
+      <c r="C59" s="1" t="str">
         <v>Item_Name_20002</v>
       </c>
-      <c r="D57" s="1"/>
-      <c r="E57" s="1">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
         <v>4399</v>
       </c>
-      <c r="F57" s="3"/>
-      <c r="G57" s="1">
-        <v>0</v>
-      </c>
-      <c r="H57" s="1">
+      <c r="F59" s="2"/>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="1">
         <v>3000</v>
       </c>
-      <c r="I57" s="1">
+      <c r="I59" s="1">
         <v>108511</v>
       </c>
-      <c r="J57" s="3">
+      <c r="J59" s="2">
         <v>4</v>
       </c>
-      <c r="K57" s="1"/>
-      <c r="L57" s="1"/>
-      <c r="M57" s="3"/>
-      <c r="N57" s="3"/>
-      <c r="O57" s="3"/>
-      <c r="P57" s="3"/>
-      <c r="Q57" s="3"/>
-    </row>
-    <row customHeight="true" ht="27" r="58">
-      <c r="A58" s="12">
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
+    </row>
+    <row customHeight="true" ht="27" r="60">
+      <c r="A60" s="13">
         <v>30003</v>
       </c>
-      <c r="B58" s="13" t="str">
+      <c r="B60" s="12" t="str">
         <v>雷霆
 参考翻译：Lighting</v>
       </c>
-      <c r="C58" s="12" t="str">
+      <c r="C60" s="13" t="str">
         <v>Item_Name_20003</v>
       </c>
-      <c r="D58" s="12"/>
-      <c r="E58" s="12">
+      <c r="D60" s="13"/>
+      <c r="E60" s="13">
         <v>145503</v>
       </c>
-      <c r="F58" s="13"/>
-      <c r="G58" s="12">
-        <v>0</v>
-      </c>
-      <c r="H58" s="12">
+      <c r="F60" s="12"/>
+      <c r="G60" s="13">
+        <v>0</v>
+      </c>
+      <c r="H60" s="13">
         <v>3000</v>
       </c>
-      <c r="I58" s="12">
+      <c r="I60" s="13">
         <v>108510</v>
       </c>
-      <c r="J58" s="13">
+      <c r="J60" s="12">
         <v>4</v>
       </c>
-      <c r="K58" s="12"/>
-      <c r="L58" s="12"/>
-      <c r="M58" s="13"/>
-      <c r="N58" s="13"/>
-      <c r="O58" s="13"/>
-      <c r="P58" s="13"/>
-      <c r="Q58" s="13"/>
-    </row>
-    <row customHeight="true" ht="27" r="59">
-      <c r="A59" s="1">
+      <c r="K60" s="13"/>
+      <c r="L60" s="13"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
+      <c r="P60" s="12"/>
+      <c r="Q60" s="12"/>
+    </row>
+    <row customHeight="true" ht="27" r="61">
+      <c r="A61" s="1">
         <v>30004</v>
       </c>
-      <c r="B59" s="3" t="str">
+      <c r="B61" s="2" t="str">
         <v>清风
 参考翻译：Wind</v>
       </c>
-      <c r="C59" s="1" t="str">
+      <c r="C61" s="1" t="str">
         <v>Item_Name_20004</v>
       </c>
-      <c r="D59" s="1"/>
-      <c r="E59" s="1">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
         <v>88446</v>
       </c>
-      <c r="F59" s="3"/>
-      <c r="G59" s="1">
-        <v>0</v>
-      </c>
-      <c r="H59" s="1">
+      <c r="F61" s="2"/>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="1">
         <v>6000</v>
       </c>
-      <c r="I59" s="1">
+      <c r="I61" s="1">
         <v>108515</v>
       </c>
-      <c r="J59" s="3">
+      <c r="J61" s="2">
         <v>3</v>
       </c>
-      <c r="K59" s="1"/>
-      <c r="L59" s="1"/>
-      <c r="M59" s="3"/>
-      <c r="N59" s="3"/>
-      <c r="O59" s="3"/>
-      <c r="P59" s="3"/>
-      <c r="Q59" s="3"/>
-    </row>
-    <row customHeight="true" ht="27" r="60">
-      <c r="A60" s="1">
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
+    </row>
+    <row customHeight="true" ht="27" r="62">
+      <c r="A62" s="1">
         <v>30005</v>
       </c>
-      <c r="B60" s="3" t="str">
+      <c r="B62" s="2" t="str">
         <v>虹彩
 参考翻译：Rainbow</v>
       </c>
-      <c r="C60" s="1" t="str">
+      <c r="C62" s="1" t="str">
         <v>Item_Name_20005</v>
       </c>
-      <c r="D60" s="1"/>
-      <c r="E60" s="1">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
         <v>27392</v>
       </c>
-      <c r="F60" s="3"/>
-      <c r="G60" s="1">
-        <v>0</v>
-      </c>
-      <c r="H60" s="1">
+      <c r="F62" s="2"/>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="1">
         <v>6000</v>
       </c>
-      <c r="I60" s="1">
+      <c r="I62" s="1">
         <v>108514</v>
       </c>
-      <c r="J60" s="3">
+      <c r="J62" s="2">
         <v>3</v>
       </c>
-      <c r="K60" s="1"/>
-      <c r="L60" s="1"/>
-      <c r="M60" s="3"/>
-      <c r="N60" s="3"/>
-      <c r="O60" s="3"/>
-      <c r="P60" s="3"/>
-      <c r="Q60" s="3"/>
-    </row>
-    <row customHeight="true" ht="27" r="61">
-      <c r="A61" s="1">
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
+    </row>
+    <row customHeight="true" ht="27" r="63">
+      <c r="A63" s="1">
         <v>30006</v>
       </c>
-      <c r="B61" s="3" t="str">
+      <c r="B63" s="2" t="str">
         <v>梦幻
 参考翻译：Illusion</v>
       </c>
-      <c r="C61" s="1" t="str">
+      <c r="C63" s="1" t="str">
         <v>Item_Name_20006</v>
       </c>
-      <c r="D61" s="1"/>
-      <c r="E61" s="1">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
         <v>88021</v>
       </c>
-      <c r="F61" s="3"/>
-      <c r="G61" s="1">
-        <v>0</v>
-      </c>
-      <c r="H61" s="1">
+      <c r="F63" s="2"/>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="1">
         <v>8000</v>
       </c>
-      <c r="I61" s="1">
+      <c r="I63" s="1">
         <v>108512</v>
       </c>
-      <c r="J61" s="3">
+      <c r="J63" s="2">
         <v>2</v>
       </c>
-      <c r="K61" s="1"/>
-      <c r="L61" s="1"/>
-      <c r="M61" s="3"/>
-      <c r="N61" s="3"/>
-      <c r="O61" s="3"/>
-      <c r="P61" s="3"/>
-      <c r="Q61" s="3"/>
-    </row>
-    <row customHeight="true" ht="27" r="62">
-      <c r="A62" s="12">
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
+    </row>
+    <row customHeight="true" ht="27" r="64">
+      <c r="A64" s="13">
         <v>30007</v>
       </c>
-      <c r="B62" s="13" t="str">
+      <c r="B64" s="12" t="str">
         <v>火焰</v>
       </c>
-      <c r="C62" s="12" t="str">
+      <c r="C64" s="13" t="str">
         <v>Item_Name_20007</v>
       </c>
-      <c r="D62" s="12"/>
-      <c r="E62" s="12">
+      <c r="D64" s="13"/>
+      <c r="E64" s="13">
         <v>88021</v>
       </c>
-      <c r="F62" s="13"/>
-      <c r="G62" s="12">
+      <c r="F64" s="12"/>
+      <c r="G64" s="13">
         <v>5</v>
       </c>
-      <c r="H62" s="12">
+      <c r="H64" s="13">
         <v>100</v>
       </c>
-      <c r="I62" s="13">
+      <c r="I64" s="12">
         <v>141806</v>
       </c>
-      <c r="J62" s="13">
+      <c r="J64" s="12">
         <v>2</v>
       </c>
-      <c r="K62" s="12"/>
-      <c r="L62" s="12"/>
-      <c r="M62" s="13"/>
-      <c r="N62" s="13"/>
-      <c r="O62" s="13"/>
-      <c r="P62" s="13"/>
-      <c r="Q62" s="13"/>
-    </row>
-    <row customHeight="true" ht="27" r="63">
-      <c r="A63" s="12">
+      <c r="K64" s="13"/>
+      <c r="L64" s="13"/>
+      <c r="M64" s="12"/>
+      <c r="N64" s="12"/>
+      <c r="O64" s="12"/>
+      <c r="P64" s="12"/>
+      <c r="Q64" s="12"/>
+    </row>
+    <row customHeight="true" ht="27" r="65">
+      <c r="A65" s="13">
         <v>30008</v>
       </c>
-      <c r="B63" s="13" t="str">
+      <c r="B65" s="12" t="str">
         <v>女巫</v>
       </c>
-      <c r="C63" s="12" t="str">
+      <c r="C65" s="13" t="str">
         <v>Item_Name_20008</v>
       </c>
-      <c r="D63" s="12"/>
-      <c r="E63" s="12">
+      <c r="D65" s="13"/>
+      <c r="E65" s="13">
         <v>88441</v>
       </c>
-      <c r="F63" s="13"/>
-      <c r="G63" s="12">
+      <c r="F65" s="12"/>
+      <c r="G65" s="13">
         <v>5</v>
       </c>
-      <c r="H63" s="12">
+      <c r="H65" s="13">
         <v>200</v>
       </c>
-      <c r="I63" s="13">
+      <c r="I65" s="12">
         <v>141805</v>
       </c>
-      <c r="J63" s="13">
+      <c r="J65" s="12">
         <v>1</v>
       </c>
-      <c r="K63" s="12"/>
-      <c r="L63" s="12"/>
-      <c r="M63" s="13"/>
-      <c r="N63" s="13"/>
-      <c r="O63" s="13"/>
-      <c r="P63" s="13"/>
-      <c r="Q63" s="13"/>
-    </row>
-    <row customHeight="true" ht="27" r="64">
-      <c r="A64" s="12">
+      <c r="K65" s="13"/>
+      <c r="L65" s="13"/>
+      <c r="M65" s="12"/>
+      <c r="N65" s="12"/>
+      <c r="O65" s="12"/>
+      <c r="P65" s="12"/>
+      <c r="Q65" s="12"/>
+    </row>
+    <row customHeight="true" ht="27" r="66">
+      <c r="A66" s="13">
         <v>30009</v>
       </c>
-      <c r="B64" s="13" t="str">
+      <c r="B66" s="12" t="str">
         <v>骑士</v>
       </c>
-      <c r="C64" s="12" t="str">
+      <c r="C66" s="13" t="str">
         <v>Item_Name_20009</v>
       </c>
-      <c r="D64" s="12"/>
-      <c r="E64" s="12">
+      <c r="D66" s="13"/>
+      <c r="E66" s="13">
         <v>88443</v>
       </c>
-      <c r="F64" s="13"/>
-      <c r="G64" s="12">
+      <c r="F66" s="12"/>
+      <c r="G66" s="13">
         <v>5</v>
       </c>
-      <c r="H64" s="12">
+      <c r="H66" s="13">
         <v>300</v>
       </c>
-      <c r="I64" s="13">
+      <c r="I66" s="12">
         <v>141802</v>
       </c>
-      <c r="J64" s="13">
+      <c r="J66" s="12">
         <v>1</v>
       </c>
-      <c r="K64" s="12"/>
-      <c r="L64" s="12"/>
-      <c r="M64" s="13"/>
-      <c r="N64" s="13"/>
-      <c r="O64" s="13"/>
-      <c r="P64" s="13"/>
-      <c r="Q64" s="13"/>
-    </row>
-    <row customHeight="true" ht="27" r="65">
-      <c r="A65" s="1">
-        <v>30010</v>
-      </c>
-      <c r="B65" s="3" t="str">
-        <v>恶魔</v>
-      </c>
-      <c r="C65" s="1" t="str">
-        <v>Item_Name_20010</v>
-      </c>
-      <c r="D65" s="1"/>
-      <c r="E65" s="1">
-        <v>88441</v>
-      </c>
-      <c r="F65" s="3"/>
-      <c r="G65" s="1">
-        <v>5</v>
-      </c>
-      <c r="H65" s="1">
-        <v>500</v>
-      </c>
-      <c r="I65" s="3">
-        <v>141804</v>
-      </c>
-      <c r="J65" s="3">
-        <v>0</v>
-      </c>
-      <c r="K65" s="1"/>
-      <c r="L65" s="1"/>
-      <c r="M65" s="3"/>
-      <c r="N65" s="3"/>
-      <c r="O65" s="3"/>
-      <c r="P65" s="3"/>
-      <c r="Q65" s="3"/>
-    </row>
-    <row customHeight="true" ht="27" r="66">
-      <c r="A66" s="1">
-        <v>30011</v>
-      </c>
-      <c r="B66" s="3" t="str">
-        <v>魔鬼</v>
-      </c>
-      <c r="C66" s="1" t="str">
-        <v>Item_Name_20011</v>
-      </c>
-      <c r="D66" s="1"/>
-      <c r="E66" s="1">
-        <v>88442</v>
-      </c>
-      <c r="F66" s="3"/>
-      <c r="G66" s="1">
-        <v>5</v>
-      </c>
-      <c r="H66" s="1">
-        <v>800</v>
-      </c>
-      <c r="I66" s="3">
-        <v>141800</v>
-      </c>
-      <c r="J66" s="3">
-        <v>0</v>
-      </c>
-      <c r="K66" s="1"/>
-      <c r="L66" s="1"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
+      <c r="K66" s="13"/>
+      <c r="L66" s="13"/>
+      <c r="M66" s="12"/>
+      <c r="N66" s="12"/>
+      <c r="O66" s="12"/>
+      <c r="P66" s="12"/>
+      <c r="Q66" s="12"/>
     </row>
     <row customHeight="true" ht="27" r="67">
       <c r="A67" s="1">
-        <v>30012</v>
-      </c>
-      <c r="B67" s="3" t="str">
-        <v>土豪来啦</v>
+        <v>30010</v>
+      </c>
+      <c r="B67" s="2" t="str">
+        <v>恶魔</v>
       </c>
       <c r="C67" s="1" t="str">
-        <v>Item_Name_20012</v>
+        <v>Item_Name_20010</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1">
-        <v>145510</v>
-      </c>
-      <c r="F67" s="3"/>
+        <v>88441</v>
+      </c>
+      <c r="F67" s="2"/>
       <c r="G67" s="1">
         <v>5</v>
       </c>
       <c r="H67" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I67" s="3">
-        <v>148829</v>
-      </c>
-      <c r="J67" s="3">
+        <v>500</v>
+      </c>
+      <c r="I67" s="2">
+        <v>141804</v>
+      </c>
+      <c r="J67" s="2">
         <v>0</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="3"/>
-      <c r="N67" s="3"/>
-      <c r="O67" s="3"/>
-      <c r="P67" s="3"/>
-      <c r="Q67" s="3"/>
-    </row>
-    <row customHeight="true" ht="25" r="68">
-      <c r="A68" s="7">
-        <v>40000</v>
-      </c>
-      <c r="B68" s="8" t="str">
-        <v>套装数量</v>
-      </c>
-      <c r="C68" s="7" t="str">
-        <v>Item_Name_20001</v>
-      </c>
-      <c r="D68" s="7">
-        <v>29</v>
-      </c>
-      <c r="E68" s="7"/>
-      <c r="F68" s="8"/>
-      <c r="G68" s="7">
-        <v>0</v>
-      </c>
-      <c r="H68" s="7">
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
+    </row>
+    <row customHeight="true" ht="27" r="68">
+      <c r="A68" s="1">
+        <v>30011</v>
+      </c>
+      <c r="B68" s="2" t="str">
+        <v>魔鬼</v>
+      </c>
+      <c r="C68" s="1" t="str">
+        <v>Item_Name_20011</v>
+      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1">
+        <v>88442</v>
+      </c>
+      <c r="F68" s="2"/>
+      <c r="G68" s="1">
         <v>5</v>
       </c>
-      <c r="I68" s="16"/>
-      <c r="J68" s="15"/>
-      <c r="K68" s="15"/>
-      <c r="L68" s="15"/>
-      <c r="M68" s="8"/>
-      <c r="N68" s="8"/>
-      <c r="O68" s="7"/>
-      <c r="P68" s="7"/>
-      <c r="Q68" s="15"/>
-    </row>
-    <row customHeight="true" ht="25" r="69">
+      <c r="H68" s="1">
+        <v>800</v>
+      </c>
+      <c r="I68" s="2">
+        <v>141800</v>
+      </c>
+      <c r="J68" s="2">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
+    </row>
+    <row customHeight="true" ht="27" r="69">
       <c r="A69" s="1">
-        <v>40001</v>
-      </c>
-      <c r="B69" s="3" t="str">
-        <v>温柔学姐</v>
+        <v>30012</v>
+      </c>
+      <c r="B69" s="2" t="str">
+        <v>土豪来啦</v>
       </c>
       <c r="C69" s="1" t="str">
-        <v>Item_Name_30001</v>
+        <v>Item_Name_20012</v>
       </c>
       <c r="D69" s="1"/>
-      <c r="E69" s="1"/>
-      <c r="F69" s="3"/>
+      <c r="E69" s="1">
+        <v>145510</v>
+      </c>
+      <c r="F69" s="2"/>
       <c r="G69" s="1">
         <v>5</v>
       </c>
-      <c r="H69" s="10">
-        <v>10</v>
-      </c>
-      <c r="I69" s="1">
-        <v>86337</v>
+      <c r="H69" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I69" s="2">
+        <v>148829</v>
       </c>
       <c r="J69" s="2">
-        <v>4</v>
-      </c>
-      <c r="K69" s="2"/>
-      <c r="L69" s="2"/>
+        <v>0</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
       <c r="M69" s="2"/>
-      <c r="N69" s="3"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="3"/>
-      <c r="Q69" s="3">
-        <v>10001</v>
-      </c>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="70">
-      <c r="A70" s="1">
-        <v>40002</v>
-      </c>
-      <c r="B70" s="3" t="str">
-        <v>风纪委员</v>
-      </c>
-      <c r="C70" s="1" t="str">
-        <v>Item_Name_30002</v>
-      </c>
-      <c r="D70" s="1"/>
-      <c r="E70" s="1"/>
-      <c r="F70" s="3"/>
-      <c r="G70" s="1">
+      <c r="A70" s="9">
+        <v>40000</v>
+      </c>
+      <c r="B70" s="7" t="str">
+        <v>套装数量</v>
+      </c>
+      <c r="C70" s="9" t="str">
+        <v>Item_Name_20001</v>
+      </c>
+      <c r="D70" s="9">
+        <v>29</v>
+      </c>
+      <c r="E70" s="9"/>
+      <c r="F70" s="7"/>
+      <c r="G70" s="9">
+        <v>0</v>
+      </c>
+      <c r="H70" s="9">
         <v>5</v>
       </c>
-      <c r="H70" s="10">
-        <v>10</v>
-      </c>
-      <c r="I70" s="1">
-        <v>86335</v>
-      </c>
-      <c r="J70" s="2">
-        <v>4</v>
-      </c>
-      <c r="K70" s="2"/>
-      <c r="L70" s="2"/>
-      <c r="M70" s="2"/>
-      <c r="N70" s="3"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="3"/>
-      <c r="Q70" s="3">
-        <v>10002</v>
-      </c>
+      <c r="I70" s="10"/>
+      <c r="J70" s="8"/>
+      <c r="K70" s="8"/>
+      <c r="L70" s="8"/>
+      <c r="M70" s="7"/>
+      <c r="N70" s="7"/>
+      <c r="O70" s="9"/>
+      <c r="P70" s="9"/>
+      <c r="Q70" s="8"/>
     </row>
     <row customHeight="true" ht="25" r="71">
       <c r="A71" s="1">
-        <v>40003</v>
-      </c>
-      <c r="B71" s="3" t="str">
-        <v>不良少女</v>
+        <v>40001</v>
+      </c>
+      <c r="B71" s="2" t="str">
+        <v>温柔学姐</v>
       </c>
       <c r="C71" s="1" t="str">
-        <v>Item_Name_30003</v>
+        <v>Item_Name_30001</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="3"/>
+      <c r="F71" s="2"/>
       <c r="G71" s="1">
         <v>5</v>
       </c>
-      <c r="H71" s="10">
+      <c r="H71" s="16">
         <v>10</v>
       </c>
       <c r="I71" s="1">
-        <v>86333</v>
-      </c>
-      <c r="J71" s="2">
+        <v>86337</v>
+      </c>
+      <c r="J71" s="3">
         <v>4</v>
       </c>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="3"/>
+      <c r="K71" s="3"/>
+      <c r="L71" s="3"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="2"/>
       <c r="O71" s="1"/>
-      <c r="P71" s="3"/>
-      <c r="Q71" s="3">
-        <v>20001</v>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2">
+        <v>10001</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="72">
       <c r="A72" s="1">
-        <v>40004</v>
-      </c>
-      <c r="B72" s="3" t="str">
-        <v>韩式淑女</v>
+        <v>40002</v>
+      </c>
+      <c r="B72" s="2" t="str">
+        <v>风纪委员</v>
       </c>
       <c r="C72" s="1" t="str">
-        <v>Item_Name_30004</v>
+        <v>Item_Name_30002</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="3"/>
+      <c r="F72" s="2"/>
       <c r="G72" s="1">
         <v>5</v>
       </c>
-      <c r="H72" s="10">
+      <c r="H72" s="16">
         <v>10</v>
       </c>
       <c r="I72" s="1">
-        <v>86334</v>
-      </c>
-      <c r="J72" s="2">
+        <v>86335</v>
+      </c>
+      <c r="J72" s="3">
         <v>4</v>
       </c>
-      <c r="K72" s="2"/>
-      <c r="L72" s="2"/>
-      <c r="M72" s="2"/>
-      <c r="N72" s="3"/>
+      <c r="K72" s="3"/>
+      <c r="L72" s="3"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="2"/>
       <c r="O72" s="1"/>
-      <c r="P72" s="3"/>
-      <c r="Q72" s="3">
-        <v>20002</v>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2">
+        <v>10002</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="73">
       <c r="A73" s="1">
-        <v>40005</v>
-      </c>
-      <c r="B73" s="3" t="str">
-        <v>可爱学妹</v>
+        <v>40003</v>
+      </c>
+      <c r="B73" s="2" t="str">
+        <v>不良少女</v>
       </c>
       <c r="C73" s="1" t="str">
-        <v>Item_Name_30005</v>
+        <v>Item_Name_30003</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="3"/>
+      <c r="F73" s="2"/>
       <c r="G73" s="1">
         <v>5</v>
       </c>
-      <c r="H73" s="10">
+      <c r="H73" s="16">
         <v>10</v>
       </c>
       <c r="I73" s="1">
-        <v>94181</v>
-      </c>
-      <c r="J73" s="2">
+        <v>86333</v>
+      </c>
+      <c r="J73" s="3">
         <v>4</v>
       </c>
-      <c r="K73" s="2"/>
-      <c r="L73" s="2"/>
-      <c r="M73" s="2"/>
-      <c r="N73" s="3"/>
+      <c r="K73" s="3"/>
+      <c r="L73" s="3"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="2"/>
       <c r="O73" s="1"/>
-      <c r="P73" s="3"/>
-      <c r="Q73" s="3">
-        <v>30001</v>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2">
+        <v>20001</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="74">
       <c r="A74" s="1">
-        <v>40006</v>
-      </c>
-      <c r="B74" s="3" t="str">
-        <v>奇幻少女</v>
+        <v>40004</v>
+      </c>
+      <c r="B74" s="2" t="str">
+        <v>韩式淑女</v>
       </c>
       <c r="C74" s="1" t="str">
-        <v>Item_Name_30006</v>
+        <v>Item_Name_30004</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="3"/>
+      <c r="F74" s="2"/>
       <c r="G74" s="1">
         <v>5</v>
       </c>
-      <c r="H74" s="10">
+      <c r="H74" s="16">
         <v>10</v>
       </c>
       <c r="I74" s="1">
-        <v>94180</v>
-      </c>
-      <c r="J74" s="2">
+        <v>86334</v>
+      </c>
+      <c r="J74" s="3">
         <v>4</v>
       </c>
-      <c r="K74" s="2"/>
-      <c r="L74" s="2"/>
-      <c r="M74" s="2"/>
-      <c r="N74" s="3"/>
+      <c r="K74" s="3"/>
+      <c r="L74" s="3"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="2"/>
       <c r="O74" s="1"/>
-      <c r="P74" s="3"/>
-      <c r="Q74" s="3">
-        <v>30002</v>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2">
+        <v>20002</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="75">
       <c r="A75" s="1">
-        <v>40007</v>
-      </c>
-      <c r="B75" s="3" t="str">
-        <v>温柔学长</v>
+        <v>40005</v>
+      </c>
+      <c r="B75" s="2" t="str">
+        <v>可爱学妹</v>
       </c>
       <c r="C75" s="1" t="str">
-        <v>Item_Name_30007</v>
+        <v>Item_Name_30005</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="3"/>
+      <c r="F75" s="2"/>
       <c r="G75" s="1">
         <v>5</v>
       </c>
-      <c r="H75" s="10">
+      <c r="H75" s="16">
         <v>10</v>
       </c>
       <c r="I75" s="1">
-        <v>94184</v>
-      </c>
-      <c r="J75" s="2">
+        <v>94181</v>
+      </c>
+      <c r="J75" s="3">
         <v>4</v>
       </c>
-      <c r="K75" s="2"/>
-      <c r="L75" s="2"/>
-      <c r="M75" s="2"/>
-      <c r="N75" s="3"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="2"/>
       <c r="O75" s="1"/>
-      <c r="P75" s="3"/>
-      <c r="Q75" s="3">
-        <v>30003</v>
+      <c r="P75" s="2"/>
+      <c r="Q75" s="2">
+        <v>30001</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="76">
       <c r="A76" s="1">
-        <v>40008</v>
-      </c>
-      <c r="B76" s="3" t="str">
-        <v>不良少年</v>
+        <v>40006</v>
+      </c>
+      <c r="B76" s="2" t="str">
+        <v>奇幻少女</v>
       </c>
       <c r="C76" s="1" t="str">
-        <v>Item_Name_30008</v>
+        <v>Item_Name_30006</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="3"/>
+      <c r="F76" s="2"/>
       <c r="G76" s="1">
         <v>5</v>
       </c>
-      <c r="H76" s="10">
+      <c r="H76" s="16">
         <v>10</v>
       </c>
       <c r="I76" s="1">
-        <v>94182</v>
-      </c>
-      <c r="J76" s="2">
+        <v>94180</v>
+      </c>
+      <c r="J76" s="3">
         <v>4</v>
       </c>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="3"/>
+      <c r="K76" s="3"/>
+      <c r="L76" s="3"/>
+      <c r="M76" s="3"/>
+      <c r="N76" s="2"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="3"/>
-      <c r="Q76" s="3">
-        <v>30004</v>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2">
+        <v>30002</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="77">
       <c r="A77" s="1">
-        <v>40009</v>
-      </c>
-      <c r="B77" s="1" t="str">
-        <v>啦啦队长</v>
+        <v>40007</v>
+      </c>
+      <c r="B77" s="2" t="str">
+        <v>温柔学长</v>
       </c>
       <c r="C77" s="1" t="str">
-        <v>Item_Name_30009</v>
+        <v>Item_Name_30007</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="3"/>
+      <c r="F77" s="2"/>
       <c r="G77" s="1">
         <v>5</v>
       </c>
-      <c r="H77" s="10">
+      <c r="H77" s="16">
         <v>10</v>
       </c>
       <c r="I77" s="1">
-        <v>110493</v>
-      </c>
-      <c r="J77" s="2">
+        <v>94184</v>
+      </c>
+      <c r="J77" s="3">
         <v>4</v>
       </c>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="3"/>
+      <c r="K77" s="3"/>
+      <c r="L77" s="3"/>
+      <c r="M77" s="3"/>
+      <c r="N77" s="2"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="3"/>
-      <c r="Q77" s="3">
-        <v>30009</v>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2">
+        <v>30003</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="78">
       <c r="A78" s="1">
-        <v>40010</v>
-      </c>
-      <c r="B78" s="1" t="str">
-        <v>艺术生</v>
+        <v>40008</v>
+      </c>
+      <c r="B78" s="2" t="str">
+        <v>不良少年</v>
       </c>
       <c r="C78" s="1" t="str">
-        <v>Item_Name_30010</v>
+        <v>Item_Name_30008</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="3"/>
+      <c r="F78" s="2"/>
       <c r="G78" s="1">
         <v>5</v>
       </c>
-      <c r="H78" s="1">
-        <v>30</v>
+      <c r="H78" s="16">
+        <v>10</v>
       </c>
       <c r="I78" s="1">
-        <v>110508</v>
-      </c>
-      <c r="J78" s="2">
+        <v>94182</v>
+      </c>
+      <c r="J78" s="3">
         <v>4</v>
       </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="3"/>
+      <c r="K78" s="3"/>
+      <c r="L78" s="3"/>
+      <c r="M78" s="3"/>
+      <c r="N78" s="2"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="3"/>
-      <c r="Q78" s="3">
-        <v>30010</v>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2">
+        <v>30004</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="79">
       <c r="A79" s="1">
-        <v>40011</v>
+        <v>40009</v>
       </c>
       <c r="B79" s="1" t="str">
-        <v>二次元少女</v>
+        <v>啦啦队长</v>
       </c>
       <c r="C79" s="1" t="str">
-        <v>Item_Name_30011</v>
+        <v>Item_Name_30009</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="3"/>
+      <c r="F79" s="2"/>
       <c r="G79" s="1">
         <v>5</v>
       </c>
-      <c r="H79" s="1">
-        <v>30</v>
+      <c r="H79" s="16">
+        <v>10</v>
       </c>
       <c r="I79" s="1">
-        <v>110522</v>
-      </c>
-      <c r="J79" s="2">
+        <v>110493</v>
+      </c>
+      <c r="J79" s="3">
         <v>4</v>
       </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="3"/>
+      <c r="K79" s="3"/>
+      <c r="L79" s="3"/>
+      <c r="M79" s="3"/>
+      <c r="N79" s="2"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="3"/>
-      <c r="Q79" s="3">
-        <v>30011</v>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2">
+        <v>30009</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="80">
       <c r="A80" s="1">
-        <v>40012</v>
+        <v>40010</v>
       </c>
       <c r="B80" s="1" t="str">
-        <v>英语老师</v>
+        <v>艺术生</v>
       </c>
       <c r="C80" s="1" t="str">
-        <v>Item_Name_30012</v>
+        <v>Item_Name_30010</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="3"/>
+      <c r="F80" s="2"/>
       <c r="G80" s="1">
         <v>5</v>
       </c>
@@ -3863,34 +3863,34 @@
         <v>30</v>
       </c>
       <c r="I80" s="1">
-        <v>110490</v>
-      </c>
-      <c r="J80" s="2">
+        <v>110508</v>
+      </c>
+      <c r="J80" s="3">
         <v>4</v>
       </c>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="3"/>
+      <c r="K80" s="3"/>
+      <c r="L80" s="3"/>
+      <c r="M80" s="3"/>
+      <c r="N80" s="2"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="3"/>
-      <c r="Q80" s="3">
-        <v>30012</v>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2">
+        <v>30010</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="81">
       <c r="A81" s="1">
-        <v>40013</v>
+        <v>40011</v>
       </c>
       <c r="B81" s="1" t="str">
-        <v>正义少年</v>
+        <v>二次元少女</v>
       </c>
       <c r="C81" s="1" t="str">
-        <v>Item_Name_30013</v>
+        <v>Item_Name_30011</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="3"/>
+      <c r="F81" s="2"/>
       <c r="G81" s="1">
         <v>5</v>
       </c>
@@ -3898,34 +3898,34 @@
         <v>30</v>
       </c>
       <c r="I81" s="1">
-        <v>110500</v>
-      </c>
-      <c r="J81" s="2">
+        <v>110522</v>
+      </c>
+      <c r="J81" s="3">
         <v>4</v>
       </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="3"/>
+      <c r="K81" s="3"/>
+      <c r="L81" s="3"/>
+      <c r="M81" s="3"/>
+      <c r="N81" s="2"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="3"/>
-      <c r="Q81" s="3">
-        <v>30013</v>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2">
+        <v>30011</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="82">
       <c r="A82" s="1">
-        <v>40014</v>
+        <v>40012</v>
       </c>
       <c r="B82" s="1" t="str">
-        <v>潮流少女</v>
+        <v>英语老师</v>
       </c>
       <c r="C82" s="1" t="str">
-        <v>Item_Name_30014</v>
+        <v>Item_Name_30012</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="3"/>
+      <c r="F82" s="2"/>
       <c r="G82" s="1">
         <v>5</v>
       </c>
@@ -3933,961 +3933,1031 @@
         <v>30</v>
       </c>
       <c r="I82" s="1">
-        <v>110498</v>
-      </c>
-      <c r="J82" s="2">
+        <v>110490</v>
+      </c>
+      <c r="J82" s="3">
         <v>4</v>
       </c>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="3"/>
+      <c r="K82" s="3"/>
+      <c r="L82" s="3"/>
+      <c r="M82" s="3"/>
+      <c r="N82" s="2"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="3"/>
-      <c r="Q82" s="3">
-        <v>30014</v>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2">
+        <v>30012</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="83">
       <c r="A83" s="1">
-        <v>40015</v>
-      </c>
-      <c r="B83" s="3" t="str">
-        <v>学生会长</v>
+        <v>40013</v>
+      </c>
+      <c r="B83" s="1" t="str">
+        <v>正义少年</v>
       </c>
       <c r="C83" s="1" t="str">
-        <v>Item_Name_30015</v>
+        <v>Item_Name_30013</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="3"/>
+      <c r="F83" s="2"/>
       <c r="G83" s="1">
         <v>5</v>
       </c>
       <c r="H83" s="1">
         <v>30</v>
       </c>
-      <c r="I83" s="3">
-        <v>141795</v>
-      </c>
-      <c r="J83" s="2">
+      <c r="I83" s="1">
+        <v>110500</v>
+      </c>
+      <c r="J83" s="3">
         <v>4</v>
       </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="3"/>
+      <c r="K83" s="3"/>
+      <c r="L83" s="3"/>
+      <c r="M83" s="3"/>
+      <c r="N83" s="2"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="3"/>
-      <c r="Q83" s="3">
-        <v>30015</v>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2">
+        <v>30013</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="84">
       <c r="A84" s="1">
-        <v>40016</v>
-      </c>
-      <c r="B84" s="3" t="str">
-        <v>女老师</v>
+        <v>40014</v>
+      </c>
+      <c r="B84" s="1" t="str">
+        <v>潮流少女</v>
       </c>
       <c r="C84" s="1" t="str">
-        <v>Item_Name_30016</v>
+        <v>Item_Name_30014</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="3"/>
+      <c r="F84" s="2"/>
       <c r="G84" s="1">
         <v>5</v>
       </c>
       <c r="H84" s="1">
-        <v>50</v>
-      </c>
-      <c r="I84" s="3">
-        <v>141819</v>
-      </c>
-      <c r="J84" s="2">
-        <v>3</v>
-      </c>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="I84" s="1">
+        <v>110498</v>
+      </c>
+      <c r="J84" s="3">
+        <v>4</v>
+      </c>
+      <c r="K84" s="3"/>
+      <c r="L84" s="3"/>
+      <c r="M84" s="3"/>
+      <c r="N84" s="2"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3">
-        <v>30016</v>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2">
+        <v>30014</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="85">
       <c r="A85" s="1">
-        <v>40017</v>
-      </c>
-      <c r="B85" s="3" t="str">
-        <v>班主任</v>
+        <v>40015</v>
+      </c>
+      <c r="B85" s="2" t="str">
+        <v>学生会长</v>
       </c>
       <c r="C85" s="1" t="str">
-        <v>Item_Name_30017</v>
+        <v>Item_Name_30015</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="3"/>
+      <c r="F85" s="2"/>
       <c r="G85" s="1">
         <v>5</v>
       </c>
       <c r="H85" s="1">
-        <v>50</v>
-      </c>
-      <c r="I85" s="3">
-        <v>141810</v>
-      </c>
-      <c r="J85" s="2">
-        <v>3</v>
-      </c>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="3"/>
+        <v>30</v>
+      </c>
+      <c r="I85" s="2">
+        <v>141795</v>
+      </c>
+      <c r="J85" s="3">
+        <v>4</v>
+      </c>
+      <c r="K85" s="3"/>
+      <c r="L85" s="3"/>
+      <c r="M85" s="3"/>
+      <c r="N85" s="2"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="3"/>
-      <c r="Q85" s="3">
-        <v>30017</v>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2">
+        <v>30015</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="86">
       <c r="A86" s="1">
-        <v>40018</v>
-      </c>
-      <c r="B86" s="3" t="str">
-        <v>海边姐姐</v>
+        <v>40016</v>
+      </c>
+      <c r="B86" s="2" t="str">
+        <v>女老师</v>
       </c>
       <c r="C86" s="1" t="str">
-        <v>Item_Name_30018</v>
+        <v>Item_Name_30016</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="3"/>
+      <c r="F86" s="2"/>
       <c r="G86" s="1">
         <v>5</v>
       </c>
       <c r="H86" s="1">
         <v>50</v>
       </c>
-      <c r="I86" s="3">
-        <v>141798</v>
-      </c>
-      <c r="J86" s="2">
+      <c r="I86" s="2">
+        <v>141819</v>
+      </c>
+      <c r="J86" s="3">
         <v>3</v>
       </c>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="3"/>
+      <c r="K86" s="3"/>
+      <c r="L86" s="3"/>
+      <c r="M86" s="3"/>
+      <c r="N86" s="2"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="3"/>
-      <c r="Q86" s="3">
-        <v>30018</v>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2">
+        <v>30016</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="87">
       <c r="A87" s="1">
-        <v>40019</v>
-      </c>
-      <c r="B87" s="3" t="str">
-        <v>邻家妹妹</v>
+        <v>40017</v>
+      </c>
+      <c r="B87" s="2" t="str">
+        <v>班主任</v>
       </c>
       <c r="C87" s="1" t="str">
-        <v>Item_Name_30019</v>
+        <v>Item_Name_30017</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="3"/>
+      <c r="F87" s="2"/>
       <c r="G87" s="1">
         <v>5</v>
       </c>
       <c r="H87" s="1">
         <v>50</v>
       </c>
-      <c r="I87" s="3">
-        <v>141787</v>
-      </c>
-      <c r="J87" s="2">
-        <v>2</v>
-      </c>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="3"/>
+      <c r="I87" s="2">
+        <v>141810</v>
+      </c>
+      <c r="J87" s="3">
+        <v>3</v>
+      </c>
+      <c r="K87" s="3"/>
+      <c r="L87" s="3"/>
+      <c r="M87" s="3"/>
+      <c r="N87" s="2"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="3"/>
-      <c r="Q87" s="3">
-        <v>30019</v>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2">
+        <v>30017</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="88">
       <c r="A88" s="1">
-        <v>40020</v>
-      </c>
-      <c r="B88" s="3" t="str">
-        <v>健身教练</v>
+        <v>40018</v>
+      </c>
+      <c r="B88" s="2" t="str">
+        <v>海边姐姐</v>
       </c>
       <c r="C88" s="1" t="str">
-        <v>Item_Name_30020</v>
+        <v>Item_Name_30018</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="3"/>
+      <c r="F88" s="2"/>
       <c r="G88" s="1">
         <v>5</v>
       </c>
       <c r="H88" s="1">
         <v>50</v>
       </c>
-      <c r="I88" s="3">
-        <v>141814</v>
-      </c>
-      <c r="J88" s="2">
-        <v>2</v>
-      </c>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="3"/>
+      <c r="I88" s="2">
+        <v>141798</v>
+      </c>
+      <c r="J88" s="3">
+        <v>3</v>
+      </c>
+      <c r="K88" s="3"/>
+      <c r="L88" s="3"/>
+      <c r="M88" s="3"/>
+      <c r="N88" s="2"/>
       <c r="O88" s="1"/>
-      <c r="P88" s="3"/>
-      <c r="Q88" s="3">
-        <v>30020</v>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2">
+        <v>30018</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="89">
       <c r="A89" s="1">
-        <v>40021</v>
-      </c>
-      <c r="B89" s="3" t="str">
-        <v>优雅少女</v>
+        <v>40019</v>
+      </c>
+      <c r="B89" s="2" t="str">
+        <v>邻家妹妹</v>
       </c>
       <c r="C89" s="1" t="str">
-        <v>Item_Name_30021</v>
+        <v>Item_Name_30019</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="3"/>
+      <c r="F89" s="2"/>
       <c r="G89" s="1">
         <v>5</v>
       </c>
       <c r="H89" s="1">
         <v>50</v>
       </c>
-      <c r="I89" s="3">
-        <v>141803</v>
-      </c>
-      <c r="J89" s="2">
+      <c r="I89" s="2">
+        <v>141787</v>
+      </c>
+      <c r="J89" s="3">
         <v>2</v>
       </c>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="3"/>
+      <c r="K89" s="3"/>
+      <c r="L89" s="3"/>
+      <c r="M89" s="3"/>
+      <c r="N89" s="2"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="3"/>
-      <c r="Q89" s="3">
-        <v>30021</v>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2">
+        <v>30019</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="90">
       <c r="A90" s="1">
-        <v>40022</v>
-      </c>
-      <c r="B90" s="3" t="str">
-        <v>探险家</v>
+        <v>40020</v>
+      </c>
+      <c r="B90" s="2" t="str">
+        <v>健身教练</v>
       </c>
       <c r="C90" s="1" t="str">
-        <v>Item_Name_30022</v>
+        <v>Item_Name_30020</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="3"/>
+      <c r="F90" s="2"/>
       <c r="G90" s="1">
         <v>5</v>
       </c>
       <c r="H90" s="1">
-        <v>80</v>
-      </c>
-      <c r="I90" s="3">
-        <v>141801</v>
-      </c>
-      <c r="J90" s="2">
-        <v>1</v>
-      </c>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="I90" s="2">
+        <v>141814</v>
+      </c>
+      <c r="J90" s="3">
+        <v>2</v>
+      </c>
+      <c r="K90" s="3"/>
+      <c r="L90" s="3"/>
+      <c r="M90" s="3"/>
+      <c r="N90" s="2"/>
       <c r="O90" s="1"/>
-      <c r="P90" s="3"/>
-      <c r="Q90" s="3">
-        <v>30022</v>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2">
+        <v>30020</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="91">
       <c r="A91" s="1">
-        <v>40023</v>
-      </c>
-      <c r="B91" s="3" t="str">
-        <v>民国学生</v>
+        <v>40021</v>
+      </c>
+      <c r="B91" s="2" t="str">
+        <v>优雅少女</v>
       </c>
       <c r="C91" s="1" t="str">
-        <v>Item_Name_30023</v>
+        <v>Item_Name_30021</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="3"/>
+      <c r="F91" s="2"/>
       <c r="G91" s="1">
         <v>5</v>
       </c>
       <c r="H91" s="1">
-        <v>80</v>
-      </c>
-      <c r="I91" s="3">
-        <v>141815</v>
-      </c>
-      <c r="J91" s="2">
-        <v>1</v>
-      </c>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="3"/>
+        <v>50</v>
+      </c>
+      <c r="I91" s="2">
+        <v>141803</v>
+      </c>
+      <c r="J91" s="3">
+        <v>2</v>
+      </c>
+      <c r="K91" s="3"/>
+      <c r="L91" s="3"/>
+      <c r="M91" s="3"/>
+      <c r="N91" s="2"/>
       <c r="O91" s="1"/>
-      <c r="P91" s="3"/>
-      <c r="Q91" s="3">
-        <v>30023</v>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2">
+        <v>30021</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="92">
       <c r="A92" s="1">
-        <v>40024</v>
-      </c>
-      <c r="B92" s="3" t="str">
-        <v>可可少女</v>
+        <v>40022</v>
+      </c>
+      <c r="B92" s="2" t="str">
+        <v>探险家</v>
       </c>
       <c r="C92" s="1" t="str">
-        <v>Item_Name_30024</v>
+        <v>Item_Name_30022</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="3"/>
+      <c r="F92" s="2"/>
       <c r="G92" s="1">
         <v>5</v>
       </c>
       <c r="H92" s="1">
         <v>80</v>
       </c>
-      <c r="I92" s="3">
-        <v>141808</v>
-      </c>
-      <c r="J92" s="2">
+      <c r="I92" s="2">
+        <v>141801</v>
+      </c>
+      <c r="J92" s="3">
         <v>1</v>
       </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="3"/>
+      <c r="K92" s="3"/>
+      <c r="L92" s="3"/>
+      <c r="M92" s="3"/>
+      <c r="N92" s="2"/>
       <c r="O92" s="1"/>
-      <c r="P92" s="3"/>
-      <c r="Q92" s="3">
-        <v>30024</v>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2">
+        <v>30022</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="93">
       <c r="A93" s="1">
-        <v>40025</v>
-      </c>
-      <c r="B93" s="3" t="str">
-        <v>猫猫店员</v>
+        <v>40023</v>
+      </c>
+      <c r="B93" s="2" t="str">
+        <v>民国学生</v>
       </c>
       <c r="C93" s="1" t="str">
-        <v>Item_Name_30025</v>
+        <v>Item_Name_30023</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="3"/>
+      <c r="F93" s="2"/>
       <c r="G93" s="1">
         <v>5</v>
       </c>
       <c r="H93" s="1">
-        <v>100</v>
-      </c>
-      <c r="I93" s="3">
-        <v>141792</v>
-      </c>
-      <c r="J93" s="2">
-        <v>0</v>
-      </c>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="I93" s="2">
+        <v>141815</v>
+      </c>
+      <c r="J93" s="3">
+        <v>1</v>
+      </c>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="2"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="3"/>
-      <c r="Q93" s="3">
-        <v>30025</v>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2">
+        <v>30023</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="94">
       <c r="A94" s="1">
-        <v>40026</v>
-      </c>
-      <c r="B94" s="3" t="str">
-        <v>女仆甜心</v>
+        <v>40024</v>
+      </c>
+      <c r="B94" s="2" t="str">
+        <v>可可少女</v>
       </c>
       <c r="C94" s="1" t="str">
-        <v>Item_Name_30026</v>
+        <v>Item_Name_30024</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="3"/>
+      <c r="F94" s="2"/>
       <c r="G94" s="1">
         <v>5</v>
       </c>
       <c r="H94" s="1">
-        <v>100</v>
-      </c>
-      <c r="I94" s="3">
-        <v>141816</v>
-      </c>
-      <c r="J94" s="2">
-        <v>0</v>
-      </c>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="3"/>
+        <v>80</v>
+      </c>
+      <c r="I94" s="2">
+        <v>141808</v>
+      </c>
+      <c r="J94" s="3">
+        <v>1</v>
+      </c>
+      <c r="K94" s="3"/>
+      <c r="L94" s="3"/>
+      <c r="M94" s="3"/>
+      <c r="N94" s="2"/>
       <c r="O94" s="1"/>
-      <c r="P94" s="3"/>
-      <c r="Q94" s="3">
-        <v>30026</v>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2">
+        <v>30024</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="95">
       <c r="A95" s="1">
-        <v>40027</v>
-      </c>
-      <c r="B95" s="3" t="str">
-        <v>猫耳女仆</v>
+        <v>40025</v>
+      </c>
+      <c r="B95" s="2" t="str">
+        <v>猫猫店员</v>
       </c>
       <c r="C95" s="1" t="str">
-        <v>Item_Name_30027</v>
+        <v>Item_Name_30025</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="3"/>
+      <c r="F95" s="2"/>
       <c r="G95" s="1">
         <v>5</v>
       </c>
       <c r="H95" s="1">
         <v>100</v>
       </c>
-      <c r="I95" s="3">
-        <v>141807</v>
-      </c>
-      <c r="J95" s="2">
-        <v>0</v>
-      </c>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="3"/>
+      <c r="I95" s="2">
+        <v>141792</v>
+      </c>
+      <c r="J95" s="3">
+        <v>0</v>
+      </c>
+      <c r="K95" s="3"/>
+      <c r="L95" s="3"/>
+      <c r="M95" s="3"/>
+      <c r="N95" s="2"/>
       <c r="O95" s="1"/>
-      <c r="P95" s="3"/>
-      <c r="Q95" s="3">
-        <v>30027</v>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2">
+        <v>30025</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="96">
       <c r="A96" s="1">
-        <v>40028</v>
-      </c>
-      <c r="B96" s="3" t="str">
-        <v>少女偶像</v>
+        <v>40026</v>
+      </c>
+      <c r="B96" s="2" t="str">
+        <v>女仆甜心</v>
       </c>
       <c r="C96" s="1" t="str">
-        <v>Item_Name_30028</v>
+        <v>Item_Name_30026</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="3"/>
+      <c r="F96" s="2"/>
       <c r="G96" s="1">
         <v>5</v>
       </c>
       <c r="H96" s="1">
         <v>100</v>
       </c>
-      <c r="I96" s="3">
-        <v>141799</v>
-      </c>
-      <c r="J96" s="2">
-        <v>0</v>
-      </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="3"/>
+      <c r="I96" s="2">
+        <v>141816</v>
+      </c>
+      <c r="J96" s="3">
+        <v>0</v>
+      </c>
+      <c r="K96" s="3"/>
+      <c r="L96" s="3"/>
+      <c r="M96" s="3"/>
+      <c r="N96" s="2"/>
       <c r="O96" s="1"/>
-      <c r="P96" s="3"/>
-      <c r="Q96" s="3">
-        <v>30028</v>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2">
+        <v>30026</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="97">
       <c r="A97" s="1">
-        <v>40029</v>
-      </c>
-      <c r="B97" s="3" t="str">
-        <v>圣诞少女</v>
+        <v>40027</v>
+      </c>
+      <c r="B97" s="2" t="str">
+        <v>猫耳女仆</v>
       </c>
       <c r="C97" s="1" t="str">
-        <v>Item_Name_30029</v>
+        <v>Item_Name_30027</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="3"/>
+      <c r="F97" s="2"/>
       <c r="G97" s="1">
         <v>5</v>
       </c>
       <c r="H97" s="1">
         <v>100</v>
       </c>
-      <c r="I97" s="3">
-        <v>141789</v>
-      </c>
-      <c r="J97" s="2">
-        <v>0</v>
-      </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="3"/>
+      <c r="I97" s="2">
+        <v>141807</v>
+      </c>
+      <c r="J97" s="3">
+        <v>0</v>
+      </c>
+      <c r="K97" s="3"/>
+      <c r="L97" s="3"/>
+      <c r="M97" s="3"/>
+      <c r="N97" s="2"/>
       <c r="O97" s="1"/>
-      <c r="P97" s="3"/>
-      <c r="Q97" s="3">
-        <v>30029</v>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2">
+        <v>30027</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="98">
-      <c r="A98" s="7">
-        <v>50000</v>
-      </c>
-      <c r="B98" s="8" t="str">
-        <v>挂件数量</v>
-      </c>
-      <c r="C98" s="15" t="str">
-        <v>Shop_Name_40001</v>
-      </c>
-      <c r="D98" s="7">
-        <v>9</v>
-      </c>
-      <c r="E98" s="7"/>
-      <c r="F98" s="8"/>
-      <c r="G98" s="7"/>
-      <c r="H98" s="7">
-        <v>1</v>
-      </c>
-      <c r="I98" s="8"/>
-      <c r="J98" s="8"/>
-      <c r="K98" s="7"/>
-      <c r="L98" s="8"/>
-      <c r="M98" s="8"/>
-      <c r="N98" s="8"/>
-      <c r="O98" s="8"/>
-      <c r="P98" s="8"/>
-      <c r="Q98" s="8"/>
+      <c r="A98" s="1">
+        <v>40028</v>
+      </c>
+      <c r="B98" s="2" t="str">
+        <v>少女偶像</v>
+      </c>
+      <c r="C98" s="1" t="str">
+        <v>Item_Name_30028</v>
+      </c>
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="1">
+        <v>5</v>
+      </c>
+      <c r="H98" s="1">
+        <v>100</v>
+      </c>
+      <c r="I98" s="2">
+        <v>141799</v>
+      </c>
+      <c r="J98" s="3">
+        <v>0</v>
+      </c>
+      <c r="K98" s="3"/>
+      <c r="L98" s="3"/>
+      <c r="M98" s="3"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2">
+        <v>30028</v>
+      </c>
     </row>
     <row customHeight="true" ht="25" r="99">
       <c r="A99" s="1">
-        <v>50001</v>
-      </c>
-      <c r="B99" s="3" t="str">
-        <v>彩虹马桶人</v>
-      </c>
-      <c r="C99" s="2" t="str">
+        <v>40029</v>
+      </c>
+      <c r="B99" s="2" t="str">
+        <v>圣诞少女</v>
+      </c>
+      <c r="C99" s="1" t="str">
+        <v>Item_Name_30029</v>
+      </c>
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="1">
+        <v>5</v>
+      </c>
+      <c r="H99" s="1">
+        <v>100</v>
+      </c>
+      <c r="I99" s="2">
+        <v>141789</v>
+      </c>
+      <c r="J99" s="3">
+        <v>0</v>
+      </c>
+      <c r="K99" s="3"/>
+      <c r="L99" s="3"/>
+      <c r="M99" s="3"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2">
+        <v>30029</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="25" r="100">
+      <c r="A100" s="9">
+        <v>50000</v>
+      </c>
+      <c r="B100" s="7" t="str">
+        <v>挂件数量</v>
+      </c>
+      <c r="C100" s="8" t="str">
         <v>Shop_Name_40001</v>
       </c>
-      <c r="D99" s="1"/>
-      <c r="E99" s="1" t="str">
-        <v>D0C568E94DC2EAAADE0303AC1A079AB8</v>
-      </c>
-      <c r="F99" s="3"/>
-      <c r="G99" s="1">
-        <v>0</v>
-      </c>
-      <c r="H99" s="1">
-        <v>10</v>
-      </c>
-      <c r="I99" s="9">
-        <v>186661</v>
-      </c>
-      <c r="J99" s="3">
-        <v>4</v>
-      </c>
-      <c r="K99" s="1"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3">
-        <v>12</v>
-      </c>
-      <c r="N99" s="3" t="str">
-        <v>0.22|0.22|0.22</v>
-      </c>
-      <c r="O99" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="P99" s="3" t="str">
-        <v>30|0|-40</v>
-      </c>
-      <c r="Q99" s="3"/>
-    </row>
-    <row customHeight="true" ht="25" r="100">
-      <c r="A100" s="1">
-        <v>50002</v>
-      </c>
-      <c r="B100" s="3" t="str">
-        <v>公主马桶人</v>
-      </c>
-      <c r="C100" s="2" t="str">
-        <v>Shop_Name_40002</v>
-      </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1" t="str">
-        <v>45CC801843BCB421039107B2112267A6</v>
-      </c>
-      <c r="F100" s="3"/>
-      <c r="G100" s="1">
-        <v>0</v>
-      </c>
-      <c r="H100" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I100" s="9">
-        <v>186663</v>
-      </c>
-      <c r="J100" s="3">
-        <v>3</v>
-      </c>
-      <c r="K100" s="1"/>
-      <c r="L100" s="3"/>
-      <c r="M100" s="3">
-        <v>12</v>
-      </c>
-      <c r="N100" s="3" t="str">
-        <v>0.22|0.22|0.22</v>
-      </c>
-      <c r="O100" s="3" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="P100" s="3" t="str">
-        <v>30|0|-40</v>
-      </c>
-      <c r="Q100" s="3"/>
+      <c r="D100" s="9">
+        <v>9</v>
+      </c>
+      <c r="E100" s="9"/>
+      <c r="F100" s="7"/>
+      <c r="G100" s="9"/>
+      <c r="H100" s="9">
+        <v>1</v>
+      </c>
+      <c r="I100" s="7"/>
+      <c r="J100" s="7"/>
+      <c r="K100" s="9"/>
+      <c r="L100" s="7"/>
+      <c r="M100" s="7"/>
+      <c r="N100" s="7"/>
+      <c r="O100" s="7"/>
+      <c r="P100" s="7"/>
+      <c r="Q100" s="7"/>
     </row>
     <row customHeight="true" ht="25" r="101">
       <c r="A101" s="1">
-        <v>50003</v>
-      </c>
-      <c r="B101" s="3" t="str">
-        <v>太空马桶人</v>
-      </c>
-      <c r="C101" s="2" t="str">
-        <v>Shop_Name_40003</v>
+        <v>50001</v>
+      </c>
+      <c r="B101" s="2" t="str">
+        <v>彩虹马桶人</v>
+      </c>
+      <c r="C101" s="3" t="str">
+        <v>Shop_Name_40001</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="str">
-        <v>C9292BC84BD8123269224ABBA8B007CB</v>
-      </c>
-      <c r="F101" s="3"/>
+        <v>D0C568E94DC2EAAADE0303AC1A079AB8</v>
+      </c>
+      <c r="F101" s="2"/>
       <c r="G101" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H101" s="1">
-        <v>500</v>
-      </c>
-      <c r="I101" s="9">
-        <v>186662</v>
-      </c>
-      <c r="J101" s="3">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="I101" s="4">
+        <v>186661</v>
+      </c>
+      <c r="J101" s="2">
+        <v>4</v>
       </c>
       <c r="K101" s="1"/>
-      <c r="L101" s="3"/>
-      <c r="M101" s="3">
+      <c r="L101" s="2"/>
+      <c r="M101" s="2">
         <v>12</v>
       </c>
-      <c r="N101" s="3" t="str">
+      <c r="N101" s="2" t="str">
         <v>0.22|0.22|0.22</v>
       </c>
-      <c r="O101" s="3" t="str">
+      <c r="O101" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P101" s="3" t="str">
+      <c r="P101" s="2" t="str">
         <v>30|0|-40</v>
       </c>
-      <c r="Q101" s="3"/>
+      <c r="Q101" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="102">
       <c r="A102" s="1">
-        <v>50004</v>
-      </c>
-      <c r="B102" s="3" t="str">
-        <v>蜘蛛马桶人</v>
-      </c>
-      <c r="C102" s="2" t="str">
-        <v>Shop_Name_40004</v>
+        <v>50002</v>
+      </c>
+      <c r="B102" s="2" t="str">
+        <v>公主马桶人</v>
+      </c>
+      <c r="C102" s="3" t="str">
+        <v>Shop_Name_40002</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1" t="str">
-        <v>9369090F4F800E92F623348B8D94270A</v>
-      </c>
-      <c r="F102" s="3"/>
+        <v>45CC801843BCB421039107B2112267A6</v>
+      </c>
+      <c r="F102" s="2"/>
       <c r="G102" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H102" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I102" s="9">
-        <v>186664</v>
-      </c>
-      <c r="J102" s="3">
-        <v>1</v>
+        <v>3000</v>
+      </c>
+      <c r="I102" s="4">
+        <v>186663</v>
+      </c>
+      <c r="J102" s="2">
+        <v>3</v>
       </c>
       <c r="K102" s="1"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3">
+      <c r="L102" s="2"/>
+      <c r="M102" s="2">
         <v>12</v>
       </c>
-      <c r="N102" s="3" t="str">
+      <c r="N102" s="2" t="str">
         <v>0.22|0.22|0.22</v>
       </c>
-      <c r="O102" s="3" t="str">
+      <c r="O102" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P102" s="3" t="str">
+      <c r="P102" s="2" t="str">
         <v>30|0|-40</v>
       </c>
-      <c r="Q102" s="3"/>
+      <c r="Q102" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="103">
       <c r="A103" s="1">
-        <v>50005</v>
-      </c>
-      <c r="B103" s="3" t="str">
-        <v>监控人</v>
-      </c>
-      <c r="C103" s="2" t="str">
-        <v>Shop_Name_40005</v>
+        <v>50003</v>
+      </c>
+      <c r="B103" s="2" t="str">
+        <v>太空马桶人</v>
+      </c>
+      <c r="C103" s="3" t="str">
+        <v>Shop_Name_40003</v>
       </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="1">
-        <v>184546</v>
-      </c>
-      <c r="F103" s="3"/>
+      <c r="E103" s="1" t="str">
+        <v>C9292BC84BD8123269224ABBA8B007CB</v>
+      </c>
+      <c r="F103" s="2"/>
       <c r="G103" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H103" s="1">
-        <v>10</v>
-      </c>
-      <c r="I103" s="9">
-        <v>186110</v>
-      </c>
-      <c r="J103" s="3">
-        <v>4</v>
+        <v>500</v>
+      </c>
+      <c r="I103" s="4">
+        <v>186662</v>
+      </c>
+      <c r="J103" s="2">
+        <v>2</v>
       </c>
       <c r="K103" s="1"/>
-      <c r="L103" s="3"/>
-      <c r="M103" s="3">
-        <v>1</v>
-      </c>
-      <c r="N103" s="3" t="str">
-        <v>1.4|0.9|1.3</v>
-      </c>
-      <c r="O103" s="3" t="str">
+      <c r="L103" s="2"/>
+      <c r="M103" s="2">
+        <v>12</v>
+      </c>
+      <c r="N103" s="2" t="str">
+        <v>0.22|0.22|0.22</v>
+      </c>
+      <c r="O103" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P103" s="3" t="str">
-        <v>0|4|-6</v>
-      </c>
-      <c r="Q103" s="3"/>
+      <c r="P103" s="2" t="str">
+        <v>30|0|-40</v>
+      </c>
+      <c r="Q103" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="104">
       <c r="A104" s="1">
-        <v>50006</v>
-      </c>
-      <c r="B104" s="3" t="str">
-        <v>音响人</v>
-      </c>
-      <c r="C104" s="2" t="str">
-        <v>Shop_Name_40006</v>
+        <v>50004</v>
+      </c>
+      <c r="B104" s="2" t="str">
+        <v>蜘蛛马桶人</v>
+      </c>
+      <c r="C104" s="3" t="str">
+        <v>Shop_Name_40004</v>
       </c>
       <c r="D104" s="1"/>
-      <c r="E104" s="1">
-        <v>37584</v>
-      </c>
-      <c r="F104" s="3"/>
+      <c r="E104" s="1" t="str">
+        <v>9369090F4F800E92F623348B8D94270A</v>
+      </c>
+      <c r="F104" s="2"/>
       <c r="G104" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H104" s="1">
-        <v>5000</v>
-      </c>
-      <c r="I104" s="9">
-        <v>186115</v>
-      </c>
-      <c r="J104" s="3">
-        <v>3</v>
+        <v>1000</v>
+      </c>
+      <c r="I104" s="4">
+        <v>186664</v>
+      </c>
+      <c r="J104" s="2">
+        <v>1</v>
       </c>
       <c r="K104" s="1"/>
-      <c r="L104" s="3"/>
-      <c r="M104" s="3">
-        <v>1</v>
-      </c>
-      <c r="N104" s="1" t="str">
-        <v>0.9|0.95|0.8</v>
-      </c>
-      <c r="O104" s="3" t="str">
+      <c r="L104" s="2"/>
+      <c r="M104" s="2">
+        <v>12</v>
+      </c>
+      <c r="N104" s="2" t="str">
+        <v>0.22|0.22|0.22</v>
+      </c>
+      <c r="O104" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P104" s="1" t="str">
-        <v>0|-1|-6</v>
-      </c>
-      <c r="Q104" s="3"/>
+      <c r="P104" s="2" t="str">
+        <v>30|0|-40</v>
+      </c>
+      <c r="Q104" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="105">
       <c r="A105" s="1">
-        <v>50007</v>
-      </c>
-      <c r="B105" s="3" t="str">
-        <v>电视人</v>
-      </c>
-      <c r="C105" s="2" t="str">
-        <v>Shop_Name_40007</v>
+        <v>50005</v>
+      </c>
+      <c r="B105" s="2" t="str">
+        <v>监控人</v>
+      </c>
+      <c r="C105" s="3" t="str">
+        <v>Shop_Name_40005</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1">
-        <v>37562</v>
-      </c>
-      <c r="F105" s="3"/>
+        <v>184546</v>
+      </c>
+      <c r="F105" s="2"/>
       <c r="G105" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H105" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I105" s="9">
-        <v>186121</v>
-      </c>
-      <c r="J105" s="3">
-        <v>2</v>
+        <v>10</v>
+      </c>
+      <c r="I105" s="4">
+        <v>186110</v>
+      </c>
+      <c r="J105" s="2">
+        <v>4</v>
       </c>
       <c r="K105" s="1"/>
-      <c r="L105" s="3"/>
-      <c r="M105" s="3">
+      <c r="L105" s="2"/>
+      <c r="M105" s="2">
         <v>1</v>
       </c>
-      <c r="N105" s="3" t="str">
-        <v>0.6|0.6|0.6</v>
-      </c>
-      <c r="O105" s="3" t="str">
+      <c r="N105" s="2" t="str">
+        <v>1.4|0.9|1.3</v>
+      </c>
+      <c r="O105" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P105" s="3" t="str">
-        <v>0|0|-5</v>
-      </c>
-      <c r="Q105" s="3"/>
+      <c r="P105" s="2" t="str">
+        <v>0|4|-6</v>
+      </c>
+      <c r="Q105" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="106">
       <c r="A106" s="1">
-        <v>50008</v>
-      </c>
-      <c r="B106" s="3" t="str">
-        <v>卡通音响人</v>
-      </c>
-      <c r="C106" s="2" t="str">
-        <v>Shop_Name_40008</v>
+        <v>50006</v>
+      </c>
+      <c r="B106" s="2" t="str">
+        <v>音响人</v>
+      </c>
+      <c r="C106" s="3" t="str">
+        <v>Shop_Name_40006</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1">
-        <v>124423</v>
-      </c>
-      <c r="F106" s="3"/>
+        <v>37584</v>
+      </c>
+      <c r="F106" s="2"/>
       <c r="G106" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H106" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I106" s="9">
-        <v>186130</v>
-      </c>
-      <c r="J106" s="3">
+        <v>5000</v>
+      </c>
+      <c r="I106" s="4">
+        <v>186115</v>
+      </c>
+      <c r="J106" s="2">
+        <v>3</v>
+      </c>
+      <c r="K106" s="1"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2">
         <v>1</v>
       </c>
-      <c r="K106" s="1"/>
-      <c r="L106" s="3"/>
-      <c r="M106" s="3">
-        <v>1</v>
-      </c>
-      <c r="N106" s="3" t="str">
-        <v>0.28|0.48|0.28</v>
-      </c>
-      <c r="O106" s="3" t="str">
+      <c r="N106" s="1" t="str">
+        <v>0.9|0.95|0.8</v>
+      </c>
+      <c r="O106" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P106" s="3" t="str">
-        <v>0|-9|-5</v>
-      </c>
-      <c r="Q106" s="3"/>
+      <c r="P106" s="1" t="str">
+        <v>0|-1|-6</v>
+      </c>
+      <c r="Q106" s="2"/>
     </row>
     <row customHeight="true" ht="25" r="107">
       <c r="A107" s="1">
-        <v>50009</v>
-      </c>
-      <c r="B107" s="3" t="str">
-        <v>卡通电视人</v>
-      </c>
-      <c r="C107" s="2" t="str">
-        <v>Shop_Name_40009</v>
+        <v>50007</v>
+      </c>
+      <c r="B107" s="2" t="str">
+        <v>电视人</v>
+      </c>
+      <c r="C107" s="3" t="str">
+        <v>Shop_Name_40007</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1">
-        <v>124424</v>
-      </c>
-      <c r="F107" s="3"/>
+        <v>37562</v>
+      </c>
+      <c r="F107" s="2"/>
       <c r="G107" s="1">
         <v>5</v>
       </c>
       <c r="H107" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I107" s="4">
+        <v>186121</v>
+      </c>
+      <c r="J107" s="2">
+        <v>2</v>
+      </c>
+      <c r="K107" s="1"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2">
+        <v>1</v>
+      </c>
+      <c r="N107" s="2" t="str">
+        <v>0.6|0.6|0.6</v>
+      </c>
+      <c r="O107" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="P107" s="2" t="str">
+        <v>0|0|-5</v>
+      </c>
+      <c r="Q107" s="2"/>
+    </row>
+    <row customHeight="true" ht="25" r="108">
+      <c r="A108" s="1">
+        <v>50008</v>
+      </c>
+      <c r="B108" s="2" t="str">
+        <v>卡通音响人</v>
+      </c>
+      <c r="C108" s="3" t="str">
+        <v>Shop_Name_40008</v>
+      </c>
+      <c r="D108" s="1"/>
+      <c r="E108" s="1">
+        <v>124423</v>
+      </c>
+      <c r="F108" s="2"/>
+      <c r="G108" s="1">
+        <v>5</v>
+      </c>
+      <c r="H108" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I108" s="4">
+        <v>186130</v>
+      </c>
+      <c r="J108" s="2">
+        <v>1</v>
+      </c>
+      <c r="K108" s="1"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2">
+        <v>1</v>
+      </c>
+      <c r="N108" s="2" t="str">
+        <v>0.28|0.48|0.28</v>
+      </c>
+      <c r="O108" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="P108" s="2" t="str">
+        <v>0|-9|-5</v>
+      </c>
+      <c r="Q108" s="2"/>
+    </row>
+    <row customHeight="true" ht="25" r="109">
+      <c r="A109" s="1">
+        <v>50009</v>
+      </c>
+      <c r="B109" s="2" t="str">
+        <v>卡通电视人</v>
+      </c>
+      <c r="C109" s="3" t="str">
+        <v>Shop_Name_40009</v>
+      </c>
+      <c r="D109" s="1"/>
+      <c r="E109" s="1">
+        <v>124424</v>
+      </c>
+      <c r="F109" s="2"/>
+      <c r="G109" s="1">
+        <v>5</v>
+      </c>
+      <c r="H109" s="1">
         <v>1500</v>
       </c>
-      <c r="I107" s="9">
+      <c r="I109" s="4">
         <v>186127</v>
       </c>
-      <c r="J107" s="3">
-        <v>0</v>
-      </c>
-      <c r="K107" s="1"/>
-      <c r="L107" s="3"/>
-      <c r="M107" s="3">
+      <c r="J109" s="2">
+        <v>0</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2">
         <v>1</v>
       </c>
-      <c r="N107" s="3" t="str">
+      <c r="N109" s="2" t="str">
         <v>0.23|0.25|0.23</v>
       </c>
-      <c r="O107" s="3" t="str">
+      <c r="O109" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P107" s="3" t="str">
+      <c r="P109" s="2" t="str">
         <v>0|1|-7</v>
       </c>
-      <c r="Q107" s="3"/>
+      <c r="Q109" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4931,7 +5001,7 @@
       <c r="A1" s="21">
         <v>40000</v>
       </c>
-      <c r="B1" s="22" t="str">
+      <c r="B1" s="23" t="str">
         <v>种类三数量</v>
       </c>
       <c r="C1" s="21" t="str">
@@ -4941,29 +5011,29 @@
         <v>29</v>
       </c>
       <c r="E1" s="21"/>
-      <c r="F1" s="22"/>
+      <c r="F1" s="23"/>
       <c r="G1" s="21">
         <v>0</v>
       </c>
       <c r="H1" s="21"/>
       <c r="I1" s="24"/>
-      <c r="J1" s="22"/>
-      <c r="K1" s="22"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
       <c r="L1" s="21"/>
       <c r="M1" s="21"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="Q1" s="22"/>
+      <c r="R1" s="22"/>
+      <c r="S1" s="22"/>
+      <c r="T1" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="2">
       <c r="A2" s="21">
         <v>40001</v>
       </c>
-      <c r="B2" s="22" t="str">
+      <c r="B2" s="23" t="str">
         <v>温柔学姐</v>
       </c>
       <c r="C2" s="21" t="str">
@@ -4971,7 +5041,7 @@
       </c>
       <c r="D2" s="21"/>
       <c r="E2" s="21"/>
-      <c r="F2" s="22"/>
+      <c r="F2" s="23"/>
       <c r="G2" s="21">
         <v>0</v>
       </c>
@@ -4981,25 +5051,25 @@
       <c r="I2" s="21">
         <v>86337</v>
       </c>
-      <c r="J2" s="22">
+      <c r="J2" s="23">
         <v>10001</v>
       </c>
-      <c r="K2" s="22"/>
+      <c r="K2" s="23"/>
       <c r="L2" s="21"/>
-      <c r="M2" s="22"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="22"/>
+      <c r="O2" s="22"/>
+      <c r="P2" s="22"/>
+      <c r="Q2" s="22"/>
+      <c r="R2" s="22"/>
+      <c r="S2" s="22"/>
+      <c r="T2" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="3">
       <c r="A3" s="21">
         <v>40002</v>
       </c>
-      <c r="B3" s="22" t="str">
+      <c r="B3" s="23" t="str">
         <v>风纪委员</v>
       </c>
       <c r="C3" s="21" t="str">
@@ -5007,7 +5077,7 @@
       </c>
       <c r="D3" s="21"/>
       <c r="E3" s="21"/>
-      <c r="F3" s="22"/>
+      <c r="F3" s="23"/>
       <c r="G3" s="21">
         <v>0</v>
       </c>
@@ -5017,25 +5087,25 @@
       <c r="I3" s="21">
         <v>86335</v>
       </c>
-      <c r="J3" s="22">
+      <c r="J3" s="23">
         <v>10002</v>
       </c>
-      <c r="K3" s="22"/>
+      <c r="K3" s="23"/>
       <c r="L3" s="21"/>
-      <c r="M3" s="22"/>
-      <c r="N3" s="23"/>
-      <c r="O3" s="23"/>
-      <c r="P3" s="23"/>
-      <c r="Q3" s="23"/>
-      <c r="R3" s="23"/>
-      <c r="S3" s="23"/>
-      <c r="T3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="22"/>
+      <c r="O3" s="22"/>
+      <c r="P3" s="22"/>
+      <c r="Q3" s="22"/>
+      <c r="R3" s="22"/>
+      <c r="S3" s="22"/>
+      <c r="T3" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="4">
       <c r="A4" s="21">
         <v>40003</v>
       </c>
-      <c r="B4" s="22" t="str">
+      <c r="B4" s="23" t="str">
         <v>不良少女</v>
       </c>
       <c r="C4" s="21" t="str">
@@ -5043,7 +5113,7 @@
       </c>
       <c r="D4" s="21"/>
       <c r="E4" s="21"/>
-      <c r="F4" s="22"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="21">
         <v>0</v>
       </c>
@@ -5053,25 +5123,25 @@
       <c r="I4" s="21">
         <v>86333</v>
       </c>
-      <c r="J4" s="22">
+      <c r="J4" s="23">
         <v>20001</v>
       </c>
-      <c r="K4" s="22"/>
+      <c r="K4" s="23"/>
       <c r="L4" s="21"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="23"/>
-      <c r="O4" s="23"/>
-      <c r="P4" s="23"/>
-      <c r="Q4" s="23"/>
-      <c r="R4" s="23"/>
-      <c r="S4" s="23"/>
-      <c r="T4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="5">
       <c r="A5" s="21">
         <v>40004</v>
       </c>
-      <c r="B5" s="22" t="str">
+      <c r="B5" s="23" t="str">
         <v>韩式淑女</v>
       </c>
       <c r="C5" s="21" t="str">
@@ -5079,7 +5149,7 @@
       </c>
       <c r="D5" s="21"/>
       <c r="E5" s="21"/>
-      <c r="F5" s="22"/>
+      <c r="F5" s="23"/>
       <c r="G5" s="21">
         <v>0</v>
       </c>
@@ -5089,25 +5159,25 @@
       <c r="I5" s="21">
         <v>86334</v>
       </c>
-      <c r="J5" s="22">
+      <c r="J5" s="23">
         <v>20002</v>
       </c>
-      <c r="K5" s="22"/>
+      <c r="K5" s="23"/>
       <c r="L5" s="21"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="23"/>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
+      <c r="M5" s="23"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="6">
       <c r="A6" s="21">
         <v>40005</v>
       </c>
-      <c r="B6" s="22" t="str">
+      <c r="B6" s="23" t="str">
         <v>可爱学妹</v>
       </c>
       <c r="C6" s="21" t="str">
@@ -5115,7 +5185,7 @@
       </c>
       <c r="D6" s="21"/>
       <c r="E6" s="21"/>
-      <c r="F6" s="22"/>
+      <c r="F6" s="23"/>
       <c r="G6" s="21">
         <v>0</v>
       </c>
@@ -5125,25 +5195,25 @@
       <c r="I6" s="21">
         <v>94181</v>
       </c>
-      <c r="J6" s="22">
+      <c r="J6" s="23">
         <v>30001</v>
       </c>
-      <c r="K6" s="22"/>
+      <c r="K6" s="23"/>
       <c r="L6" s="21"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="23"/>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
+      <c r="M6" s="23"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22"/>
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22"/>
+      <c r="T6" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="7">
       <c r="A7" s="21">
         <v>40006</v>
       </c>
-      <c r="B7" s="22" t="str">
+      <c r="B7" s="23" t="str">
         <v>奇幻少女</v>
       </c>
       <c r="C7" s="21" t="str">
@@ -5151,7 +5221,7 @@
       </c>
       <c r="D7" s="21"/>
       <c r="E7" s="21"/>
-      <c r="F7" s="22"/>
+      <c r="F7" s="23"/>
       <c r="G7" s="21">
         <v>0</v>
       </c>
@@ -5161,25 +5231,25 @@
       <c r="I7" s="21">
         <v>94180</v>
       </c>
-      <c r="J7" s="22">
+      <c r="J7" s="23">
         <v>30002</v>
       </c>
-      <c r="K7" s="22"/>
+      <c r="K7" s="23"/>
       <c r="L7" s="21"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="23"/>
-      <c r="O7" s="23"/>
-      <c r="P7" s="23"/>
-      <c r="Q7" s="23"/>
-      <c r="R7" s="23"/>
-      <c r="S7" s="23"/>
-      <c r="T7" s="23"/>
+      <c r="M7" s="23"/>
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="22"/>
+      <c r="S7" s="22"/>
+      <c r="T7" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="8">
       <c r="A8" s="21">
         <v>40007</v>
       </c>
-      <c r="B8" s="22" t="str">
+      <c r="B8" s="23" t="str">
         <v>温柔学长</v>
       </c>
       <c r="C8" s="21" t="str">
@@ -5187,7 +5257,7 @@
       </c>
       <c r="D8" s="21"/>
       <c r="E8" s="21"/>
-      <c r="F8" s="22"/>
+      <c r="F8" s="23"/>
       <c r="G8" s="21">
         <v>0</v>
       </c>
@@ -5197,25 +5267,25 @@
       <c r="I8" s="21">
         <v>94184</v>
       </c>
-      <c r="J8" s="22">
+      <c r="J8" s="23">
         <v>30003</v>
       </c>
-      <c r="K8" s="22"/>
+      <c r="K8" s="23"/>
       <c r="L8" s="21"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="23"/>
-      <c r="O8" s="23"/>
-      <c r="P8" s="23"/>
-      <c r="Q8" s="23"/>
-      <c r="R8" s="23"/>
-      <c r="S8" s="23"/>
-      <c r="T8" s="23"/>
+      <c r="M8" s="23"/>
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="22"/>
+      <c r="S8" s="22"/>
+      <c r="T8" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="9">
       <c r="A9" s="21">
         <v>40008</v>
       </c>
-      <c r="B9" s="22" t="str">
+      <c r="B9" s="23" t="str">
         <v>不良少年</v>
       </c>
       <c r="C9" s="21" t="str">
@@ -5223,7 +5293,7 @@
       </c>
       <c r="D9" s="21"/>
       <c r="E9" s="21"/>
-      <c r="F9" s="22"/>
+      <c r="F9" s="23"/>
       <c r="G9" s="21">
         <v>0</v>
       </c>
@@ -5233,19 +5303,19 @@
       <c r="I9" s="21">
         <v>94182</v>
       </c>
-      <c r="J9" s="22">
+      <c r="J9" s="23">
         <v>30004</v>
       </c>
-      <c r="K9" s="22"/>
+      <c r="K9" s="23"/>
       <c r="L9" s="21"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="23"/>
-      <c r="O9" s="23"/>
-      <c r="P9" s="23"/>
-      <c r="Q9" s="23"/>
-      <c r="R9" s="23"/>
-      <c r="S9" s="23"/>
-      <c r="T9" s="23"/>
+      <c r="M9" s="23"/>
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="22"/>
+      <c r="S9" s="22"/>
+      <c r="T9" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="10">
       <c r="A10" s="21">
@@ -5259,7 +5329,7 @@
       </c>
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
-      <c r="F10" s="22"/>
+      <c r="F10" s="23"/>
       <c r="G10" s="21">
         <v>0</v>
       </c>
@@ -5269,19 +5339,19 @@
       <c r="I10" s="21">
         <v>110493</v>
       </c>
-      <c r="J10" s="22">
+      <c r="J10" s="23">
         <v>30009</v>
       </c>
-      <c r="K10" s="22"/>
+      <c r="K10" s="23"/>
       <c r="L10" s="21"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="23"/>
-      <c r="O10" s="23"/>
-      <c r="P10" s="23"/>
-      <c r="Q10" s="23"/>
-      <c r="R10" s="23"/>
-      <c r="S10" s="23"/>
-      <c r="T10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="22"/>
+      <c r="S10" s="22"/>
+      <c r="T10" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="11">
       <c r="A11" s="21">
@@ -5295,7 +5365,7 @@
       </c>
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
-      <c r="F11" s="22"/>
+      <c r="F11" s="23"/>
       <c r="G11" s="21">
         <v>0</v>
       </c>
@@ -5305,19 +5375,19 @@
       <c r="I11" s="21">
         <v>110508</v>
       </c>
-      <c r="J11" s="22">
+      <c r="J11" s="23">
         <v>30010</v>
       </c>
-      <c r="K11" s="22"/>
+      <c r="K11" s="23"/>
       <c r="L11" s="21"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="23"/>
-      <c r="O11" s="23"/>
-      <c r="P11" s="23"/>
-      <c r="Q11" s="23"/>
-      <c r="R11" s="23"/>
-      <c r="S11" s="23"/>
-      <c r="T11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="22"/>
+      <c r="P11" s="22"/>
+      <c r="Q11" s="22"/>
+      <c r="R11" s="22"/>
+      <c r="S11" s="22"/>
+      <c r="T11" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="12">
       <c r="A12" s="21">
@@ -5331,7 +5401,7 @@
       </c>
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
-      <c r="F12" s="22"/>
+      <c r="F12" s="23"/>
       <c r="G12" s="21">
         <v>0</v>
       </c>
@@ -5341,19 +5411,19 @@
       <c r="I12" s="21">
         <v>110522</v>
       </c>
-      <c r="J12" s="22">
+      <c r="J12" s="23">
         <v>30011</v>
       </c>
-      <c r="K12" s="22"/>
+      <c r="K12" s="23"/>
       <c r="L12" s="21"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="23"/>
-      <c r="O12" s="23"/>
-      <c r="P12" s="23"/>
-      <c r="Q12" s="23"/>
-      <c r="R12" s="23"/>
-      <c r="S12" s="23"/>
-      <c r="T12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="22"/>
+      <c r="O12" s="22"/>
+      <c r="P12" s="22"/>
+      <c r="Q12" s="22"/>
+      <c r="R12" s="22"/>
+      <c r="S12" s="22"/>
+      <c r="T12" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="13">
       <c r="A13" s="21">
@@ -5367,7 +5437,7 @@
       </c>
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
-      <c r="F13" s="22"/>
+      <c r="F13" s="23"/>
       <c r="G13" s="21">
         <v>0</v>
       </c>
@@ -5377,19 +5447,19 @@
       <c r="I13" s="21">
         <v>110490</v>
       </c>
-      <c r="J13" s="22">
+      <c r="J13" s="23">
         <v>30012</v>
       </c>
-      <c r="K13" s="22"/>
+      <c r="K13" s="23"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="23"/>
-      <c r="O13" s="23"/>
-      <c r="P13" s="23"/>
-      <c r="Q13" s="23"/>
-      <c r="R13" s="23"/>
-      <c r="S13" s="23"/>
-      <c r="T13" s="23"/>
+      <c r="M13" s="23"/>
+      <c r="N13" s="22"/>
+      <c r="O13" s="22"/>
+      <c r="P13" s="22"/>
+      <c r="Q13" s="22"/>
+      <c r="R13" s="22"/>
+      <c r="S13" s="22"/>
+      <c r="T13" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="14">
       <c r="A14" s="21">
@@ -5403,7 +5473,7 @@
       </c>
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
-      <c r="F14" s="22"/>
+      <c r="F14" s="23"/>
       <c r="G14" s="21">
         <v>0</v>
       </c>
@@ -5413,19 +5483,19 @@
       <c r="I14" s="21">
         <v>110500</v>
       </c>
-      <c r="J14" s="22">
+      <c r="J14" s="23">
         <v>30013</v>
       </c>
-      <c r="K14" s="22"/>
+      <c r="K14" s="23"/>
       <c r="L14" s="21"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="23"/>
-      <c r="Q14" s="23"/>
-      <c r="R14" s="23"/>
-      <c r="S14" s="23"/>
-      <c r="T14" s="23"/>
+      <c r="M14" s="23"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="22"/>
+      <c r="Q14" s="22"/>
+      <c r="R14" s="22"/>
+      <c r="S14" s="22"/>
+      <c r="T14" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="15">
       <c r="A15" s="21">
@@ -5439,7 +5509,7 @@
       </c>
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
-      <c r="F15" s="22"/>
+      <c r="F15" s="23"/>
       <c r="G15" s="21">
         <v>0</v>
       </c>
@@ -5449,25 +5519,25 @@
       <c r="I15" s="21">
         <v>110498</v>
       </c>
-      <c r="J15" s="22">
+      <c r="J15" s="23">
         <v>30014</v>
       </c>
-      <c r="K15" s="22"/>
+      <c r="K15" s="23"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="23"/>
-      <c r="O15" s="23"/>
-      <c r="P15" s="23"/>
-      <c r="Q15" s="23"/>
-      <c r="R15" s="23"/>
-      <c r="S15" s="23"/>
-      <c r="T15" s="23"/>
+      <c r="M15" s="23"/>
+      <c r="N15" s="22"/>
+      <c r="O15" s="22"/>
+      <c r="P15" s="22"/>
+      <c r="Q15" s="22"/>
+      <c r="R15" s="22"/>
+      <c r="S15" s="22"/>
+      <c r="T15" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="16">
       <c r="A16" s="21">
         <v>40015</v>
       </c>
-      <c r="B16" s="22" t="str">
+      <c r="B16" s="23" t="str">
         <v>学生会长</v>
       </c>
       <c r="C16" s="21" t="str">
@@ -5475,35 +5545,35 @@
       </c>
       <c r="D16" s="21"/>
       <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
+      <c r="F16" s="23"/>
       <c r="G16" s="21">
         <v>0</v>
       </c>
       <c r="H16" s="21">
         <v>1000</v>
       </c>
-      <c r="I16" s="22">
+      <c r="I16" s="23">
         <v>141795</v>
       </c>
-      <c r="J16" s="22">
+      <c r="J16" s="23">
         <v>30015</v>
       </c>
-      <c r="K16" s="22"/>
+      <c r="K16" s="23"/>
       <c r="L16" s="21"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="23"/>
-      <c r="O16" s="23"/>
-      <c r="P16" s="23"/>
-      <c r="Q16" s="23"/>
-      <c r="R16" s="23"/>
-      <c r="S16" s="23"/>
-      <c r="T16" s="23"/>
+      <c r="M16" s="23"/>
+      <c r="N16" s="22"/>
+      <c r="O16" s="22"/>
+      <c r="P16" s="22"/>
+      <c r="Q16" s="22"/>
+      <c r="R16" s="22"/>
+      <c r="S16" s="22"/>
+      <c r="T16" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="17">
       <c r="A17" s="21">
         <v>40016</v>
       </c>
-      <c r="B17" s="22" t="str">
+      <c r="B17" s="23" t="str">
         <v>女老师</v>
       </c>
       <c r="C17" s="21" t="str">
@@ -5511,35 +5581,35 @@
       </c>
       <c r="D17" s="21"/>
       <c r="E17" s="21"/>
-      <c r="F17" s="22"/>
+      <c r="F17" s="23"/>
       <c r="G17" s="21">
         <v>0</v>
       </c>
       <c r="H17" s="21">
         <v>2000</v>
       </c>
-      <c r="I17" s="22">
+      <c r="I17" s="23">
         <v>141819</v>
       </c>
-      <c r="J17" s="22">
+      <c r="J17" s="23">
         <v>30016</v>
       </c>
-      <c r="K17" s="22"/>
+      <c r="K17" s="23"/>
       <c r="L17" s="21"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="23"/>
-      <c r="O17" s="23"/>
-      <c r="P17" s="23"/>
-      <c r="Q17" s="23"/>
-      <c r="R17" s="23"/>
-      <c r="S17" s="23"/>
-      <c r="T17" s="23"/>
+      <c r="M17" s="23"/>
+      <c r="N17" s="22"/>
+      <c r="O17" s="22"/>
+      <c r="P17" s="22"/>
+      <c r="Q17" s="22"/>
+      <c r="R17" s="22"/>
+      <c r="S17" s="22"/>
+      <c r="T17" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="18">
       <c r="A18" s="21">
         <v>40017</v>
       </c>
-      <c r="B18" s="22" t="str">
+      <c r="B18" s="23" t="str">
         <v>班主任</v>
       </c>
       <c r="C18" s="21" t="str">
@@ -5547,35 +5617,35 @@
       </c>
       <c r="D18" s="21"/>
       <c r="E18" s="21"/>
-      <c r="F18" s="22"/>
+      <c r="F18" s="23"/>
       <c r="G18" s="21">
         <v>0</v>
       </c>
       <c r="H18" s="21">
         <v>2000</v>
       </c>
-      <c r="I18" s="22">
+      <c r="I18" s="23">
         <v>141810</v>
       </c>
-      <c r="J18" s="22">
+      <c r="J18" s="23">
         <v>30017</v>
       </c>
-      <c r="K18" s="22"/>
+      <c r="K18" s="23"/>
       <c r="L18" s="21"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="23"/>
-      <c r="O18" s="23"/>
-      <c r="P18" s="23"/>
-      <c r="Q18" s="23"/>
-      <c r="R18" s="23"/>
-      <c r="S18" s="23"/>
-      <c r="T18" s="23"/>
+      <c r="M18" s="23"/>
+      <c r="N18" s="22"/>
+      <c r="O18" s="22"/>
+      <c r="P18" s="22"/>
+      <c r="Q18" s="22"/>
+      <c r="R18" s="22"/>
+      <c r="S18" s="22"/>
+      <c r="T18" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="19">
       <c r="A19" s="21">
         <v>40018</v>
       </c>
-      <c r="B19" s="22" t="str">
+      <c r="B19" s="23" t="str">
         <v>海边姐姐</v>
       </c>
       <c r="C19" s="21" t="str">
@@ -5583,35 +5653,35 @@
       </c>
       <c r="D19" s="21"/>
       <c r="E19" s="21"/>
-      <c r="F19" s="22"/>
+      <c r="F19" s="23"/>
       <c r="G19" s="21">
         <v>0</v>
       </c>
       <c r="H19" s="21">
         <v>2000</v>
       </c>
-      <c r="I19" s="22">
+      <c r="I19" s="23">
         <v>141798</v>
       </c>
-      <c r="J19" s="22">
+      <c r="J19" s="23">
         <v>30018</v>
       </c>
-      <c r="K19" s="22"/>
+      <c r="K19" s="23"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="23"/>
-      <c r="O19" s="23"/>
-      <c r="P19" s="23"/>
-      <c r="Q19" s="23"/>
-      <c r="R19" s="23"/>
-      <c r="S19" s="23"/>
-      <c r="T19" s="23"/>
+      <c r="M19" s="23"/>
+      <c r="N19" s="22"/>
+      <c r="O19" s="22"/>
+      <c r="P19" s="22"/>
+      <c r="Q19" s="22"/>
+      <c r="R19" s="22"/>
+      <c r="S19" s="22"/>
+      <c r="T19" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="20">
       <c r="A20" s="21">
         <v>40019</v>
       </c>
-      <c r="B20" s="22" t="str">
+      <c r="B20" s="23" t="str">
         <v>邻家妹妹</v>
       </c>
       <c r="C20" s="21" t="str">
@@ -5619,35 +5689,35 @@
       </c>
       <c r="D20" s="21"/>
       <c r="E20" s="21"/>
-      <c r="F20" s="22"/>
+      <c r="F20" s="23"/>
       <c r="G20" s="21">
         <v>0</v>
       </c>
       <c r="H20" s="21">
         <v>3000</v>
       </c>
-      <c r="I20" s="22">
+      <c r="I20" s="23">
         <v>141787</v>
       </c>
-      <c r="J20" s="22">
+      <c r="J20" s="23">
         <v>30019</v>
       </c>
-      <c r="K20" s="22"/>
+      <c r="K20" s="23"/>
       <c r="L20" s="21"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="23"/>
-      <c r="O20" s="23"/>
-      <c r="P20" s="23"/>
-      <c r="Q20" s="23"/>
-      <c r="R20" s="23"/>
-      <c r="S20" s="23"/>
-      <c r="T20" s="23"/>
+      <c r="M20" s="23"/>
+      <c r="N20" s="22"/>
+      <c r="O20" s="22"/>
+      <c r="P20" s="22"/>
+      <c r="Q20" s="22"/>
+      <c r="R20" s="22"/>
+      <c r="S20" s="22"/>
+      <c r="T20" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="21">
       <c r="A21" s="21">
         <v>40020</v>
       </c>
-      <c r="B21" s="22" t="str">
+      <c r="B21" s="23" t="str">
         <v>健身教练</v>
       </c>
       <c r="C21" s="21" t="str">
@@ -5655,35 +5725,35 @@
       </c>
       <c r="D21" s="21"/>
       <c r="E21" s="21"/>
-      <c r="F21" s="22"/>
+      <c r="F21" s="23"/>
       <c r="G21" s="21">
         <v>0</v>
       </c>
       <c r="H21" s="21">
         <v>3000</v>
       </c>
-      <c r="I21" s="22">
+      <c r="I21" s="23">
         <v>141814</v>
       </c>
-      <c r="J21" s="22">
+      <c r="J21" s="23">
         <v>30020</v>
       </c>
-      <c r="K21" s="22"/>
+      <c r="K21" s="23"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="23"/>
-      <c r="O21" s="23"/>
-      <c r="P21" s="23"/>
-      <c r="Q21" s="23"/>
-      <c r="R21" s="23"/>
-      <c r="S21" s="23"/>
-      <c r="T21" s="23"/>
+      <c r="M21" s="23"/>
+      <c r="N21" s="22"/>
+      <c r="O21" s="22"/>
+      <c r="P21" s="22"/>
+      <c r="Q21" s="22"/>
+      <c r="R21" s="22"/>
+      <c r="S21" s="22"/>
+      <c r="T21" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="22">
       <c r="A22" s="21">
         <v>40021</v>
       </c>
-      <c r="B22" s="22" t="str">
+      <c r="B22" s="23" t="str">
         <v>优雅少女</v>
       </c>
       <c r="C22" s="21" t="str">
@@ -5691,35 +5761,35 @@
       </c>
       <c r="D22" s="21"/>
       <c r="E22" s="21"/>
-      <c r="F22" s="22"/>
+      <c r="F22" s="23"/>
       <c r="G22" s="21">
         <v>0</v>
       </c>
       <c r="H22" s="21">
         <v>3000</v>
       </c>
-      <c r="I22" s="22">
+      <c r="I22" s="23">
         <v>141803</v>
       </c>
-      <c r="J22" s="22">
+      <c r="J22" s="23">
         <v>30021</v>
       </c>
-      <c r="K22" s="22"/>
+      <c r="K22" s="23"/>
       <c r="L22" s="21"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
+      <c r="M22" s="23"/>
+      <c r="N22" s="22"/>
+      <c r="O22" s="22"/>
+      <c r="P22" s="22"/>
+      <c r="Q22" s="22"/>
+      <c r="R22" s="22"/>
+      <c r="S22" s="22"/>
+      <c r="T22" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="23">
       <c r="A23" s="21">
         <v>40022</v>
       </c>
-      <c r="B23" s="22" t="str">
+      <c r="B23" s="23" t="str">
         <v>探险家</v>
       </c>
       <c r="C23" s="21" t="str">
@@ -5727,35 +5797,35 @@
       </c>
       <c r="D23" s="21"/>
       <c r="E23" s="21"/>
-      <c r="F23" s="22"/>
+      <c r="F23" s="23"/>
       <c r="G23" s="21">
         <v>0</v>
       </c>
       <c r="H23" s="21">
         <v>4000</v>
       </c>
-      <c r="I23" s="22">
+      <c r="I23" s="23">
         <v>141801</v>
       </c>
-      <c r="J23" s="22">
+      <c r="J23" s="23">
         <v>30022</v>
       </c>
-      <c r="K23" s="22"/>
+      <c r="K23" s="23"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
+      <c r="M23" s="23"/>
+      <c r="N23" s="22"/>
+      <c r="O23" s="22"/>
+      <c r="P23" s="22"/>
+      <c r="Q23" s="22"/>
+      <c r="R23" s="22"/>
+      <c r="S23" s="22"/>
+      <c r="T23" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="24">
       <c r="A24" s="21">
         <v>40023</v>
       </c>
-      <c r="B24" s="22" t="str">
+      <c r="B24" s="23" t="str">
         <v>民国学生</v>
       </c>
       <c r="C24" s="21" t="str">
@@ -5763,35 +5833,35 @@
       </c>
       <c r="D24" s="21"/>
       <c r="E24" s="21"/>
-      <c r="F24" s="22"/>
+      <c r="F24" s="23"/>
       <c r="G24" s="21">
         <v>0</v>
       </c>
       <c r="H24" s="21">
         <v>4000</v>
       </c>
-      <c r="I24" s="22">
+      <c r="I24" s="23">
         <v>141815</v>
       </c>
-      <c r="J24" s="22">
+      <c r="J24" s="23">
         <v>30023</v>
       </c>
-      <c r="K24" s="22"/>
+      <c r="K24" s="23"/>
       <c r="L24" s="21"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="23"/>
-      <c r="O24" s="23"/>
-      <c r="P24" s="23"/>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="23"/>
-      <c r="S24" s="23"/>
-      <c r="T24" s="23"/>
+      <c r="M24" s="23"/>
+      <c r="N24" s="22"/>
+      <c r="O24" s="22"/>
+      <c r="P24" s="22"/>
+      <c r="Q24" s="22"/>
+      <c r="R24" s="22"/>
+      <c r="S24" s="22"/>
+      <c r="T24" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="25">
       <c r="A25" s="21">
         <v>40024</v>
       </c>
-      <c r="B25" s="22" t="str">
+      <c r="B25" s="23" t="str">
         <v>可可少女</v>
       </c>
       <c r="C25" s="21" t="str">
@@ -5799,35 +5869,35 @@
       </c>
       <c r="D25" s="21"/>
       <c r="E25" s="21"/>
-      <c r="F25" s="22"/>
+      <c r="F25" s="23"/>
       <c r="G25" s="21">
         <v>0</v>
       </c>
       <c r="H25" s="21">
         <v>4000</v>
       </c>
-      <c r="I25" s="22">
+      <c r="I25" s="23">
         <v>141808</v>
       </c>
-      <c r="J25" s="22">
+      <c r="J25" s="23">
         <v>30024</v>
       </c>
-      <c r="K25" s="22"/>
+      <c r="K25" s="23"/>
       <c r="L25" s="21"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="23"/>
-      <c r="O25" s="23"/>
-      <c r="P25" s="23"/>
-      <c r="Q25" s="23"/>
-      <c r="R25" s="23"/>
-      <c r="S25" s="23"/>
-      <c r="T25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="22"/>
+      <c r="O25" s="22"/>
+      <c r="P25" s="22"/>
+      <c r="Q25" s="22"/>
+      <c r="R25" s="22"/>
+      <c r="S25" s="22"/>
+      <c r="T25" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="26">
       <c r="A26" s="21">
         <v>40025</v>
       </c>
-      <c r="B26" s="22" t="str">
+      <c r="B26" s="23" t="str">
         <v>猫猫店员</v>
       </c>
       <c r="C26" s="21" t="str">
@@ -5835,35 +5905,35 @@
       </c>
       <c r="D26" s="21"/>
       <c r="E26" s="21"/>
-      <c r="F26" s="22"/>
+      <c r="F26" s="23"/>
       <c r="G26" s="21">
         <v>0</v>
       </c>
       <c r="H26" s="21">
         <v>5000</v>
       </c>
-      <c r="I26" s="22">
+      <c r="I26" s="23">
         <v>141792</v>
       </c>
-      <c r="J26" s="22">
+      <c r="J26" s="23">
         <v>30025</v>
       </c>
-      <c r="K26" s="22"/>
+      <c r="K26" s="23"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="23"/>
-      <c r="O26" s="23"/>
-      <c r="P26" s="23"/>
-      <c r="Q26" s="23"/>
-      <c r="R26" s="23"/>
-      <c r="S26" s="23"/>
-      <c r="T26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="22"/>
+      <c r="O26" s="22"/>
+      <c r="P26" s="22"/>
+      <c r="Q26" s="22"/>
+      <c r="R26" s="22"/>
+      <c r="S26" s="22"/>
+      <c r="T26" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="27">
       <c r="A27" s="21">
         <v>40026</v>
       </c>
-      <c r="B27" s="22" t="str">
+      <c r="B27" s="23" t="str">
         <v>女仆甜心</v>
       </c>
       <c r="C27" s="21" t="str">
@@ -5871,35 +5941,35 @@
       </c>
       <c r="D27" s="21"/>
       <c r="E27" s="21"/>
-      <c r="F27" s="22"/>
+      <c r="F27" s="23"/>
       <c r="G27" s="21">
         <v>0</v>
       </c>
       <c r="H27" s="21">
         <v>5000</v>
       </c>
-      <c r="I27" s="22">
+      <c r="I27" s="23">
         <v>141816</v>
       </c>
-      <c r="J27" s="22">
+      <c r="J27" s="23">
         <v>30026</v>
       </c>
-      <c r="K27" s="22"/>
+      <c r="K27" s="23"/>
       <c r="L27" s="21"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="23"/>
-      <c r="O27" s="23"/>
-      <c r="P27" s="23"/>
-      <c r="Q27" s="23"/>
-      <c r="R27" s="23"/>
-      <c r="S27" s="23"/>
-      <c r="T27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="22"/>
+      <c r="O27" s="22"/>
+      <c r="P27" s="22"/>
+      <c r="Q27" s="22"/>
+      <c r="R27" s="22"/>
+      <c r="S27" s="22"/>
+      <c r="T27" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="28">
       <c r="A28" s="21">
         <v>40027</v>
       </c>
-      <c r="B28" s="22" t="str">
+      <c r="B28" s="23" t="str">
         <v>猫耳女仆</v>
       </c>
       <c r="C28" s="21" t="str">
@@ -5907,35 +5977,35 @@
       </c>
       <c r="D28" s="21"/>
       <c r="E28" s="21"/>
-      <c r="F28" s="22"/>
+      <c r="F28" s="23"/>
       <c r="G28" s="21">
         <v>0</v>
       </c>
       <c r="H28" s="21">
         <v>5000</v>
       </c>
-      <c r="I28" s="22">
+      <c r="I28" s="23">
         <v>141807</v>
       </c>
-      <c r="J28" s="22">
+      <c r="J28" s="23">
         <v>30027</v>
       </c>
-      <c r="K28" s="22"/>
+      <c r="K28" s="23"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="22"/>
+      <c r="O28" s="22"/>
+      <c r="P28" s="22"/>
+      <c r="Q28" s="22"/>
+      <c r="R28" s="22"/>
+      <c r="S28" s="22"/>
+      <c r="T28" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="29">
       <c r="A29" s="21">
         <v>40028</v>
       </c>
-      <c r="B29" s="22" t="str">
+      <c r="B29" s="23" t="str">
         <v>少女偶像</v>
       </c>
       <c r="C29" s="21" t="str">
@@ -5943,35 +6013,35 @@
       </c>
       <c r="D29" s="21"/>
       <c r="E29" s="21"/>
-      <c r="F29" s="22"/>
+      <c r="F29" s="23"/>
       <c r="G29" s="21">
         <v>0</v>
       </c>
       <c r="H29" s="21">
         <v>5000</v>
       </c>
-      <c r="I29" s="22">
+      <c r="I29" s="23">
         <v>141799</v>
       </c>
-      <c r="J29" s="22">
+      <c r="J29" s="23">
         <v>30028</v>
       </c>
-      <c r="K29" s="22"/>
+      <c r="K29" s="23"/>
       <c r="L29" s="21"/>
-      <c r="M29" s="22"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="22"/>
+      <c r="O29" s="22"/>
+      <c r="P29" s="22"/>
+      <c r="Q29" s="22"/>
+      <c r="R29" s="22"/>
+      <c r="S29" s="22"/>
+      <c r="T29" s="22"/>
     </row>
     <row customHeight="true" ht="25" r="30">
       <c r="A30" s="21">
         <v>40029</v>
       </c>
-      <c r="B30" s="22" t="str">
+      <c r="B30" s="23" t="str">
         <v>圣诞少女</v>
       </c>
       <c r="C30" s="21" t="str">
@@ -5979,29 +6049,29 @@
       </c>
       <c r="D30" s="21"/>
       <c r="E30" s="21"/>
-      <c r="F30" s="22"/>
+      <c r="F30" s="23"/>
       <c r="G30" s="21">
         <v>0</v>
       </c>
       <c r="H30" s="21">
         <v>5000</v>
       </c>
-      <c r="I30" s="22">
+      <c r="I30" s="23">
         <v>141789</v>
       </c>
-      <c r="J30" s="22">
+      <c r="J30" s="23">
         <v>30029</v>
       </c>
-      <c r="K30" s="22"/>
+      <c r="K30" s="23"/>
       <c r="L30" s="21"/>
-      <c r="M30" s="22"/>
-      <c r="N30" s="23"/>
-      <c r="O30" s="23"/>
-      <c r="P30" s="23"/>
-      <c r="Q30" s="23"/>
-      <c r="R30" s="23"/>
-      <c r="S30" s="23"/>
-      <c r="T30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="22"/>
+      <c r="O30" s="22"/>
+      <c r="P30" s="22"/>
+      <c r="Q30" s="22"/>
+      <c r="R30" s="22"/>
+      <c r="S30" s="22"/>
+      <c r="T30" s="22"/>
     </row>
   </sheetData>
 </worksheet>

--- a/wolf/Excel/Shop_商店物品表.xlsx
+++ b/wolf/Excel/Shop_商店物品表.xlsx
@@ -35,10 +35,80 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="25">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF1F2329"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -80,13 +150,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -94,14 +157,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF606266"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -122,49 +178,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF1F2329"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -233,7 +247,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
+        <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -269,24 +283,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFDDDEF"/>
         <bgColor/>
       </patternFill>
@@ -299,7 +295,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFEEF6C6"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -328,7 +342,21 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
     <border>
       <left/>
       <right/>
@@ -508,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="27">
     <xf applyAlignment="false" applyBorder="false" applyFill="false" applyFont="false" applyNumberFormat="false" applyProtection="false" borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -519,69 +547,75 @@
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="2" fontId="5" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="2" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="3" fontId="7" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="4" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="6" fontId="11" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="5" fontId="9" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="7" fontId="12" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="8" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="6" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="7" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="8" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="9" fontId="13" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="10" fontId="14" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="9" fontId="15" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="0" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="0" fontId="17" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="10" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="11" fontId="17" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="11" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="12" fontId="18" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="12" fontId="20" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="13" fontId="19" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="13" fontId="21" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="14" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="14" fontId="20" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="15" fontId="23" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="16" fontId="24" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="17" fontId="25" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="15" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="16" fontId="22" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="17" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="18" fontId="24" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="18" fontId="26" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,7 +981,7 @@
       <c r="E1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="F1" s="2" t="str">
+      <c r="F1" s="3" t="str">
         <v>Int</v>
       </c>
       <c r="G1" s="1" t="str">
@@ -959,28 +993,28 @@
       <c r="I1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="J1" s="2" t="str">
+      <c r="J1" s="3" t="str">
         <v>Int</v>
       </c>
-      <c r="K1" s="2" t="str">
+      <c r="K1" s="3" t="str">
         <v>Int</v>
       </c>
-      <c r="L1" s="2" t="str">
+      <c r="L1" s="3" t="str">
         <v>String</v>
       </c>
-      <c r="M1" s="2" t="str">
+      <c r="M1" s="3" t="str">
         <v>Int</v>
       </c>
-      <c r="N1" s="2" t="str">
+      <c r="N1" s="3" t="str">
         <v>Vector3</v>
       </c>
-      <c r="O1" s="2" t="str">
+      <c r="O1" s="3" t="str">
         <v>Vector3</v>
       </c>
-      <c r="P1" s="2" t="str">
+      <c r="P1" s="3" t="str">
         <v>Vector3</v>
       </c>
-      <c r="Q1" s="2" t="str">
+      <c r="Q1" s="3" t="str">
         <v>Int[]</v>
       </c>
     </row>
@@ -1000,7 +1034,7 @@
       <c r="E2" s="1" t="str">
         <v>ModelGuid</v>
       </c>
-      <c r="F2" s="2" t="str">
+      <c r="F2" s="3" t="str">
         <v>WeaponType</v>
       </c>
       <c r="G2" s="1" t="str">
@@ -1012,28 +1046,28 @@
       <c r="I2" s="1" t="str">
         <v>IconGuid</v>
       </c>
-      <c r="J2" s="2" t="str">
+      <c r="J2" s="3" t="str">
         <v>Rarity</v>
       </c>
       <c r="K2" s="1" t="str">
         <v>Reclaim</v>
       </c>
-      <c r="L2" s="2" t="str">
+      <c r="L2" s="3" t="str">
         <v>Comment</v>
       </c>
-      <c r="M2" s="2" t="str">
+      <c r="M2" s="3" t="str">
         <v>RabbetPart</v>
       </c>
-      <c r="N2" s="2" t="str">
+      <c r="N2" s="3" t="str">
         <v>Scale</v>
       </c>
-      <c r="O2" s="2" t="str">
+      <c r="O2" s="3" t="str">
         <v>Rotation</v>
       </c>
-      <c r="P2" s="2" t="str">
+      <c r="P2" s="3" t="str">
         <v>Offset</v>
       </c>
-      <c r="Q2" s="2" t="str">
+      <c r="Q2" s="3" t="str">
         <v>SuitItems</v>
       </c>
     </row>
@@ -1057,12 +1091,12 @@
       <c r="E3" s="1" t="str">
         <v>模型资源Guid【优先读武器表】</v>
       </c>
-      <c r="F3" s="2" t="str">
+      <c r="F3" s="3" t="str">
         <v>武器类型
 1为凶手专用
 2为侦探专用</v>
       </c>
-      <c r="G3" s="2" t="str">
+      <c r="G3" s="3" t="str">
         <v>货币类型
 0金币
 1钻石
@@ -1078,28 +1112,28 @@
       <c r="I3" s="1" t="str">
         <v>物品图标Guid</v>
       </c>
-      <c r="J3" s="2" t="str">
+      <c r="J3" s="3" t="str">
         <v>稀有度（0红，紫1，蓝2，绿3，白4）</v>
       </c>
       <c r="K3" s="1" t="str">
         <v>回收价格</v>
       </c>
-      <c r="L3" s="2" t="str">
+      <c r="L3" s="3" t="str">
         <v>备注</v>
       </c>
-      <c r="M3" s="2" t="str">
+      <c r="M3" s="3" t="str">
         <v>挂点</v>
       </c>
-      <c r="N3" s="2" t="str">
+      <c r="N3" s="3" t="str">
         <v>缩放</v>
       </c>
-      <c r="O3" s="2" t="str">
+      <c r="O3" s="3" t="str">
         <v>旋转</v>
       </c>
-      <c r="P3" s="2" t="str">
+      <c r="P3" s="3" t="str">
         <v>偏移</v>
       </c>
-      <c r="Q3" s="2" t="str">
+      <c r="Q3" s="3" t="str">
         <v>套装内容（角色表序号）</v>
       </c>
     </row>
@@ -1111,24 +1145,24 @@
       </c>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="2"/>
+      <c r="F4" s="3"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-      <c r="J4" s="2"/>
+      <c r="J4" s="3"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
     </row>
     <row customHeight="true" ht="27" r="5">
       <c r="A5" s="9">
         <v>9999</v>
       </c>
-      <c r="B5" s="7" t="str">
+      <c r="B5" s="10" t="str">
         <v>物品种类</v>
       </c>
       <c r="C5" s="9" t="str">
@@ -1138,24 +1172,24 @@
         <v>5</v>
       </c>
       <c r="E5" s="9"/>
-      <c r="F5" s="7"/>
+      <c r="F5" s="10"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
-      <c r="J5" s="7"/>
+      <c r="J5" s="10"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="7"/>
-      <c r="N5" s="7"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="7"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="10"/>
+      <c r="P5" s="10"/>
+      <c r="Q5" s="10"/>
     </row>
     <row customHeight="true" ht="27" r="6">
       <c r="A6" s="9">
         <v>10000</v>
       </c>
-      <c r="B6" s="7" t="str">
+      <c r="B6" s="10" t="str">
         <v>近战数量</v>
       </c>
       <c r="C6" s="9" t="str">
@@ -1165,36 +1199,36 @@
         <v>36</v>
       </c>
       <c r="E6" s="9"/>
-      <c r="F6" s="7"/>
+      <c r="F6" s="10"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9">
         <v>3</v>
       </c>
-      <c r="I6" s="7"/>
-      <c r="J6" s="7"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
       <c r="K6" s="9"/>
       <c r="L6" s="9"/>
-      <c r="M6" s="7"/>
-      <c r="N6" s="7"/>
-      <c r="O6" s="7"/>
-      <c r="P6" s="7"/>
-      <c r="Q6" s="7"/>
+      <c r="M6" s="10"/>
+      <c r="N6" s="10"/>
+      <c r="O6" s="10"/>
+      <c r="P6" s="10"/>
+      <c r="Q6" s="10"/>
     </row>
     <row customHeight="true" ht="27" r="7">
       <c r="A7" s="1">
         <v>10001</v>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="2" t="str">
         <v>斧子</v>
       </c>
       <c r="C7" s="1" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="15">
+      <c r="E7" s="2">
         <v>43677</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="3">
         <v>1</v>
       </c>
       <c r="G7" s="1">
@@ -1203,10 +1237,10 @@
       <c r="H7" s="1">
         <v>300</v>
       </c>
-      <c r="I7" s="2">
+      <c r="I7" s="3">
         <v>148622</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="3">
         <v>4</v>
       </c>
       <c r="K7" s="1"/>
@@ -1221,17 +1255,17 @@
       <c r="A8" s="1">
         <v>10002</v>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="2" t="str">
         <v>尼泊尔军刀</v>
       </c>
       <c r="C8" s="1" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="15">
+      <c r="E8" s="2">
         <v>94178</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="3">
         <v>1</v>
       </c>
       <c r="G8" s="1">
@@ -1240,10 +1274,10 @@
       <c r="H8" s="1">
         <v>300</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="3">
         <v>148649</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="3">
         <v>4</v>
       </c>
       <c r="K8" s="1"/>
@@ -1258,7 +1292,7 @@
       <c r="A9" s="1">
         <v>10003</v>
       </c>
-      <c r="B9" s="2" t="str">
+      <c r="B9" s="3" t="str">
         <v>匕首1</v>
       </c>
       <c r="C9" s="1" t="str">
@@ -1268,7 +1302,7 @@
       <c r="E9" s="1">
         <v>146262</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="3">
         <v>1</v>
       </c>
       <c r="G9" s="1">
@@ -1280,7 +1314,7 @@
       <c r="I9" s="1">
         <v>148634</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="3">
         <v>3</v>
       </c>
       <c r="K9" s="1"/>
@@ -1295,7 +1329,7 @@
       <c r="A10" s="1">
         <v>10004</v>
       </c>
-      <c r="B10" s="2" t="str">
+      <c r="B10" s="3" t="str">
         <v>匕首2</v>
       </c>
       <c r="C10" s="1" t="str">
@@ -1305,7 +1339,7 @@
       <c r="E10" s="1">
         <v>146269</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="3">
         <v>1</v>
       </c>
       <c r="G10" s="1">
@@ -1317,7 +1351,7 @@
       <c r="I10" s="1">
         <v>150744</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="3">
         <v>3</v>
       </c>
       <c r="K10" s="1"/>
@@ -1332,7 +1366,7 @@
       <c r="A11" s="1">
         <v>10005</v>
       </c>
-      <c r="B11" s="2" t="str">
+      <c r="B11" s="3" t="str">
         <v>菜刀（带光）</v>
       </c>
       <c r="C11" s="1" t="str">
@@ -1342,7 +1376,7 @@
       <c r="E11" s="1" t="str">
         <v>373B20D3447D1B11F9D78B8C9EF0AAD4</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="3">
         <v>1</v>
       </c>
       <c r="G11" s="1">
@@ -1354,7 +1388,7 @@
       <c r="I11" s="1">
         <v>148631</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="3">
         <v>0</v>
       </c>
       <c r="K11" s="1"/>
@@ -1379,7 +1413,7 @@
       <c r="E12" s="1" t="str">
         <v>3B9C5AAC466DB4D92C584FB0D5EBCEA4</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="3">
         <v>1</v>
       </c>
       <c r="G12" s="1">
@@ -1391,7 +1425,7 @@
       <c r="I12" s="1">
         <v>157173</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="3">
         <v>4</v>
       </c>
       <c r="K12" s="1">
@@ -1418,7 +1452,7 @@
       <c r="E13" s="1" t="str">
         <v>FAA45FEE4E0880E51DA7C39397D9D738</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="3">
         <v>1</v>
       </c>
       <c r="G13" s="1">
@@ -1430,7 +1464,7 @@
       <c r="I13" s="1">
         <v>157172</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="3">
         <v>3</v>
       </c>
       <c r="K13" s="1">
@@ -1457,7 +1491,7 @@
       <c r="E14" s="1" t="str">
         <v>62A347CA44F4CB950123F78EA77E083D</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="3">
         <v>1</v>
       </c>
       <c r="G14" s="1">
@@ -1469,7 +1503,7 @@
       <c r="I14" s="1">
         <v>157179</v>
       </c>
-      <c r="J14" s="2">
+      <c r="J14" s="3">
         <v>2</v>
       </c>
       <c r="K14" s="1">
@@ -1496,7 +1530,7 @@
       <c r="E15" s="1" t="str">
         <v>3BDC79004184A9A4F3D501AD555E110C</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="3">
         <v>1</v>
       </c>
       <c r="G15" s="1">
@@ -1508,7 +1542,7 @@
       <c r="I15" s="1">
         <v>157167</v>
       </c>
-      <c r="J15" s="2">
+      <c r="J15" s="3">
         <v>2</v>
       </c>
       <c r="K15" s="1">
@@ -1535,7 +1569,7 @@
       <c r="E16" s="1" t="str">
         <v>4BFB03B542702DDC40A2F6964505166B</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="3">
         <v>1</v>
       </c>
       <c r="G16" s="1">
@@ -1547,7 +1581,7 @@
       <c r="I16" s="1">
         <v>157182</v>
       </c>
-      <c r="J16" s="2">
+      <c r="J16" s="3">
         <v>1</v>
       </c>
       <c r="K16" s="1">
@@ -1574,7 +1608,7 @@
       <c r="E17" s="1" t="str">
         <v>C1C893FD454A0C5C307F0FA250289511</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="3">
         <v>1</v>
       </c>
       <c r="G17" s="1">
@@ -1586,7 +1620,7 @@
       <c r="I17" s="1">
         <v>157170</v>
       </c>
-      <c r="J17" s="2">
+      <c r="J17" s="3">
         <v>1</v>
       </c>
       <c r="K17" s="1">
@@ -1613,7 +1647,7 @@
       <c r="E18" s="1" t="str">
         <v>70400ACD4448B1AB37BAB091499D296C</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="3">
         <v>1</v>
       </c>
       <c r="G18" s="1">
@@ -1625,7 +1659,7 @@
       <c r="I18" s="1">
         <v>157180</v>
       </c>
-      <c r="J18" s="2">
+      <c r="J18" s="3">
         <v>1</v>
       </c>
       <c r="K18" s="1">
@@ -1652,7 +1686,7 @@
       <c r="E19" s="1" t="str">
         <v>3B9C5AAC466DB4D92C584FB0D5EBCEA4</v>
       </c>
-      <c r="F19" s="2">
+      <c r="F19" s="3">
         <v>1</v>
       </c>
       <c r="G19" s="1">
@@ -1664,7 +1698,7 @@
       <c r="I19" s="1">
         <v>157176</v>
       </c>
-      <c r="J19" s="2">
+      <c r="J19" s="3">
         <v>0</v>
       </c>
       <c r="K19" s="1">
@@ -1691,7 +1725,7 @@
       <c r="E20" s="1">
         <v>140609</v>
       </c>
-      <c r="F20" s="2">
+      <c r="F20" s="3">
         <v>1</v>
       </c>
       <c r="G20" s="1">
@@ -1703,7 +1737,7 @@
       <c r="I20" s="1">
         <v>157174</v>
       </c>
-      <c r="J20" s="2">
+      <c r="J20" s="3">
         <v>4</v>
       </c>
       <c r="K20" s="1">
@@ -1730,7 +1764,7 @@
       <c r="E21" s="1">
         <v>136408</v>
       </c>
-      <c r="F21" s="2">
+      <c r="F21" s="3">
         <v>1</v>
       </c>
       <c r="G21" s="1">
@@ -1742,7 +1776,7 @@
       <c r="I21" s="1">
         <v>157168</v>
       </c>
-      <c r="J21" s="2">
+      <c r="J21" s="3">
         <v>3</v>
       </c>
       <c r="K21" s="1">
@@ -1769,7 +1803,7 @@
       <c r="E22" s="1">
         <v>123357</v>
       </c>
-      <c r="F22" s="2">
+      <c r="F22" s="3">
         <v>1</v>
       </c>
       <c r="G22" s="1">
@@ -1781,7 +1815,7 @@
       <c r="I22" s="1">
         <v>157169</v>
       </c>
-      <c r="J22" s="2">
+      <c r="J22" s="3">
         <v>2</v>
       </c>
       <c r="K22" s="1">
@@ -1808,7 +1842,7 @@
       <c r="E23" s="1">
         <v>138213</v>
       </c>
-      <c r="F23" s="2">
+      <c r="F23" s="3">
         <v>1</v>
       </c>
       <c r="G23" s="1">
@@ -1820,7 +1854,7 @@
       <c r="I23" s="1">
         <v>157181</v>
       </c>
-      <c r="J23" s="2">
+      <c r="J23" s="3">
         <v>2</v>
       </c>
       <c r="K23" s="1">
@@ -1847,7 +1881,7 @@
       <c r="E24" s="1">
         <v>123355</v>
       </c>
-      <c r="F24" s="2">
+      <c r="F24" s="3">
         <v>1</v>
       </c>
       <c r="G24" s="1">
@@ -1859,7 +1893,7 @@
       <c r="I24" s="1">
         <v>157171</v>
       </c>
-      <c r="J24" s="2">
+      <c r="J24" s="3">
         <v>1</v>
       </c>
       <c r="K24" s="1">
@@ -1886,7 +1920,7 @@
       <c r="E25" s="1">
         <v>136410</v>
       </c>
-      <c r="F25" s="2">
+      <c r="F25" s="3">
         <v>1</v>
       </c>
       <c r="G25" s="1">
@@ -1898,7 +1932,7 @@
       <c r="I25" s="1">
         <v>157177</v>
       </c>
-      <c r="J25" s="2">
+      <c r="J25" s="3">
         <v>1</v>
       </c>
       <c r="K25" s="1">
@@ -1925,7 +1959,7 @@
       <c r="E26" s="1" t="str">
         <v>9B714F6B46D81A39F2280EA7EA8E6521</v>
       </c>
-      <c r="F26" s="2">
+      <c r="F26" s="3">
         <v>1</v>
       </c>
       <c r="G26" s="1">
@@ -1937,7 +1971,7 @@
       <c r="I26" s="1">
         <v>157175</v>
       </c>
-      <c r="J26" s="2">
+      <c r="J26" s="3">
         <v>1</v>
       </c>
       <c r="K26" s="1">
@@ -1964,7 +1998,7 @@
       <c r="E27" s="1" t="str">
         <v>8184DD79492D2AFE55FEA4848A040C18</v>
       </c>
-      <c r="F27" s="2">
+      <c r="F27" s="3">
         <v>1</v>
       </c>
       <c r="G27" s="1">
@@ -1976,7 +2010,7 @@
       <c r="I27" s="1">
         <v>157178</v>
       </c>
-      <c r="J27" s="2">
+      <c r="J27" s="3">
         <v>0</v>
       </c>
       <c r="K27" s="1">
@@ -1993,7 +2027,7 @@
       <c r="A28" s="1">
         <v>10022</v>
       </c>
-      <c r="B28" s="20" t="str">
+      <c r="B28" s="21" t="str">
         <v>虚数之杖</v>
       </c>
       <c r="C28" s="1" t="str">
@@ -2001,7 +2035,7 @@
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="2">
+      <c r="F28" s="3">
         <v>1</v>
       </c>
       <c r="G28" s="1">
@@ -2010,10 +2044,10 @@
       <c r="H28" s="1">
         <v>120</v>
       </c>
-      <c r="I28" s="6">
+      <c r="I28" s="5">
         <v>192891</v>
       </c>
-      <c r="J28" s="2">
+      <c r="J28" s="3">
         <v>0</v>
       </c>
       <c r="K28" s="1">
@@ -2030,7 +2064,7 @@
       <c r="A29" s="1">
         <v>10023</v>
       </c>
-      <c r="B29" s="5" t="str">
+      <c r="B29" s="4" t="str">
         <v>光谱矛</v>
       </c>
       <c r="C29" s="1" t="str">
@@ -2038,7 +2072,7 @@
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="2">
+      <c r="F29" s="3">
         <v>1</v>
       </c>
       <c r="G29" s="1">
@@ -2047,10 +2081,10 @@
       <c r="H29" s="1">
         <v>2000</v>
       </c>
-      <c r="I29" s="6">
+      <c r="I29" s="5">
         <v>192883</v>
       </c>
-      <c r="J29" s="2">
+      <c r="J29" s="3">
         <v>1</v>
       </c>
       <c r="K29" s="1">
@@ -2067,7 +2101,7 @@
       <c r="A30" s="1">
         <v>10024</v>
       </c>
-      <c r="B30" s="5" t="str">
+      <c r="B30" s="4" t="str">
         <v>光谱剑</v>
       </c>
       <c r="C30" s="1" t="str">
@@ -2075,7 +2109,7 @@
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="2">
+      <c r="F30" s="3">
         <v>1</v>
       </c>
       <c r="G30" s="1">
@@ -2084,10 +2118,10 @@
       <c r="H30" s="1">
         <v>1000</v>
       </c>
-      <c r="I30" s="6">
+      <c r="I30" s="5">
         <v>192895</v>
       </c>
-      <c r="J30" s="2">
+      <c r="J30" s="3">
         <v>2</v>
       </c>
       <c r="K30" s="1">
@@ -2104,7 +2138,7 @@
       <c r="A31" s="1">
         <v>10025</v>
       </c>
-      <c r="B31" s="5" t="str">
+      <c r="B31" s="4" t="str">
         <v>光谱剑(晶红)</v>
       </c>
       <c r="C31" s="1" t="str">
@@ -2112,7 +2146,7 @@
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="2">
+      <c r="F31" s="3">
         <v>1</v>
       </c>
       <c r="G31" s="1">
@@ -2121,10 +2155,10 @@
       <c r="H31" s="1">
         <v>1000</v>
       </c>
-      <c r="I31" s="6">
+      <c r="I31" s="5">
         <v>192903</v>
       </c>
-      <c r="J31" s="2">
+      <c r="J31" s="3">
         <v>2</v>
       </c>
       <c r="K31" s="1">
@@ -2141,7 +2175,7 @@
       <c r="A32" s="1">
         <v>10026</v>
       </c>
-      <c r="B32" s="5" t="str">
+      <c r="B32" s="4" t="str">
         <v>匕首(模拟)</v>
       </c>
       <c r="C32" s="1" t="str">
@@ -2149,7 +2183,7 @@
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="2">
+      <c r="F32" s="3">
         <v>1</v>
       </c>
       <c r="G32" s="1">
@@ -2158,10 +2192,10 @@
       <c r="H32" s="1">
         <v>250</v>
       </c>
-      <c r="I32" s="6">
+      <c r="I32" s="5">
         <v>192894</v>
       </c>
-      <c r="J32" s="2">
+      <c r="J32" s="3">
         <v>4</v>
       </c>
       <c r="K32" s="1">
@@ -2178,7 +2212,7 @@
       <c r="A33" s="1">
         <v>10027</v>
       </c>
-      <c r="B33" s="5" t="str">
+      <c r="B33" s="4" t="str">
         <v>军刀(模拟)</v>
       </c>
       <c r="C33" s="1" t="str">
@@ -2186,7 +2220,7 @@
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="2">
+      <c r="F33" s="3">
         <v>1</v>
       </c>
       <c r="G33" s="1">
@@ -2195,10 +2229,10 @@
       <c r="H33" s="1">
         <v>500</v>
       </c>
-      <c r="I33" s="6">
+      <c r="I33" s="5">
         <v>192905</v>
       </c>
-      <c r="J33" s="2">
+      <c r="J33" s="3">
         <v>3</v>
       </c>
       <c r="K33" s="1">
@@ -2215,7 +2249,7 @@
       <c r="A34" s="1">
         <v>10028</v>
       </c>
-      <c r="B34" s="11" t="str">
+      <c r="B34" s="12" t="str">
         <v>唤雷(符文)</v>
       </c>
       <c r="C34" s="1" t="str">
@@ -2223,7 +2257,7 @@
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="2">
+      <c r="F34" s="3">
         <v>1</v>
       </c>
       <c r="G34" s="1">
@@ -2232,10 +2266,10 @@
       <c r="H34" s="1">
         <v>120</v>
       </c>
-      <c r="I34" s="6">
+      <c r="I34" s="5">
         <v>192897</v>
       </c>
-      <c r="J34" s="2">
+      <c r="J34" s="3">
         <v>0</v>
       </c>
       <c r="K34" s="1">
@@ -2252,7 +2286,7 @@
       <c r="A35" s="1">
         <v>10029</v>
       </c>
-      <c r="B35" s="11" t="str">
+      <c r="B35" s="12" t="str">
         <v>雷神之锤</v>
       </c>
       <c r="C35" s="1" t="str">
@@ -2260,7 +2294,7 @@
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="2">
+      <c r="F35" s="3">
         <v>1</v>
       </c>
       <c r="G35" s="1">
@@ -2269,10 +2303,10 @@
       <c r="H35" s="1">
         <v>2000</v>
       </c>
-      <c r="I35" s="6">
+      <c r="I35" s="5">
         <v>192898</v>
       </c>
-      <c r="J35" s="2">
+      <c r="J35" s="3">
         <v>1</v>
       </c>
       <c r="K35" s="1">
@@ -2289,7 +2323,7 @@
       <c r="A36" s="1">
         <v>10030</v>
       </c>
-      <c r="B36" s="11" t="str">
+      <c r="B36" s="12" t="str">
         <v>骨刺剑(圣)</v>
       </c>
       <c r="C36" s="1" t="str">
@@ -2297,7 +2331,7 @@
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="2">
+      <c r="F36" s="3">
         <v>1</v>
       </c>
       <c r="G36" s="1">
@@ -2306,10 +2340,10 @@
       <c r="H36" s="1">
         <v>1000</v>
       </c>
-      <c r="I36" s="6">
+      <c r="I36" s="5">
         <v>192896</v>
       </c>
-      <c r="J36" s="2">
+      <c r="J36" s="3">
         <v>2</v>
       </c>
       <c r="K36" s="1">
@@ -2326,7 +2360,7 @@
       <c r="A37" s="1">
         <v>10031</v>
       </c>
-      <c r="B37" s="11" t="str">
+      <c r="B37" s="12" t="str">
         <v>骨刺剑(恋)</v>
       </c>
       <c r="C37" s="1" t="str">
@@ -2334,7 +2368,7 @@
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="2">
+      <c r="F37" s="3">
         <v>1</v>
       </c>
       <c r="G37" s="1">
@@ -2343,10 +2377,10 @@
       <c r="H37" s="1">
         <v>500</v>
       </c>
-      <c r="I37" s="6">
+      <c r="I37" s="5">
         <v>192906</v>
       </c>
-      <c r="J37" s="2">
+      <c r="J37" s="3">
         <v>3</v>
       </c>
       <c r="K37" s="1">
@@ -2363,7 +2397,7 @@
       <c r="A38" s="1">
         <v>10032</v>
       </c>
-      <c r="B38" s="11" t="str">
+      <c r="B38" s="12" t="str">
         <v>骨刺剑(炽)</v>
       </c>
       <c r="C38" s="1" t="str">
@@ -2371,7 +2405,7 @@
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="2">
+      <c r="F38" s="3">
         <v>1</v>
       </c>
       <c r="G38" s="1">
@@ -2380,10 +2414,10 @@
       <c r="H38" s="1">
         <v>250</v>
       </c>
-      <c r="I38" s="6">
+      <c r="I38" s="5">
         <v>192886</v>
       </c>
-      <c r="J38" s="2">
+      <c r="J38" s="3">
         <v>4</v>
       </c>
       <c r="K38" s="1">
@@ -2400,7 +2434,7 @@
       <c r="A39" s="1">
         <v>10033</v>
       </c>
-      <c r="B39" s="11" t="str">
+      <c r="B39" s="12" t="str">
         <v>骨刺剑(霜)</v>
       </c>
       <c r="C39" s="1" t="str">
@@ -2408,7 +2442,7 @@
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="2">
+      <c r="F39" s="3">
         <v>1</v>
       </c>
       <c r="G39" s="1">
@@ -2417,10 +2451,10 @@
       <c r="H39" s="1">
         <v>250</v>
       </c>
-      <c r="I39" s="6">
+      <c r="I39" s="5">
         <v>192885</v>
       </c>
-      <c r="J39" s="2">
+      <c r="J39" s="3">
         <v>4</v>
       </c>
       <c r="K39" s="1">
@@ -2437,7 +2471,7 @@
       <c r="A40" s="1">
         <v>10034</v>
       </c>
-      <c r="B40" s="14" t="str">
+      <c r="B40" s="7" t="str">
         <v>樱</v>
       </c>
       <c r="C40" s="1" t="str">
@@ -2445,7 +2479,7 @@
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="2">
+      <c r="F40" s="3">
         <v>1</v>
       </c>
       <c r="G40" s="1">
@@ -2454,10 +2488,10 @@
       <c r="H40" s="1">
         <v>1000</v>
       </c>
-      <c r="I40" s="6">
+      <c r="I40" s="5">
         <v>192902</v>
       </c>
-      <c r="J40" s="2">
+      <c r="J40" s="3">
         <v>0</v>
       </c>
       <c r="K40" s="1"/>
@@ -2472,7 +2506,7 @@
       <c r="A41" s="1">
         <v>10035</v>
       </c>
-      <c r="B41" s="18" t="str">
+      <c r="B41" s="15" t="str">
         <v>黄金球棍(虹彩)</v>
       </c>
       <c r="C41" s="1" t="str">
@@ -2480,7 +2514,7 @@
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="2">
+      <c r="F41" s="3">
         <v>1</v>
       </c>
       <c r="G41" s="1">
@@ -2489,10 +2523,10 @@
       <c r="H41" s="1">
         <v>1000</v>
       </c>
-      <c r="I41" s="6">
+      <c r="I41" s="5">
         <v>192890</v>
       </c>
-      <c r="J41" s="2">
+      <c r="J41" s="3">
         <v>0</v>
       </c>
       <c r="K41" s="1"/>
@@ -2507,7 +2541,7 @@
       <c r="A42" s="1">
         <v>10036</v>
       </c>
-      <c r="B42" s="14" t="str">
+      <c r="B42" s="7" t="str">
         <v>紫光剑</v>
       </c>
       <c r="C42" s="1" t="str">
@@ -2515,7 +2549,7 @@
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="2">
+      <c r="F42" s="3">
         <v>1</v>
       </c>
       <c r="G42" s="1">
@@ -2524,10 +2558,10 @@
       <c r="H42" s="1">
         <v>1500</v>
       </c>
-      <c r="I42" s="6" t="str">
+      <c r="I42" s="5" t="str">
         <v>mode_304952</v>
       </c>
-      <c r="J42" s="2">
+      <c r="J42" s="3">
         <v>0</v>
       </c>
       <c r="K42" s="1"/>
@@ -2542,7 +2576,7 @@
       <c r="A43" s="9">
         <v>20000</v>
       </c>
-      <c r="B43" s="19" t="str">
+      <c r="B43" s="22" t="str">
         <v>远程数量</v>
       </c>
       <c r="C43" s="9" t="str">
@@ -2551,37 +2585,37 @@
       <c r="D43" s="9">
         <v>13</v>
       </c>
-      <c r="E43" s="19"/>
-      <c r="F43" s="7"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="10"/>
       <c r="G43" s="9"/>
       <c r="H43" s="9">
         <v>4</v>
       </c>
       <c r="I43" s="9"/>
-      <c r="J43" s="7"/>
+      <c r="J43" s="10"/>
       <c r="K43" s="9"/>
       <c r="L43" s="9"/>
-      <c r="M43" s="7"/>
-      <c r="N43" s="7"/>
-      <c r="O43" s="7"/>
-      <c r="P43" s="7"/>
-      <c r="Q43" s="7"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
     </row>
     <row customHeight="true" ht="27" r="44">
       <c r="A44" s="1">
         <v>20001</v>
       </c>
-      <c r="B44" s="15" t="str">
+      <c r="B44" s="2" t="str">
         <v>冲锋枪</v>
       </c>
       <c r="C44" s="1" t="str">
         <v>Weapon_WeaponName_20002</v>
       </c>
       <c r="D44" s="1"/>
-      <c r="E44" s="15">
+      <c r="E44" s="2">
         <v>99701</v>
       </c>
-      <c r="F44" s="2">
+      <c r="F44" s="3">
         <v>2</v>
       </c>
       <c r="G44" s="1">
@@ -2590,35 +2624,35 @@
       <c r="H44" s="1">
         <v>500</v>
       </c>
-      <c r="I44" s="2">
+      <c r="I44" s="3">
         <v>148626</v>
       </c>
-      <c r="J44" s="2">
+      <c r="J44" s="3">
         <v>4</v>
       </c>
       <c r="K44" s="1"/>
       <c r="L44" s="1"/>
-      <c r="M44" s="2"/>
-      <c r="N44" s="2"/>
-      <c r="O44" s="2"/>
-      <c r="P44" s="2"/>
-      <c r="Q44" s="2"/>
+      <c r="M44" s="3"/>
+      <c r="N44" s="3"/>
+      <c r="O44" s="3"/>
+      <c r="P44" s="3"/>
+      <c r="Q44" s="3"/>
     </row>
     <row customHeight="true" ht="27" r="45">
       <c r="A45" s="1">
         <v>20002</v>
       </c>
-      <c r="B45" s="15" t="str">
+      <c r="B45" s="2" t="str">
         <v>步枪</v>
       </c>
       <c r="C45" s="1" t="str">
         <v>Weapon_WeaponName_20003</v>
       </c>
       <c r="D45" s="1"/>
-      <c r="E45" s="15">
+      <c r="E45" s="2">
         <v>45000</v>
       </c>
-      <c r="F45" s="2">
+      <c r="F45" s="3">
         <v>2</v>
       </c>
       <c r="G45" s="1">
@@ -2627,10 +2661,10 @@
       <c r="H45" s="1">
         <v>1000</v>
       </c>
-      <c r="I45" s="2">
+      <c r="I45" s="3">
         <v>148630</v>
       </c>
-      <c r="J45" s="2">
+      <c r="J45" s="3">
         <v>4</v>
       </c>
       <c r="K45" s="1"/>
@@ -2645,15 +2679,15 @@
       <c r="A46" s="1">
         <v>20003</v>
       </c>
-      <c r="B46" s="17" t="str">
+      <c r="B46" s="20" t="str">
         <v>奇点之枪</v>
       </c>
       <c r="C46" s="1" t="str">
         <v>Weapon_WeaponName_20004</v>
       </c>
       <c r="D46" s="1"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="2">
+      <c r="E46" s="2"/>
+      <c r="F46" s="3">
         <v>2</v>
       </c>
       <c r="G46" s="1">
@@ -2662,10 +2696,10 @@
       <c r="H46" s="1">
         <v>120</v>
       </c>
-      <c r="I46" s="6">
+      <c r="I46" s="5">
         <v>192887</v>
       </c>
-      <c r="J46" s="2">
+      <c r="J46" s="3">
         <v>0</v>
       </c>
       <c r="K46" s="1">
@@ -2682,15 +2716,15 @@
       <c r="A47" s="1">
         <v>20004</v>
       </c>
-      <c r="B47" s="5" t="str">
+      <c r="B47" s="4" t="str">
         <v>反物质枪</v>
       </c>
       <c r="C47" s="1" t="str">
         <v>Weapon_WeaponName_20005</v>
       </c>
       <c r="D47" s="1"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="2">
+      <c r="E47" s="2"/>
+      <c r="F47" s="3">
         <v>2</v>
       </c>
       <c r="G47" s="1">
@@ -2699,10 +2733,10 @@
       <c r="H47" s="1">
         <v>2000</v>
       </c>
-      <c r="I47" s="6">
+      <c r="I47" s="5">
         <v>192901</v>
       </c>
-      <c r="J47" s="2">
+      <c r="J47" s="3">
         <v>1</v>
       </c>
       <c r="K47" s="1">
@@ -2719,15 +2753,15 @@
       <c r="A48" s="1">
         <v>20005</v>
       </c>
-      <c r="B48" s="5" t="str">
+      <c r="B48" s="4" t="str">
         <v>左轮(模拟)</v>
       </c>
       <c r="C48" s="1" t="str">
         <v>Weapon_WeaponName_20006</v>
       </c>
       <c r="D48" s="1"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="2">
+      <c r="E48" s="2"/>
+      <c r="F48" s="3">
         <v>2</v>
       </c>
       <c r="G48" s="1">
@@ -2736,10 +2770,10 @@
       <c r="H48" s="1">
         <v>250</v>
       </c>
-      <c r="I48" s="6">
+      <c r="I48" s="5">
         <v>192889</v>
       </c>
-      <c r="J48" s="2">
+      <c r="J48" s="3">
         <v>4</v>
       </c>
       <c r="K48" s="1">
@@ -2756,15 +2790,15 @@
       <c r="A49" s="1">
         <v>20006</v>
       </c>
-      <c r="B49" s="5" t="str">
+      <c r="B49" s="4" t="str">
         <v>冲锋枪(模拟)</v>
       </c>
       <c r="C49" s="1" t="str">
         <v>Weapon_WeaponName_20007</v>
       </c>
       <c r="D49" s="1"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="2">
+      <c r="E49" s="2"/>
+      <c r="F49" s="3">
         <v>2</v>
       </c>
       <c r="G49" s="1">
@@ -2773,10 +2807,10 @@
       <c r="H49" s="1">
         <v>500</v>
       </c>
-      <c r="I49" s="6">
+      <c r="I49" s="5">
         <v>192888</v>
       </c>
-      <c r="J49" s="2">
+      <c r="J49" s="3">
         <v>3</v>
       </c>
       <c r="K49" s="1">
@@ -2793,15 +2827,15 @@
       <c r="A50" s="1">
         <v>20007</v>
       </c>
-      <c r="B50" s="11" t="str">
+      <c r="B50" s="12" t="str">
         <v>逐日(符文)</v>
       </c>
       <c r="C50" s="1" t="str">
         <v>Weapon_WeaponName_20008</v>
       </c>
       <c r="D50" s="1"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="2">
+      <c r="E50" s="2"/>
+      <c r="F50" s="3">
         <v>2</v>
       </c>
       <c r="G50" s="1">
@@ -2810,10 +2844,10 @@
       <c r="H50" s="1">
         <v>120</v>
       </c>
-      <c r="I50" s="6">
+      <c r="I50" s="5">
         <v>192904</v>
       </c>
-      <c r="J50" s="2">
+      <c r="J50" s="3">
         <v>0</v>
       </c>
       <c r="K50" s="1">
@@ -2830,15 +2864,15 @@
       <c r="A51" s="1">
         <v>20008</v>
       </c>
-      <c r="B51" s="11" t="str">
+      <c r="B51" s="12" t="str">
         <v>火铳</v>
       </c>
       <c r="C51" s="1" t="str">
         <v>Weapon_WeaponName_20009</v>
       </c>
       <c r="D51" s="1"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="2">
+      <c r="E51" s="2"/>
+      <c r="F51" s="3">
         <v>2</v>
       </c>
       <c r="G51" s="1">
@@ -2847,10 +2881,10 @@
       <c r="H51" s="1">
         <v>2000</v>
       </c>
-      <c r="I51" s="6">
+      <c r="I51" s="5">
         <v>192899</v>
       </c>
-      <c r="J51" s="2">
+      <c r="J51" s="3">
         <v>1</v>
       </c>
       <c r="K51" s="1">
@@ -2867,15 +2901,15 @@
       <c r="A52" s="1">
         <v>20009</v>
       </c>
-      <c r="B52" s="11" t="str">
+      <c r="B52" s="12" t="str">
         <v>左轮(圣)</v>
       </c>
       <c r="C52" s="1" t="str">
         <v>Weapon_WeaponName_20010</v>
       </c>
       <c r="D52" s="1"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="2">
+      <c r="E52" s="2"/>
+      <c r="F52" s="3">
         <v>2</v>
       </c>
       <c r="G52" s="1">
@@ -2884,10 +2918,10 @@
       <c r="H52" s="1">
         <v>1000</v>
       </c>
-      <c r="I52" s="6">
+      <c r="I52" s="5">
         <v>192884</v>
       </c>
-      <c r="J52" s="2">
+      <c r="J52" s="3">
         <v>2</v>
       </c>
       <c r="K52" s="1">
@@ -2904,15 +2938,15 @@
       <c r="A53" s="1">
         <v>20010</v>
       </c>
-      <c r="B53" s="11" t="str">
+      <c r="B53" s="12" t="str">
         <v>左轮(恋)</v>
       </c>
       <c r="C53" s="1" t="str">
         <v>Weapon_WeaponName_20011</v>
       </c>
       <c r="D53" s="1"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="2">
+      <c r="E53" s="2"/>
+      <c r="F53" s="3">
         <v>2</v>
       </c>
       <c r="G53" s="1">
@@ -2921,10 +2955,10 @@
       <c r="H53" s="1">
         <v>500</v>
       </c>
-      <c r="I53" s="6">
+      <c r="I53" s="5">
         <v>192892</v>
       </c>
-      <c r="J53" s="2">
+      <c r="J53" s="3">
         <v>3</v>
       </c>
       <c r="K53" s="1">
@@ -2941,15 +2975,15 @@
       <c r="A54" s="1">
         <v>20011</v>
       </c>
-      <c r="B54" s="14" t="str">
+      <c r="B54" s="7" t="str">
         <v>蝶</v>
       </c>
       <c r="C54" s="1" t="str">
         <v>Weapon_WeaponName_20012</v>
       </c>
       <c r="D54" s="1"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="2">
+      <c r="E54" s="2"/>
+      <c r="F54" s="3">
         <v>2</v>
       </c>
       <c r="G54" s="1">
@@ -2958,10 +2992,10 @@
       <c r="H54" s="1">
         <v>1500</v>
       </c>
-      <c r="I54" s="6">
+      <c r="I54" s="5">
         <v>192893</v>
       </c>
-      <c r="J54" s="2">
+      <c r="J54" s="3">
         <v>0</v>
       </c>
       <c r="K54" s="1"/>
@@ -2976,15 +3010,15 @@
       <c r="A55" s="1">
         <v>20012</v>
       </c>
-      <c r="B55" s="18" t="str">
+      <c r="B55" s="15" t="str">
         <v>黄金左轮(虹彩)</v>
       </c>
       <c r="C55" s="1" t="str">
         <v>Weapon_WeaponName_20013</v>
       </c>
       <c r="D55" s="1"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="2">
+      <c r="E55" s="2"/>
+      <c r="F55" s="3">
         <v>2</v>
       </c>
       <c r="G55" s="1">
@@ -2993,10 +3027,10 @@
       <c r="H55" s="1">
         <v>1500</v>
       </c>
-      <c r="I55" s="6">
+      <c r="I55" s="5">
         <v>192900</v>
       </c>
-      <c r="J55" s="2">
+      <c r="J55" s="3">
         <v>0</v>
       </c>
       <c r="K55" s="1"/>
@@ -3011,15 +3045,15 @@
       <c r="A56" s="1">
         <v>20013</v>
       </c>
-      <c r="B56" s="11" t="str">
+      <c r="B56" s="12" t="str">
         <v>冰寒弓箭</v>
       </c>
       <c r="C56" s="1" t="str">
         <v>Weapon_WeaponName_20014</v>
       </c>
       <c r="D56" s="1"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="2">
+      <c r="E56" s="2"/>
+      <c r="F56" s="3">
         <v>2</v>
       </c>
       <c r="G56" s="1">
@@ -3028,10 +3062,10 @@
       <c r="H56" s="1">
         <v>2000</v>
       </c>
-      <c r="I56" s="6" t="str">
+      <c r="I56" s="5" t="str">
         <v>mode_304643</v>
       </c>
-      <c r="J56" s="2">
+      <c r="J56" s="3">
         <v>0</v>
       </c>
       <c r="K56" s="1"/>
@@ -3046,36 +3080,36 @@
       <c r="A57" s="9">
         <v>30000</v>
       </c>
-      <c r="B57" s="7" t="str">
+      <c r="B57" s="10" t="str">
         <v>拖尾数量</v>
       </c>
       <c r="C57" s="9" t="str">
         <v>Item_Name_20001</v>
       </c>
       <c r="D57" s="9">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="E57" s="9"/>
-      <c r="F57" s="7"/>
+      <c r="F57" s="10"/>
       <c r="G57" s="9"/>
       <c r="H57" s="9">
         <v>2</v>
       </c>
       <c r="I57" s="9"/>
-      <c r="J57" s="7"/>
+      <c r="J57" s="10"/>
       <c r="K57" s="9"/>
       <c r="L57" s="9"/>
-      <c r="M57" s="7"/>
-      <c r="N57" s="7"/>
-      <c r="O57" s="7"/>
-      <c r="P57" s="7"/>
-      <c r="Q57" s="7"/>
+      <c r="M57" s="10"/>
+      <c r="N57" s="10"/>
+      <c r="O57" s="10"/>
+      <c r="P57" s="10"/>
+      <c r="Q57" s="10"/>
     </row>
     <row customHeight="true" ht="27" r="58">
       <c r="A58" s="1">
         <v>30001</v>
       </c>
-      <c r="B58" s="2" t="str">
+      <c r="B58" s="3" t="str">
         <v>烟雾
 参考翻译：Somke</v>
       </c>
@@ -3086,7 +3120,7 @@
       <c r="E58" s="1">
         <v>4395</v>
       </c>
-      <c r="F58" s="2"/>
+      <c r="F58" s="3"/>
       <c r="G58" s="1">
         <v>0</v>
       </c>
@@ -3096,22 +3130,22 @@
       <c r="I58" s="1">
         <v>108513</v>
       </c>
-      <c r="J58" s="2">
+      <c r="J58" s="3">
         <v>4</v>
       </c>
       <c r="K58" s="1"/>
       <c r="L58" s="1"/>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
+      <c r="M58" s="3"/>
+      <c r="N58" s="3"/>
+      <c r="O58" s="3"/>
+      <c r="P58" s="3"/>
+      <c r="Q58" s="3"/>
     </row>
     <row customHeight="true" ht="27" r="59">
       <c r="A59" s="1">
         <v>30002</v>
       </c>
-      <c r="B59" s="2" t="str">
+      <c r="B59" s="3" t="str">
         <v>紫电
 参考翻译：Purple Lighting</v>
       </c>
@@ -3122,7 +3156,7 @@
       <c r="E59" s="1">
         <v>4399</v>
       </c>
-      <c r="F59" s="2"/>
+      <c r="F59" s="3"/>
       <c r="G59" s="1">
         <v>0</v>
       </c>
@@ -3132,22 +3166,22 @@
       <c r="I59" s="1">
         <v>108511</v>
       </c>
-      <c r="J59" s="2">
+      <c r="J59" s="3">
         <v>4</v>
       </c>
       <c r="K59" s="1"/>
       <c r="L59" s="1"/>
-      <c r="M59" s="2"/>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
+      <c r="M59" s="3"/>
+      <c r="N59" s="3"/>
+      <c r="O59" s="3"/>
+      <c r="P59" s="3"/>
+      <c r="Q59" s="3"/>
     </row>
     <row customHeight="true" ht="27" r="60">
       <c r="A60" s="13">
         <v>30003</v>
       </c>
-      <c r="B60" s="12" t="str">
+      <c r="B60" s="19" t="str">
         <v>雷霆
 参考翻译：Lighting</v>
       </c>
@@ -3158,7 +3192,7 @@
       <c r="E60" s="13">
         <v>145503</v>
       </c>
-      <c r="F60" s="12"/>
+      <c r="F60" s="19"/>
       <c r="G60" s="13">
         <v>0</v>
       </c>
@@ -3168,22 +3202,22 @@
       <c r="I60" s="13">
         <v>108510</v>
       </c>
-      <c r="J60" s="12">
+      <c r="J60" s="19">
         <v>4</v>
       </c>
       <c r="K60" s="13"/>
       <c r="L60" s="13"/>
-      <c r="M60" s="12"/>
-      <c r="N60" s="12"/>
-      <c r="O60" s="12"/>
-      <c r="P60" s="12"/>
-      <c r="Q60" s="12"/>
+      <c r="M60" s="19"/>
+      <c r="N60" s="19"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="19"/>
+      <c r="Q60" s="19"/>
     </row>
     <row customHeight="true" ht="27" r="61">
       <c r="A61" s="1">
         <v>30004</v>
       </c>
-      <c r="B61" s="2" t="str">
+      <c r="B61" s="3" t="str">
         <v>清风
 参考翻译：Wind</v>
       </c>
@@ -3194,32 +3228,32 @@
       <c r="E61" s="1">
         <v>88446</v>
       </c>
-      <c r="F61" s="2"/>
+      <c r="F61" s="3"/>
       <c r="G61" s="1">
         <v>0</v>
       </c>
-      <c r="H61" s="1">
-        <v>6000</v>
+      <c r="H61" s="13">
+        <v>3000</v>
       </c>
       <c r="I61" s="1">
         <v>108515</v>
       </c>
-      <c r="J61" s="2">
+      <c r="J61" s="3">
         <v>3</v>
       </c>
       <c r="K61" s="1"/>
       <c r="L61" s="1"/>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2"/>
-      <c r="O61" s="2"/>
-      <c r="P61" s="2"/>
-      <c r="Q61" s="2"/>
+      <c r="M61" s="3"/>
+      <c r="N61" s="3"/>
+      <c r="O61" s="3"/>
+      <c r="P61" s="3"/>
+      <c r="Q61" s="3"/>
     </row>
     <row customHeight="true" ht="27" r="62">
       <c r="A62" s="1">
         <v>30005</v>
       </c>
-      <c r="B62" s="2" t="str">
+      <c r="B62" s="3" t="str">
         <v>虹彩
 参考翻译：Rainbow</v>
       </c>
@@ -3230,32 +3264,32 @@
       <c r="E62" s="1">
         <v>27392</v>
       </c>
-      <c r="F62" s="2"/>
+      <c r="F62" s="3"/>
       <c r="G62" s="1">
         <v>0</v>
       </c>
-      <c r="H62" s="1">
-        <v>6000</v>
+      <c r="H62" s="13">
+        <v>3000</v>
       </c>
       <c r="I62" s="1">
         <v>108514</v>
       </c>
-      <c r="J62" s="2">
+      <c r="J62" s="3">
         <v>3</v>
       </c>
       <c r="K62" s="1"/>
       <c r="L62" s="1"/>
-      <c r="M62" s="2"/>
-      <c r="N62" s="2"/>
-      <c r="O62" s="2"/>
-      <c r="P62" s="2"/>
-      <c r="Q62" s="2"/>
+      <c r="M62" s="3"/>
+      <c r="N62" s="3"/>
+      <c r="O62" s="3"/>
+      <c r="P62" s="3"/>
+      <c r="Q62" s="3"/>
     </row>
     <row customHeight="true" ht="27" r="63">
       <c r="A63" s="1">
         <v>30006</v>
       </c>
-      <c r="B63" s="2" t="str">
+      <c r="B63" s="3" t="str">
         <v>梦幻
 参考翻译：Illusion</v>
       </c>
@@ -3266,32 +3300,32 @@
       <c r="E63" s="1">
         <v>88021</v>
       </c>
-      <c r="F63" s="2"/>
+      <c r="F63" s="3"/>
       <c r="G63" s="1">
         <v>0</v>
       </c>
-      <c r="H63" s="1">
-        <v>8000</v>
+      <c r="H63" s="13">
+        <v>3000</v>
       </c>
       <c r="I63" s="1">
         <v>108512</v>
       </c>
-      <c r="J63" s="2">
+      <c r="J63" s="3">
         <v>2</v>
       </c>
       <c r="K63" s="1"/>
       <c r="L63" s="1"/>
-      <c r="M63" s="2"/>
-      <c r="N63" s="2"/>
-      <c r="O63" s="2"/>
-      <c r="P63" s="2"/>
-      <c r="Q63" s="2"/>
+      <c r="M63" s="3"/>
+      <c r="N63" s="3"/>
+      <c r="O63" s="3"/>
+      <c r="P63" s="3"/>
+      <c r="Q63" s="3"/>
     </row>
     <row customHeight="true" ht="27" r="64">
       <c r="A64" s="13">
         <v>30007</v>
       </c>
-      <c r="B64" s="12" t="str">
+      <c r="B64" s="19" t="str">
         <v>火焰</v>
       </c>
       <c r="C64" s="13" t="str">
@@ -3301,32 +3335,32 @@
       <c r="E64" s="13">
         <v>88021</v>
       </c>
-      <c r="F64" s="12"/>
-      <c r="G64" s="13">
+      <c r="F64" s="19"/>
+      <c r="G64" s="8">
         <v>5</v>
       </c>
-      <c r="H64" s="13">
+      <c r="H64" s="8">
         <v>100</v>
       </c>
-      <c r="I64" s="12">
+      <c r="I64" s="19">
         <v>141806</v>
       </c>
-      <c r="J64" s="12">
+      <c r="J64" s="19">
         <v>2</v>
       </c>
       <c r="K64" s="13"/>
       <c r="L64" s="13"/>
-      <c r="M64" s="12"/>
-      <c r="N64" s="12"/>
-      <c r="O64" s="12"/>
-      <c r="P64" s="12"/>
-      <c r="Q64" s="12"/>
+      <c r="M64" s="19"/>
+      <c r="N64" s="19"/>
+      <c r="O64" s="19"/>
+      <c r="P64" s="19"/>
+      <c r="Q64" s="19"/>
     </row>
     <row customHeight="true" ht="27" r="65">
       <c r="A65" s="13">
         <v>30008</v>
       </c>
-      <c r="B65" s="12" t="str">
+      <c r="B65" s="19" t="str">
         <v>女巫</v>
       </c>
       <c r="C65" s="13" t="str">
@@ -3336,32 +3370,32 @@
       <c r="E65" s="13">
         <v>88441</v>
       </c>
-      <c r="F65" s="12"/>
-      <c r="G65" s="13">
+      <c r="F65" s="19"/>
+      <c r="G65" s="8">
         <v>5</v>
       </c>
-      <c r="H65" s="13">
-        <v>200</v>
-      </c>
-      <c r="I65" s="12">
+      <c r="H65" s="8">
+        <v>100</v>
+      </c>
+      <c r="I65" s="19">
         <v>141805</v>
       </c>
-      <c r="J65" s="12">
+      <c r="J65" s="19">
         <v>1</v>
       </c>
       <c r="K65" s="13"/>
       <c r="L65" s="13"/>
-      <c r="M65" s="12"/>
-      <c r="N65" s="12"/>
-      <c r="O65" s="12"/>
-      <c r="P65" s="12"/>
-      <c r="Q65" s="12"/>
+      <c r="M65" s="19"/>
+      <c r="N65" s="19"/>
+      <c r="O65" s="19"/>
+      <c r="P65" s="19"/>
+      <c r="Q65" s="19"/>
     </row>
     <row customHeight="true" ht="27" r="66">
       <c r="A66" s="13">
         <v>30009</v>
       </c>
-      <c r="B66" s="12" t="str">
+      <c r="B66" s="19" t="str">
         <v>骑士</v>
       </c>
       <c r="C66" s="13" t="str">
@@ -3371,32 +3405,32 @@
       <c r="E66" s="13">
         <v>88443</v>
       </c>
-      <c r="F66" s="12"/>
-      <c r="G66" s="13">
+      <c r="F66" s="19"/>
+      <c r="G66" s="8">
         <v>5</v>
       </c>
-      <c r="H66" s="13">
-        <v>300</v>
-      </c>
-      <c r="I66" s="12">
+      <c r="H66" s="8">
+        <v>100</v>
+      </c>
+      <c r="I66" s="19">
         <v>141802</v>
       </c>
-      <c r="J66" s="12">
+      <c r="J66" s="19">
         <v>1</v>
       </c>
       <c r="K66" s="13"/>
       <c r="L66" s="13"/>
-      <c r="M66" s="12"/>
-      <c r="N66" s="12"/>
-      <c r="O66" s="12"/>
-      <c r="P66" s="12"/>
-      <c r="Q66" s="12"/>
+      <c r="M66" s="19"/>
+      <c r="N66" s="19"/>
+      <c r="O66" s="19"/>
+      <c r="P66" s="19"/>
+      <c r="Q66" s="19"/>
     </row>
     <row customHeight="true" ht="27" r="67">
       <c r="A67" s="1">
         <v>30010</v>
       </c>
-      <c r="B67" s="2" t="str">
+      <c r="B67" s="3" t="str">
         <v>恶魔</v>
       </c>
       <c r="C67" s="1" t="str">
@@ -3406,32 +3440,32 @@
       <c r="E67" s="1">
         <v>88441</v>
       </c>
-      <c r="F67" s="2"/>
-      <c r="G67" s="1">
+      <c r="F67" s="3"/>
+      <c r="G67" s="8">
         <v>5</v>
       </c>
-      <c r="H67" s="1">
-        <v>500</v>
-      </c>
-      <c r="I67" s="2">
+      <c r="H67" s="8">
+        <v>100</v>
+      </c>
+      <c r="I67" s="3">
         <v>141804</v>
       </c>
-      <c r="J67" s="2">
+      <c r="J67" s="3">
         <v>0</v>
       </c>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
-      <c r="M67" s="2"/>
-      <c r="N67" s="2"/>
-      <c r="O67" s="2"/>
-      <c r="P67" s="2"/>
-      <c r="Q67" s="2"/>
+      <c r="M67" s="3"/>
+      <c r="N67" s="3"/>
+      <c r="O67" s="3"/>
+      <c r="P67" s="3"/>
+      <c r="Q67" s="3"/>
     </row>
     <row customHeight="true" ht="27" r="68">
       <c r="A68" s="1">
         <v>30011</v>
       </c>
-      <c r="B68" s="2" t="str">
+      <c r="B68" s="3" t="str">
         <v>魔鬼</v>
       </c>
       <c r="C68" s="1" t="str">
@@ -3441,32 +3475,32 @@
       <c r="E68" s="1">
         <v>88442</v>
       </c>
-      <c r="F68" s="2"/>
-      <c r="G68" s="1">
+      <c r="F68" s="3"/>
+      <c r="G68" s="8">
         <v>5</v>
       </c>
-      <c r="H68" s="1">
-        <v>800</v>
-      </c>
-      <c r="I68" s="2">
+      <c r="H68" s="8">
+        <v>100</v>
+      </c>
+      <c r="I68" s="3">
         <v>141800</v>
       </c>
-      <c r="J68" s="2">
+      <c r="J68" s="3">
         <v>0</v>
       </c>
       <c r="K68" s="1"/>
       <c r="L68" s="1"/>
-      <c r="M68" s="2"/>
-      <c r="N68" s="2"/>
-      <c r="O68" s="2"/>
-      <c r="P68" s="2"/>
-      <c r="Q68" s="2"/>
+      <c r="M68" s="3"/>
+      <c r="N68" s="3"/>
+      <c r="O68" s="3"/>
+      <c r="P68" s="3"/>
+      <c r="Q68" s="3"/>
     </row>
     <row customHeight="true" ht="27" r="69">
       <c r="A69" s="1">
         <v>30012</v>
       </c>
-      <c r="B69" s="2" t="str">
+      <c r="B69" s="3" t="str">
         <v>土豪来啦</v>
       </c>
       <c r="C69" s="1" t="str">
@@ -3476,1488 +3510,2021 @@
       <c r="E69" s="1">
         <v>145510</v>
       </c>
-      <c r="F69" s="2"/>
+      <c r="F69" s="3"/>
       <c r="G69" s="1">
         <v>5</v>
       </c>
       <c r="H69" s="1">
         <v>1000</v>
       </c>
-      <c r="I69" s="2">
+      <c r="I69" s="3">
         <v>148829</v>
       </c>
-      <c r="J69" s="2">
+      <c r="J69" s="3">
         <v>0</v>
       </c>
       <c r="K69" s="1"/>
       <c r="L69" s="1"/>
-      <c r="M69" s="2"/>
-      <c r="N69" s="2"/>
-      <c r="O69" s="2"/>
-      <c r="P69" s="2"/>
-      <c r="Q69" s="2"/>
-    </row>
-    <row customHeight="true" ht="25" r="70">
-      <c r="A70" s="9">
+      <c r="M69" s="3"/>
+      <c r="N69" s="3"/>
+      <c r="O69" s="3"/>
+      <c r="P69" s="3"/>
+      <c r="Q69" s="3"/>
+    </row>
+    <row customHeight="true" ht="27" r="70">
+      <c r="A70" s="1">
+        <v>30013</v>
+      </c>
+      <c r="B70" s="3" t="str">
+        <v>烟花拖尾</v>
+      </c>
+      <c r="C70" s="1" t="str">
+        <v>Item_Name_20013</v>
+      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
+        <v>145508</v>
+      </c>
+      <c r="F70" s="3"/>
+      <c r="G70" s="8">
+        <v>5</v>
+      </c>
+      <c r="H70" s="8">
+        <v>100</v>
+      </c>
+      <c r="I70" s="3" t="str">
+        <v>mode_145508</v>
+      </c>
+      <c r="J70" s="3">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="3"/>
+      <c r="N70" s="3"/>
+      <c r="O70" s="3"/>
+      <c r="P70" s="3"/>
+      <c r="Q70" s="3"/>
+    </row>
+    <row customHeight="true" ht="27" r="71">
+      <c r="A71" s="1">
+        <v>30014</v>
+      </c>
+      <c r="B71" s="3" t="str">
+        <v>爆竹拖尾</v>
+      </c>
+      <c r="C71" s="1" t="str">
+        <v>Item_Name_20014</v>
+      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
+        <v>145507</v>
+      </c>
+      <c r="F71" s="3"/>
+      <c r="G71" s="8">
+        <v>5</v>
+      </c>
+      <c r="H71" s="8">
+        <v>100</v>
+      </c>
+      <c r="I71" s="3" t="str">
+        <v>mode_145507</v>
+      </c>
+      <c r="J71" s="3">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="3"/>
+      <c r="N71" s="3"/>
+      <c r="O71" s="3"/>
+      <c r="P71" s="3"/>
+      <c r="Q71" s="3"/>
+    </row>
+    <row customHeight="true" ht="27" r="72">
+      <c r="A72" s="1">
+        <v>30015</v>
+      </c>
+      <c r="B72" s="3" t="str">
+        <v>礼物拖尾</v>
+      </c>
+      <c r="C72" s="1" t="str">
+        <v>Item_Name_20015</v>
+      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
+        <v>145509</v>
+      </c>
+      <c r="F72" s="3"/>
+      <c r="G72" s="8">
+        <v>5</v>
+      </c>
+      <c r="H72" s="8">
+        <v>100</v>
+      </c>
+      <c r="I72" s="3" t="str">
+        <v>mode_145509</v>
+      </c>
+      <c r="J72" s="3">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="3"/>
+      <c r="N72" s="3"/>
+      <c r="O72" s="3"/>
+      <c r="P72" s="3"/>
+      <c r="Q72" s="3"/>
+    </row>
+    <row customHeight="true" ht="27" r="73">
+      <c r="A73" s="1">
+        <v>30016</v>
+      </c>
+      <c r="B73" s="3" t="str">
+        <v>糖果拖尾</v>
+      </c>
+      <c r="C73" s="1" t="str">
+        <v>Item_Name_20016</v>
+      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
+        <v>145495</v>
+      </c>
+      <c r="F73" s="3"/>
+      <c r="G73" s="8">
+        <v>5</v>
+      </c>
+      <c r="H73" s="8">
+        <v>100</v>
+      </c>
+      <c r="I73" s="3" t="str">
+        <v>mode_145495</v>
+      </c>
+      <c r="J73" s="3">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="3"/>
+      <c r="N73" s="3"/>
+      <c r="O73" s="3"/>
+      <c r="P73" s="3"/>
+      <c r="Q73" s="3"/>
+    </row>
+    <row customHeight="true" ht="27" r="74">
+      <c r="A74" s="1">
+        <v>30017</v>
+      </c>
+      <c r="B74" s="3" t="str">
+        <v>便便拖尾</v>
+      </c>
+      <c r="C74" s="1" t="str">
+        <v>Item_Name_20017</v>
+      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
+        <v>186344</v>
+      </c>
+      <c r="F74" s="3"/>
+      <c r="G74" s="8">
+        <v>5</v>
+      </c>
+      <c r="H74" s="8">
+        <v>100</v>
+      </c>
+      <c r="I74" s="3" t="str">
+        <v>mode_186344</v>
+      </c>
+      <c r="J74" s="3">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="3"/>
+      <c r="N74" s="3"/>
+      <c r="O74" s="3"/>
+      <c r="P74" s="3"/>
+      <c r="Q74" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="75">
+      <c r="A75" s="9">
         <v>40000</v>
       </c>
-      <c r="B70" s="7" t="str">
+      <c r="B75" s="10" t="str">
         <v>套装数量</v>
       </c>
-      <c r="C70" s="9" t="str">
+      <c r="C75" s="9" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D70" s="9">
+      <c r="D75" s="9">
         <v>29</v>
       </c>
-      <c r="E70" s="9"/>
-      <c r="F70" s="7"/>
-      <c r="G70" s="9">
-        <v>0</v>
-      </c>
-      <c r="H70" s="9">
+      <c r="E75" s="9"/>
+      <c r="F75" s="10"/>
+      <c r="G75" s="9">
+        <v>0</v>
+      </c>
+      <c r="H75" s="9">
         <v>5</v>
       </c>
-      <c r="I70" s="10"/>
-      <c r="J70" s="8"/>
-      <c r="K70" s="8"/>
-      <c r="L70" s="8"/>
-      <c r="M70" s="7"/>
-      <c r="N70" s="7"/>
-      <c r="O70" s="9"/>
-      <c r="P70" s="9"/>
-      <c r="Q70" s="8"/>
-    </row>
-    <row customHeight="true" ht="25" r="71">
-      <c r="A71" s="1">
-        <v>40001</v>
-      </c>
-      <c r="B71" s="2" t="str">
-        <v>温柔学姐</v>
-      </c>
-      <c r="C71" s="1" t="str">
-        <v>Item_Name_30001</v>
-      </c>
-      <c r="D71" s="1"/>
-      <c r="E71" s="1"/>
-      <c r="F71" s="2"/>
-      <c r="G71" s="1">
-        <v>5</v>
-      </c>
-      <c r="H71" s="16">
-        <v>10</v>
-      </c>
-      <c r="I71" s="1">
-        <v>86337</v>
-      </c>
-      <c r="J71" s="3">
-        <v>4</v>
-      </c>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="3"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2">
-        <v>10001</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="25" r="72">
-      <c r="A72" s="1">
-        <v>40002</v>
-      </c>
-      <c r="B72" s="2" t="str">
-        <v>风纪委员</v>
-      </c>
-      <c r="C72" s="1" t="str">
-        <v>Item_Name_30002</v>
-      </c>
-      <c r="D72" s="1"/>
-      <c r="E72" s="1"/>
-      <c r="F72" s="2"/>
-      <c r="G72" s="1">
-        <v>5</v>
-      </c>
-      <c r="H72" s="16">
-        <v>10</v>
-      </c>
-      <c r="I72" s="1">
-        <v>86335</v>
-      </c>
-      <c r="J72" s="3">
-        <v>4</v>
-      </c>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="3"/>
-      <c r="N72" s="2"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="2"/>
-      <c r="Q72" s="2">
-        <v>10002</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="25" r="73">
-      <c r="A73" s="1">
-        <v>40003</v>
-      </c>
-      <c r="B73" s="2" t="str">
-        <v>不良少女</v>
-      </c>
-      <c r="C73" s="1" t="str">
-        <v>Item_Name_30003</v>
-      </c>
-      <c r="D73" s="1"/>
-      <c r="E73" s="1"/>
-      <c r="F73" s="2"/>
-      <c r="G73" s="1">
-        <v>5</v>
-      </c>
-      <c r="H73" s="16">
-        <v>10</v>
-      </c>
-      <c r="I73" s="1">
-        <v>86333</v>
-      </c>
-      <c r="J73" s="3">
-        <v>4</v>
-      </c>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="3"/>
-      <c r="N73" s="2"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="2"/>
-      <c r="Q73" s="2">
-        <v>20001</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="25" r="74">
-      <c r="A74" s="1">
-        <v>40004</v>
-      </c>
-      <c r="B74" s="2" t="str">
-        <v>韩式淑女</v>
-      </c>
-      <c r="C74" s="1" t="str">
-        <v>Item_Name_30004</v>
-      </c>
-      <c r="D74" s="1"/>
-      <c r="E74" s="1"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="1">
-        <v>5</v>
-      </c>
-      <c r="H74" s="16">
-        <v>10</v>
-      </c>
-      <c r="I74" s="1">
-        <v>86334</v>
-      </c>
-      <c r="J74" s="3">
-        <v>4</v>
-      </c>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="3"/>
-      <c r="N74" s="2"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2">
-        <v>20002</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="25" r="75">
-      <c r="A75" s="1">
-        <v>40005</v>
-      </c>
-      <c r="B75" s="2" t="str">
-        <v>可爱学妹</v>
-      </c>
-      <c r="C75" s="1" t="str">
-        <v>Item_Name_30005</v>
-      </c>
-      <c r="D75" s="1"/>
-      <c r="E75" s="1"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="1">
-        <v>5</v>
-      </c>
-      <c r="H75" s="16">
-        <v>10</v>
-      </c>
-      <c r="I75" s="1">
-        <v>94181</v>
-      </c>
-      <c r="J75" s="3">
-        <v>4</v>
-      </c>
-      <c r="K75" s="3"/>
-      <c r="L75" s="3"/>
-      <c r="M75" s="3"/>
-      <c r="N75" s="2"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2">
-        <v>30001</v>
-      </c>
+      <c r="I75" s="18"/>
+      <c r="J75" s="11"/>
+      <c r="K75" s="11"/>
+      <c r="L75" s="11"/>
+      <c r="M75" s="10"/>
+      <c r="N75" s="10"/>
+      <c r="O75" s="9"/>
+      <c r="P75" s="9"/>
+      <c r="Q75" s="11"/>
     </row>
     <row customHeight="true" ht="25" r="76">
       <c r="A76" s="1">
-        <v>40006</v>
-      </c>
-      <c r="B76" s="2" t="str">
-        <v>奇幻少女</v>
+        <v>40001</v>
+      </c>
+      <c r="B76" s="3" t="str">
+        <v>温柔学姐</v>
       </c>
       <c r="C76" s="1" t="str">
-        <v>Item_Name_30006</v>
+        <v>Item_Name_30001</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="2"/>
+      <c r="F76" s="3"/>
       <c r="G76" s="1">
         <v>5</v>
       </c>
-      <c r="H76" s="16">
+      <c r="H76" s="8">
         <v>10</v>
       </c>
       <c r="I76" s="1">
-        <v>94180</v>
-      </c>
-      <c r="J76" s="3">
+        <v>86337</v>
+      </c>
+      <c r="J76" s="6">
         <v>4</v>
       </c>
-      <c r="K76" s="3"/>
-      <c r="L76" s="3"/>
-      <c r="M76" s="3"/>
-      <c r="N76" s="2"/>
+      <c r="K76" s="6"/>
+      <c r="L76" s="6"/>
+      <c r="M76" s="6"/>
+      <c r="N76" s="3"/>
       <c r="O76" s="1"/>
-      <c r="P76" s="2"/>
-      <c r="Q76" s="2">
-        <v>30002</v>
+      <c r="P76" s="3"/>
+      <c r="Q76" s="3">
+        <v>10001</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="77">
       <c r="A77" s="1">
-        <v>40007</v>
-      </c>
-      <c r="B77" s="2" t="str">
-        <v>温柔学长</v>
+        <v>40002</v>
+      </c>
+      <c r="B77" s="3" t="str">
+        <v>风纪委员</v>
       </c>
       <c r="C77" s="1" t="str">
-        <v>Item_Name_30007</v>
+        <v>Item_Name_30002</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="2"/>
+      <c r="F77" s="3"/>
       <c r="G77" s="1">
         <v>5</v>
       </c>
-      <c r="H77" s="16">
+      <c r="H77" s="8">
         <v>10</v>
       </c>
       <c r="I77" s="1">
-        <v>94184</v>
-      </c>
-      <c r="J77" s="3">
+        <v>86335</v>
+      </c>
+      <c r="J77" s="6">
         <v>4</v>
       </c>
-      <c r="K77" s="3"/>
-      <c r="L77" s="3"/>
-      <c r="M77" s="3"/>
-      <c r="N77" s="2"/>
+      <c r="K77" s="6"/>
+      <c r="L77" s="6"/>
+      <c r="M77" s="6"/>
+      <c r="N77" s="3"/>
       <c r="O77" s="1"/>
-      <c r="P77" s="2"/>
-      <c r="Q77" s="2">
-        <v>30003</v>
+      <c r="P77" s="3"/>
+      <c r="Q77" s="3">
+        <v>10002</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="78">
       <c r="A78" s="1">
-        <v>40008</v>
-      </c>
-      <c r="B78" s="2" t="str">
-        <v>不良少年</v>
+        <v>40003</v>
+      </c>
+      <c r="B78" s="3" t="str">
+        <v>不良少女</v>
       </c>
       <c r="C78" s="1" t="str">
-        <v>Item_Name_30008</v>
+        <v>Item_Name_30003</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
-      <c r="F78" s="2"/>
+      <c r="F78" s="3"/>
       <c r="G78" s="1">
         <v>5</v>
       </c>
-      <c r="H78" s="16">
+      <c r="H78" s="8">
         <v>10</v>
       </c>
       <c r="I78" s="1">
-        <v>94182</v>
-      </c>
-      <c r="J78" s="3">
+        <v>86333</v>
+      </c>
+      <c r="J78" s="6">
         <v>4</v>
       </c>
-      <c r="K78" s="3"/>
-      <c r="L78" s="3"/>
-      <c r="M78" s="3"/>
-      <c r="N78" s="2"/>
+      <c r="K78" s="6"/>
+      <c r="L78" s="6"/>
+      <c r="M78" s="6"/>
+      <c r="N78" s="3"/>
       <c r="O78" s="1"/>
-      <c r="P78" s="2"/>
-      <c r="Q78" s="2">
-        <v>30004</v>
+      <c r="P78" s="3"/>
+      <c r="Q78" s="3">
+        <v>20001</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="79">
       <c r="A79" s="1">
-        <v>40009</v>
-      </c>
-      <c r="B79" s="1" t="str">
-        <v>啦啦队长</v>
+        <v>40004</v>
+      </c>
+      <c r="B79" s="3" t="str">
+        <v>韩式淑女</v>
       </c>
       <c r="C79" s="1" t="str">
-        <v>Item_Name_30009</v>
+        <v>Item_Name_30004</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
-      <c r="F79" s="2"/>
+      <c r="F79" s="3"/>
       <c r="G79" s="1">
         <v>5</v>
       </c>
-      <c r="H79" s="16">
+      <c r="H79" s="8">
         <v>10</v>
       </c>
       <c r="I79" s="1">
-        <v>110493</v>
-      </c>
-      <c r="J79" s="3">
+        <v>86334</v>
+      </c>
+      <c r="J79" s="6">
         <v>4</v>
       </c>
-      <c r="K79" s="3"/>
-      <c r="L79" s="3"/>
-      <c r="M79" s="3"/>
-      <c r="N79" s="2"/>
+      <c r="K79" s="6"/>
+      <c r="L79" s="6"/>
+      <c r="M79" s="6"/>
+      <c r="N79" s="3"/>
       <c r="O79" s="1"/>
-      <c r="P79" s="2"/>
-      <c r="Q79" s="2">
-        <v>30009</v>
+      <c r="P79" s="3"/>
+      <c r="Q79" s="3">
+        <v>20002</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="80">
       <c r="A80" s="1">
-        <v>40010</v>
-      </c>
-      <c r="B80" s="1" t="str">
-        <v>艺术生</v>
+        <v>40005</v>
+      </c>
+      <c r="B80" s="3" t="str">
+        <v>可爱学妹</v>
       </c>
       <c r="C80" s="1" t="str">
-        <v>Item_Name_30010</v>
+        <v>Item_Name_30005</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
-      <c r="F80" s="2"/>
+      <c r="F80" s="3"/>
       <c r="G80" s="1">
         <v>5</v>
       </c>
-      <c r="H80" s="1">
-        <v>30</v>
+      <c r="H80" s="8">
+        <v>10</v>
       </c>
       <c r="I80" s="1">
-        <v>110508</v>
-      </c>
-      <c r="J80" s="3">
+        <v>94181</v>
+      </c>
+      <c r="J80" s="6">
         <v>4</v>
       </c>
-      <c r="K80" s="3"/>
-      <c r="L80" s="3"/>
-      <c r="M80" s="3"/>
-      <c r="N80" s="2"/>
+      <c r="K80" s="6"/>
+      <c r="L80" s="6"/>
+      <c r="M80" s="6"/>
+      <c r="N80" s="3"/>
       <c r="O80" s="1"/>
-      <c r="P80" s="2"/>
-      <c r="Q80" s="2">
-        <v>30010</v>
+      <c r="P80" s="3"/>
+      <c r="Q80" s="3">
+        <v>30001</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="81">
       <c r="A81" s="1">
-        <v>40011</v>
-      </c>
-      <c r="B81" s="1" t="str">
-        <v>二次元少女</v>
+        <v>40006</v>
+      </c>
+      <c r="B81" s="3" t="str">
+        <v>奇幻少女</v>
       </c>
       <c r="C81" s="1" t="str">
-        <v>Item_Name_30011</v>
+        <v>Item_Name_30006</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
-      <c r="F81" s="2"/>
+      <c r="F81" s="3"/>
       <c r="G81" s="1">
         <v>5</v>
       </c>
-      <c r="H81" s="1">
-        <v>30</v>
+      <c r="H81" s="8">
+        <v>10</v>
       </c>
       <c r="I81" s="1">
-        <v>110522</v>
-      </c>
-      <c r="J81" s="3">
+        <v>94180</v>
+      </c>
+      <c r="J81" s="6">
         <v>4</v>
       </c>
-      <c r="K81" s="3"/>
-      <c r="L81" s="3"/>
-      <c r="M81" s="3"/>
-      <c r="N81" s="2"/>
+      <c r="K81" s="6"/>
+      <c r="L81" s="6"/>
+      <c r="M81" s="6"/>
+      <c r="N81" s="3"/>
       <c r="O81" s="1"/>
-      <c r="P81" s="2"/>
-      <c r="Q81" s="2">
-        <v>30011</v>
+      <c r="P81" s="3"/>
+      <c r="Q81" s="3">
+        <v>30002</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="82">
       <c r="A82" s="1">
-        <v>40012</v>
-      </c>
-      <c r="B82" s="1" t="str">
-        <v>英语老师</v>
+        <v>40007</v>
+      </c>
+      <c r="B82" s="3" t="str">
+        <v>温柔学长</v>
       </c>
       <c r="C82" s="1" t="str">
-        <v>Item_Name_30012</v>
+        <v>Item_Name_30007</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
-      <c r="F82" s="2"/>
+      <c r="F82" s="3"/>
       <c r="G82" s="1">
         <v>5</v>
       </c>
-      <c r="H82" s="1">
-        <v>30</v>
+      <c r="H82" s="8">
+        <v>10</v>
       </c>
       <c r="I82" s="1">
-        <v>110490</v>
-      </c>
-      <c r="J82" s="3">
+        <v>94184</v>
+      </c>
+      <c r="J82" s="6">
         <v>4</v>
       </c>
-      <c r="K82" s="3"/>
-      <c r="L82" s="3"/>
-      <c r="M82" s="3"/>
-      <c r="N82" s="2"/>
+      <c r="K82" s="6"/>
+      <c r="L82" s="6"/>
+      <c r="M82" s="6"/>
+      <c r="N82" s="3"/>
       <c r="O82" s="1"/>
-      <c r="P82" s="2"/>
-      <c r="Q82" s="2">
-        <v>30012</v>
+      <c r="P82" s="3"/>
+      <c r="Q82" s="3">
+        <v>30003</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="83">
       <c r="A83" s="1">
-        <v>40013</v>
-      </c>
-      <c r="B83" s="1" t="str">
-        <v>正义少年</v>
+        <v>40008</v>
+      </c>
+      <c r="B83" s="3" t="str">
+        <v>不良少年</v>
       </c>
       <c r="C83" s="1" t="str">
-        <v>Item_Name_30013</v>
+        <v>Item_Name_30008</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
-      <c r="F83" s="2"/>
+      <c r="F83" s="3"/>
       <c r="G83" s="1">
         <v>5</v>
       </c>
-      <c r="H83" s="1">
-        <v>30</v>
+      <c r="H83" s="8">
+        <v>10</v>
       </c>
       <c r="I83" s="1">
-        <v>110500</v>
-      </c>
-      <c r="J83" s="3">
+        <v>94182</v>
+      </c>
+      <c r="J83" s="6">
         <v>4</v>
       </c>
-      <c r="K83" s="3"/>
-      <c r="L83" s="3"/>
-      <c r="M83" s="3"/>
-      <c r="N83" s="2"/>
+      <c r="K83" s="6"/>
+      <c r="L83" s="6"/>
+      <c r="M83" s="6"/>
+      <c r="N83" s="3"/>
       <c r="O83" s="1"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2">
-        <v>30013</v>
+      <c r="P83" s="3"/>
+      <c r="Q83" s="3">
+        <v>30004</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="84">
       <c r="A84" s="1">
-        <v>40014</v>
+        <v>40009</v>
       </c>
       <c r="B84" s="1" t="str">
-        <v>潮流少女</v>
+        <v>啦啦队长</v>
       </c>
       <c r="C84" s="1" t="str">
-        <v>Item_Name_30014</v>
+        <v>Item_Name_30009</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
-      <c r="F84" s="2"/>
+      <c r="F84" s="3"/>
       <c r="G84" s="1">
         <v>5</v>
       </c>
-      <c r="H84" s="1">
-        <v>30</v>
+      <c r="H84" s="8">
+        <v>10</v>
       </c>
       <c r="I84" s="1">
-        <v>110498</v>
-      </c>
-      <c r="J84" s="3">
+        <v>110493</v>
+      </c>
+      <c r="J84" s="6">
         <v>4</v>
       </c>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="2"/>
+      <c r="K84" s="6"/>
+      <c r="L84" s="6"/>
+      <c r="M84" s="6"/>
+      <c r="N84" s="3"/>
       <c r="O84" s="1"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2">
-        <v>30014</v>
+      <c r="P84" s="3"/>
+      <c r="Q84" s="3">
+        <v>30009</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="85">
       <c r="A85" s="1">
-        <v>40015</v>
-      </c>
-      <c r="B85" s="2" t="str">
-        <v>学生会长</v>
+        <v>40010</v>
+      </c>
+      <c r="B85" s="1" t="str">
+        <v>艺术生</v>
       </c>
       <c r="C85" s="1" t="str">
-        <v>Item_Name_30015</v>
+        <v>Item_Name_30010</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
-      <c r="F85" s="2"/>
+      <c r="F85" s="3"/>
       <c r="G85" s="1">
         <v>5</v>
       </c>
       <c r="H85" s="1">
         <v>30</v>
       </c>
-      <c r="I85" s="2">
-        <v>141795</v>
-      </c>
-      <c r="J85" s="3">
+      <c r="I85" s="1">
+        <v>110508</v>
+      </c>
+      <c r="J85" s="6">
         <v>4</v>
       </c>
-      <c r="K85" s="3"/>
-      <c r="L85" s="3"/>
-      <c r="M85" s="3"/>
-      <c r="N85" s="2"/>
+      <c r="K85" s="6"/>
+      <c r="L85" s="6"/>
+      <c r="M85" s="6"/>
+      <c r="N85" s="3"/>
       <c r="O85" s="1"/>
-      <c r="P85" s="2"/>
-      <c r="Q85" s="2">
-        <v>30015</v>
+      <c r="P85" s="3"/>
+      <c r="Q85" s="3">
+        <v>30010</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="86">
       <c r="A86" s="1">
-        <v>40016</v>
-      </c>
-      <c r="B86" s="2" t="str">
-        <v>女老师</v>
+        <v>40011</v>
+      </c>
+      <c r="B86" s="1" t="str">
+        <v>二次元少女</v>
       </c>
       <c r="C86" s="1" t="str">
-        <v>Item_Name_30016</v>
+        <v>Item_Name_30011</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
-      <c r="F86" s="2"/>
+      <c r="F86" s="3"/>
       <c r="G86" s="1">
         <v>5</v>
       </c>
       <c r="H86" s="1">
-        <v>50</v>
-      </c>
-      <c r="I86" s="2">
-        <v>141819</v>
-      </c>
-      <c r="J86" s="3">
-        <v>3</v>
-      </c>
-      <c r="K86" s="3"/>
-      <c r="L86" s="3"/>
-      <c r="M86" s="3"/>
-      <c r="N86" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="I86" s="1">
+        <v>110522</v>
+      </c>
+      <c r="J86" s="6">
+        <v>4</v>
+      </c>
+      <c r="K86" s="6"/>
+      <c r="L86" s="6"/>
+      <c r="M86" s="6"/>
+      <c r="N86" s="3"/>
       <c r="O86" s="1"/>
-      <c r="P86" s="2"/>
-      <c r="Q86" s="2">
-        <v>30016</v>
+      <c r="P86" s="3"/>
+      <c r="Q86" s="3">
+        <v>30011</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="87">
       <c r="A87" s="1">
-        <v>40017</v>
-      </c>
-      <c r="B87" s="2" t="str">
-        <v>班主任</v>
+        <v>40012</v>
+      </c>
+      <c r="B87" s="1" t="str">
+        <v>英语老师</v>
       </c>
       <c r="C87" s="1" t="str">
-        <v>Item_Name_30017</v>
+        <v>Item_Name_30012</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
-      <c r="F87" s="2"/>
+      <c r="F87" s="3"/>
       <c r="G87" s="1">
         <v>5</v>
       </c>
       <c r="H87" s="1">
-        <v>50</v>
-      </c>
-      <c r="I87" s="2">
-        <v>141810</v>
-      </c>
-      <c r="J87" s="3">
-        <v>3</v>
-      </c>
-      <c r="K87" s="3"/>
-      <c r="L87" s="3"/>
-      <c r="M87" s="3"/>
-      <c r="N87" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="I87" s="1">
+        <v>110490</v>
+      </c>
+      <c r="J87" s="6">
+        <v>4</v>
+      </c>
+      <c r="K87" s="6"/>
+      <c r="L87" s="6"/>
+      <c r="M87" s="6"/>
+      <c r="N87" s="3"/>
       <c r="O87" s="1"/>
-      <c r="P87" s="2"/>
-      <c r="Q87" s="2">
-        <v>30017</v>
+      <c r="P87" s="3"/>
+      <c r="Q87" s="3">
+        <v>30012</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="88">
       <c r="A88" s="1">
-        <v>40018</v>
-      </c>
-      <c r="B88" s="2" t="str">
-        <v>海边姐姐</v>
+        <v>40013</v>
+      </c>
+      <c r="B88" s="1" t="str">
+        <v>正义少年</v>
       </c>
       <c r="C88" s="1" t="str">
-        <v>Item_Name_30018</v>
+        <v>Item_Name_30013</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
-      <c r="F88" s="2"/>
+      <c r="F88" s="3"/>
       <c r="G88" s="1">
         <v>5</v>
       </c>
       <c r="H88" s="1">
-        <v>50</v>
-      </c>
-      <c r="I88" s="2">
-        <v>141798</v>
-      </c>
-      <c r="J88" s="3">
-        <v>3</v>
-      </c>
-      <c r="K88" s="3"/>
-      <c r="L88" s="3"/>
-      <c r="M88" s="3"/>
-      <c r="N88" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="I88" s="1">
+        <v>110500</v>
+      </c>
+      <c r="J88" s="6">
+        <v>4</v>
+      </c>
+      <c r="K88" s="6"/>
+      <c r="L88" s="6"/>
+      <c r="M88" s="6"/>
+      <c r="N88" s="3"/>
       <c r="O88" s="1"/>
-      <c r="P88" s="2"/>
-      <c r="Q88" s="2">
-        <v>30018</v>
+      <c r="P88" s="3"/>
+      <c r="Q88" s="3">
+        <v>30013</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="89">
       <c r="A89" s="1">
-        <v>40019</v>
-      </c>
-      <c r="B89" s="2" t="str">
-        <v>邻家妹妹</v>
+        <v>40014</v>
+      </c>
+      <c r="B89" s="1" t="str">
+        <v>潮流少女</v>
       </c>
       <c r="C89" s="1" t="str">
-        <v>Item_Name_30019</v>
+        <v>Item_Name_30014</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
-      <c r="F89" s="2"/>
+      <c r="F89" s="3"/>
       <c r="G89" s="1">
         <v>5</v>
       </c>
       <c r="H89" s="1">
-        <v>50</v>
-      </c>
-      <c r="I89" s="2">
-        <v>141787</v>
-      </c>
-      <c r="J89" s="3">
-        <v>2</v>
-      </c>
-      <c r="K89" s="3"/>
-      <c r="L89" s="3"/>
-      <c r="M89" s="3"/>
-      <c r="N89" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="I89" s="1">
+        <v>110498</v>
+      </c>
+      <c r="J89" s="6">
+        <v>4</v>
+      </c>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="3"/>
       <c r="O89" s="1"/>
-      <c r="P89" s="2"/>
-      <c r="Q89" s="2">
-        <v>30019</v>
+      <c r="P89" s="3"/>
+      <c r="Q89" s="3">
+        <v>30014</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="90">
       <c r="A90" s="1">
-        <v>40020</v>
-      </c>
-      <c r="B90" s="2" t="str">
-        <v>健身教练</v>
+        <v>40015</v>
+      </c>
+      <c r="B90" s="3" t="str">
+        <v>学生会长</v>
       </c>
       <c r="C90" s="1" t="str">
-        <v>Item_Name_30020</v>
+        <v>Item_Name_30015</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
-      <c r="F90" s="2"/>
+      <c r="F90" s="3"/>
       <c r="G90" s="1">
         <v>5</v>
       </c>
       <c r="H90" s="1">
-        <v>50</v>
-      </c>
-      <c r="I90" s="2">
-        <v>141814</v>
-      </c>
-      <c r="J90" s="3">
-        <v>2</v>
-      </c>
-      <c r="K90" s="3"/>
-      <c r="L90" s="3"/>
-      <c r="M90" s="3"/>
-      <c r="N90" s="2"/>
+        <v>30</v>
+      </c>
+      <c r="I90" s="3">
+        <v>141795</v>
+      </c>
+      <c r="J90" s="6">
+        <v>4</v>
+      </c>
+      <c r="K90" s="6"/>
+      <c r="L90" s="6"/>
+      <c r="M90" s="6"/>
+      <c r="N90" s="3"/>
       <c r="O90" s="1"/>
-      <c r="P90" s="2"/>
-      <c r="Q90" s="2">
-        <v>30020</v>
+      <c r="P90" s="3"/>
+      <c r="Q90" s="3">
+        <v>30015</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="91">
       <c r="A91" s="1">
-        <v>40021</v>
-      </c>
-      <c r="B91" s="2" t="str">
-        <v>优雅少女</v>
+        <v>40016</v>
+      </c>
+      <c r="B91" s="3" t="str">
+        <v>女老师</v>
       </c>
       <c r="C91" s="1" t="str">
-        <v>Item_Name_30021</v>
+        <v>Item_Name_30016</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
-      <c r="F91" s="2"/>
+      <c r="F91" s="3"/>
       <c r="G91" s="1">
         <v>5</v>
       </c>
       <c r="H91" s="1">
         <v>50</v>
       </c>
-      <c r="I91" s="2">
-        <v>141803</v>
-      </c>
-      <c r="J91" s="3">
-        <v>2</v>
-      </c>
-      <c r="K91" s="3"/>
-      <c r="L91" s="3"/>
-      <c r="M91" s="3"/>
-      <c r="N91" s="2"/>
+      <c r="I91" s="3">
+        <v>141819</v>
+      </c>
+      <c r="J91" s="6">
+        <v>3</v>
+      </c>
+      <c r="K91" s="6"/>
+      <c r="L91" s="6"/>
+      <c r="M91" s="6"/>
+      <c r="N91" s="3"/>
       <c r="O91" s="1"/>
-      <c r="P91" s="2"/>
-      <c r="Q91" s="2">
-        <v>30021</v>
+      <c r="P91" s="3"/>
+      <c r="Q91" s="3">
+        <v>30016</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="92">
       <c r="A92" s="1">
-        <v>40022</v>
-      </c>
-      <c r="B92" s="2" t="str">
-        <v>探险家</v>
+        <v>40017</v>
+      </c>
+      <c r="B92" s="3" t="str">
+        <v>班主任</v>
       </c>
       <c r="C92" s="1" t="str">
-        <v>Item_Name_30022</v>
+        <v>Item_Name_30017</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
-      <c r="F92" s="2"/>
+      <c r="F92" s="3"/>
       <c r="G92" s="1">
         <v>5</v>
       </c>
       <c r="H92" s="1">
-        <v>80</v>
-      </c>
-      <c r="I92" s="2">
-        <v>141801</v>
-      </c>
-      <c r="J92" s="3">
-        <v>1</v>
-      </c>
-      <c r="K92" s="3"/>
-      <c r="L92" s="3"/>
-      <c r="M92" s="3"/>
-      <c r="N92" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I92" s="3">
+        <v>141810</v>
+      </c>
+      <c r="J92" s="6">
+        <v>3</v>
+      </c>
+      <c r="K92" s="6"/>
+      <c r="L92" s="6"/>
+      <c r="M92" s="6"/>
+      <c r="N92" s="3"/>
       <c r="O92" s="1"/>
-      <c r="P92" s="2"/>
-      <c r="Q92" s="2">
-        <v>30022</v>
+      <c r="P92" s="3"/>
+      <c r="Q92" s="3">
+        <v>30017</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="93">
       <c r="A93" s="1">
-        <v>40023</v>
-      </c>
-      <c r="B93" s="2" t="str">
-        <v>民国学生</v>
+        <v>40018</v>
+      </c>
+      <c r="B93" s="3" t="str">
+        <v>海边姐姐</v>
       </c>
       <c r="C93" s="1" t="str">
-        <v>Item_Name_30023</v>
+        <v>Item_Name_30018</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
-      <c r="F93" s="2"/>
+      <c r="F93" s="3"/>
       <c r="G93" s="1">
         <v>5</v>
       </c>
       <c r="H93" s="1">
-        <v>80</v>
-      </c>
-      <c r="I93" s="2">
-        <v>141815</v>
-      </c>
-      <c r="J93" s="3">
-        <v>1</v>
-      </c>
-      <c r="K93" s="3"/>
-      <c r="L93" s="3"/>
-      <c r="M93" s="3"/>
-      <c r="N93" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I93" s="3">
+        <v>141798</v>
+      </c>
+      <c r="J93" s="6">
+        <v>3</v>
+      </c>
+      <c r="K93" s="6"/>
+      <c r="L93" s="6"/>
+      <c r="M93" s="6"/>
+      <c r="N93" s="3"/>
       <c r="O93" s="1"/>
-      <c r="P93" s="2"/>
-      <c r="Q93" s="2">
-        <v>30023</v>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3">
+        <v>30018</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="94">
       <c r="A94" s="1">
-        <v>40024</v>
-      </c>
-      <c r="B94" s="2" t="str">
-        <v>可可少女</v>
+        <v>40019</v>
+      </c>
+      <c r="B94" s="3" t="str">
+        <v>邻家妹妹</v>
       </c>
       <c r="C94" s="1" t="str">
-        <v>Item_Name_30024</v>
+        <v>Item_Name_30019</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
-      <c r="F94" s="2"/>
+      <c r="F94" s="3"/>
       <c r="G94" s="1">
         <v>5</v>
       </c>
       <c r="H94" s="1">
-        <v>80</v>
-      </c>
-      <c r="I94" s="2">
-        <v>141808</v>
-      </c>
-      <c r="J94" s="3">
-        <v>1</v>
-      </c>
-      <c r="K94" s="3"/>
-      <c r="L94" s="3"/>
-      <c r="M94" s="3"/>
-      <c r="N94" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I94" s="3">
+        <v>141787</v>
+      </c>
+      <c r="J94" s="6">
+        <v>2</v>
+      </c>
+      <c r="K94" s="6"/>
+      <c r="L94" s="6"/>
+      <c r="M94" s="6"/>
+      <c r="N94" s="3"/>
       <c r="O94" s="1"/>
-      <c r="P94" s="2"/>
-      <c r="Q94" s="2">
-        <v>30024</v>
+      <c r="P94" s="3"/>
+      <c r="Q94" s="3">
+        <v>30019</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="95">
       <c r="A95" s="1">
-        <v>40025</v>
-      </c>
-      <c r="B95" s="2" t="str">
-        <v>猫猫店员</v>
+        <v>40020</v>
+      </c>
+      <c r="B95" s="3" t="str">
+        <v>健身教练</v>
       </c>
       <c r="C95" s="1" t="str">
-        <v>Item_Name_30025</v>
+        <v>Item_Name_30020</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
-      <c r="F95" s="2"/>
+      <c r="F95" s="3"/>
       <c r="G95" s="1">
         <v>5</v>
       </c>
       <c r="H95" s="1">
-        <v>100</v>
-      </c>
-      <c r="I95" s="2">
-        <v>141792</v>
-      </c>
-      <c r="J95" s="3">
-        <v>0</v>
-      </c>
-      <c r="K95" s="3"/>
-      <c r="L95" s="3"/>
-      <c r="M95" s="3"/>
-      <c r="N95" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I95" s="3">
+        <v>141814</v>
+      </c>
+      <c r="J95" s="6">
+        <v>2</v>
+      </c>
+      <c r="K95" s="6"/>
+      <c r="L95" s="6"/>
+      <c r="M95" s="6"/>
+      <c r="N95" s="3"/>
       <c r="O95" s="1"/>
-      <c r="P95" s="2"/>
-      <c r="Q95" s="2">
-        <v>30025</v>
+      <c r="P95" s="3"/>
+      <c r="Q95" s="3">
+        <v>30020</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="96">
       <c r="A96" s="1">
-        <v>40026</v>
-      </c>
-      <c r="B96" s="2" t="str">
-        <v>女仆甜心</v>
+        <v>40021</v>
+      </c>
+      <c r="B96" s="3" t="str">
+        <v>优雅少女</v>
       </c>
       <c r="C96" s="1" t="str">
-        <v>Item_Name_30026</v>
+        <v>Item_Name_30021</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
-      <c r="F96" s="2"/>
+      <c r="F96" s="3"/>
       <c r="G96" s="1">
         <v>5</v>
       </c>
       <c r="H96" s="1">
-        <v>100</v>
-      </c>
-      <c r="I96" s="2">
-        <v>141816</v>
-      </c>
-      <c r="J96" s="3">
-        <v>0</v>
-      </c>
-      <c r="K96" s="3"/>
-      <c r="L96" s="3"/>
-      <c r="M96" s="3"/>
-      <c r="N96" s="2"/>
+        <v>50</v>
+      </c>
+      <c r="I96" s="3">
+        <v>141803</v>
+      </c>
+      <c r="J96" s="6">
+        <v>2</v>
+      </c>
+      <c r="K96" s="6"/>
+      <c r="L96" s="6"/>
+      <c r="M96" s="6"/>
+      <c r="N96" s="3"/>
       <c r="O96" s="1"/>
-      <c r="P96" s="2"/>
-      <c r="Q96" s="2">
-        <v>30026</v>
+      <c r="P96" s="3"/>
+      <c r="Q96" s="3">
+        <v>30021</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="97">
       <c r="A97" s="1">
-        <v>40027</v>
-      </c>
-      <c r="B97" s="2" t="str">
-        <v>猫耳女仆</v>
+        <v>40022</v>
+      </c>
+      <c r="B97" s="3" t="str">
+        <v>探险家</v>
       </c>
       <c r="C97" s="1" t="str">
-        <v>Item_Name_30027</v>
+        <v>Item_Name_30022</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
-      <c r="F97" s="2"/>
+      <c r="F97" s="3"/>
       <c r="G97" s="1">
         <v>5</v>
       </c>
       <c r="H97" s="1">
-        <v>100</v>
-      </c>
-      <c r="I97" s="2">
-        <v>141807</v>
-      </c>
-      <c r="J97" s="3">
-        <v>0</v>
-      </c>
-      <c r="K97" s="3"/>
-      <c r="L97" s="3"/>
-      <c r="M97" s="3"/>
-      <c r="N97" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="I97" s="3">
+        <v>141801</v>
+      </c>
+      <c r="J97" s="6">
+        <v>1</v>
+      </c>
+      <c r="K97" s="6"/>
+      <c r="L97" s="6"/>
+      <c r="M97" s="6"/>
+      <c r="N97" s="3"/>
       <c r="O97" s="1"/>
-      <c r="P97" s="2"/>
-      <c r="Q97" s="2">
-        <v>30027</v>
+      <c r="P97" s="3"/>
+      <c r="Q97" s="3">
+        <v>30022</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="98">
       <c r="A98" s="1">
-        <v>40028</v>
-      </c>
-      <c r="B98" s="2" t="str">
-        <v>少女偶像</v>
+        <v>40023</v>
+      </c>
+      <c r="B98" s="3" t="str">
+        <v>民国学生</v>
       </c>
       <c r="C98" s="1" t="str">
-        <v>Item_Name_30028</v>
+        <v>Item_Name_30023</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
-      <c r="F98" s="2"/>
+      <c r="F98" s="3"/>
       <c r="G98" s="1">
         <v>5</v>
       </c>
       <c r="H98" s="1">
-        <v>100</v>
-      </c>
-      <c r="I98" s="2">
-        <v>141799</v>
-      </c>
-      <c r="J98" s="3">
-        <v>0</v>
-      </c>
-      <c r="K98" s="3"/>
-      <c r="L98" s="3"/>
-      <c r="M98" s="3"/>
-      <c r="N98" s="2"/>
+        <v>80</v>
+      </c>
+      <c r="I98" s="3">
+        <v>141815</v>
+      </c>
+      <c r="J98" s="6">
+        <v>1</v>
+      </c>
+      <c r="K98" s="6"/>
+      <c r="L98" s="6"/>
+      <c r="M98" s="6"/>
+      <c r="N98" s="3"/>
       <c r="O98" s="1"/>
-      <c r="P98" s="2"/>
-      <c r="Q98" s="2">
-        <v>30028</v>
+      <c r="P98" s="3"/>
+      <c r="Q98" s="3">
+        <v>30023</v>
       </c>
     </row>
     <row customHeight="true" ht="25" r="99">
       <c r="A99" s="1">
-        <v>40029</v>
-      </c>
-      <c r="B99" s="2" t="str">
-        <v>圣诞少女</v>
+        <v>40024</v>
+      </c>
+      <c r="B99" s="3" t="str">
+        <v>可可少女</v>
       </c>
       <c r="C99" s="1" t="str">
-        <v>Item_Name_30029</v>
+        <v>Item_Name_30024</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
-      <c r="F99" s="2"/>
+      <c r="F99" s="3"/>
       <c r="G99" s="1">
         <v>5</v>
       </c>
       <c r="H99" s="1">
+        <v>80</v>
+      </c>
+      <c r="I99" s="3">
+        <v>141808</v>
+      </c>
+      <c r="J99" s="6">
+        <v>1</v>
+      </c>
+      <c r="K99" s="6"/>
+      <c r="L99" s="6"/>
+      <c r="M99" s="6"/>
+      <c r="N99" s="3"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="3"/>
+      <c r="Q99" s="3">
+        <v>30024</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="25" r="100">
+      <c r="A100" s="1">
+        <v>40025</v>
+      </c>
+      <c r="B100" s="3" t="str">
+        <v>猫猫店员</v>
+      </c>
+      <c r="C100" s="1" t="str">
+        <v>Item_Name_30025</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="3"/>
+      <c r="G100" s="1">
+        <v>5</v>
+      </c>
+      <c r="H100" s="1">
         <v>100</v>
       </c>
-      <c r="I99" s="2">
-        <v>141789</v>
-      </c>
-      <c r="J99" s="3">
-        <v>0</v>
-      </c>
-      <c r="K99" s="3"/>
-      <c r="L99" s="3"/>
-      <c r="M99" s="3"/>
-      <c r="N99" s="2"/>
-      <c r="O99" s="1"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2">
-        <v>30029</v>
-      </c>
-    </row>
-    <row customHeight="true" ht="25" r="100">
-      <c r="A100" s="9">
-        <v>50000</v>
-      </c>
-      <c r="B100" s="7" t="str">
-        <v>挂件数量</v>
-      </c>
-      <c r="C100" s="8" t="str">
-        <v>Shop_Name_40001</v>
-      </c>
-      <c r="D100" s="9">
-        <v>9</v>
-      </c>
-      <c r="E100" s="9"/>
-      <c r="F100" s="7"/>
-      <c r="G100" s="9"/>
-      <c r="H100" s="9">
-        <v>1</v>
-      </c>
-      <c r="I100" s="7"/>
-      <c r="J100" s="7"/>
-      <c r="K100" s="9"/>
-      <c r="L100" s="7"/>
-      <c r="M100" s="7"/>
-      <c r="N100" s="7"/>
-      <c r="O100" s="7"/>
-      <c r="P100" s="7"/>
-      <c r="Q100" s="7"/>
+      <c r="I100" s="3">
+        <v>141792</v>
+      </c>
+      <c r="J100" s="6">
+        <v>0</v>
+      </c>
+      <c r="K100" s="6"/>
+      <c r="L100" s="6"/>
+      <c r="M100" s="6"/>
+      <c r="N100" s="3"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="3"/>
+      <c r="Q100" s="3">
+        <v>30025</v>
+      </c>
     </row>
     <row customHeight="true" ht="25" r="101">
       <c r="A101" s="1">
-        <v>50001</v>
-      </c>
-      <c r="B101" s="2" t="str">
-        <v>彩虹马桶人</v>
-      </c>
-      <c r="C101" s="3" t="str">
-        <v>Shop_Name_40001</v>
+        <v>40026</v>
+      </c>
+      <c r="B101" s="3" t="str">
+        <v>女仆甜心</v>
+      </c>
+      <c r="C101" s="1" t="str">
+        <v>Item_Name_30026</v>
       </c>
       <c r="D101" s="1"/>
-      <c r="E101" s="1" t="str">
-        <v>D0C568E94DC2EAAADE0303AC1A079AB8</v>
-      </c>
-      <c r="F101" s="2"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="3"/>
       <c r="G101" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H101" s="1">
-        <v>10</v>
-      </c>
-      <c r="I101" s="4">
-        <v>186661</v>
-      </c>
-      <c r="J101" s="2">
-        <v>4</v>
-      </c>
-      <c r="K101" s="1"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2">
-        <v>12</v>
-      </c>
-      <c r="N101" s="2" t="str">
-        <v>0.22|0.22|0.22</v>
-      </c>
-      <c r="O101" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="P101" s="2" t="str">
-        <v>30|0|-40</v>
-      </c>
-      <c r="Q101" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="I101" s="3">
+        <v>141816</v>
+      </c>
+      <c r="J101" s="6">
+        <v>0</v>
+      </c>
+      <c r="K101" s="6"/>
+      <c r="L101" s="6"/>
+      <c r="M101" s="6"/>
+      <c r="N101" s="3"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="3"/>
+      <c r="Q101" s="3">
+        <v>30026</v>
+      </c>
     </row>
     <row customHeight="true" ht="25" r="102">
       <c r="A102" s="1">
-        <v>50002</v>
-      </c>
-      <c r="B102" s="2" t="str">
-        <v>公主马桶人</v>
-      </c>
-      <c r="C102" s="3" t="str">
-        <v>Shop_Name_40002</v>
+        <v>40027</v>
+      </c>
+      <c r="B102" s="3" t="str">
+        <v>猫耳女仆</v>
+      </c>
+      <c r="C102" s="1" t="str">
+        <v>Item_Name_30027</v>
       </c>
       <c r="D102" s="1"/>
-      <c r="E102" s="1" t="str">
-        <v>45CC801843BCB421039107B2112267A6</v>
-      </c>
-      <c r="F102" s="2"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="3"/>
       <c r="G102" s="1">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="H102" s="1">
-        <v>3000</v>
-      </c>
-      <c r="I102" s="4">
-        <v>186663</v>
-      </c>
-      <c r="J102" s="2">
-        <v>3</v>
-      </c>
-      <c r="K102" s="1"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2">
-        <v>12</v>
-      </c>
-      <c r="N102" s="2" t="str">
-        <v>0.22|0.22|0.22</v>
-      </c>
-      <c r="O102" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="P102" s="2" t="str">
-        <v>30|0|-40</v>
-      </c>
-      <c r="Q102" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="I102" s="3">
+        <v>141807</v>
+      </c>
+      <c r="J102" s="6">
+        <v>0</v>
+      </c>
+      <c r="K102" s="6"/>
+      <c r="L102" s="6"/>
+      <c r="M102" s="6"/>
+      <c r="N102" s="3"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="3"/>
+      <c r="Q102" s="3">
+        <v>30027</v>
+      </c>
     </row>
     <row customHeight="true" ht="25" r="103">
       <c r="A103" s="1">
-        <v>50003</v>
-      </c>
-      <c r="B103" s="2" t="str">
-        <v>太空马桶人</v>
-      </c>
-      <c r="C103" s="3" t="str">
-        <v>Shop_Name_40003</v>
+        <v>40028</v>
+      </c>
+      <c r="B103" s="3" t="str">
+        <v>少女偶像</v>
+      </c>
+      <c r="C103" s="1" t="str">
+        <v>Item_Name_30028</v>
       </c>
       <c r="D103" s="1"/>
-      <c r="E103" s="1" t="str">
-        <v>C9292BC84BD8123269224ABBA8B007CB</v>
-      </c>
-      <c r="F103" s="2"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="3"/>
       <c r="G103" s="1">
         <v>5</v>
       </c>
       <c r="H103" s="1">
-        <v>500</v>
-      </c>
-      <c r="I103" s="4">
-        <v>186662</v>
-      </c>
-      <c r="J103" s="2">
-        <v>2</v>
-      </c>
-      <c r="K103" s="1"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2">
-        <v>12</v>
-      </c>
-      <c r="N103" s="2" t="str">
-        <v>0.22|0.22|0.22</v>
-      </c>
-      <c r="O103" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="P103" s="2" t="str">
-        <v>30|0|-40</v>
-      </c>
-      <c r="Q103" s="2"/>
+        <v>100</v>
+      </c>
+      <c r="I103" s="3">
+        <v>141799</v>
+      </c>
+      <c r="J103" s="6">
+        <v>0</v>
+      </c>
+      <c r="K103" s="6"/>
+      <c r="L103" s="6"/>
+      <c r="M103" s="6"/>
+      <c r="N103" s="3"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="3"/>
+      <c r="Q103" s="3">
+        <v>30028</v>
+      </c>
     </row>
     <row customHeight="true" ht="25" r="104">
       <c r="A104" s="1">
-        <v>50004</v>
-      </c>
-      <c r="B104" s="2" t="str">
-        <v>蜘蛛马桶人</v>
-      </c>
-      <c r="C104" s="3" t="str">
-        <v>Shop_Name_40004</v>
+        <v>40029</v>
+      </c>
+      <c r="B104" s="3" t="str">
+        <v>圣诞少女</v>
+      </c>
+      <c r="C104" s="1" t="str">
+        <v>Item_Name_30029</v>
       </c>
       <c r="D104" s="1"/>
-      <c r="E104" s="1" t="str">
-        <v>9369090F4F800E92F623348B8D94270A</v>
-      </c>
-      <c r="F104" s="2"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="3"/>
       <c r="G104" s="1">
         <v>5</v>
       </c>
       <c r="H104" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I104" s="4">
-        <v>186664</v>
-      </c>
-      <c r="J104" s="2">
+        <v>100</v>
+      </c>
+      <c r="I104" s="3">
+        <v>141789</v>
+      </c>
+      <c r="J104" s="6">
+        <v>0</v>
+      </c>
+      <c r="K104" s="6"/>
+      <c r="L104" s="6"/>
+      <c r="M104" s="6"/>
+      <c r="N104" s="3"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="3"/>
+      <c r="Q104" s="3">
+        <v>30029</v>
+      </c>
+    </row>
+    <row customHeight="true" ht="25" r="105">
+      <c r="A105" s="9">
+        <v>50000</v>
+      </c>
+      <c r="B105" s="10" t="str">
+        <v>挂件数量</v>
+      </c>
+      <c r="C105" s="11" t="str">
+        <v>Shop_Name_40001</v>
+      </c>
+      <c r="D105" s="9">
+        <v>16</v>
+      </c>
+      <c r="E105" s="9"/>
+      <c r="F105" s="10"/>
+      <c r="G105" s="9"/>
+      <c r="H105" s="9">
         <v>1</v>
       </c>
-      <c r="K104" s="1"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2">
-        <v>12</v>
-      </c>
-      <c r="N104" s="2" t="str">
-        <v>0.22|0.22|0.22</v>
-      </c>
-      <c r="O104" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="P104" s="2" t="str">
-        <v>30|0|-40</v>
-      </c>
-      <c r="Q104" s="2"/>
-    </row>
-    <row customHeight="true" ht="25" r="105">
-      <c r="A105" s="1">
-        <v>50005</v>
-      </c>
-      <c r="B105" s="2" t="str">
-        <v>监控人</v>
-      </c>
-      <c r="C105" s="3" t="str">
-        <v>Shop_Name_40005</v>
-      </c>
-      <c r="D105" s="1"/>
-      <c r="E105" s="1">
-        <v>184546</v>
-      </c>
-      <c r="F105" s="2"/>
-      <c r="G105" s="1">
-        <v>0</v>
-      </c>
-      <c r="H105" s="1">
-        <v>10</v>
-      </c>
-      <c r="I105" s="4">
-        <v>186110</v>
-      </c>
-      <c r="J105" s="2">
-        <v>4</v>
-      </c>
-      <c r="K105" s="1"/>
-      <c r="L105" s="2"/>
-      <c r="M105" s="2">
-        <v>1</v>
-      </c>
-      <c r="N105" s="2" t="str">
-        <v>1.4|0.9|1.3</v>
-      </c>
-      <c r="O105" s="2" t="str">
-        <v>0|0|0</v>
-      </c>
-      <c r="P105" s="2" t="str">
-        <v>0|4|-6</v>
-      </c>
-      <c r="Q105" s="2"/>
+      <c r="I105" s="10"/>
+      <c r="J105" s="10"/>
+      <c r="K105" s="9"/>
+      <c r="L105" s="10"/>
+      <c r="M105" s="10"/>
+      <c r="N105" s="10"/>
+      <c r="O105" s="10"/>
+      <c r="P105" s="10"/>
+      <c r="Q105" s="10"/>
     </row>
     <row customHeight="true" ht="25" r="106">
       <c r="A106" s="1">
-        <v>50006</v>
-      </c>
-      <c r="B106" s="2" t="str">
-        <v>音响人</v>
-      </c>
-      <c r="C106" s="3" t="str">
-        <v>Shop_Name_40006</v>
+        <v>50001</v>
+      </c>
+      <c r="B106" s="3" t="str">
+        <v>彩虹马桶人</v>
+      </c>
+      <c r="C106" s="6" t="str">
+        <v>Shop_Name_40001</v>
       </c>
       <c r="D106" s="1"/>
-      <c r="E106" s="1">
-        <v>37584</v>
-      </c>
-      <c r="F106" s="2"/>
+      <c r="E106" s="1" t="str">
+        <v>D0C568E94DC2EAAADE0303AC1A079AB8</v>
+      </c>
+      <c r="F106" s="3"/>
       <c r="G106" s="1">
         <v>0</v>
       </c>
       <c r="H106" s="1">
-        <v>5000</v>
-      </c>
-      <c r="I106" s="4">
-        <v>186115</v>
-      </c>
-      <c r="J106" s="2">
-        <v>3</v>
+        <v>10</v>
+      </c>
+      <c r="I106" s="14">
+        <v>186661</v>
+      </c>
+      <c r="J106" s="3">
+        <v>4</v>
       </c>
       <c r="K106" s="1"/>
-      <c r="L106" s="2"/>
-      <c r="M106" s="2">
-        <v>1</v>
-      </c>
-      <c r="N106" s="1" t="str">
-        <v>0.9|0.95|0.8</v>
-      </c>
-      <c r="O106" s="2" t="str">
+      <c r="L106" s="3"/>
+      <c r="M106" s="3">
+        <v>12</v>
+      </c>
+      <c r="N106" s="3" t="str">
+        <v>0.22|0.22|0.22</v>
+      </c>
+      <c r="O106" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P106" s="1" t="str">
-        <v>0|-1|-6</v>
-      </c>
-      <c r="Q106" s="2"/>
+      <c r="P106" s="3" t="str">
+        <v>30|0|-40</v>
+      </c>
+      <c r="Q106" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="107">
       <c r="A107" s="1">
-        <v>50007</v>
-      </c>
-      <c r="B107" s="2" t="str">
-        <v>电视人</v>
-      </c>
-      <c r="C107" s="3" t="str">
-        <v>Shop_Name_40007</v>
+        <v>50002</v>
+      </c>
+      <c r="B107" s="3" t="str">
+        <v>公主马桶人</v>
+      </c>
+      <c r="C107" s="6" t="str">
+        <v>Shop_Name_40002</v>
       </c>
       <c r="D107" s="1"/>
-      <c r="E107" s="1">
-        <v>37562</v>
-      </c>
-      <c r="F107" s="2"/>
+      <c r="E107" s="1" t="str">
+        <v>45CC801843BCB421039107B2112267A6</v>
+      </c>
+      <c r="F107" s="3"/>
       <c r="G107" s="1">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="H107" s="1">
-        <v>1000</v>
-      </c>
-      <c r="I107" s="4">
-        <v>186121</v>
-      </c>
-      <c r="J107" s="2">
-        <v>2</v>
+        <v>3000</v>
+      </c>
+      <c r="I107" s="14">
+        <v>186663</v>
+      </c>
+      <c r="J107" s="3">
+        <v>3</v>
       </c>
       <c r="K107" s="1"/>
-      <c r="L107" s="2"/>
-      <c r="M107" s="2">
-        <v>1</v>
-      </c>
-      <c r="N107" s="2" t="str">
-        <v>0.6|0.6|0.6</v>
-      </c>
-      <c r="O107" s="2" t="str">
+      <c r="L107" s="3"/>
+      <c r="M107" s="3">
+        <v>12</v>
+      </c>
+      <c r="N107" s="3" t="str">
+        <v>0.22|0.22|0.22</v>
+      </c>
+      <c r="O107" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P107" s="2" t="str">
-        <v>0|0|-5</v>
-      </c>
-      <c r="Q107" s="2"/>
+      <c r="P107" s="3" t="str">
+        <v>30|0|-40</v>
+      </c>
+      <c r="Q107" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="108">
       <c r="A108" s="1">
-        <v>50008</v>
-      </c>
-      <c r="B108" s="2" t="str">
-        <v>卡通音响人</v>
-      </c>
-      <c r="C108" s="3" t="str">
-        <v>Shop_Name_40008</v>
+        <v>50003</v>
+      </c>
+      <c r="B108" s="3" t="str">
+        <v>太空马桶人</v>
+      </c>
+      <c r="C108" s="6" t="str">
+        <v>Shop_Name_40003</v>
       </c>
       <c r="D108" s="1"/>
-      <c r="E108" s="1">
-        <v>124423</v>
-      </c>
-      <c r="F108" s="2"/>
+      <c r="E108" s="1" t="str">
+        <v>C9292BC84BD8123269224ABBA8B007CB</v>
+      </c>
+      <c r="F108" s="3"/>
       <c r="G108" s="1">
         <v>5</v>
       </c>
       <c r="H108" s="1">
-        <v>1200</v>
-      </c>
-      <c r="I108" s="4">
-        <v>186130</v>
-      </c>
-      <c r="J108" s="2">
-        <v>1</v>
+        <v>100</v>
+      </c>
+      <c r="I108" s="14">
+        <v>186662</v>
+      </c>
+      <c r="J108" s="3">
+        <v>2</v>
       </c>
       <c r="K108" s="1"/>
-      <c r="L108" s="2"/>
-      <c r="M108" s="2">
-        <v>1</v>
-      </c>
-      <c r="N108" s="2" t="str">
-        <v>0.28|0.48|0.28</v>
-      </c>
-      <c r="O108" s="2" t="str">
+      <c r="L108" s="3"/>
+      <c r="M108" s="3">
+        <v>12</v>
+      </c>
+      <c r="N108" s="3" t="str">
+        <v>0.22|0.22|0.22</v>
+      </c>
+      <c r="O108" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P108" s="2" t="str">
-        <v>0|-9|-5</v>
-      </c>
-      <c r="Q108" s="2"/>
+      <c r="P108" s="3" t="str">
+        <v>30|0|-40</v>
+      </c>
+      <c r="Q108" s="3"/>
     </row>
     <row customHeight="true" ht="25" r="109">
       <c r="A109" s="1">
-        <v>50009</v>
-      </c>
-      <c r="B109" s="2" t="str">
-        <v>卡通电视人</v>
-      </c>
-      <c r="C109" s="3" t="str">
-        <v>Shop_Name_40009</v>
+        <v>50004</v>
+      </c>
+      <c r="B109" s="3" t="str">
+        <v>蜘蛛马桶人</v>
+      </c>
+      <c r="C109" s="6" t="str">
+        <v>Shop_Name_40004</v>
       </c>
       <c r="D109" s="1"/>
-      <c r="E109" s="1">
-        <v>124424</v>
-      </c>
-      <c r="F109" s="2"/>
+      <c r="E109" s="1" t="str">
+        <v>9369090F4F800E92F623348B8D94270A</v>
+      </c>
+      <c r="F109" s="3"/>
       <c r="G109" s="1">
         <v>5</v>
       </c>
       <c r="H109" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I109" s="14">
+        <v>186664</v>
+      </c>
+      <c r="J109" s="3">
+        <v>1</v>
+      </c>
+      <c r="K109" s="1"/>
+      <c r="L109" s="3"/>
+      <c r="M109" s="3">
+        <v>12</v>
+      </c>
+      <c r="N109" s="3" t="str">
+        <v>0.22|0.22|0.22</v>
+      </c>
+      <c r="O109" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="P109" s="3" t="str">
+        <v>30|0|-40</v>
+      </c>
+      <c r="Q109" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="110">
+      <c r="A110" s="1">
+        <v>50005</v>
+      </c>
+      <c r="B110" s="3" t="str">
+        <v>监控人</v>
+      </c>
+      <c r="C110" s="6" t="str">
+        <v>Shop_Name_40005</v>
+      </c>
+      <c r="D110" s="1"/>
+      <c r="E110" s="1">
+        <v>184546</v>
+      </c>
+      <c r="F110" s="3"/>
+      <c r="G110" s="1">
+        <v>0</v>
+      </c>
+      <c r="H110" s="1">
+        <v>10</v>
+      </c>
+      <c r="I110" s="14">
+        <v>186110</v>
+      </c>
+      <c r="J110" s="3">
+        <v>4</v>
+      </c>
+      <c r="K110" s="1"/>
+      <c r="L110" s="3"/>
+      <c r="M110" s="3">
+        <v>1</v>
+      </c>
+      <c r="N110" s="3" t="str">
+        <v>1.4|0.9|1.3</v>
+      </c>
+      <c r="O110" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="P110" s="3" t="str">
+        <v>0|4|-6</v>
+      </c>
+      <c r="Q110" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="111">
+      <c r="A111" s="1">
+        <v>50006</v>
+      </c>
+      <c r="B111" s="3" t="str">
+        <v>音响人</v>
+      </c>
+      <c r="C111" s="6" t="str">
+        <v>Shop_Name_40006</v>
+      </c>
+      <c r="D111" s="1"/>
+      <c r="E111" s="1">
+        <v>37584</v>
+      </c>
+      <c r="F111" s="3"/>
+      <c r="G111" s="1">
+        <v>0</v>
+      </c>
+      <c r="H111" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I111" s="14">
+        <v>186115</v>
+      </c>
+      <c r="J111" s="3">
+        <v>3</v>
+      </c>
+      <c r="K111" s="1"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3">
+        <v>1</v>
+      </c>
+      <c r="N111" s="1" t="str">
+        <v>0.9|0.95|0.8</v>
+      </c>
+      <c r="O111" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="P111" s="1" t="str">
+        <v>0|-1|-6</v>
+      </c>
+      <c r="Q111" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="112">
+      <c r="A112" s="1">
+        <v>50007</v>
+      </c>
+      <c r="B112" s="3" t="str">
+        <v>电视人</v>
+      </c>
+      <c r="C112" s="6" t="str">
+        <v>Shop_Name_40007</v>
+      </c>
+      <c r="D112" s="1"/>
+      <c r="E112" s="1">
+        <v>37562</v>
+      </c>
+      <c r="F112" s="3"/>
+      <c r="G112" s="1">
+        <v>5</v>
+      </c>
+      <c r="H112" s="1">
+        <v>100</v>
+      </c>
+      <c r="I112" s="14">
+        <v>186121</v>
+      </c>
+      <c r="J112" s="3">
+        <v>2</v>
+      </c>
+      <c r="K112" s="1"/>
+      <c r="L112" s="3"/>
+      <c r="M112" s="3">
+        <v>1</v>
+      </c>
+      <c r="N112" s="3" t="str">
+        <v>0.6|0.6|0.6</v>
+      </c>
+      <c r="O112" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="P112" s="3" t="str">
+        <v>0|0|-5</v>
+      </c>
+      <c r="Q112" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="113">
+      <c r="A113" s="1">
+        <v>50008</v>
+      </c>
+      <c r="B113" s="3" t="str">
+        <v>卡通音响人</v>
+      </c>
+      <c r="C113" s="6" t="str">
+        <v>Shop_Name_40008</v>
+      </c>
+      <c r="D113" s="1"/>
+      <c r="E113" s="1">
+        <v>124423</v>
+      </c>
+      <c r="F113" s="3"/>
+      <c r="G113" s="1">
+        <v>5</v>
+      </c>
+      <c r="H113" s="1">
+        <v>1200</v>
+      </c>
+      <c r="I113" s="14">
+        <v>186130</v>
+      </c>
+      <c r="J113" s="3">
+        <v>1</v>
+      </c>
+      <c r="K113" s="1"/>
+      <c r="L113" s="3"/>
+      <c r="M113" s="3">
+        <v>1</v>
+      </c>
+      <c r="N113" s="3" t="str">
+        <v>0.28|0.48|0.28</v>
+      </c>
+      <c r="O113" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="P113" s="3" t="str">
+        <v>0|-9|-5</v>
+      </c>
+      <c r="Q113" s="3"/>
+    </row>
+    <row customHeight="true" ht="25" r="114">
+      <c r="A114" s="1">
+        <v>50009</v>
+      </c>
+      <c r="B114" s="3" t="str">
+        <v>卡通电视人</v>
+      </c>
+      <c r="C114" s="6" t="str">
+        <v>Shop_Name_40009</v>
+      </c>
+      <c r="D114" s="1"/>
+      <c r="E114" s="1">
+        <v>124424</v>
+      </c>
+      <c r="F114" s="3"/>
+      <c r="G114" s="1">
+        <v>5</v>
+      </c>
+      <c r="H114" s="1">
         <v>1500</v>
       </c>
-      <c r="I109" s="4">
+      <c r="I114" s="14">
         <v>186127</v>
       </c>
-      <c r="J109" s="2">
-        <v>0</v>
-      </c>
-      <c r="K109" s="1"/>
-      <c r="L109" s="2"/>
-      <c r="M109" s="2">
+      <c r="J114" s="3">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1"/>
+      <c r="L114" s="3"/>
+      <c r="M114" s="3">
         <v>1</v>
       </c>
-      <c r="N109" s="2" t="str">
+      <c r="N114" s="3" t="str">
         <v>0.23|0.25|0.23</v>
       </c>
-      <c r="O109" s="2" t="str">
+      <c r="O114" s="3" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P109" s="2" t="str">
+      <c r="P114" s="3" t="str">
         <v>0|1|-7</v>
       </c>
-      <c r="Q109" s="2"/>
+      <c r="Q114" s="3"/>
+    </row>
+    <row r="115">
+      <c r="A115" s="1">
+        <v>50010</v>
+      </c>
+      <c r="B115" s="3" t="str" xml:space="preserve">
+        <v> 火焰翅膀</v>
+      </c>
+      <c r="C115" s="6" t="str">
+        <v>Shop_Name_40010</v>
+      </c>
+      <c r="D115" s="1"/>
+      <c r="E115" s="16">
+        <v>223877</v>
+      </c>
+      <c r="F115" s="3"/>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
+        <v>5000</v>
+      </c>
+      <c r="I115" s="14" t="str">
+        <v>mode_223877</v>
+      </c>
+      <c r="J115" s="3">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1"/>
+      <c r="L115" s="3"/>
+      <c r="M115" s="3">
+        <v>12</v>
+      </c>
+      <c r="N115" s="3" t="str">
+        <v>2|2|2</v>
+      </c>
+      <c r="O115" s="3" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P115" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q115" s="3"/>
+    </row>
+    <row r="116">
+      <c r="A116" s="1">
+        <v>50011</v>
+      </c>
+      <c r="B116" s="3" t="str">
+        <v>火焰翅膀</v>
+      </c>
+      <c r="C116" s="6" t="str">
+        <v>Shop_Name_40011</v>
+      </c>
+      <c r="D116" s="1"/>
+      <c r="E116" s="16">
+        <v>211667</v>
+      </c>
+      <c r="F116" s="3"/>
+      <c r="G116" s="1">
+        <v>5</v>
+      </c>
+      <c r="H116" s="1">
+        <v>100</v>
+      </c>
+      <c r="I116" s="14" t="str">
+        <v>mode_211667</v>
+      </c>
+      <c r="J116" s="3">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1"/>
+      <c r="L116" s="3"/>
+      <c r="M116" s="3">
+        <v>12</v>
+      </c>
+      <c r="N116" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="O116" s="3" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P116" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q116" s="3"/>
+    </row>
+    <row r="117">
+      <c r="A117" s="1">
+        <v>50012</v>
+      </c>
+      <c r="B117" s="3" t="str">
+        <v>水系翅膀</v>
+      </c>
+      <c r="C117" s="6" t="str">
+        <v>Shop_Name_40012</v>
+      </c>
+      <c r="D117" s="1"/>
+      <c r="E117" s="16">
+        <v>375134</v>
+      </c>
+      <c r="F117" s="3"/>
+      <c r="G117" s="1">
+        <v>5</v>
+      </c>
+      <c r="H117" s="1">
+        <v>100</v>
+      </c>
+      <c r="I117" s="14" t="str">
+        <v>mode_375134</v>
+      </c>
+      <c r="J117" s="3">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1"/>
+      <c r="L117" s="3"/>
+      <c r="M117" s="3">
+        <v>12</v>
+      </c>
+      <c r="N117" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="O117" s="3" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P117" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q117" s="3"/>
+    </row>
+    <row r="118">
+      <c r="A118" s="1">
+        <v>50013</v>
+      </c>
+      <c r="B118" s="3" t="str">
+        <v>黑暗翅膀</v>
+      </c>
+      <c r="C118" s="6" t="str">
+        <v>Shop_Name_40013</v>
+      </c>
+      <c r="D118" s="1"/>
+      <c r="E118" s="16">
+        <v>42828</v>
+      </c>
+      <c r="F118" s="3"/>
+      <c r="G118" s="1">
+        <v>5</v>
+      </c>
+      <c r="H118" s="1">
+        <v>100</v>
+      </c>
+      <c r="I118" s="17" t="str">
+        <v>mode_42828</v>
+      </c>
+      <c r="J118" s="3">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1"/>
+      <c r="L118" s="3"/>
+      <c r="M118" s="3">
+        <v>12</v>
+      </c>
+      <c r="N118" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="O118" s="3" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P118" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q118" s="3"/>
+    </row>
+    <row r="119">
+      <c r="A119" s="1">
+        <v>50014</v>
+      </c>
+      <c r="B119" s="3" t="str">
+        <v>恶魔翅膀</v>
+      </c>
+      <c r="C119" s="6" t="str">
+        <v>Shop_Name_40014</v>
+      </c>
+      <c r="D119" s="1"/>
+      <c r="E119" s="16">
+        <v>136966</v>
+      </c>
+      <c r="F119" s="3"/>
+      <c r="G119" s="1">
+        <v>5</v>
+      </c>
+      <c r="H119" s="1">
+        <v>100</v>
+      </c>
+      <c r="I119" s="17" t="str">
+        <v>mode_136966</v>
+      </c>
+      <c r="J119" s="3">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1"/>
+      <c r="L119" s="3"/>
+      <c r="M119" s="3">
+        <v>12</v>
+      </c>
+      <c r="N119" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="O119" s="3" t="str">
+        <v>0|0|180</v>
+      </c>
+      <c r="P119" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q119" s="3"/>
+    </row>
+    <row r="120">
+      <c r="A120" s="1">
+        <v>50015</v>
+      </c>
+      <c r="B120" s="3" t="str">
+        <v>恶灵翅膀</v>
+      </c>
+      <c r="C120" s="6" t="str">
+        <v>Shop_Name_40015</v>
+      </c>
+      <c r="D120" s="1"/>
+      <c r="E120" s="16">
+        <v>145912</v>
+      </c>
+      <c r="F120" s="3"/>
+      <c r="G120" s="1">
+        <v>5</v>
+      </c>
+      <c r="H120" s="1">
+        <v>100</v>
+      </c>
+      <c r="I120" s="17" t="str">
+        <v>mode_145912</v>
+      </c>
+      <c r="J120" s="3">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1"/>
+      <c r="L120" s="3"/>
+      <c r="M120" s="3">
+        <v>12</v>
+      </c>
+      <c r="N120" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="O120" s="3" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P120" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q120" s="3"/>
+    </row>
+    <row r="121">
+      <c r="A121" s="1">
+        <v>50016</v>
+      </c>
+      <c r="B121" s="3" t="str">
+        <v>天使翅膀</v>
+      </c>
+      <c r="C121" s="6" t="str">
+        <v>Shop_Name_40016</v>
+      </c>
+      <c r="D121" s="1"/>
+      <c r="E121" s="16">
+        <v>145913</v>
+      </c>
+      <c r="F121" s="3"/>
+      <c r="G121" s="1">
+        <v>5</v>
+      </c>
+      <c r="H121" s="1">
+        <v>100</v>
+      </c>
+      <c r="I121" s="17" t="str">
+        <v>mode_145913</v>
+      </c>
+      <c r="J121" s="3">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1"/>
+      <c r="L121" s="3"/>
+      <c r="M121" s="3">
+        <v>12</v>
+      </c>
+      <c r="N121" s="3" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="O121" s="3" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P121" s="3" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q121" s="3"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="6"/>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1"/>
+      <c r="F122" s="3"/>
+      <c r="G122" s="1"/>
+      <c r="H122" s="1"/>
+      <c r="I122" s="14"/>
+      <c r="J122" s="3"/>
+      <c r="K122" s="1"/>
+      <c r="L122" s="3"/>
+      <c r="M122" s="3"/>
+      <c r="N122" s="3"/>
+      <c r="O122" s="3"/>
+      <c r="P122" s="3"/>
+      <c r="Q122" s="3"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="6"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="3"/>
+      <c r="G123" s="1"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="14"/>
+      <c r="J123" s="3"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="3"/>
+      <c r="M123" s="3"/>
+      <c r="N123" s="3"/>
+      <c r="O123" s="3"/>
+      <c r="P123" s="3"/>
+      <c r="Q123" s="3"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="6"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="3"/>
+      <c r="G124" s="1"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="14"/>
+      <c r="J124" s="3"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="3"/>
+      <c r="M124" s="3"/>
+      <c r="N124" s="3"/>
+      <c r="O124" s="3"/>
+      <c r="P124" s="3"/>
+      <c r="Q124" s="3"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -4998,558 +5565,558 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="25" r="1">
-      <c r="A1" s="21">
+      <c r="A1" s="25">
         <v>40000</v>
       </c>
       <c r="B1" s="23" t="str">
         <v>种类三数量</v>
       </c>
-      <c r="C1" s="21" t="str">
+      <c r="C1" s="25" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D1" s="21">
+      <c r="D1" s="25">
         <v>29</v>
       </c>
-      <c r="E1" s="21"/>
+      <c r="E1" s="25"/>
       <c r="F1" s="23"/>
-      <c r="G1" s="21">
-        <v>0</v>
-      </c>
-      <c r="H1" s="21"/>
-      <c r="I1" s="24"/>
+      <c r="G1" s="25">
+        <v>0</v>
+      </c>
+      <c r="H1" s="25"/>
+      <c r="I1" s="26"/>
       <c r="J1" s="23"/>
       <c r="K1" s="23"/>
-      <c r="L1" s="21"/>
-      <c r="M1" s="21"/>
-      <c r="N1" s="22"/>
-      <c r="O1" s="22"/>
-      <c r="P1" s="22"/>
-      <c r="Q1" s="22"/>
-      <c r="R1" s="22"/>
-      <c r="S1" s="22"/>
-      <c r="T1" s="22"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
+      <c r="N1" s="24"/>
+      <c r="O1" s="24"/>
+      <c r="P1" s="24"/>
+      <c r="Q1" s="24"/>
+      <c r="R1" s="24"/>
+      <c r="S1" s="24"/>
+      <c r="T1" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="2">
-      <c r="A2" s="21">
+      <c r="A2" s="25">
         <v>40001</v>
       </c>
       <c r="B2" s="23" t="str">
         <v>温柔学姐</v>
       </c>
-      <c r="C2" s="21" t="str">
+      <c r="C2" s="25" t="str">
         <v>Item_Name_30001</v>
       </c>
-      <c r="D2" s="21"/>
-      <c r="E2" s="21"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
       <c r="F2" s="23"/>
-      <c r="G2" s="21">
-        <v>0</v>
-      </c>
-      <c r="H2" s="21">
+      <c r="G2" s="25">
+        <v>0</v>
+      </c>
+      <c r="H2" s="25">
         <v>300</v>
       </c>
-      <c r="I2" s="21">
+      <c r="I2" s="25">
         <v>86337</v>
       </c>
       <c r="J2" s="23">
         <v>10001</v>
       </c>
       <c r="K2" s="23"/>
-      <c r="L2" s="21"/>
+      <c r="L2" s="25"/>
       <c r="M2" s="23"/>
-      <c r="N2" s="22"/>
-      <c r="O2" s="22"/>
-      <c r="P2" s="22"/>
-      <c r="Q2" s="22"/>
-      <c r="R2" s="22"/>
-      <c r="S2" s="22"/>
-      <c r="T2" s="22"/>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+      <c r="Q2" s="24"/>
+      <c r="R2" s="24"/>
+      <c r="S2" s="24"/>
+      <c r="T2" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="3">
-      <c r="A3" s="21">
+      <c r="A3" s="25">
         <v>40002</v>
       </c>
       <c r="B3" s="23" t="str">
         <v>风纪委员</v>
       </c>
-      <c r="C3" s="21" t="str">
+      <c r="C3" s="25" t="str">
         <v>Item_Name_30002</v>
       </c>
-      <c r="D3" s="21"/>
-      <c r="E3" s="21"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
       <c r="F3" s="23"/>
-      <c r="G3" s="21">
-        <v>0</v>
-      </c>
-      <c r="H3" s="21">
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
         <v>300</v>
       </c>
-      <c r="I3" s="21">
+      <c r="I3" s="25">
         <v>86335</v>
       </c>
       <c r="J3" s="23">
         <v>10002</v>
       </c>
       <c r="K3" s="23"/>
-      <c r="L3" s="21"/>
+      <c r="L3" s="25"/>
       <c r="M3" s="23"/>
-      <c r="N3" s="22"/>
-      <c r="O3" s="22"/>
-      <c r="P3" s="22"/>
-      <c r="Q3" s="22"/>
-      <c r="R3" s="22"/>
-      <c r="S3" s="22"/>
-      <c r="T3" s="22"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="24"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="4">
-      <c r="A4" s="21">
+      <c r="A4" s="25">
         <v>40003</v>
       </c>
       <c r="B4" s="23" t="str">
         <v>不良少女</v>
       </c>
-      <c r="C4" s="21" t="str">
+      <c r="C4" s="25" t="str">
         <v>Item_Name_30003</v>
       </c>
-      <c r="D4" s="21"/>
-      <c r="E4" s="21"/>
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
       <c r="F4" s="23"/>
-      <c r="G4" s="21">
-        <v>0</v>
-      </c>
-      <c r="H4" s="21">
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
         <v>300</v>
       </c>
-      <c r="I4" s="21">
+      <c r="I4" s="25">
         <v>86333</v>
       </c>
       <c r="J4" s="23">
         <v>20001</v>
       </c>
       <c r="K4" s="23"/>
-      <c r="L4" s="21"/>
+      <c r="L4" s="25"/>
       <c r="M4" s="23"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
+      <c r="N4" s="24"/>
+      <c r="O4" s="24"/>
+      <c r="P4" s="24"/>
+      <c r="Q4" s="24"/>
+      <c r="R4" s="24"/>
+      <c r="S4" s="24"/>
+      <c r="T4" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="5">
-      <c r="A5" s="21">
+      <c r="A5" s="25">
         <v>40004</v>
       </c>
       <c r="B5" s="23" t="str">
         <v>韩式淑女</v>
       </c>
-      <c r="C5" s="21" t="str">
+      <c r="C5" s="25" t="str">
         <v>Item_Name_30004</v>
       </c>
-      <c r="D5" s="21"/>
-      <c r="E5" s="21"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
       <c r="F5" s="23"/>
-      <c r="G5" s="21">
-        <v>0</v>
-      </c>
-      <c r="H5" s="21">
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
         <v>300</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="25">
         <v>86334</v>
       </c>
       <c r="J5" s="23">
         <v>20002</v>
       </c>
       <c r="K5" s="23"/>
-      <c r="L5" s="21"/>
+      <c r="L5" s="25"/>
       <c r="M5" s="23"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="6">
-      <c r="A6" s="21">
+      <c r="A6" s="25">
         <v>40005</v>
       </c>
       <c r="B6" s="23" t="str">
         <v>可爱学妹</v>
       </c>
-      <c r="C6" s="21" t="str">
+      <c r="C6" s="25" t="str">
         <v>Item_Name_30005</v>
       </c>
-      <c r="D6" s="21"/>
-      <c r="E6" s="21"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
       <c r="F6" s="23"/>
-      <c r="G6" s="21">
-        <v>0</v>
-      </c>
-      <c r="H6" s="21">
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
         <v>300</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="25">
         <v>94181</v>
       </c>
       <c r="J6" s="23">
         <v>30001</v>
       </c>
       <c r="K6" s="23"/>
-      <c r="L6" s="21"/>
+      <c r="L6" s="25"/>
       <c r="M6" s="23"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
-      <c r="T6" s="22"/>
+      <c r="N6" s="24"/>
+      <c r="O6" s="24"/>
+      <c r="P6" s="24"/>
+      <c r="Q6" s="24"/>
+      <c r="R6" s="24"/>
+      <c r="S6" s="24"/>
+      <c r="T6" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="7">
-      <c r="A7" s="21">
+      <c r="A7" s="25">
         <v>40006</v>
       </c>
       <c r="B7" s="23" t="str">
         <v>奇幻少女</v>
       </c>
-      <c r="C7" s="21" t="str">
+      <c r="C7" s="25" t="str">
         <v>Item_Name_30006</v>
       </c>
-      <c r="D7" s="21"/>
-      <c r="E7" s="21"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
       <c r="F7" s="23"/>
-      <c r="G7" s="21">
-        <v>0</v>
-      </c>
-      <c r="H7" s="21">
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
         <v>300</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="25">
         <v>94180</v>
       </c>
       <c r="J7" s="23">
         <v>30002</v>
       </c>
       <c r="K7" s="23"/>
-      <c r="L7" s="21"/>
+      <c r="L7" s="25"/>
       <c r="M7" s="23"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
-      <c r="T7" s="22"/>
+      <c r="N7" s="24"/>
+      <c r="O7" s="24"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="24"/>
+      <c r="R7" s="24"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="8">
-      <c r="A8" s="21">
+      <c r="A8" s="25">
         <v>40007</v>
       </c>
       <c r="B8" s="23" t="str">
         <v>温柔学长</v>
       </c>
-      <c r="C8" s="21" t="str">
+      <c r="C8" s="25" t="str">
         <v>Item_Name_30007</v>
       </c>
-      <c r="D8" s="21"/>
-      <c r="E8" s="21"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
       <c r="F8" s="23"/>
-      <c r="G8" s="21">
-        <v>0</v>
-      </c>
-      <c r="H8" s="21">
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
         <v>300</v>
       </c>
-      <c r="I8" s="21">
+      <c r="I8" s="25">
         <v>94184</v>
       </c>
       <c r="J8" s="23">
         <v>30003</v>
       </c>
       <c r="K8" s="23"/>
-      <c r="L8" s="21"/>
+      <c r="L8" s="25"/>
       <c r="M8" s="23"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
-      <c r="T8" s="22"/>
+      <c r="N8" s="24"/>
+      <c r="O8" s="24"/>
+      <c r="P8" s="24"/>
+      <c r="Q8" s="24"/>
+      <c r="R8" s="24"/>
+      <c r="S8" s="24"/>
+      <c r="T8" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="9">
-      <c r="A9" s="21">
+      <c r="A9" s="25">
         <v>40008</v>
       </c>
       <c r="B9" s="23" t="str">
         <v>不良少年</v>
       </c>
-      <c r="C9" s="21" t="str">
+      <c r="C9" s="25" t="str">
         <v>Item_Name_30008</v>
       </c>
-      <c r="D9" s="21"/>
-      <c r="E9" s="21"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
       <c r="F9" s="23"/>
-      <c r="G9" s="21">
-        <v>0</v>
-      </c>
-      <c r="H9" s="21">
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
         <v>300</v>
       </c>
-      <c r="I9" s="21">
+      <c r="I9" s="25">
         <v>94182</v>
       </c>
       <c r="J9" s="23">
         <v>30004</v>
       </c>
       <c r="K9" s="23"/>
-      <c r="L9" s="21"/>
+      <c r="L9" s="25"/>
       <c r="M9" s="23"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
-      <c r="T9" s="22"/>
+      <c r="N9" s="24"/>
+      <c r="O9" s="24"/>
+      <c r="P9" s="24"/>
+      <c r="Q9" s="24"/>
+      <c r="R9" s="24"/>
+      <c r="S9" s="24"/>
+      <c r="T9" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="10">
-      <c r="A10" s="21">
+      <c r="A10" s="25">
         <v>40009</v>
       </c>
-      <c r="B10" s="21" t="str">
+      <c r="B10" s="25" t="str">
         <v>啦啦队长</v>
       </c>
-      <c r="C10" s="21" t="str">
+      <c r="C10" s="25" t="str">
         <v>Item_Name_30009</v>
       </c>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
       <c r="F10" s="23"/>
-      <c r="G10" s="21">
-        <v>0</v>
-      </c>
-      <c r="H10" s="21">
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
         <v>1000</v>
       </c>
-      <c r="I10" s="21">
+      <c r="I10" s="25">
         <v>110493</v>
       </c>
       <c r="J10" s="23">
         <v>30009</v>
       </c>
       <c r="K10" s="23"/>
-      <c r="L10" s="21"/>
+      <c r="L10" s="25"/>
       <c r="M10" s="23"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
-      <c r="T10" s="22"/>
+      <c r="N10" s="24"/>
+      <c r="O10" s="24"/>
+      <c r="P10" s="24"/>
+      <c r="Q10" s="24"/>
+      <c r="R10" s="24"/>
+      <c r="S10" s="24"/>
+      <c r="T10" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="11">
-      <c r="A11" s="21">
+      <c r="A11" s="25">
         <v>40010</v>
       </c>
-      <c r="B11" s="21" t="str">
+      <c r="B11" s="25" t="str">
         <v>艺术生</v>
       </c>
-      <c r="C11" s="21" t="str">
+      <c r="C11" s="25" t="str">
         <v>Item_Name_30010</v>
       </c>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
       <c r="F11" s="23"/>
-      <c r="G11" s="21">
-        <v>0</v>
-      </c>
-      <c r="H11" s="21">
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
         <v>1000</v>
       </c>
-      <c r="I11" s="21">
+      <c r="I11" s="25">
         <v>110508</v>
       </c>
       <c r="J11" s="23">
         <v>30010</v>
       </c>
       <c r="K11" s="23"/>
-      <c r="L11" s="21"/>
+      <c r="L11" s="25"/>
       <c r="M11" s="23"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
-      <c r="T11" s="22"/>
+      <c r="N11" s="24"/>
+      <c r="O11" s="24"/>
+      <c r="P11" s="24"/>
+      <c r="Q11" s="24"/>
+      <c r="R11" s="24"/>
+      <c r="S11" s="24"/>
+      <c r="T11" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="12">
-      <c r="A12" s="21">
+      <c r="A12" s="25">
         <v>40011</v>
       </c>
-      <c r="B12" s="21" t="str">
+      <c r="B12" s="25" t="str">
         <v>二次元少女</v>
       </c>
-      <c r="C12" s="21" t="str">
+      <c r="C12" s="25" t="str">
         <v>Item_Name_30011</v>
       </c>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
       <c r="F12" s="23"/>
-      <c r="G12" s="21">
-        <v>0</v>
-      </c>
-      <c r="H12" s="21">
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
         <v>1000</v>
       </c>
-      <c r="I12" s="21">
+      <c r="I12" s="25">
         <v>110522</v>
       </c>
       <c r="J12" s="23">
         <v>30011</v>
       </c>
       <c r="K12" s="23"/>
-      <c r="L12" s="21"/>
+      <c r="L12" s="25"/>
       <c r="M12" s="23"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
-      <c r="T12" s="22"/>
+      <c r="N12" s="24"/>
+      <c r="O12" s="24"/>
+      <c r="P12" s="24"/>
+      <c r="Q12" s="24"/>
+      <c r="R12" s="24"/>
+      <c r="S12" s="24"/>
+      <c r="T12" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="13">
-      <c r="A13" s="21">
+      <c r="A13" s="25">
         <v>40012</v>
       </c>
-      <c r="B13" s="21" t="str">
+      <c r="B13" s="25" t="str">
         <v>英语老师</v>
       </c>
-      <c r="C13" s="21" t="str">
+      <c r="C13" s="25" t="str">
         <v>Item_Name_30012</v>
       </c>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
       <c r="F13" s="23"/>
-      <c r="G13" s="21">
-        <v>0</v>
-      </c>
-      <c r="H13" s="21">
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
         <v>1000</v>
       </c>
-      <c r="I13" s="21">
+      <c r="I13" s="25">
         <v>110490</v>
       </c>
       <c r="J13" s="23">
         <v>30012</v>
       </c>
       <c r="K13" s="23"/>
-      <c r="L13" s="21"/>
+      <c r="L13" s="25"/>
       <c r="M13" s="23"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
-      <c r="T13" s="22"/>
+      <c r="N13" s="24"/>
+      <c r="O13" s="24"/>
+      <c r="P13" s="24"/>
+      <c r="Q13" s="24"/>
+      <c r="R13" s="24"/>
+      <c r="S13" s="24"/>
+      <c r="T13" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="14">
-      <c r="A14" s="21">
+      <c r="A14" s="25">
         <v>40013</v>
       </c>
-      <c r="B14" s="21" t="str">
+      <c r="B14" s="25" t="str">
         <v>正义少年</v>
       </c>
-      <c r="C14" s="21" t="str">
+      <c r="C14" s="25" t="str">
         <v>Item_Name_30013</v>
       </c>
-      <c r="D14" s="21"/>
-      <c r="E14" s="21"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
       <c r="F14" s="23"/>
-      <c r="G14" s="21">
-        <v>0</v>
-      </c>
-      <c r="H14" s="21">
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
         <v>1000</v>
       </c>
-      <c r="I14" s="21">
+      <c r="I14" s="25">
         <v>110500</v>
       </c>
       <c r="J14" s="23">
         <v>30013</v>
       </c>
       <c r="K14" s="23"/>
-      <c r="L14" s="21"/>
+      <c r="L14" s="25"/>
       <c r="M14" s="23"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
-      <c r="T14" s="22"/>
+      <c r="N14" s="24"/>
+      <c r="O14" s="24"/>
+      <c r="P14" s="24"/>
+      <c r="Q14" s="24"/>
+      <c r="R14" s="24"/>
+      <c r="S14" s="24"/>
+      <c r="T14" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="15">
-      <c r="A15" s="21">
+      <c r="A15" s="25">
         <v>40014</v>
       </c>
-      <c r="B15" s="21" t="str">
+      <c r="B15" s="25" t="str">
         <v>潮流少女</v>
       </c>
-      <c r="C15" s="21" t="str">
+      <c r="C15" s="25" t="str">
         <v>Item_Name_30014</v>
       </c>
-      <c r="D15" s="21"/>
-      <c r="E15" s="21"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
       <c r="F15" s="23"/>
-      <c r="G15" s="21">
-        <v>0</v>
-      </c>
-      <c r="H15" s="21">
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
         <v>1000</v>
       </c>
-      <c r="I15" s="21">
+      <c r="I15" s="25">
         <v>110498</v>
       </c>
       <c r="J15" s="23">
         <v>30014</v>
       </c>
       <c r="K15" s="23"/>
-      <c r="L15" s="21"/>
+      <c r="L15" s="25"/>
       <c r="M15" s="23"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
-      <c r="T15" s="22"/>
+      <c r="N15" s="24"/>
+      <c r="O15" s="24"/>
+      <c r="P15" s="24"/>
+      <c r="Q15" s="24"/>
+      <c r="R15" s="24"/>
+      <c r="S15" s="24"/>
+      <c r="T15" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="16">
-      <c r="A16" s="21">
+      <c r="A16" s="25">
         <v>40015</v>
       </c>
       <c r="B16" s="23" t="str">
         <v>学生会长</v>
       </c>
-      <c r="C16" s="21" t="str">
+      <c r="C16" s="25" t="str">
         <v>Item_Name_30015</v>
       </c>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
       <c r="F16" s="23"/>
-      <c r="G16" s="21">
-        <v>0</v>
-      </c>
-      <c r="H16" s="21">
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
         <v>1000</v>
       </c>
       <c r="I16" s="23">
@@ -5559,33 +6126,33 @@
         <v>30015</v>
       </c>
       <c r="K16" s="23"/>
-      <c r="L16" s="21"/>
+      <c r="L16" s="25"/>
       <c r="M16" s="23"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
+      <c r="N16" s="24"/>
+      <c r="O16" s="24"/>
+      <c r="P16" s="24"/>
+      <c r="Q16" s="24"/>
+      <c r="R16" s="24"/>
+      <c r="S16" s="24"/>
+      <c r="T16" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="17">
-      <c r="A17" s="21">
+      <c r="A17" s="25">
         <v>40016</v>
       </c>
       <c r="B17" s="23" t="str">
         <v>女老师</v>
       </c>
-      <c r="C17" s="21" t="str">
+      <c r="C17" s="25" t="str">
         <v>Item_Name_30016</v>
       </c>
-      <c r="D17" s="21"/>
-      <c r="E17" s="21"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
       <c r="F17" s="23"/>
-      <c r="G17" s="21">
-        <v>0</v>
-      </c>
-      <c r="H17" s="21">
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
         <v>2000</v>
       </c>
       <c r="I17" s="23">
@@ -5595,33 +6162,33 @@
         <v>30016</v>
       </c>
       <c r="K17" s="23"/>
-      <c r="L17" s="21"/>
+      <c r="L17" s="25"/>
       <c r="M17" s="23"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
-      <c r="T17" s="22"/>
+      <c r="N17" s="24"/>
+      <c r="O17" s="24"/>
+      <c r="P17" s="24"/>
+      <c r="Q17" s="24"/>
+      <c r="R17" s="24"/>
+      <c r="S17" s="24"/>
+      <c r="T17" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="18">
-      <c r="A18" s="21">
+      <c r="A18" s="25">
         <v>40017</v>
       </c>
       <c r="B18" s="23" t="str">
         <v>班主任</v>
       </c>
-      <c r="C18" s="21" t="str">
+      <c r="C18" s="25" t="str">
         <v>Item_Name_30017</v>
       </c>
-      <c r="D18" s="21"/>
-      <c r="E18" s="21"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
       <c r="F18" s="23"/>
-      <c r="G18" s="21">
-        <v>0</v>
-      </c>
-      <c r="H18" s="21">
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
         <v>2000</v>
       </c>
       <c r="I18" s="23">
@@ -5631,33 +6198,33 @@
         <v>30017</v>
       </c>
       <c r="K18" s="23"/>
-      <c r="L18" s="21"/>
+      <c r="L18" s="25"/>
       <c r="M18" s="23"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
-      <c r="T18" s="22"/>
+      <c r="N18" s="24"/>
+      <c r="O18" s="24"/>
+      <c r="P18" s="24"/>
+      <c r="Q18" s="24"/>
+      <c r="R18" s="24"/>
+      <c r="S18" s="24"/>
+      <c r="T18" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="19">
-      <c r="A19" s="21">
+      <c r="A19" s="25">
         <v>40018</v>
       </c>
       <c r="B19" s="23" t="str">
         <v>海边姐姐</v>
       </c>
-      <c r="C19" s="21" t="str">
+      <c r="C19" s="25" t="str">
         <v>Item_Name_30018</v>
       </c>
-      <c r="D19" s="21"/>
-      <c r="E19" s="21"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
       <c r="F19" s="23"/>
-      <c r="G19" s="21">
-        <v>0</v>
-      </c>
-      <c r="H19" s="21">
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
         <v>2000</v>
       </c>
       <c r="I19" s="23">
@@ -5667,33 +6234,33 @@
         <v>30018</v>
       </c>
       <c r="K19" s="23"/>
-      <c r="L19" s="21"/>
+      <c r="L19" s="25"/>
       <c r="M19" s="23"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
-      <c r="T19" s="22"/>
+      <c r="N19" s="24"/>
+      <c r="O19" s="24"/>
+      <c r="P19" s="24"/>
+      <c r="Q19" s="24"/>
+      <c r="R19" s="24"/>
+      <c r="S19" s="24"/>
+      <c r="T19" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="20">
-      <c r="A20" s="21">
+      <c r="A20" s="25">
         <v>40019</v>
       </c>
       <c r="B20" s="23" t="str">
         <v>邻家妹妹</v>
       </c>
-      <c r="C20" s="21" t="str">
+      <c r="C20" s="25" t="str">
         <v>Item_Name_30019</v>
       </c>
-      <c r="D20" s="21"/>
-      <c r="E20" s="21"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
       <c r="F20" s="23"/>
-      <c r="G20" s="21">
-        <v>0</v>
-      </c>
-      <c r="H20" s="21">
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
         <v>3000</v>
       </c>
       <c r="I20" s="23">
@@ -5703,33 +6270,33 @@
         <v>30019</v>
       </c>
       <c r="K20" s="23"/>
-      <c r="L20" s="21"/>
+      <c r="L20" s="25"/>
       <c r="M20" s="23"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
-      <c r="T20" s="22"/>
+      <c r="N20" s="24"/>
+      <c r="O20" s="24"/>
+      <c r="P20" s="24"/>
+      <c r="Q20" s="24"/>
+      <c r="R20" s="24"/>
+      <c r="S20" s="24"/>
+      <c r="T20" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="21">
-      <c r="A21" s="21">
+      <c r="A21" s="25">
         <v>40020</v>
       </c>
       <c r="B21" s="23" t="str">
         <v>健身教练</v>
       </c>
-      <c r="C21" s="21" t="str">
+      <c r="C21" s="25" t="str">
         <v>Item_Name_30020</v>
       </c>
-      <c r="D21" s="21"/>
-      <c r="E21" s="21"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
       <c r="F21" s="23"/>
-      <c r="G21" s="21">
-        <v>0</v>
-      </c>
-      <c r="H21" s="21">
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
         <v>3000</v>
       </c>
       <c r="I21" s="23">
@@ -5739,33 +6306,33 @@
         <v>30020</v>
       </c>
       <c r="K21" s="23"/>
-      <c r="L21" s="21"/>
+      <c r="L21" s="25"/>
       <c r="M21" s="23"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
-      <c r="T21" s="22"/>
+      <c r="N21" s="24"/>
+      <c r="O21" s="24"/>
+      <c r="P21" s="24"/>
+      <c r="Q21" s="24"/>
+      <c r="R21" s="24"/>
+      <c r="S21" s="24"/>
+      <c r="T21" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="22">
-      <c r="A22" s="21">
+      <c r="A22" s="25">
         <v>40021</v>
       </c>
       <c r="B22" s="23" t="str">
         <v>优雅少女</v>
       </c>
-      <c r="C22" s="21" t="str">
+      <c r="C22" s="25" t="str">
         <v>Item_Name_30021</v>
       </c>
-      <c r="D22" s="21"/>
-      <c r="E22" s="21"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
       <c r="F22" s="23"/>
-      <c r="G22" s="21">
-        <v>0</v>
-      </c>
-      <c r="H22" s="21">
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
         <v>3000</v>
       </c>
       <c r="I22" s="23">
@@ -5775,33 +6342,33 @@
         <v>30021</v>
       </c>
       <c r="K22" s="23"/>
-      <c r="L22" s="21"/>
+      <c r="L22" s="25"/>
       <c r="M22" s="23"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
-      <c r="T22" s="22"/>
+      <c r="N22" s="24"/>
+      <c r="O22" s="24"/>
+      <c r="P22" s="24"/>
+      <c r="Q22" s="24"/>
+      <c r="R22" s="24"/>
+      <c r="S22" s="24"/>
+      <c r="T22" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="23">
-      <c r="A23" s="21">
+      <c r="A23" s="25">
         <v>40022</v>
       </c>
       <c r="B23" s="23" t="str">
         <v>探险家</v>
       </c>
-      <c r="C23" s="21" t="str">
+      <c r="C23" s="25" t="str">
         <v>Item_Name_30022</v>
       </c>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
       <c r="F23" s="23"/>
-      <c r="G23" s="21">
-        <v>0</v>
-      </c>
-      <c r="H23" s="21">
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
         <v>4000</v>
       </c>
       <c r="I23" s="23">
@@ -5811,33 +6378,33 @@
         <v>30022</v>
       </c>
       <c r="K23" s="23"/>
-      <c r="L23" s="21"/>
+      <c r="L23" s="25"/>
       <c r="M23" s="23"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
-      <c r="T23" s="22"/>
+      <c r="N23" s="24"/>
+      <c r="O23" s="24"/>
+      <c r="P23" s="24"/>
+      <c r="Q23" s="24"/>
+      <c r="R23" s="24"/>
+      <c r="S23" s="24"/>
+      <c r="T23" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="24">
-      <c r="A24" s="21">
+      <c r="A24" s="25">
         <v>40023</v>
       </c>
       <c r="B24" s="23" t="str">
         <v>民国学生</v>
       </c>
-      <c r="C24" s="21" t="str">
+      <c r="C24" s="25" t="str">
         <v>Item_Name_30023</v>
       </c>
-      <c r="D24" s="21"/>
-      <c r="E24" s="21"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
       <c r="F24" s="23"/>
-      <c r="G24" s="21">
-        <v>0</v>
-      </c>
-      <c r="H24" s="21">
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
         <v>4000</v>
       </c>
       <c r="I24" s="23">
@@ -5847,33 +6414,33 @@
         <v>30023</v>
       </c>
       <c r="K24" s="23"/>
-      <c r="L24" s="21"/>
+      <c r="L24" s="25"/>
       <c r="M24" s="23"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
-      <c r="T24" s="22"/>
+      <c r="N24" s="24"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="24"/>
+      <c r="Q24" s="24"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="24"/>
+      <c r="T24" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="25">
-      <c r="A25" s="21">
+      <c r="A25" s="25">
         <v>40024</v>
       </c>
       <c r="B25" s="23" t="str">
         <v>可可少女</v>
       </c>
-      <c r="C25" s="21" t="str">
+      <c r="C25" s="25" t="str">
         <v>Item_Name_30024</v>
       </c>
-      <c r="D25" s="21"/>
-      <c r="E25" s="21"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
       <c r="F25" s="23"/>
-      <c r="G25" s="21">
-        <v>0</v>
-      </c>
-      <c r="H25" s="21">
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
         <v>4000</v>
       </c>
       <c r="I25" s="23">
@@ -5883,33 +6450,33 @@
         <v>30024</v>
       </c>
       <c r="K25" s="23"/>
-      <c r="L25" s="21"/>
+      <c r="L25" s="25"/>
       <c r="M25" s="23"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
-      <c r="T25" s="22"/>
+      <c r="N25" s="24"/>
+      <c r="O25" s="24"/>
+      <c r="P25" s="24"/>
+      <c r="Q25" s="24"/>
+      <c r="R25" s="24"/>
+      <c r="S25" s="24"/>
+      <c r="T25" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="26">
-      <c r="A26" s="21">
+      <c r="A26" s="25">
         <v>40025</v>
       </c>
       <c r="B26" s="23" t="str">
         <v>猫猫店员</v>
       </c>
-      <c r="C26" s="21" t="str">
+      <c r="C26" s="25" t="str">
         <v>Item_Name_30025</v>
       </c>
-      <c r="D26" s="21"/>
-      <c r="E26" s="21"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
       <c r="F26" s="23"/>
-      <c r="G26" s="21">
-        <v>0</v>
-      </c>
-      <c r="H26" s="21">
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
         <v>5000</v>
       </c>
       <c r="I26" s="23">
@@ -5919,33 +6486,33 @@
         <v>30025</v>
       </c>
       <c r="K26" s="23"/>
-      <c r="L26" s="21"/>
+      <c r="L26" s="25"/>
       <c r="M26" s="23"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
-      <c r="T26" s="22"/>
+      <c r="N26" s="24"/>
+      <c r="O26" s="24"/>
+      <c r="P26" s="24"/>
+      <c r="Q26" s="24"/>
+      <c r="R26" s="24"/>
+      <c r="S26" s="24"/>
+      <c r="T26" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="27">
-      <c r="A27" s="21">
+      <c r="A27" s="25">
         <v>40026</v>
       </c>
       <c r="B27" s="23" t="str">
         <v>女仆甜心</v>
       </c>
-      <c r="C27" s="21" t="str">
+      <c r="C27" s="25" t="str">
         <v>Item_Name_30026</v>
       </c>
-      <c r="D27" s="21"/>
-      <c r="E27" s="21"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
       <c r="F27" s="23"/>
-      <c r="G27" s="21">
-        <v>0</v>
-      </c>
-      <c r="H27" s="21">
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
         <v>5000</v>
       </c>
       <c r="I27" s="23">
@@ -5955,33 +6522,33 @@
         <v>30026</v>
       </c>
       <c r="K27" s="23"/>
-      <c r="L27" s="21"/>
+      <c r="L27" s="25"/>
       <c r="M27" s="23"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
-      <c r="T27" s="22"/>
+      <c r="N27" s="24"/>
+      <c r="O27" s="24"/>
+      <c r="P27" s="24"/>
+      <c r="Q27" s="24"/>
+      <c r="R27" s="24"/>
+      <c r="S27" s="24"/>
+      <c r="T27" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="28">
-      <c r="A28" s="21">
+      <c r="A28" s="25">
         <v>40027</v>
       </c>
       <c r="B28" s="23" t="str">
         <v>猫耳女仆</v>
       </c>
-      <c r="C28" s="21" t="str">
+      <c r="C28" s="25" t="str">
         <v>Item_Name_30027</v>
       </c>
-      <c r="D28" s="21"/>
-      <c r="E28" s="21"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
       <c r="F28" s="23"/>
-      <c r="G28" s="21">
-        <v>0</v>
-      </c>
-      <c r="H28" s="21">
+      <c r="G28" s="25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25">
         <v>5000</v>
       </c>
       <c r="I28" s="23">
@@ -5991,33 +6558,33 @@
         <v>30027</v>
       </c>
       <c r="K28" s="23"/>
-      <c r="L28" s="21"/>
+      <c r="L28" s="25"/>
       <c r="M28" s="23"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
-      <c r="T28" s="22"/>
+      <c r="N28" s="24"/>
+      <c r="O28" s="24"/>
+      <c r="P28" s="24"/>
+      <c r="Q28" s="24"/>
+      <c r="R28" s="24"/>
+      <c r="S28" s="24"/>
+      <c r="T28" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="29">
-      <c r="A29" s="21">
+      <c r="A29" s="25">
         <v>40028</v>
       </c>
       <c r="B29" s="23" t="str">
         <v>少女偶像</v>
       </c>
-      <c r="C29" s="21" t="str">
+      <c r="C29" s="25" t="str">
         <v>Item_Name_30028</v>
       </c>
-      <c r="D29" s="21"/>
-      <c r="E29" s="21"/>
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
       <c r="F29" s="23"/>
-      <c r="G29" s="21">
-        <v>0</v>
-      </c>
-      <c r="H29" s="21">
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
         <v>5000</v>
       </c>
       <c r="I29" s="23">
@@ -6027,33 +6594,33 @@
         <v>30028</v>
       </c>
       <c r="K29" s="23"/>
-      <c r="L29" s="21"/>
+      <c r="L29" s="25"/>
       <c r="M29" s="23"/>
-      <c r="N29" s="22"/>
-      <c r="O29" s="22"/>
-      <c r="P29" s="22"/>
-      <c r="Q29" s="22"/>
-      <c r="R29" s="22"/>
-      <c r="S29" s="22"/>
-      <c r="T29" s="22"/>
+      <c r="N29" s="24"/>
+      <c r="O29" s="24"/>
+      <c r="P29" s="24"/>
+      <c r="Q29" s="24"/>
+      <c r="R29" s="24"/>
+      <c r="S29" s="24"/>
+      <c r="T29" s="24"/>
     </row>
     <row customHeight="true" ht="25" r="30">
-      <c r="A30" s="21">
+      <c r="A30" s="25">
         <v>40029</v>
       </c>
       <c r="B30" s="23" t="str">
         <v>圣诞少女</v>
       </c>
-      <c r="C30" s="21" t="str">
+      <c r="C30" s="25" t="str">
         <v>Item_Name_30029</v>
       </c>
-      <c r="D30" s="21"/>
-      <c r="E30" s="21"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
       <c r="F30" s="23"/>
-      <c r="G30" s="21">
-        <v>0</v>
-      </c>
-      <c r="H30" s="21">
+      <c r="G30" s="25">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25">
         <v>5000</v>
       </c>
       <c r="I30" s="23">
@@ -6063,15 +6630,15 @@
         <v>30029</v>
       </c>
       <c r="K30" s="23"/>
-      <c r="L30" s="21"/>
+      <c r="L30" s="25"/>
       <c r="M30" s="23"/>
-      <c r="N30" s="22"/>
-      <c r="O30" s="22"/>
-      <c r="P30" s="22"/>
-      <c r="Q30" s="22"/>
-      <c r="R30" s="22"/>
-      <c r="S30" s="22"/>
-      <c r="T30" s="22"/>
+      <c r="N30" s="24"/>
+      <c r="O30" s="24"/>
+      <c r="P30" s="24"/>
+      <c r="Q30" s="24"/>
+      <c r="R30" s="24"/>
+      <c r="S30" s="24"/>
+      <c r="T30" s="24"/>
     </row>
   </sheetData>
 </worksheet>

--- a/wolf/Excel/Shop_商店物品表.xlsx
+++ b/wolf/Excel/Shop_商店物品表.xlsx
@@ -87,7 +87,14 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF606266"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -136,13 +143,6 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="9"/>
       <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -164,7 +164,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF606266"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -185,7 +185,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FF1F2329"/>
+      <color rgb="FFF54A45"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -199,7 +199,7 @@
     </font>
     <font>
       <sz val="9"/>
-      <color rgb="FFF54A45"/>
+      <color rgb="FF1F2329"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -255,7 +255,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFEEF6C6"/>
+        <fgColor rgb="FFFAF1D1"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFECE2FE"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFDDDEF"/>
+        <bgColor/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFF258"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -279,43 +315,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFAF1D1"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF258"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFDDDEF"/>
-        <bgColor/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFECE2FE"/>
+        <fgColor rgb="FFEEF6C6"/>
         <bgColor/>
       </patternFill>
     </fill>
@@ -581,85 +581,85 @@
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="2" fillId="0" fontId="2" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="3" fillId="0" fontId="3" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="4" fillId="0" fontId="4" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="0" fontId="7" numFmtId="0" xfId="0">
+      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="0" fontId="8" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="5" fillId="0" fontId="5" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="2" fontId="9" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="6" fillId="0" fontId="6" numFmtId="0" xfId="0">
-      <alignment horizontal="left" vertical="center" wrapText="true"/>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="3" fontId="10" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="7" fillId="2" fontId="7" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="4" fontId="11" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="8" fillId="3" fontId="8" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="5" fontId="12" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="9" fillId="4" fontId="9" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="10" fillId="5" fontId="10" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="11" fillId="6" fontId="11" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="12" fillId="7" fontId="12" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="8" fontId="13" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="13" fillId="6" fontId="13" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="14" fillId="0" fontId="14" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="7" fontId="15" numFmtId="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="8" fontId="16" numFmtId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="9" fontId="17" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="15" fillId="0" fontId="15" numFmtId="0" xfId="0">
+    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="10" fontId="18" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="16" fillId="9" fontId="16" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="17" fillId="10" fontId="17" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="18" fillId="0" fontId="18" numFmtId="0" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="19" fillId="11" fontId="19" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="20" fillId="12" fontId="20" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="21" fillId="13" fontId="21" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="22" fillId="14" fontId="22" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="23" fillId="15" fontId="23" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="24" fillId="16" fontId="24" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="25" fillId="17" fontId="25" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="true"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="26" fillId="18" fontId="26" numFmtId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="27" fillId="19" fontId="27" numFmtId="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="true"/>
     </xf>
     <xf applyAlignment="true" applyBorder="false" applyFill="false" applyFont="true" applyNumberFormat="false" applyProtection="false" borderId="28" fillId="20" fontId="28" numFmtId="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -1012,137 +1012,137 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="29" r="1">
-      <c r="A1" s="3" t="str">
+      <c r="A1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="B1" s="3" t="str">
+      <c r="B1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="C1" s="3" t="str">
+      <c r="C1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="D1" s="3" t="str">
+      <c r="D1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="E1" s="3" t="str">
+      <c r="E1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="F1" s="1" t="str">
+      <c r="F1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="G1" s="3" t="str">
+      <c r="G1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="H1" s="3" t="str">
+      <c r="H1" s="1" t="str">
         <v>Int</v>
       </c>
-      <c r="I1" s="3" t="str">
+      <c r="I1" s="1" t="str">
         <v>String</v>
       </c>
-      <c r="J1" s="1" t="str">
+      <c r="J1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="K1" s="1" t="str">
+      <c r="K1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="L1" s="1" t="str">
+      <c r="L1" s="2" t="str">
         <v>String</v>
       </c>
-      <c r="M1" s="1" t="str">
+      <c r="M1" s="2" t="str">
         <v>Int</v>
       </c>
-      <c r="N1" s="1" t="str">
+      <c r="N1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="O1" s="1" t="str">
+      <c r="O1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="P1" s="1" t="str">
+      <c r="P1" s="2" t="str">
         <v>Vector3</v>
       </c>
-      <c r="Q1" s="1" t="str">
+      <c r="Q1" s="2" t="str">
         <v>Int[]</v>
       </c>
     </row>
     <row customHeight="true" ht="29" r="2">
-      <c r="A2" s="3" t="str">
+      <c r="A2" s="1" t="str">
         <v>ID</v>
       </c>
-      <c r="B2" s="3" t="str">
+      <c r="B2" s="1" t="str">
         <v>Explanation</v>
       </c>
-      <c r="C2" s="3" t="str">
+      <c r="C2" s="1" t="str">
         <v>Name</v>
       </c>
-      <c r="D2" s="3" t="str">
+      <c r="D2" s="1" t="str">
         <v>Total</v>
       </c>
-      <c r="E2" s="3" t="str">
+      <c r="E2" s="1" t="str">
         <v>ModelGuid</v>
       </c>
-      <c r="F2" s="1" t="str">
+      <c r="F2" s="2" t="str">
         <v>WeaponType</v>
       </c>
-      <c r="G2" s="3" t="str">
+      <c r="G2" s="1" t="str">
         <v>Money</v>
       </c>
-      <c r="H2" s="3" t="str">
+      <c r="H2" s="1" t="str">
         <v>Price</v>
       </c>
-      <c r="I2" s="3" t="str">
+      <c r="I2" s="1" t="str">
         <v>IconGuid</v>
       </c>
-      <c r="J2" s="1" t="str">
+      <c r="J2" s="2" t="str">
         <v>Rarity</v>
       </c>
-      <c r="K2" s="3" t="str">
+      <c r="K2" s="1" t="str">
         <v>Reclaim</v>
       </c>
-      <c r="L2" s="1" t="str">
+      <c r="L2" s="2" t="str">
         <v>Comment</v>
       </c>
-      <c r="M2" s="1" t="str">
+      <c r="M2" s="2" t="str">
         <v>RabbetPart</v>
       </c>
-      <c r="N2" s="1" t="str">
+      <c r="N2" s="2" t="str">
         <v>Scale</v>
       </c>
-      <c r="O2" s="1" t="str">
+      <c r="O2" s="2" t="str">
         <v>Rotation</v>
       </c>
-      <c r="P2" s="1" t="str">
+      <c r="P2" s="2" t="str">
         <v>Offset</v>
       </c>
-      <c r="Q2" s="1" t="str">
+      <c r="Q2" s="2" t="str">
         <v>SuitItems</v>
       </c>
     </row>
     <row customHeight="true" ht="109" r="3">
-      <c r="A3" s="3" t="str">
+      <c r="A3" s="1" t="str">
         <v>物品序号
 10000近战
 20000远程
 30000特效
 40000套装</v>
       </c>
-      <c r="B3" s="3" t="str">
+      <c r="B3" s="1" t="str">
         <v>说明</v>
       </c>
-      <c r="C3" s="3" t="str">
+      <c r="C3" s="1" t="str">
         <v>物品名称</v>
       </c>
-      <c r="D3" s="3" t="str">
+      <c r="D3" s="1" t="str">
         <v>数量</v>
       </c>
-      <c r="E3" s="3" t="str">
+      <c r="E3" s="1" t="str">
         <v>模型资源Guid【优先读武器表】</v>
       </c>
-      <c r="F3" s="1" t="str">
+      <c r="F3" s="2" t="str">
         <v>武器类型
 1为凶手专用
 2为侦探专用</v>
       </c>
-      <c r="G3" s="1" t="str">
+      <c r="G3" s="2" t="str">
         <v>货币类型
 0金币
 1钻石
@@ -1151,58 +1151,58 @@
 4超级特权
 5广告券兑换</v>
       </c>
-      <c r="H3" s="3" t="str">
+      <c r="H3" s="1" t="str">
         <v>物品价格
 【标签顺序】</v>
       </c>
-      <c r="I3" s="3" t="str">
+      <c r="I3" s="1" t="str">
         <v>物品图标Guid</v>
       </c>
-      <c r="J3" s="1" t="str">
+      <c r="J3" s="2" t="str">
         <v>稀有度（0红，紫1，蓝2，绿3，白4）</v>
       </c>
-      <c r="K3" s="3" t="str">
+      <c r="K3" s="1" t="str">
         <v>回收价格</v>
       </c>
-      <c r="L3" s="1" t="str">
+      <c r="L3" s="2" t="str">
         <v>备注</v>
       </c>
-      <c r="M3" s="1" t="str">
+      <c r="M3" s="2" t="str">
         <v>挂点</v>
       </c>
-      <c r="N3" s="1" t="str">
+      <c r="N3" s="2" t="str">
         <v>缩放</v>
       </c>
-      <c r="O3" s="1" t="str">
+      <c r="O3" s="2" t="str">
         <v>旋转</v>
       </c>
-      <c r="P3" s="1" t="str">
+      <c r="P3" s="2" t="str">
         <v>偏移</v>
       </c>
-      <c r="Q3" s="1" t="str">
+      <c r="Q3" s="2" t="str">
         <v>套装内容（角色表序号）</v>
       </c>
     </row>
     <row customHeight="true" ht="29" r="4">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3" t="str">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1" t="str">
         <v>Language</v>
       </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="3"/>
-      <c r="I4" s="3"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="N4" s="2"/>
+      <c r="O4" s="2"/>
+      <c r="P4" s="2"/>
+      <c r="Q4" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="5">
       <c r="A5" s="11">
@@ -1261,1312 +1261,1312 @@
       <c r="Q6" s="12"/>
     </row>
     <row customHeight="true" ht="29" r="7">
-      <c r="A7" s="3">
+      <c r="A7" s="1">
         <v>10001</v>
       </c>
-      <c r="B7" s="15" t="str">
+      <c r="B7" s="14" t="str">
         <v>斧子</v>
       </c>
-      <c r="C7" s="3" t="str">
+      <c r="C7" s="1" t="str">
         <v>Weapon_WeaponName_10002</v>
       </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="15">
+      <c r="D7" s="1"/>
+      <c r="E7" s="14">
         <v>43677</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7" s="2">
         <v>1</v>
       </c>
-      <c r="G7" s="3">
-        <v>0</v>
-      </c>
-      <c r="H7" s="4">
+      <c r="G7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3">
         <v>300</v>
       </c>
-      <c r="I7" s="1">
+      <c r="I7" s="2">
         <v>148622</v>
       </c>
-      <c r="J7" s="5">
+      <c r="J7" s="4">
         <v>4</v>
       </c>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3"/>
-      <c r="M7" s="3"/>
-      <c r="N7" s="3"/>
-      <c r="O7" s="3"/>
-      <c r="P7" s="3"/>
-      <c r="Q7" s="3"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="8">
-      <c r="A8" s="3">
+      <c r="A8" s="1">
         <v>10002</v>
       </c>
-      <c r="B8" s="15" t="str">
+      <c r="B8" s="14" t="str">
         <v>尼泊尔军刀</v>
       </c>
-      <c r="C8" s="3" t="str">
+      <c r="C8" s="1" t="str">
         <v>Weapon_WeaponName_10003</v>
       </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="15">
+      <c r="D8" s="1"/>
+      <c r="E8" s="14">
         <v>94178</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8" s="2">
         <v>1</v>
       </c>
-      <c r="G8" s="3">
-        <v>0</v>
-      </c>
-      <c r="H8" s="4">
+      <c r="G8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="3">
         <v>300</v>
       </c>
-      <c r="I8" s="1">
+      <c r="I8" s="2">
         <v>148649</v>
       </c>
-      <c r="J8" s="5">
+      <c r="J8" s="4">
         <v>4</v>
       </c>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="9">
-      <c r="A9" s="3">
+      <c r="A9" s="1">
         <v>10003</v>
       </c>
-      <c r="B9" s="1" t="str">
+      <c r="B9" s="2" t="str">
         <v>匕首1</v>
       </c>
-      <c r="C9" s="3" t="str">
+      <c r="C9" s="1" t="str">
         <v>Weapon_WeaponName_10004</v>
       </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3">
+      <c r="D9" s="1"/>
+      <c r="E9" s="1">
         <v>146262</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9" s="2">
         <v>1</v>
       </c>
-      <c r="G9" s="3">
-        <v>0</v>
-      </c>
-      <c r="H9" s="4">
+      <c r="G9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="3">
         <v>600</v>
       </c>
-      <c r="I9" s="3">
+      <c r="I9" s="1">
         <v>148634</v>
       </c>
-      <c r="J9" s="5">
+      <c r="J9" s="4">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="10">
-      <c r="A10" s="3">
+      <c r="A10" s="1">
         <v>10004</v>
       </c>
-      <c r="B10" s="1" t="str">
+      <c r="B10" s="2" t="str">
         <v>匕首2</v>
       </c>
-      <c r="C10" s="3" t="str">
+      <c r="C10" s="1" t="str">
         <v>Weapon_WeaponName_10005</v>
       </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3">
+      <c r="D10" s="1"/>
+      <c r="E10" s="1">
         <v>146269</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10" s="2">
         <v>1</v>
       </c>
-      <c r="G10" s="3">
-        <v>0</v>
-      </c>
-      <c r="H10" s="4">
+      <c r="G10" s="1">
+        <v>0</v>
+      </c>
+      <c r="H10" s="3">
         <v>600</v>
       </c>
-      <c r="I10" s="3">
+      <c r="I10" s="1">
         <v>150744</v>
       </c>
-      <c r="J10" s="5">
+      <c r="J10" s="4">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="11">
-      <c r="A11" s="3">
+      <c r="A11" s="1">
         <v>10005</v>
       </c>
-      <c r="B11" s="1" t="str">
+      <c r="B11" s="2" t="str">
         <v>菜刀（带光）</v>
       </c>
-      <c r="C11" s="3" t="str">
+      <c r="C11" s="1" t="str">
         <v>Weapon_WeaponName_10006</v>
       </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="str">
+      <c r="D11" s="1"/>
+      <c r="E11" s="1" t="str">
         <v>373B20D3447D1B11F9D78B8C9EF0AAD4</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11" s="2">
         <v>1</v>
       </c>
-      <c r="G11" s="3">
-        <v>0</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="1">
+        <v>0</v>
+      </c>
+      <c r="H11" s="3">
         <v>1000</v>
       </c>
-      <c r="I11" s="3">
+      <c r="I11" s="1">
         <v>148631</v>
       </c>
-      <c r="J11" s="5">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3"/>
-      <c r="M11" s="3"/>
-      <c r="N11" s="3"/>
-      <c r="O11" s="3"/>
-      <c r="P11" s="3"/>
-      <c r="Q11" s="3"/>
+      <c r="J11" s="4">
+        <v>0</v>
+      </c>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="12">
-      <c r="A12" s="3">
+      <c r="A12" s="1">
         <v>10006</v>
       </c>
-      <c r="B12" s="3" t="str">
+      <c r="B12" s="1" t="str">
         <v>镖(波动)</v>
       </c>
-      <c r="C12" s="3" t="str">
+      <c r="C12" s="1" t="str">
         <v>Weapon_WeaponName_10007</v>
       </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="str">
+      <c r="D12" s="1"/>
+      <c r="E12" s="1" t="str">
         <v>3B9C5AAC466DB4D92C584FB0D5EBCEA4</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12" s="2">
         <v>1</v>
       </c>
-      <c r="G12" s="4">
+      <c r="G12" s="3">
         <v>2</v>
       </c>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3">
+      <c r="H12" s="1"/>
+      <c r="I12" s="1">
         <v>157173</v>
       </c>
-      <c r="J12" s="5">
+      <c r="J12" s="4">
         <v>4</v>
       </c>
-      <c r="K12" s="4">
+      <c r="K12" s="3">
         <v>150</v>
       </c>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="13">
-      <c r="A13" s="3">
+      <c r="A13" s="1">
         <v>10007</v>
       </c>
-      <c r="B13" s="3" t="str">
+      <c r="B13" s="1" t="str">
         <v>镖(桎)</v>
       </c>
-      <c r="C13" s="3" t="str">
+      <c r="C13" s="1" t="str">
         <v>Weapon_WeaponName_10008</v>
       </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="str">
+      <c r="D13" s="1"/>
+      <c r="E13" s="1" t="str">
         <v>FAA45FEE4E0880E51DA7C39397D9D738</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13" s="2">
         <v>1</v>
       </c>
-      <c r="G13" s="4">
+      <c r="G13" s="3">
         <v>2</v>
       </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3">
+      <c r="H13" s="1"/>
+      <c r="I13" s="1">
         <v>157172</v>
       </c>
-      <c r="J13" s="5">
+      <c r="J13" s="4">
         <v>3</v>
       </c>
-      <c r="K13" s="4">
+      <c r="K13" s="3">
         <v>300</v>
       </c>
-      <c r="L13" s="3"/>
-      <c r="M13" s="3"/>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3"/>
-      <c r="P13" s="3"/>
-      <c r="Q13" s="3"/>
+      <c r="L13" s="1"/>
+      <c r="M13" s="1"/>
+      <c r="N13" s="1"/>
+      <c r="O13" s="1"/>
+      <c r="P13" s="1"/>
+      <c r="Q13" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="14">
-      <c r="A14" s="3">
+      <c r="A14" s="1">
         <v>10008</v>
       </c>
-      <c r="B14" s="3" t="str">
+      <c r="B14" s="1" t="str">
         <v>镖(碎)</v>
       </c>
-      <c r="C14" s="3" t="str">
+      <c r="C14" s="1" t="str">
         <v>Weapon_WeaponName_10009</v>
       </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3" t="str">
+      <c r="D14" s="1"/>
+      <c r="E14" s="1" t="str">
         <v>62A347CA44F4CB950123F78EA77E083D</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14" s="2">
         <v>1</v>
       </c>
-      <c r="G14" s="4">
+      <c r="G14" s="3">
         <v>2</v>
       </c>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3">
+      <c r="H14" s="1"/>
+      <c r="I14" s="1">
         <v>157179</v>
       </c>
-      <c r="J14" s="5">
+      <c r="J14" s="4">
         <v>2</v>
       </c>
-      <c r="K14" s="4">
+      <c r="K14" s="3">
         <v>400</v>
       </c>
-      <c r="L14" s="3"/>
-      <c r="M14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="O14" s="3"/>
-      <c r="P14" s="3"/>
-      <c r="Q14" s="3"/>
+      <c r="L14" s="1"/>
+      <c r="M14" s="1"/>
+      <c r="N14" s="1"/>
+      <c r="O14" s="1"/>
+      <c r="P14" s="1"/>
+      <c r="Q14" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="15">
-      <c r="A15" s="3">
+      <c r="A15" s="1">
         <v>10009</v>
       </c>
-      <c r="B15" s="3" t="str">
+      <c r="B15" s="1" t="str">
         <v>镖(漩)</v>
       </c>
-      <c r="C15" s="3" t="str">
+      <c r="C15" s="1" t="str">
         <v>Weapon_WeaponName_10010</v>
       </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="str">
+      <c r="D15" s="1"/>
+      <c r="E15" s="1" t="str">
         <v>3BDC79004184A9A4F3D501AD555E110C</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15" s="2">
         <v>1</v>
       </c>
-      <c r="G15" s="4">
+      <c r="G15" s="3">
         <v>2</v>
       </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3">
+      <c r="H15" s="1"/>
+      <c r="I15" s="1">
         <v>157167</v>
       </c>
-      <c r="J15" s="5">
+      <c r="J15" s="4">
         <v>2</v>
       </c>
-      <c r="K15" s="4">
+      <c r="K15" s="3">
         <v>400</v>
       </c>
-      <c r="L15" s="3"/>
-      <c r="M15" s="3"/>
-      <c r="N15" s="3"/>
-      <c r="O15" s="3"/>
-      <c r="P15" s="3"/>
-      <c r="Q15" s="3"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
+      <c r="N15" s="1"/>
+      <c r="O15" s="1"/>
+      <c r="P15" s="1"/>
+      <c r="Q15" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="16">
-      <c r="A16" s="3">
+      <c r="A16" s="1">
         <v>10010</v>
       </c>
-      <c r="B16" s="3" t="str">
+      <c r="B16" s="1" t="str">
         <v>镖(聚气)</v>
       </c>
-      <c r="C16" s="3" t="str">
+      <c r="C16" s="1" t="str">
         <v>Weapon_WeaponName_10011</v>
       </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="str">
+      <c r="D16" s="1"/>
+      <c r="E16" s="1" t="str">
         <v>4BFB03B542702DDC40A2F6964505166B</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16" s="2">
         <v>1</v>
       </c>
-      <c r="G16" s="4">
+      <c r="G16" s="3">
         <v>2</v>
       </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3">
+      <c r="H16" s="1"/>
+      <c r="I16" s="1">
         <v>157182</v>
       </c>
-      <c r="J16" s="5">
+      <c r="J16" s="4">
         <v>1</v>
       </c>
-      <c r="K16" s="4">
+      <c r="K16" s="3">
         <v>1000</v>
       </c>
-      <c r="L16" s="3"/>
-      <c r="M16" s="3"/>
-      <c r="N16" s="3"/>
-      <c r="O16" s="3"/>
-      <c r="P16" s="3"/>
-      <c r="Q16" s="3"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
+      <c r="N16" s="1"/>
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="17">
-      <c r="A17" s="3">
+      <c r="A17" s="1">
         <v>10011</v>
       </c>
-      <c r="B17" s="3" t="str">
+      <c r="B17" s="1" t="str">
         <v>镖(激荡)</v>
       </c>
-      <c r="C17" s="3" t="str">
+      <c r="C17" s="1" t="str">
         <v>Weapon_WeaponName_10012</v>
       </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="str">
+      <c r="D17" s="1"/>
+      <c r="E17" s="1" t="str">
         <v>C1C893FD454A0C5C307F0FA250289511</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17" s="2">
         <v>1</v>
       </c>
-      <c r="G17" s="4">
+      <c r="G17" s="3">
         <v>2</v>
       </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3">
+      <c r="H17" s="1"/>
+      <c r="I17" s="1">
         <v>157170</v>
       </c>
-      <c r="J17" s="5">
+      <c r="J17" s="4">
         <v>1</v>
       </c>
-      <c r="K17" s="4">
+      <c r="K17" s="3">
         <v>1000</v>
       </c>
-      <c r="L17" s="3"/>
-      <c r="M17" s="3"/>
-      <c r="N17" s="3"/>
-      <c r="O17" s="3"/>
-      <c r="P17" s="3"/>
-      <c r="Q17" s="3"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="1"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="18">
-      <c r="A18" s="3">
+      <c r="A18" s="1">
         <v>10012</v>
       </c>
-      <c r="B18" s="3" t="str">
+      <c r="B18" s="1" t="str">
         <v>镖(封印)</v>
       </c>
-      <c r="C18" s="3" t="str">
+      <c r="C18" s="1" t="str">
         <v>Weapon_WeaponName_10013</v>
       </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="str">
+      <c r="D18" s="1"/>
+      <c r="E18" s="1" t="str">
         <v>70400ACD4448B1AB37BAB091499D296C</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18" s="2">
         <v>1</v>
       </c>
-      <c r="G18" s="4">
+      <c r="G18" s="3">
         <v>2</v>
       </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3">
+      <c r="H18" s="1"/>
+      <c r="I18" s="1">
         <v>157180</v>
       </c>
-      <c r="J18" s="5">
+      <c r="J18" s="4">
         <v>1</v>
       </c>
-      <c r="K18" s="4">
+      <c r="K18" s="3">
         <v>1000</v>
       </c>
-      <c r="L18" s="3"/>
-      <c r="M18" s="3"/>
-      <c r="N18" s="3"/>
-      <c r="O18" s="3"/>
-      <c r="P18" s="3"/>
-      <c r="Q18" s="3"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="19">
-      <c r="A19" s="3">
+      <c r="A19" s="1">
         <v>10013</v>
       </c>
-      <c r="B19" s="3" t="str">
+      <c r="B19" s="1" t="str">
         <v>镖(轮回)</v>
       </c>
-      <c r="C19" s="3" t="str">
+      <c r="C19" s="1" t="str">
         <v>Weapon_WeaponName_10014</v>
       </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="str">
+      <c r="D19" s="1"/>
+      <c r="E19" s="1" t="str">
         <v>3B9C5AAC466DB4D92C584FB0D5EBCEA4</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19" s="2">
         <v>1</v>
       </c>
-      <c r="G19" s="4">
+      <c r="G19" s="3">
         <v>2</v>
       </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3">
+      <c r="H19" s="1"/>
+      <c r="I19" s="1">
         <v>157176</v>
       </c>
-      <c r="J19" s="5">
-        <v>0</v>
-      </c>
-      <c r="K19" s="4">
+      <c r="J19" s="4">
+        <v>0</v>
+      </c>
+      <c r="K19" s="3">
         <v>8000</v>
       </c>
-      <c r="L19" s="3"/>
-      <c r="M19" s="3"/>
-      <c r="N19" s="3"/>
-      <c r="O19" s="3"/>
-      <c r="P19" s="3"/>
-      <c r="Q19" s="3"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="20">
-      <c r="A20" s="3">
+      <c r="A20" s="1">
         <v>10014</v>
       </c>
-      <c r="B20" s="3" t="str">
+      <c r="B20" s="1" t="str">
         <v>狗鱼</v>
       </c>
-      <c r="C20" s="3" t="str">
+      <c r="C20" s="1" t="str">
         <v>Weapon_WeaponName_10015</v>
       </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3">
+      <c r="D20" s="1"/>
+      <c r="E20" s="1">
         <v>140609</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20" s="2">
         <v>1</v>
       </c>
-      <c r="G20" s="4">
+      <c r="G20" s="3">
         <v>2</v>
       </c>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3">
+      <c r="H20" s="1"/>
+      <c r="I20" s="1">
         <v>157174</v>
       </c>
-      <c r="J20" s="5">
+      <c r="J20" s="4">
         <v>4</v>
       </c>
-      <c r="K20" s="4">
+      <c r="K20" s="3">
         <v>150</v>
       </c>
-      <c r="L20" s="3"/>
-      <c r="M20" s="3"/>
-      <c r="N20" s="3"/>
-      <c r="O20" s="3"/>
-      <c r="P20" s="3"/>
-      <c r="Q20" s="3"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="1"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="21">
-      <c r="A21" s="3">
+      <c r="A21" s="1">
         <v>10015</v>
       </c>
-      <c r="B21" s="3" t="str">
+      <c r="B21" s="1" t="str">
         <v>毛鼻鲶</v>
       </c>
-      <c r="C21" s="3" t="str">
+      <c r="C21" s="1" t="str">
         <v>Weapon_WeaponName_10016</v>
       </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3">
+      <c r="D21" s="1"/>
+      <c r="E21" s="1">
         <v>136408</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21" s="2">
         <v>1</v>
       </c>
-      <c r="G21" s="4">
+      <c r="G21" s="3">
         <v>2</v>
       </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3">
+      <c r="H21" s="1"/>
+      <c r="I21" s="1">
         <v>157168</v>
       </c>
-      <c r="J21" s="5">
+      <c r="J21" s="4">
         <v>3</v>
       </c>
-      <c r="K21" s="4">
+      <c r="K21" s="3">
         <v>300</v>
       </c>
-      <c r="L21" s="3"/>
-      <c r="M21" s="3"/>
-      <c r="N21" s="3"/>
-      <c r="O21" s="3"/>
-      <c r="P21" s="3"/>
-      <c r="Q21" s="3"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="22">
-      <c r="A22" s="3">
+      <c r="A22" s="1">
         <v>10016</v>
       </c>
-      <c r="B22" s="3" t="str">
+      <c r="B22" s="1" t="str">
         <v>金鱼</v>
       </c>
-      <c r="C22" s="3" t="str">
+      <c r="C22" s="1" t="str">
         <v>Weapon_WeaponName_10017</v>
       </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3">
+      <c r="D22" s="1"/>
+      <c r="E22" s="1">
         <v>123357</v>
       </c>
-      <c r="F22" s="1">
+      <c r="F22" s="2">
         <v>1</v>
       </c>
-      <c r="G22" s="4">
+      <c r="G22" s="3">
         <v>2</v>
       </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3">
+      <c r="H22" s="1"/>
+      <c r="I22" s="1">
         <v>157169</v>
       </c>
-      <c r="J22" s="5">
+      <c r="J22" s="4">
         <v>2</v>
       </c>
-      <c r="K22" s="4">
+      <c r="K22" s="3">
         <v>400</v>
       </c>
-      <c r="L22" s="3"/>
-      <c r="M22" s="3"/>
-      <c r="N22" s="3"/>
-      <c r="O22" s="3"/>
-      <c r="P22" s="3"/>
-      <c r="Q22" s="3"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="23">
-      <c r="A23" s="3">
+      <c r="A23" s="1">
         <v>10017</v>
       </c>
-      <c r="B23" s="3" t="str">
+      <c r="B23" s="1" t="str">
         <v>金枪鱼</v>
       </c>
-      <c r="C23" s="3" t="str">
+      <c r="C23" s="1" t="str">
         <v>Weapon_WeaponName_10018</v>
       </c>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3">
+      <c r="D23" s="1"/>
+      <c r="E23" s="1">
         <v>138213</v>
       </c>
-      <c r="F23" s="1">
+      <c r="F23" s="2">
         <v>1</v>
       </c>
-      <c r="G23" s="4">
+      <c r="G23" s="3">
         <v>2</v>
       </c>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3">
+      <c r="H23" s="1"/>
+      <c r="I23" s="1">
         <v>157181</v>
       </c>
-      <c r="J23" s="5">
+      <c r="J23" s="4">
         <v>2</v>
       </c>
-      <c r="K23" s="4">
+      <c r="K23" s="3">
         <v>400</v>
       </c>
-      <c r="L23" s="3"/>
-      <c r="M23" s="3"/>
-      <c r="N23" s="3"/>
-      <c r="O23" s="3"/>
-      <c r="P23" s="3"/>
-      <c r="Q23" s="3"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="1"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="24">
-      <c r="A24" s="3">
+      <c r="A24" s="1">
         <v>10018</v>
       </c>
-      <c r="B24" s="3" t="str">
+      <c r="B24" s="1" t="str">
         <v>龙虾</v>
       </c>
-      <c r="C24" s="3" t="str">
+      <c r="C24" s="1" t="str">
         <v>Weapon_WeaponName_10019</v>
       </c>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3">
+      <c r="D24" s="1"/>
+      <c r="E24" s="1">
         <v>123355</v>
       </c>
-      <c r="F24" s="1">
+      <c r="F24" s="2">
         <v>1</v>
       </c>
-      <c r="G24" s="4">
+      <c r="G24" s="3">
         <v>2</v>
       </c>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3">
+      <c r="H24" s="1"/>
+      <c r="I24" s="1">
         <v>157171</v>
       </c>
-      <c r="J24" s="5">
+      <c r="J24" s="4">
         <v>1</v>
       </c>
-      <c r="K24" s="4">
+      <c r="K24" s="3">
         <v>1000</v>
       </c>
-      <c r="L24" s="3"/>
-      <c r="M24" s="3"/>
-      <c r="N24" s="3"/>
-      <c r="O24" s="3"/>
-      <c r="P24" s="3"/>
-      <c r="Q24" s="3"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="25">
-      <c r="A25" s="3">
+      <c r="A25" s="1">
         <v>10019</v>
       </c>
-      <c r="B25" s="3" t="str">
+      <c r="B25" s="1" t="str">
         <v>皇带鱼</v>
       </c>
-      <c r="C25" s="3" t="str">
+      <c r="C25" s="1" t="str">
         <v>Weapon_WeaponName_10020</v>
       </c>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3">
+      <c r="D25" s="1"/>
+      <c r="E25" s="1">
         <v>136410</v>
       </c>
-      <c r="F25" s="1">
+      <c r="F25" s="2">
         <v>1</v>
       </c>
-      <c r="G25" s="4">
+      <c r="G25" s="3">
         <v>2</v>
       </c>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3">
+      <c r="H25" s="1"/>
+      <c r="I25" s="1">
         <v>157177</v>
       </c>
-      <c r="J25" s="5">
+      <c r="J25" s="4">
         <v>1</v>
       </c>
-      <c r="K25" s="4">
+      <c r="K25" s="3">
         <v>1000</v>
       </c>
-      <c r="L25" s="3"/>
-      <c r="M25" s="3"/>
-      <c r="N25" s="3"/>
-      <c r="O25" s="3"/>
-      <c r="P25" s="3"/>
-      <c r="Q25" s="3"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="26">
-      <c r="A26" s="3">
+      <c r="A26" s="1">
         <v>10020</v>
       </c>
-      <c r="B26" s="3" t="str">
+      <c r="B26" s="1" t="str">
         <v>神奇海螺</v>
       </c>
-      <c r="C26" s="3" t="str">
+      <c r="C26" s="1" t="str">
         <v>Weapon_WeaponName_10021</v>
       </c>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3" t="str">
+      <c r="D26" s="1"/>
+      <c r="E26" s="1" t="str">
         <v>9B714F6B46D81A39F2280EA7EA8E6521</v>
       </c>
-      <c r="F26" s="1">
+      <c r="F26" s="2">
         <v>1</v>
       </c>
-      <c r="G26" s="4">
+      <c r="G26" s="3">
         <v>2</v>
       </c>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3">
+      <c r="H26" s="1"/>
+      <c r="I26" s="1">
         <v>157175</v>
       </c>
-      <c r="J26" s="5">
+      <c r="J26" s="4">
         <v>1</v>
       </c>
-      <c r="K26" s="4">
+      <c r="K26" s="3">
         <v>1000</v>
       </c>
-      <c r="L26" s="3"/>
-      <c r="M26" s="3"/>
-      <c r="N26" s="3"/>
-      <c r="O26" s="3"/>
-      <c r="P26" s="3"/>
-      <c r="Q26" s="3"/>
+      <c r="L26" s="1"/>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
+      <c r="P26" s="1"/>
+      <c r="Q26" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="27">
-      <c r="A27" s="3">
+      <c r="A27" s="1">
         <v>10021</v>
       </c>
-      <c r="B27" s="3" t="str">
+      <c r="B27" s="1" t="str">
         <v>海王三叉戟</v>
       </c>
-      <c r="C27" s="3" t="str">
+      <c r="C27" s="1" t="str">
         <v>Weapon_WeaponName_10022</v>
       </c>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3" t="str">
+      <c r="D27" s="1"/>
+      <c r="E27" s="1" t="str">
         <v>8184DD79492D2AFE55FEA4848A040C18</v>
       </c>
-      <c r="F27" s="1">
+      <c r="F27" s="2">
         <v>1</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G27" s="3">
         <v>2</v>
       </c>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3">
+      <c r="H27" s="1"/>
+      <c r="I27" s="1">
         <v>157178</v>
       </c>
-      <c r="J27" s="5">
-        <v>0</v>
-      </c>
-      <c r="K27" s="4">
+      <c r="J27" s="4">
+        <v>0</v>
+      </c>
+      <c r="K27" s="3">
         <v>8000</v>
       </c>
-      <c r="L27" s="3"/>
-      <c r="M27" s="3"/>
-      <c r="N27" s="3"/>
-      <c r="O27" s="3"/>
-      <c r="P27" s="3"/>
-      <c r="Q27" s="3"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="28">
-      <c r="A28" s="3">
+      <c r="A28" s="1">
         <v>10022</v>
       </c>
       <c r="B28" s="22" t="str">
         <v>虚数之杖</v>
       </c>
-      <c r="C28" s="3" t="str">
+      <c r="C28" s="1" t="str">
         <v>Weapon_WeaponName_10023</v>
       </c>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="1">
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="F28" s="2">
         <v>1</v>
       </c>
-      <c r="G28" s="4">
+      <c r="G28" s="3">
         <v>2</v>
       </c>
-      <c r="H28" s="3"/>
-      <c r="I28" s="14">
+      <c r="H28" s="1"/>
+      <c r="I28" s="8">
         <v>192891</v>
       </c>
-      <c r="J28" s="5">
-        <v>0</v>
-      </c>
-      <c r="K28" s="4">
+      <c r="J28" s="4">
+        <v>0</v>
+      </c>
+      <c r="K28" s="3">
         <v>6000</v>
       </c>
-      <c r="L28" s="3"/>
-      <c r="M28" s="3"/>
-      <c r="N28" s="3"/>
-      <c r="O28" s="3"/>
-      <c r="P28" s="3"/>
-      <c r="Q28" s="3"/>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="29">
-      <c r="A29" s="3">
+      <c r="A29" s="1">
         <v>10023</v>
       </c>
-      <c r="B29" s="20" t="str">
+      <c r="B29" s="13" t="str">
         <v>光谱矛</v>
       </c>
-      <c r="C29" s="3" t="str">
+      <c r="C29" s="1" t="str">
         <v>Weapon_WeaponName_10024</v>
       </c>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="1">
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="F29" s="2">
         <v>1</v>
       </c>
-      <c r="G29" s="4">
+      <c r="G29" s="3">
         <v>2</v>
       </c>
-      <c r="H29" s="3"/>
-      <c r="I29" s="14">
+      <c r="H29" s="1"/>
+      <c r="I29" s="8">
         <v>192883</v>
       </c>
-      <c r="J29" s="5">
+      <c r="J29" s="4">
         <v>1</v>
       </c>
-      <c r="K29" s="4">
+      <c r="K29" s="3">
         <v>1000</v>
       </c>
-      <c r="L29" s="3"/>
-      <c r="M29" s="3"/>
-      <c r="N29" s="3"/>
-      <c r="O29" s="3"/>
-      <c r="P29" s="3"/>
-      <c r="Q29" s="3"/>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="30">
-      <c r="A30" s="3">
+      <c r="A30" s="1">
         <v>10024</v>
       </c>
-      <c r="B30" s="20" t="str">
+      <c r="B30" s="13" t="str">
         <v>光谱剑</v>
       </c>
-      <c r="C30" s="3" t="str">
+      <c r="C30" s="1" t="str">
         <v>Weapon_WeaponName_10025</v>
       </c>
-      <c r="D30" s="3"/>
-      <c r="E30" s="3"/>
-      <c r="F30" s="1">
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="F30" s="2">
         <v>1</v>
       </c>
-      <c r="G30" s="4">
+      <c r="G30" s="3">
         <v>2</v>
       </c>
-      <c r="H30" s="3"/>
-      <c r="I30" s="14">
+      <c r="H30" s="1"/>
+      <c r="I30" s="8">
         <v>192895</v>
       </c>
-      <c r="J30" s="5">
+      <c r="J30" s="4">
         <v>2</v>
       </c>
-      <c r="K30" s="4">
+      <c r="K30" s="3">
         <v>333</v>
       </c>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
+      <c r="L30" s="1"/>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="31">
-      <c r="A31" s="3">
+      <c r="A31" s="1">
         <v>10025</v>
       </c>
-      <c r="B31" s="20" t="str">
+      <c r="B31" s="13" t="str">
         <v>光谱剑(晶红)</v>
       </c>
-      <c r="C31" s="3" t="str">
+      <c r="C31" s="1" t="str">
         <v>Weapon_WeaponName_10026</v>
       </c>
-      <c r="D31" s="3"/>
-      <c r="E31" s="3"/>
-      <c r="F31" s="1">
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+      <c r="F31" s="2">
         <v>1</v>
       </c>
-      <c r="G31" s="4">
+      <c r="G31" s="3">
         <v>2</v>
       </c>
-      <c r="H31" s="3"/>
-      <c r="I31" s="14">
+      <c r="H31" s="1"/>
+      <c r="I31" s="8">
         <v>192903</v>
       </c>
-      <c r="J31" s="5">
+      <c r="J31" s="4">
         <v>2</v>
       </c>
-      <c r="K31" s="4">
+      <c r="K31" s="3">
         <v>333</v>
       </c>
-      <c r="L31" s="3"/>
-      <c r="M31" s="3"/>
-      <c r="N31" s="3"/>
-      <c r="O31" s="3"/>
-      <c r="P31" s="3"/>
-      <c r="Q31" s="3"/>
+      <c r="L31" s="1"/>
+      <c r="M31" s="1"/>
+      <c r="N31" s="1"/>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
+      <c r="Q31" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="32">
-      <c r="A32" s="3">
+      <c r="A32" s="1">
         <v>10026</v>
       </c>
-      <c r="B32" s="20" t="str">
+      <c r="B32" s="13" t="str">
         <v>匕首(模拟)</v>
       </c>
-      <c r="C32" s="3" t="str">
+      <c r="C32" s="1" t="str">
         <v>Weapon_WeaponName_10027</v>
       </c>
-      <c r="D32" s="3"/>
-      <c r="E32" s="3"/>
-      <c r="F32" s="1">
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+      <c r="F32" s="2">
         <v>1</v>
       </c>
-      <c r="G32" s="4">
+      <c r="G32" s="3">
         <v>2</v>
       </c>
-      <c r="H32" s="3"/>
-      <c r="I32" s="14">
+      <c r="H32" s="1"/>
+      <c r="I32" s="8">
         <v>192894</v>
       </c>
-      <c r="J32" s="5">
+      <c r="J32" s="4">
         <v>4</v>
       </c>
-      <c r="K32" s="4">
+      <c r="K32" s="3">
         <v>125</v>
       </c>
-      <c r="L32" s="3"/>
-      <c r="M32" s="3"/>
-      <c r="N32" s="3"/>
-      <c r="O32" s="3"/>
-      <c r="P32" s="3"/>
-      <c r="Q32" s="3"/>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="33">
-      <c r="A33" s="3">
+      <c r="A33" s="1">
         <v>10027</v>
       </c>
-      <c r="B33" s="20" t="str">
+      <c r="B33" s="13" t="str">
         <v>军刀(模拟)</v>
       </c>
-      <c r="C33" s="3" t="str">
+      <c r="C33" s="1" t="str">
         <v>Weapon_WeaponName_10028</v>
       </c>
-      <c r="D33" s="3"/>
-      <c r="E33" s="3"/>
-      <c r="F33" s="1">
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+      <c r="F33" s="2">
         <v>1</v>
       </c>
-      <c r="G33" s="4">
+      <c r="G33" s="3">
         <v>2</v>
       </c>
-      <c r="H33" s="3"/>
-      <c r="I33" s="14">
+      <c r="H33" s="1"/>
+      <c r="I33" s="8">
         <v>192905</v>
       </c>
-      <c r="J33" s="5">
+      <c r="J33" s="4">
         <v>3</v>
       </c>
-      <c r="K33" s="4">
+      <c r="K33" s="3">
         <v>250</v>
       </c>
-      <c r="L33" s="3"/>
-      <c r="M33" s="3"/>
-      <c r="N33" s="3"/>
-      <c r="O33" s="3"/>
-      <c r="P33" s="3"/>
-      <c r="Q33" s="3"/>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
+      <c r="N33" s="1"/>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="34">
-      <c r="A34" s="3">
+      <c r="A34" s="1">
         <v>10028</v>
       </c>
-      <c r="B34" s="16" t="str">
+      <c r="B34" s="9" t="str">
         <v>唤雷(符文)</v>
       </c>
-      <c r="C34" s="3" t="str">
+      <c r="C34" s="1" t="str">
         <v>Weapon_WeaponName_10029</v>
       </c>
-      <c r="D34" s="3"/>
-      <c r="E34" s="3"/>
-      <c r="F34" s="1">
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+      <c r="F34" s="2">
         <v>1</v>
       </c>
-      <c r="G34" s="4">
+      <c r="G34" s="3">
         <v>2</v>
       </c>
-      <c r="H34" s="3"/>
-      <c r="I34" s="14">
+      <c r="H34" s="1"/>
+      <c r="I34" s="8">
         <v>192897</v>
       </c>
-      <c r="J34" s="5">
-        <v>0</v>
-      </c>
-      <c r="K34" s="4">
+      <c r="J34" s="4">
+        <v>0</v>
+      </c>
+      <c r="K34" s="3">
         <v>6000</v>
       </c>
-      <c r="L34" s="3"/>
-      <c r="M34" s="3"/>
-      <c r="N34" s="3"/>
-      <c r="O34" s="3"/>
-      <c r="P34" s="3"/>
-      <c r="Q34" s="3"/>
+      <c r="L34" s="1"/>
+      <c r="M34" s="1"/>
+      <c r="N34" s="1"/>
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="35">
-      <c r="A35" s="3">
+      <c r="A35" s="1">
         <v>10029</v>
       </c>
-      <c r="B35" s="16" t="str">
+      <c r="B35" s="9" t="str">
         <v>雷神之锤</v>
       </c>
-      <c r="C35" s="3" t="str">
+      <c r="C35" s="1" t="str">
         <v>Weapon_WeaponName_10030</v>
       </c>
-      <c r="D35" s="3"/>
-      <c r="E35" s="3"/>
-      <c r="F35" s="1">
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="F35" s="2">
         <v>1</v>
       </c>
-      <c r="G35" s="4">
+      <c r="G35" s="3">
         <v>2</v>
       </c>
-      <c r="H35" s="3"/>
-      <c r="I35" s="14">
+      <c r="H35" s="1"/>
+      <c r="I35" s="8">
         <v>192898</v>
       </c>
-      <c r="J35" s="5">
+      <c r="J35" s="4">
         <v>1</v>
       </c>
-      <c r="K35" s="4">
+      <c r="K35" s="3">
         <v>1000</v>
       </c>
-      <c r="L35" s="3"/>
-      <c r="M35" s="3"/>
-      <c r="N35" s="3"/>
-      <c r="O35" s="3"/>
-      <c r="P35" s="3"/>
-      <c r="Q35" s="3"/>
+      <c r="L35" s="1"/>
+      <c r="M35" s="1"/>
+      <c r="N35" s="1"/>
+      <c r="O35" s="1"/>
+      <c r="P35" s="1"/>
+      <c r="Q35" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="36">
-      <c r="A36" s="3">
+      <c r="A36" s="1">
         <v>10030</v>
       </c>
-      <c r="B36" s="16" t="str">
+      <c r="B36" s="9" t="str">
         <v>骨刺剑(圣)</v>
       </c>
-      <c r="C36" s="3" t="str">
+      <c r="C36" s="1" t="str">
         <v>Weapon_WeaponName_10031</v>
       </c>
-      <c r="D36" s="3"/>
-      <c r="E36" s="3"/>
-      <c r="F36" s="1">
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="2">
         <v>1</v>
       </c>
-      <c r="G36" s="4">
+      <c r="G36" s="3">
         <v>2</v>
       </c>
-      <c r="H36" s="3"/>
-      <c r="I36" s="14">
+      <c r="H36" s="1"/>
+      <c r="I36" s="8">
         <v>192896</v>
       </c>
-      <c r="J36" s="5">
+      <c r="J36" s="4">
         <v>2</v>
       </c>
-      <c r="K36" s="4">
+      <c r="K36" s="3">
         <v>333</v>
       </c>
-      <c r="L36" s="3"/>
-      <c r="M36" s="3"/>
-      <c r="N36" s="3"/>
-      <c r="O36" s="3"/>
-      <c r="P36" s="3"/>
-      <c r="Q36" s="3"/>
+      <c r="L36" s="1"/>
+      <c r="M36" s="1"/>
+      <c r="N36" s="1"/>
+      <c r="O36" s="1"/>
+      <c r="P36" s="1"/>
+      <c r="Q36" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="37">
-      <c r="A37" s="3">
+      <c r="A37" s="1">
         <v>10031</v>
       </c>
-      <c r="B37" s="16" t="str">
+      <c r="B37" s="9" t="str">
         <v>骨刺剑(恋)</v>
       </c>
-      <c r="C37" s="3" t="str">
+      <c r="C37" s="1" t="str">
         <v>Weapon_WeaponName_10032</v>
       </c>
-      <c r="D37" s="3"/>
-      <c r="E37" s="3"/>
-      <c r="F37" s="1">
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="F37" s="2">
         <v>1</v>
       </c>
-      <c r="G37" s="4">
+      <c r="G37" s="3">
         <v>2</v>
       </c>
-      <c r="H37" s="3"/>
-      <c r="I37" s="14">
+      <c r="H37" s="1"/>
+      <c r="I37" s="8">
         <v>192906</v>
       </c>
-      <c r="J37" s="5">
+      <c r="J37" s="4">
         <v>3</v>
       </c>
-      <c r="K37" s="4">
+      <c r="K37" s="3">
         <v>250</v>
       </c>
-      <c r="L37" s="3"/>
-      <c r="M37" s="3"/>
-      <c r="N37" s="3"/>
-      <c r="O37" s="3"/>
-      <c r="P37" s="3"/>
-      <c r="Q37" s="3"/>
+      <c r="L37" s="1"/>
+      <c r="M37" s="1"/>
+      <c r="N37" s="1"/>
+      <c r="O37" s="1"/>
+      <c r="P37" s="1"/>
+      <c r="Q37" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="38">
-      <c r="A38" s="3">
+      <c r="A38" s="1">
         <v>10032</v>
       </c>
-      <c r="B38" s="16" t="str">
+      <c r="B38" s="9" t="str">
         <v>骨刺剑(炽)</v>
       </c>
-      <c r="C38" s="3" t="str">
+      <c r="C38" s="1" t="str">
         <v>Weapon_WeaponName_10033</v>
       </c>
-      <c r="D38" s="3"/>
-      <c r="E38" s="3"/>
-      <c r="F38" s="1">
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="F38" s="2">
         <v>1</v>
       </c>
-      <c r="G38" s="4">
+      <c r="G38" s="3">
         <v>2</v>
       </c>
-      <c r="H38" s="3"/>
-      <c r="I38" s="14">
+      <c r="H38" s="1"/>
+      <c r="I38" s="8">
         <v>192886</v>
       </c>
-      <c r="J38" s="5">
+      <c r="J38" s="4">
         <v>4</v>
       </c>
-      <c r="K38" s="4">
+      <c r="K38" s="3">
         <v>125</v>
       </c>
-      <c r="L38" s="3"/>
-      <c r="M38" s="3"/>
-      <c r="N38" s="3"/>
-      <c r="O38" s="3"/>
-      <c r="P38" s="3"/>
-      <c r="Q38" s="3"/>
+      <c r="L38" s="1"/>
+      <c r="M38" s="1"/>
+      <c r="N38" s="1"/>
+      <c r="O38" s="1"/>
+      <c r="P38" s="1"/>
+      <c r="Q38" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="39">
-      <c r="A39" s="3">
+      <c r="A39" s="1">
         <v>10033</v>
       </c>
-      <c r="B39" s="16" t="str">
+      <c r="B39" s="9" t="str">
         <v>骨刺剑(霜)</v>
       </c>
-      <c r="C39" s="3" t="str">
+      <c r="C39" s="1" t="str">
         <v>Weapon_WeaponName_10034</v>
       </c>
-      <c r="D39" s="3"/>
-      <c r="E39" s="3"/>
-      <c r="F39" s="1">
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="F39" s="2">
         <v>1</v>
       </c>
-      <c r="G39" s="4">
+      <c r="G39" s="3">
         <v>2</v>
       </c>
-      <c r="H39" s="3"/>
-      <c r="I39" s="14">
+      <c r="H39" s="1"/>
+      <c r="I39" s="8">
         <v>192885</v>
       </c>
-      <c r="J39" s="5">
+      <c r="J39" s="4">
         <v>4</v>
       </c>
-      <c r="K39" s="4">
+      <c r="K39" s="3">
         <v>125</v>
       </c>
-      <c r="L39" s="3"/>
-      <c r="M39" s="3"/>
-      <c r="N39" s="3"/>
-      <c r="O39" s="3"/>
-      <c r="P39" s="3"/>
-      <c r="Q39" s="3"/>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="N39" s="1"/>
+      <c r="O39" s="1"/>
+      <c r="P39" s="1"/>
+      <c r="Q39" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="40">
-      <c r="A40" s="3">
+      <c r="A40" s="1">
         <v>10034</v>
       </c>
-      <c r="B40" s="13" t="str">
+      <c r="B40" s="15" t="str">
         <v>樱</v>
       </c>
-      <c r="C40" s="3" t="str">
+      <c r="C40" s="1" t="str">
         <v>Weapon_WeaponName_10035</v>
       </c>
-      <c r="D40" s="3"/>
-      <c r="E40" s="3"/>
-      <c r="F40" s="1">
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="F40" s="2">
         <v>1</v>
       </c>
-      <c r="G40" s="3">
+      <c r="G40" s="1">
         <v>5</v>
       </c>
-      <c r="H40" s="3">
+      <c r="H40" s="1">
         <v>1288</v>
       </c>
-      <c r="I40" s="14">
+      <c r="I40" s="8">
         <v>192902</v>
       </c>
-      <c r="J40" s="1">
-        <v>0</v>
-      </c>
-      <c r="K40" s="3"/>
-      <c r="L40" s="3"/>
-      <c r="M40" s="3"/>
-      <c r="N40" s="3"/>
-      <c r="O40" s="3"/>
-      <c r="P40" s="3"/>
-      <c r="Q40" s="3"/>
+      <c r="J40" s="2">
+        <v>0</v>
+      </c>
+      <c r="K40" s="1"/>
+      <c r="L40" s="1"/>
+      <c r="M40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="41">
-      <c r="A41" s="3">
+      <c r="A41" s="1">
         <v>10035</v>
       </c>
-      <c r="B41" s="19" t="str">
+      <c r="B41" s="10" t="str">
         <v>黄金球棍(虹彩)</v>
       </c>
-      <c r="C41" s="3" t="str">
+      <c r="C41" s="1" t="str">
         <v>Weapon_WeaponName_10036</v>
       </c>
-      <c r="D41" s="3"/>
-      <c r="E41" s="3"/>
-      <c r="F41" s="1">
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="F41" s="2">
         <v>1</v>
       </c>
-      <c r="G41" s="3">
+      <c r="G41" s="1">
         <v>5</v>
       </c>
-      <c r="H41" s="3">
+      <c r="H41" s="1">
         <v>1288</v>
       </c>
-      <c r="I41" s="14">
+      <c r="I41" s="8">
         <v>192890</v>
       </c>
-      <c r="J41" s="1">
-        <v>0</v>
-      </c>
-      <c r="K41" s="3"/>
-      <c r="L41" s="3"/>
-      <c r="M41" s="3"/>
-      <c r="N41" s="3"/>
-      <c r="O41" s="3"/>
-      <c r="P41" s="3"/>
-      <c r="Q41" s="3"/>
+      <c r="J41" s="2">
+        <v>0</v>
+      </c>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+      <c r="O41" s="1"/>
+      <c r="P41" s="1"/>
+      <c r="Q41" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="42">
-      <c r="A42" s="3">
+      <c r="A42" s="1">
         <v>10036</v>
       </c>
-      <c r="B42" s="13" t="str">
+      <c r="B42" s="15" t="str">
         <v>紫光剑</v>
       </c>
-      <c r="C42" s="3" t="str">
+      <c r="C42" s="1" t="str">
         <v>Weapon_WeaponName_10037</v>
       </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
-      <c r="F42" s="1">
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="F42" s="2">
         <v>1</v>
       </c>
-      <c r="G42" s="3">
+      <c r="G42" s="1">
         <v>5</v>
       </c>
-      <c r="H42" s="3">
+      <c r="H42" s="1">
         <v>1688</v>
       </c>
-      <c r="I42" s="14" t="str">
+      <c r="I42" s="8" t="str">
         <v>mode_304952</v>
       </c>
-      <c r="J42" s="1">
-        <v>0</v>
-      </c>
-      <c r="K42" s="3"/>
-      <c r="L42" s="3"/>
-      <c r="M42" s="3"/>
-      <c r="N42" s="3"/>
-      <c r="O42" s="3"/>
-      <c r="P42" s="3"/>
-      <c r="Q42" s="3"/>
+      <c r="J42" s="2">
+        <v>0</v>
+      </c>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+      <c r="O42" s="1"/>
+      <c r="P42" s="1"/>
+      <c r="Q42" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="43">
       <c r="A43" s="11">
         <v>20000</v>
       </c>
-      <c r="B43" s="21" t="str">
+      <c r="B43" s="23" t="str">
         <v>远程数量</v>
       </c>
       <c r="C43" s="11" t="str">
@@ -2575,7 +2575,7 @@
       <c r="D43" s="11">
         <v>13</v>
       </c>
-      <c r="E43" s="21"/>
+      <c r="E43" s="23"/>
       <c r="F43" s="12"/>
       <c r="G43" s="11"/>
       <c r="H43" s="11">
@@ -2592,463 +2592,463 @@
       <c r="Q43" s="12"/>
     </row>
     <row customHeight="true" ht="29" r="44">
-      <c r="A44" s="3">
+      <c r="A44" s="1">
         <v>20001</v>
       </c>
-      <c r="B44" s="15" t="str">
+      <c r="B44" s="14" t="str">
         <v>冲锋枪</v>
       </c>
-      <c r="C44" s="3" t="str">
+      <c r="C44" s="1" t="str">
         <v>Weapon_WeaponName_20002</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="15">
+      <c r="D44" s="1"/>
+      <c r="E44" s="14">
         <v>99701</v>
       </c>
-      <c r="F44" s="1">
+      <c r="F44" s="2">
         <v>2</v>
       </c>
-      <c r="G44" s="4">
-        <v>0</v>
-      </c>
-      <c r="H44" s="4">
+      <c r="G44" s="3">
+        <v>0</v>
+      </c>
+      <c r="H44" s="3">
         <v>500</v>
       </c>
-      <c r="I44" s="1">
+      <c r="I44" s="2">
         <v>148626</v>
       </c>
-      <c r="J44" s="5">
+      <c r="J44" s="4">
         <v>4</v>
       </c>
-      <c r="K44" s="4"/>
-      <c r="L44" s="3"/>
-      <c r="M44" s="1"/>
-      <c r="N44" s="1"/>
-      <c r="O44" s="1"/>
-      <c r="P44" s="1"/>
-      <c r="Q44" s="1"/>
+      <c r="K44" s="3"/>
+      <c r="L44" s="1"/>
+      <c r="M44" s="2"/>
+      <c r="N44" s="2"/>
+      <c r="O44" s="2"/>
+      <c r="P44" s="2"/>
+      <c r="Q44" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="45">
-      <c r="A45" s="3">
+      <c r="A45" s="1">
         <v>20002</v>
       </c>
-      <c r="B45" s="15" t="str">
+      <c r="B45" s="14" t="str">
         <v>步枪</v>
       </c>
-      <c r="C45" s="3" t="str">
+      <c r="C45" s="1" t="str">
         <v>Weapon_WeaponName_20003</v>
       </c>
-      <c r="D45" s="3"/>
-      <c r="E45" s="15">
+      <c r="D45" s="1"/>
+      <c r="E45" s="14">
         <v>45000</v>
       </c>
-      <c r="F45" s="1">
+      <c r="F45" s="2">
         <v>2</v>
       </c>
-      <c r="G45" s="4">
-        <v>0</v>
-      </c>
-      <c r="H45" s="4">
+      <c r="G45" s="3">
+        <v>0</v>
+      </c>
+      <c r="H45" s="3">
         <v>1000</v>
       </c>
-      <c r="I45" s="1">
+      <c r="I45" s="2">
         <v>148630</v>
       </c>
-      <c r="J45" s="5">
+      <c r="J45" s="4">
         <v>4</v>
       </c>
-      <c r="K45" s="4"/>
-      <c r="L45" s="3"/>
-      <c r="M45" s="3"/>
-      <c r="N45" s="3"/>
-      <c r="O45" s="3"/>
-      <c r="P45" s="3"/>
-      <c r="Q45" s="3"/>
+      <c r="K45" s="3"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="46">
-      <c r="A46" s="3">
+      <c r="A46" s="1">
         <v>20003</v>
       </c>
       <c r="B46" s="24" t="str">
         <v>奇点之枪</v>
       </c>
-      <c r="C46" s="3" t="str">
+      <c r="C46" s="1" t="str">
         <v>Weapon_WeaponName_20004</v>
       </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="15"/>
-      <c r="F46" s="1">
+      <c r="D46" s="1"/>
+      <c r="E46" s="14"/>
+      <c r="F46" s="2">
         <v>2</v>
       </c>
-      <c r="G46" s="4">
+      <c r="G46" s="3">
         <v>2</v>
       </c>
-      <c r="H46" s="4"/>
-      <c r="I46" s="14">
+      <c r="H46" s="3"/>
+      <c r="I46" s="8">
         <v>192887</v>
       </c>
-      <c r="J46" s="5">
-        <v>0</v>
-      </c>
-      <c r="K46" s="4">
+      <c r="J46" s="4">
+        <v>0</v>
+      </c>
+      <c r="K46" s="3">
         <v>6000</v>
       </c>
-      <c r="L46" s="3"/>
-      <c r="M46" s="3"/>
-      <c r="N46" s="3"/>
-      <c r="O46" s="3"/>
-      <c r="P46" s="3"/>
-      <c r="Q46" s="3"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="1"/>
+      <c r="Q46" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="47">
-      <c r="A47" s="3">
+      <c r="A47" s="1">
         <v>20004</v>
       </c>
-      <c r="B47" s="20" t="str">
+      <c r="B47" s="13" t="str">
         <v>反物质枪</v>
       </c>
-      <c r="C47" s="3" t="str">
+      <c r="C47" s="1" t="str">
         <v>Weapon_WeaponName_20005</v>
       </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="15"/>
-      <c r="F47" s="1">
+      <c r="D47" s="1"/>
+      <c r="E47" s="14"/>
+      <c r="F47" s="2">
         <v>2</v>
       </c>
-      <c r="G47" s="4">
+      <c r="G47" s="3">
         <v>2</v>
       </c>
-      <c r="H47" s="4"/>
-      <c r="I47" s="14">
+      <c r="H47" s="3"/>
+      <c r="I47" s="8">
         <v>192901</v>
       </c>
-      <c r="J47" s="5">
+      <c r="J47" s="4">
         <v>1</v>
       </c>
-      <c r="K47" s="4">
+      <c r="K47" s="3">
         <v>1000</v>
       </c>
-      <c r="L47" s="3"/>
-      <c r="M47" s="3"/>
-      <c r="N47" s="3"/>
-      <c r="O47" s="3"/>
-      <c r="P47" s="3"/>
-      <c r="Q47" s="3"/>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="1"/>
+      <c r="O47" s="1"/>
+      <c r="P47" s="1"/>
+      <c r="Q47" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="48">
-      <c r="A48" s="3">
+      <c r="A48" s="1">
         <v>20005</v>
       </c>
-      <c r="B48" s="20" t="str">
+      <c r="B48" s="13" t="str">
         <v>左轮(模拟)</v>
       </c>
-      <c r="C48" s="3" t="str">
+      <c r="C48" s="1" t="str">
         <v>Weapon_WeaponName_20006</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="15"/>
-      <c r="F48" s="1">
+      <c r="D48" s="1"/>
+      <c r="E48" s="14"/>
+      <c r="F48" s="2">
         <v>2</v>
       </c>
-      <c r="G48" s="4">
+      <c r="G48" s="3">
         <v>2</v>
       </c>
-      <c r="H48" s="4"/>
-      <c r="I48" s="14">
+      <c r="H48" s="3"/>
+      <c r="I48" s="8">
         <v>192889</v>
       </c>
-      <c r="J48" s="5">
+      <c r="J48" s="4">
         <v>4</v>
       </c>
-      <c r="K48" s="4">
+      <c r="K48" s="3">
         <v>125</v>
       </c>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
+      <c r="N48" s="1"/>
+      <c r="O48" s="1"/>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="49">
-      <c r="A49" s="3">
+      <c r="A49" s="1">
         <v>20006</v>
       </c>
-      <c r="B49" s="20" t="str">
+      <c r="B49" s="13" t="str">
         <v>冲锋枪(模拟)</v>
       </c>
-      <c r="C49" s="3" t="str">
+      <c r="C49" s="1" t="str">
         <v>Weapon_WeaponName_20007</v>
       </c>
-      <c r="D49" s="3"/>
-      <c r="E49" s="15"/>
-      <c r="F49" s="1">
+      <c r="D49" s="1"/>
+      <c r="E49" s="14"/>
+      <c r="F49" s="2">
         <v>2</v>
       </c>
-      <c r="G49" s="4">
+      <c r="G49" s="3">
         <v>2</v>
       </c>
-      <c r="H49" s="4"/>
-      <c r="I49" s="14">
+      <c r="H49" s="3"/>
+      <c r="I49" s="8">
         <v>192888</v>
       </c>
-      <c r="J49" s="5">
+      <c r="J49" s="4">
         <v>3</v>
       </c>
-      <c r="K49" s="4">
+      <c r="K49" s="3">
         <v>250</v>
       </c>
-      <c r="L49" s="3"/>
-      <c r="M49" s="3"/>
-      <c r="N49" s="3"/>
-      <c r="O49" s="3"/>
-      <c r="P49" s="3"/>
-      <c r="Q49" s="3"/>
+      <c r="L49" s="1"/>
+      <c r="M49" s="1"/>
+      <c r="N49" s="1"/>
+      <c r="O49" s="1"/>
+      <c r="P49" s="1"/>
+      <c r="Q49" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="50">
-      <c r="A50" s="3">
+      <c r="A50" s="1">
         <v>20007</v>
       </c>
-      <c r="B50" s="16" t="str">
+      <c r="B50" s="9" t="str">
         <v>逐日(符文)</v>
       </c>
-      <c r="C50" s="3" t="str">
+      <c r="C50" s="1" t="str">
         <v>Weapon_WeaponName_20008</v>
       </c>
-      <c r="D50" s="3"/>
-      <c r="E50" s="15"/>
-      <c r="F50" s="1">
+      <c r="D50" s="1"/>
+      <c r="E50" s="14"/>
+      <c r="F50" s="2">
         <v>2</v>
       </c>
-      <c r="G50" s="4">
+      <c r="G50" s="3">
         <v>2</v>
       </c>
-      <c r="H50" s="4"/>
-      <c r="I50" s="14">
+      <c r="H50" s="3"/>
+      <c r="I50" s="8">
         <v>192904</v>
       </c>
-      <c r="J50" s="5">
-        <v>0</v>
-      </c>
-      <c r="K50" s="4">
+      <c r="J50" s="4">
+        <v>0</v>
+      </c>
+      <c r="K50" s="3">
         <v>6000</v>
       </c>
-      <c r="L50" s="3"/>
-      <c r="M50" s="3"/>
-      <c r="N50" s="3"/>
-      <c r="O50" s="3"/>
-      <c r="P50" s="3"/>
-      <c r="Q50" s="3"/>
+      <c r="L50" s="1"/>
+      <c r="M50" s="1"/>
+      <c r="N50" s="1"/>
+      <c r="O50" s="1"/>
+      <c r="P50" s="1"/>
+      <c r="Q50" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="51">
-      <c r="A51" s="3">
+      <c r="A51" s="1">
         <v>20008</v>
       </c>
-      <c r="B51" s="16" t="str">
+      <c r="B51" s="9" t="str">
         <v>火铳</v>
       </c>
-      <c r="C51" s="3" t="str">
+      <c r="C51" s="1" t="str">
         <v>Weapon_WeaponName_20009</v>
       </c>
-      <c r="D51" s="3"/>
-      <c r="E51" s="15"/>
-      <c r="F51" s="1">
+      <c r="D51" s="1"/>
+      <c r="E51" s="14"/>
+      <c r="F51" s="2">
         <v>2</v>
       </c>
-      <c r="G51" s="4">
+      <c r="G51" s="3">
         <v>2</v>
       </c>
-      <c r="H51" s="4"/>
-      <c r="I51" s="14">
+      <c r="H51" s="3"/>
+      <c r="I51" s="8">
         <v>192899</v>
       </c>
-      <c r="J51" s="5">
+      <c r="J51" s="4">
         <v>1</v>
       </c>
-      <c r="K51" s="4">
+      <c r="K51" s="3">
         <v>1000</v>
       </c>
-      <c r="L51" s="3"/>
-      <c r="M51" s="3"/>
-      <c r="N51" s="3"/>
-      <c r="O51" s="3"/>
-      <c r="P51" s="3"/>
-      <c r="Q51" s="3"/>
+      <c r="L51" s="1"/>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
+      <c r="O51" s="1"/>
+      <c r="P51" s="1"/>
+      <c r="Q51" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="52">
-      <c r="A52" s="3">
+      <c r="A52" s="1">
         <v>20009</v>
       </c>
-      <c r="B52" s="16" t="str">
+      <c r="B52" s="9" t="str">
         <v>左轮(圣)</v>
       </c>
-      <c r="C52" s="3" t="str">
+      <c r="C52" s="1" t="str">
         <v>Weapon_WeaponName_20010</v>
       </c>
-      <c r="D52" s="3"/>
-      <c r="E52" s="15"/>
-      <c r="F52" s="1">
+      <c r="D52" s="1"/>
+      <c r="E52" s="14"/>
+      <c r="F52" s="2">
         <v>2</v>
       </c>
-      <c r="G52" s="4">
+      <c r="G52" s="3">
         <v>2</v>
       </c>
-      <c r="H52" s="4"/>
-      <c r="I52" s="14">
+      <c r="H52" s="3"/>
+      <c r="I52" s="8">
         <v>192884</v>
       </c>
-      <c r="J52" s="5">
+      <c r="J52" s="4">
         <v>2</v>
       </c>
-      <c r="K52" s="4">
+      <c r="K52" s="3">
         <v>333</v>
       </c>
-      <c r="L52" s="3"/>
-      <c r="M52" s="3"/>
-      <c r="N52" s="3"/>
-      <c r="O52" s="3"/>
-      <c r="P52" s="3"/>
-      <c r="Q52" s="3"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="53">
-      <c r="A53" s="3">
+      <c r="A53" s="1">
         <v>20010</v>
       </c>
-      <c r="B53" s="16" t="str">
+      <c r="B53" s="9" t="str">
         <v>左轮(恋)</v>
       </c>
-      <c r="C53" s="3" t="str">
+      <c r="C53" s="1" t="str">
         <v>Weapon_WeaponName_20011</v>
       </c>
-      <c r="D53" s="3"/>
-      <c r="E53" s="15"/>
-      <c r="F53" s="1">
+      <c r="D53" s="1"/>
+      <c r="E53" s="14"/>
+      <c r="F53" s="2">
         <v>2</v>
       </c>
-      <c r="G53" s="4">
+      <c r="G53" s="3">
         <v>2</v>
       </c>
-      <c r="H53" s="4"/>
-      <c r="I53" s="14">
+      <c r="H53" s="3"/>
+      <c r="I53" s="8">
         <v>192892</v>
       </c>
-      <c r="J53" s="5">
+      <c r="J53" s="4">
         <v>3</v>
       </c>
-      <c r="K53" s="4">
+      <c r="K53" s="3">
         <v>125</v>
       </c>
-      <c r="L53" s="3"/>
-      <c r="M53" s="3"/>
-      <c r="N53" s="3"/>
-      <c r="O53" s="3"/>
-      <c r="P53" s="3"/>
-      <c r="Q53" s="3"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+      <c r="O53" s="1"/>
+      <c r="P53" s="1"/>
+      <c r="Q53" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="54">
-      <c r="A54" s="3">
+      <c r="A54" s="1">
         <v>20011</v>
       </c>
-      <c r="B54" s="13" t="str">
+      <c r="B54" s="15" t="str">
         <v>蝶</v>
       </c>
-      <c r="C54" s="3" t="str">
+      <c r="C54" s="1" t="str">
         <v>Weapon_WeaponName_20012</v>
       </c>
-      <c r="D54" s="3"/>
-      <c r="E54" s="15"/>
-      <c r="F54" s="1">
+      <c r="D54" s="1"/>
+      <c r="E54" s="14"/>
+      <c r="F54" s="2">
         <v>2</v>
       </c>
-      <c r="G54" s="3">
+      <c r="G54" s="1">
         <v>5</v>
       </c>
-      <c r="H54" s="3">
+      <c r="H54" s="1">
         <v>1288</v>
       </c>
-      <c r="I54" s="14">
+      <c r="I54" s="8">
         <v>192893</v>
       </c>
-      <c r="J54" s="1">
-        <v>0</v>
-      </c>
-      <c r="K54" s="3"/>
-      <c r="L54" s="3"/>
-      <c r="M54" s="3"/>
-      <c r="N54" s="3"/>
-      <c r="O54" s="3"/>
-      <c r="P54" s="3"/>
-      <c r="Q54" s="3"/>
+      <c r="J54" s="2">
+        <v>0</v>
+      </c>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+      <c r="O54" s="1"/>
+      <c r="P54" s="1"/>
+      <c r="Q54" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="55">
-      <c r="A55" s="3">
+      <c r="A55" s="1">
         <v>20012</v>
       </c>
-      <c r="B55" s="19" t="str">
+      <c r="B55" s="10" t="str">
         <v>黄金左轮(虹彩)</v>
       </c>
-      <c r="C55" s="3" t="str">
+      <c r="C55" s="1" t="str">
         <v>Weapon_WeaponName_20013</v>
       </c>
-      <c r="D55" s="3"/>
-      <c r="E55" s="15"/>
-      <c r="F55" s="1">
+      <c r="D55" s="1"/>
+      <c r="E55" s="14"/>
+      <c r="F55" s="2">
         <v>2</v>
       </c>
-      <c r="G55" s="3">
+      <c r="G55" s="1">
         <v>5</v>
       </c>
-      <c r="H55" s="3">
+      <c r="H55" s="1">
         <v>1288</v>
       </c>
-      <c r="I55" s="14">
+      <c r="I55" s="8">
         <v>192900</v>
       </c>
-      <c r="J55" s="1">
-        <v>0</v>
-      </c>
-      <c r="K55" s="3"/>
-      <c r="L55" s="3"/>
-      <c r="M55" s="3"/>
-      <c r="N55" s="3"/>
-      <c r="O55" s="3"/>
-      <c r="P55" s="3"/>
-      <c r="Q55" s="3"/>
+      <c r="J55" s="2">
+        <v>0</v>
+      </c>
+      <c r="K55" s="1"/>
+      <c r="L55" s="1"/>
+      <c r="M55" s="1"/>
+      <c r="N55" s="1"/>
+      <c r="O55" s="1"/>
+      <c r="P55" s="1"/>
+      <c r="Q55" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="56">
-      <c r="A56" s="3">
+      <c r="A56" s="1">
         <v>20013</v>
       </c>
-      <c r="B56" s="16" t="str">
+      <c r="B56" s="9" t="str">
         <v>冰寒弓箭</v>
       </c>
-      <c r="C56" s="3" t="str">
+      <c r="C56" s="1" t="str">
         <v>Weapon_WeaponName_20014</v>
       </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="15"/>
-      <c r="F56" s="1">
+      <c r="D56" s="1"/>
+      <c r="E56" s="14"/>
+      <c r="F56" s="2">
         <v>2</v>
       </c>
-      <c r="G56" s="3">
+      <c r="G56" s="1">
         <v>5</v>
       </c>
-      <c r="H56" s="3">
+      <c r="H56" s="1">
         <v>1688</v>
       </c>
-      <c r="I56" s="14" t="str">
+      <c r="I56" s="8" t="str">
         <v>mode_304643</v>
       </c>
-      <c r="J56" s="1">
-        <v>0</v>
-      </c>
-      <c r="K56" s="3"/>
-      <c r="L56" s="3"/>
-      <c r="M56" s="3"/>
-      <c r="N56" s="3"/>
-      <c r="O56" s="3"/>
-      <c r="P56" s="3"/>
-      <c r="Q56" s="3"/>
+      <c r="J56" s="2">
+        <v>0</v>
+      </c>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+      <c r="O56" s="1"/>
+      <c r="P56" s="1"/>
+      <c r="Q56" s="1"/>
     </row>
     <row customHeight="true" ht="29" r="57">
       <c r="A57" s="11">
@@ -3080,605 +3080,605 @@
       <c r="Q57" s="12"/>
     </row>
     <row customHeight="true" ht="29" r="58">
-      <c r="A58" s="3">
+      <c r="A58" s="1">
         <v>30001</v>
       </c>
-      <c r="B58" s="1" t="str">
+      <c r="B58" s="2" t="str">
         <v>烟雾
 参考翻译：Somke</v>
       </c>
-      <c r="C58" s="3" t="str">
+      <c r="C58" s="1" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D58" s="3"/>
-      <c r="E58" s="3">
+      <c r="D58" s="1"/>
+      <c r="E58" s="1">
         <v>4395</v>
       </c>
-      <c r="F58" s="1"/>
-      <c r="G58" s="3">
-        <v>0</v>
-      </c>
-      <c r="H58" s="4">
+      <c r="F58" s="2"/>
+      <c r="G58" s="1">
+        <v>0</v>
+      </c>
+      <c r="H58" s="3">
         <v>150</v>
       </c>
-      <c r="I58" s="3">
+      <c r="I58" s="1">
         <v>108513</v>
       </c>
-      <c r="J58" s="5">
+      <c r="J58" s="4">
         <v>4</v>
       </c>
-      <c r="K58" s="3"/>
-      <c r="L58" s="3"/>
-      <c r="M58" s="1"/>
-      <c r="N58" s="1"/>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="K58" s="1"/>
+      <c r="L58" s="1"/>
+      <c r="M58" s="2"/>
+      <c r="N58" s="2"/>
+      <c r="O58" s="2"/>
+      <c r="P58" s="2"/>
+      <c r="Q58" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="59">
-      <c r="A59" s="3">
+      <c r="A59" s="1">
         <v>30002</v>
       </c>
-      <c r="B59" s="1" t="str">
+      <c r="B59" s="2" t="str">
         <v>紫电
 参考翻译：Purple Lighting</v>
       </c>
-      <c r="C59" s="3" t="str">
+      <c r="C59" s="1" t="str">
         <v>Item_Name_20002</v>
       </c>
-      <c r="D59" s="3"/>
-      <c r="E59" s="3">
+      <c r="D59" s="1"/>
+      <c r="E59" s="1">
         <v>4399</v>
       </c>
-      <c r="F59" s="1"/>
-      <c r="G59" s="3">
-        <v>0</v>
-      </c>
-      <c r="H59" s="4">
+      <c r="F59" s="2"/>
+      <c r="G59" s="1">
+        <v>0</v>
+      </c>
+      <c r="H59" s="3">
         <v>300</v>
       </c>
-      <c r="I59" s="3">
+      <c r="I59" s="1">
         <v>108511</v>
       </c>
-      <c r="J59" s="5">
+      <c r="J59" s="4">
         <v>4</v>
       </c>
-      <c r="K59" s="3"/>
-      <c r="L59" s="3"/>
-      <c r="M59" s="1"/>
-      <c r="N59" s="1"/>
-      <c r="O59" s="1"/>
-      <c r="P59" s="1"/>
-      <c r="Q59" s="1"/>
+      <c r="K59" s="1"/>
+      <c r="L59" s="1"/>
+      <c r="M59" s="2"/>
+      <c r="N59" s="2"/>
+      <c r="O59" s="2"/>
+      <c r="P59" s="2"/>
+      <c r="Q59" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="60">
-      <c r="A60" s="7">
+      <c r="A60" s="17">
         <v>30003</v>
       </c>
-      <c r="B60" s="8" t="str">
+      <c r="B60" s="18" t="str">
         <v>雷霆
 参考翻译：Lighting</v>
       </c>
-      <c r="C60" s="7" t="str">
+      <c r="C60" s="17" t="str">
         <v>Item_Name_20003</v>
       </c>
-      <c r="D60" s="7"/>
-      <c r="E60" s="7">
+      <c r="D60" s="17"/>
+      <c r="E60" s="17">
         <v>145503</v>
       </c>
-      <c r="F60" s="8"/>
-      <c r="G60" s="7">
-        <v>0</v>
-      </c>
-      <c r="H60" s="9">
+      <c r="F60" s="18"/>
+      <c r="G60" s="17">
+        <v>0</v>
+      </c>
+      <c r="H60" s="20">
         <v>300</v>
       </c>
-      <c r="I60" s="7">
+      <c r="I60" s="17">
         <v>108510</v>
       </c>
-      <c r="J60" s="10">
+      <c r="J60" s="19">
         <v>4</v>
       </c>
-      <c r="K60" s="7"/>
-      <c r="L60" s="7"/>
-      <c r="M60" s="8"/>
-      <c r="N60" s="8"/>
-      <c r="O60" s="8"/>
-      <c r="P60" s="8"/>
-      <c r="Q60" s="8"/>
+      <c r="K60" s="17"/>
+      <c r="L60" s="17"/>
+      <c r="M60" s="18"/>
+      <c r="N60" s="18"/>
+      <c r="O60" s="18"/>
+      <c r="P60" s="18"/>
+      <c r="Q60" s="18"/>
     </row>
     <row customHeight="true" ht="29" r="61">
-      <c r="A61" s="3">
+      <c r="A61" s="1">
         <v>30004</v>
       </c>
-      <c r="B61" s="1" t="str">
+      <c r="B61" s="2" t="str">
         <v>清风
 参考翻译：Wind</v>
       </c>
-      <c r="C61" s="3" t="str">
+      <c r="C61" s="1" t="str">
         <v>Item_Name_20004</v>
       </c>
-      <c r="D61" s="3"/>
-      <c r="E61" s="3">
+      <c r="D61" s="1"/>
+      <c r="E61" s="1">
         <v>88446</v>
       </c>
-      <c r="F61" s="1"/>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
-      <c r="H61" s="4">
+      <c r="F61" s="2"/>
+      <c r="G61" s="1">
+        <v>0</v>
+      </c>
+      <c r="H61" s="3">
         <v>600</v>
       </c>
-      <c r="I61" s="3">
+      <c r="I61" s="1">
         <v>108515</v>
       </c>
-      <c r="J61" s="5">
+      <c r="J61" s="4">
         <v>3</v>
       </c>
-      <c r="K61" s="3"/>
-      <c r="L61" s="3"/>
-      <c r="M61" s="1"/>
-      <c r="N61" s="1"/>
-      <c r="O61" s="1"/>
-      <c r="P61" s="1"/>
-      <c r="Q61" s="1"/>
+      <c r="K61" s="1"/>
+      <c r="L61" s="1"/>
+      <c r="M61" s="2"/>
+      <c r="N61" s="2"/>
+      <c r="O61" s="2"/>
+      <c r="P61" s="2"/>
+      <c r="Q61" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="62">
-      <c r="A62" s="3">
+      <c r="A62" s="1">
         <v>30005</v>
       </c>
-      <c r="B62" s="1" t="str">
+      <c r="B62" s="2" t="str">
         <v>虹彩
 参考翻译：Rainbow</v>
       </c>
-      <c r="C62" s="3" t="str">
+      <c r="C62" s="1" t="str">
         <v>Item_Name_20005</v>
       </c>
-      <c r="D62" s="3"/>
-      <c r="E62" s="3">
+      <c r="D62" s="1"/>
+      <c r="E62" s="1">
         <v>27392</v>
       </c>
-      <c r="F62" s="1"/>
-      <c r="G62" s="3">
-        <v>0</v>
-      </c>
-      <c r="H62" s="4">
+      <c r="F62" s="2"/>
+      <c r="G62" s="1">
+        <v>0</v>
+      </c>
+      <c r="H62" s="3">
         <v>600</v>
       </c>
-      <c r="I62" s="3">
+      <c r="I62" s="1">
         <v>108514</v>
       </c>
-      <c r="J62" s="5">
+      <c r="J62" s="4">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-      <c r="L62" s="3"/>
-      <c r="M62" s="1"/>
-      <c r="N62" s="1"/>
-      <c r="O62" s="1"/>
-      <c r="P62" s="1"/>
-      <c r="Q62" s="1"/>
+      <c r="K62" s="1"/>
+      <c r="L62" s="1"/>
+      <c r="M62" s="2"/>
+      <c r="N62" s="2"/>
+      <c r="O62" s="2"/>
+      <c r="P62" s="2"/>
+      <c r="Q62" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="63">
-      <c r="A63" s="3">
+      <c r="A63" s="1">
         <v>30006</v>
       </c>
-      <c r="B63" s="1" t="str">
+      <c r="B63" s="2" t="str">
         <v>梦幻
 参考翻译：Illusion</v>
       </c>
-      <c r="C63" s="3" t="str">
+      <c r="C63" s="1" t="str">
         <v>Item_Name_20006</v>
       </c>
-      <c r="D63" s="3"/>
-      <c r="E63" s="3">
+      <c r="D63" s="1"/>
+      <c r="E63" s="1">
         <v>88021</v>
       </c>
-      <c r="F63" s="1"/>
-      <c r="G63" s="3">
-        <v>0</v>
-      </c>
-      <c r="H63" s="4">
+      <c r="F63" s="2"/>
+      <c r="G63" s="1">
+        <v>0</v>
+      </c>
+      <c r="H63" s="3">
         <v>800</v>
       </c>
-      <c r="I63" s="3">
+      <c r="I63" s="1">
         <v>108512</v>
       </c>
-      <c r="J63" s="5">
+      <c r="J63" s="4">
         <v>2</v>
       </c>
-      <c r="K63" s="3"/>
-      <c r="L63" s="3"/>
-      <c r="M63" s="1"/>
-      <c r="N63" s="1"/>
-      <c r="O63" s="1"/>
-      <c r="P63" s="1"/>
-      <c r="Q63" s="1"/>
+      <c r="K63" s="1"/>
+      <c r="L63" s="1"/>
+      <c r="M63" s="2"/>
+      <c r="N63" s="2"/>
+      <c r="O63" s="2"/>
+      <c r="P63" s="2"/>
+      <c r="Q63" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="64">
-      <c r="A64" s="7">
+      <c r="A64" s="17">
         <v>30007</v>
       </c>
-      <c r="B64" s="8" t="str">
+      <c r="B64" s="18" t="str">
         <v>火焰</v>
       </c>
-      <c r="C64" s="7" t="str">
+      <c r="C64" s="17" t="str">
         <v>Item_Name_20007</v>
       </c>
-      <c r="D64" s="7"/>
-      <c r="E64" s="7">
+      <c r="D64" s="17"/>
+      <c r="E64" s="17">
         <v>88021</v>
       </c>
-      <c r="F64" s="8"/>
-      <c r="G64" s="3">
-        <v>0</v>
-      </c>
-      <c r="H64" s="9">
+      <c r="F64" s="18"/>
+      <c r="G64" s="1">
+        <v>0</v>
+      </c>
+      <c r="H64" s="20">
         <v>800</v>
       </c>
-      <c r="I64" s="8">
+      <c r="I64" s="18">
         <v>141806</v>
       </c>
-      <c r="J64" s="10">
+      <c r="J64" s="19">
         <v>2</v>
       </c>
-      <c r="K64" s="7"/>
-      <c r="L64" s="7"/>
-      <c r="M64" s="8"/>
-      <c r="N64" s="8"/>
-      <c r="O64" s="8"/>
-      <c r="P64" s="8"/>
-      <c r="Q64" s="8"/>
+      <c r="K64" s="17"/>
+      <c r="L64" s="17"/>
+      <c r="M64" s="18"/>
+      <c r="N64" s="18"/>
+      <c r="O64" s="18"/>
+      <c r="P64" s="18"/>
+      <c r="Q64" s="18"/>
     </row>
     <row customHeight="true" ht="29" r="65">
-      <c r="A65" s="7">
+      <c r="A65" s="17">
         <v>30008</v>
       </c>
-      <c r="B65" s="8" t="str">
+      <c r="B65" s="18" t="str">
         <v>女巫</v>
       </c>
-      <c r="C65" s="7" t="str">
+      <c r="C65" s="17" t="str">
         <v>Item_Name_20008</v>
       </c>
-      <c r="D65" s="7"/>
-      <c r="E65" s="7">
+      <c r="D65" s="17"/>
+      <c r="E65" s="17">
         <v>88441</v>
       </c>
-      <c r="F65" s="8"/>
-      <c r="G65" s="3">
-        <v>0</v>
-      </c>
-      <c r="H65" s="9">
+      <c r="F65" s="18"/>
+      <c r="G65" s="1">
+        <v>0</v>
+      </c>
+      <c r="H65" s="20">
         <v>1200</v>
       </c>
-      <c r="I65" s="8">
+      <c r="I65" s="18">
         <v>141805</v>
       </c>
-      <c r="J65" s="10">
+      <c r="J65" s="19">
         <v>1</v>
       </c>
-      <c r="K65" s="7"/>
-      <c r="L65" s="7"/>
-      <c r="M65" s="8"/>
-      <c r="N65" s="8"/>
-      <c r="O65" s="8"/>
-      <c r="P65" s="8"/>
-      <c r="Q65" s="8"/>
+      <c r="K65" s="17"/>
+      <c r="L65" s="17"/>
+      <c r="M65" s="18"/>
+      <c r="N65" s="18"/>
+      <c r="O65" s="18"/>
+      <c r="P65" s="18"/>
+      <c r="Q65" s="18"/>
     </row>
     <row customHeight="true" ht="29" r="66">
-      <c r="A66" s="7">
+      <c r="A66" s="17">
         <v>30009</v>
       </c>
-      <c r="B66" s="8" t="str">
+      <c r="B66" s="18" t="str">
         <v>骑士</v>
       </c>
-      <c r="C66" s="7" t="str">
+      <c r="C66" s="17" t="str">
         <v>Item_Name_20009</v>
       </c>
-      <c r="D66" s="7"/>
-      <c r="E66" s="7">
+      <c r="D66" s="17"/>
+      <c r="E66" s="17">
         <v>88443</v>
       </c>
-      <c r="F66" s="8"/>
-      <c r="G66" s="3">
-        <v>0</v>
-      </c>
-      <c r="H66" s="9">
+      <c r="F66" s="18"/>
+      <c r="G66" s="1">
+        <v>0</v>
+      </c>
+      <c r="H66" s="20">
         <v>1200</v>
       </c>
-      <c r="I66" s="8">
+      <c r="I66" s="18">
         <v>141802</v>
       </c>
-      <c r="J66" s="10">
+      <c r="J66" s="19">
         <v>1</v>
       </c>
-      <c r="K66" s="7"/>
-      <c r="L66" s="7"/>
-      <c r="M66" s="8"/>
-      <c r="N66" s="8"/>
-      <c r="O66" s="8"/>
-      <c r="P66" s="8"/>
-      <c r="Q66" s="8"/>
+      <c r="K66" s="17"/>
+      <c r="L66" s="17"/>
+      <c r="M66" s="18"/>
+      <c r="N66" s="18"/>
+      <c r="O66" s="18"/>
+      <c r="P66" s="18"/>
+      <c r="Q66" s="18"/>
     </row>
     <row customHeight="true" ht="29" r="67">
-      <c r="A67" s="3">
+      <c r="A67" s="1">
         <v>30010</v>
       </c>
-      <c r="B67" s="1" t="str">
+      <c r="B67" s="2" t="str">
         <v>恶魔</v>
       </c>
-      <c r="C67" s="3" t="str">
+      <c r="C67" s="1" t="str">
         <v>Item_Name_20010</v>
       </c>
-      <c r="D67" s="3"/>
-      <c r="E67" s="3">
+      <c r="D67" s="1"/>
+      <c r="E67" s="1">
         <v>88441</v>
       </c>
-      <c r="F67" s="1"/>
-      <c r="G67" s="3">
-        <v>0</v>
-      </c>
-      <c r="H67" s="4">
+      <c r="F67" s="2"/>
+      <c r="G67" s="1">
+        <v>0</v>
+      </c>
+      <c r="H67" s="3">
         <v>2000</v>
       </c>
-      <c r="I67" s="1">
+      <c r="I67" s="2">
         <v>141804</v>
       </c>
-      <c r="J67" s="5">
-        <v>0</v>
-      </c>
-      <c r="K67" s="3"/>
-      <c r="L67" s="3"/>
-      <c r="M67" s="1"/>
-      <c r="N67" s="1"/>
-      <c r="O67" s="1"/>
-      <c r="P67" s="1"/>
-      <c r="Q67" s="1"/>
+      <c r="J67" s="4">
+        <v>0</v>
+      </c>
+      <c r="K67" s="1"/>
+      <c r="L67" s="1"/>
+      <c r="M67" s="2"/>
+      <c r="N67" s="2"/>
+      <c r="O67" s="2"/>
+      <c r="P67" s="2"/>
+      <c r="Q67" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="68">
-      <c r="A68" s="3">
+      <c r="A68" s="1">
         <v>30011</v>
       </c>
-      <c r="B68" s="1" t="str">
+      <c r="B68" s="2" t="str">
         <v>魔鬼</v>
       </c>
-      <c r="C68" s="3" t="str">
+      <c r="C68" s="1" t="str">
         <v>Item_Name_20011</v>
       </c>
-      <c r="D68" s="3"/>
-      <c r="E68" s="3">
+      <c r="D68" s="1"/>
+      <c r="E68" s="1">
         <v>88442</v>
       </c>
-      <c r="F68" s="1"/>
-      <c r="G68" s="3">
-        <v>0</v>
-      </c>
-      <c r="H68" s="4">
+      <c r="F68" s="2"/>
+      <c r="G68" s="1">
+        <v>0</v>
+      </c>
+      <c r="H68" s="3">
         <v>2000</v>
       </c>
-      <c r="I68" s="1">
+      <c r="I68" s="2">
         <v>141800</v>
       </c>
-      <c r="J68" s="5">
-        <v>0</v>
-      </c>
-      <c r="K68" s="3"/>
-      <c r="L68" s="3"/>
-      <c r="M68" s="1"/>
-      <c r="N68" s="1"/>
-      <c r="O68" s="1"/>
-      <c r="P68" s="1"/>
-      <c r="Q68" s="1"/>
+      <c r="J68" s="4">
+        <v>0</v>
+      </c>
+      <c r="K68" s="1"/>
+      <c r="L68" s="1"/>
+      <c r="M68" s="2"/>
+      <c r="N68" s="2"/>
+      <c r="O68" s="2"/>
+      <c r="P68" s="2"/>
+      <c r="Q68" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="69">
-      <c r="A69" s="3">
+      <c r="A69" s="1">
         <v>30012</v>
       </c>
-      <c r="B69" s="1" t="str">
+      <c r="B69" s="2" t="str">
         <v>土豪来啦</v>
       </c>
-      <c r="C69" s="3" t="str">
+      <c r="C69" s="1" t="str">
         <v>Item_Name_20012</v>
       </c>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3">
+      <c r="D69" s="1"/>
+      <c r="E69" s="1">
         <v>145510</v>
       </c>
-      <c r="F69" s="1"/>
-      <c r="G69" s="3">
-        <v>0</v>
-      </c>
-      <c r="H69" s="3">
+      <c r="F69" s="2"/>
+      <c r="G69" s="1">
+        <v>0</v>
+      </c>
+      <c r="H69" s="1">
         <v>5000</v>
       </c>
-      <c r="I69" s="1">
+      <c r="I69" s="2">
         <v>148829</v>
       </c>
-      <c r="J69" s="5">
-        <v>0</v>
-      </c>
-      <c r="K69" s="3"/>
-      <c r="L69" s="3"/>
-      <c r="M69" s="1"/>
-      <c r="N69" s="1"/>
-      <c r="O69" s="1"/>
-      <c r="P69" s="1"/>
-      <c r="Q69" s="1"/>
+      <c r="J69" s="4">
+        <v>0</v>
+      </c>
+      <c r="K69" s="1"/>
+      <c r="L69" s="1"/>
+      <c r="M69" s="2"/>
+      <c r="N69" s="2"/>
+      <c r="O69" s="2"/>
+      <c r="P69" s="2"/>
+      <c r="Q69" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="70">
-      <c r="A70" s="3">
+      <c r="A70" s="1">
         <v>30013</v>
       </c>
-      <c r="B70" s="1" t="str">
+      <c r="B70" s="2" t="str">
         <v>烟花拖尾</v>
       </c>
-      <c r="C70" s="3" t="str">
+      <c r="C70" s="1" t="str">
         <v>Item_Name_20013</v>
       </c>
-      <c r="D70" s="3"/>
-      <c r="E70" s="3">
+      <c r="D70" s="1"/>
+      <c r="E70" s="1">
         <v>145508</v>
       </c>
-      <c r="F70" s="1"/>
-      <c r="G70" s="3">
+      <c r="F70" s="2"/>
+      <c r="G70" s="1">
         <v>5</v>
       </c>
-      <c r="H70" s="3">
+      <c r="H70" s="1">
         <v>50</v>
       </c>
-      <c r="I70" s="1" t="str">
+      <c r="I70" s="2" t="str">
         <v>mode_145508</v>
       </c>
-      <c r="J70" s="1">
-        <v>0</v>
-      </c>
-      <c r="K70" s="3"/>
-      <c r="L70" s="3"/>
-      <c r="M70" s="1"/>
-      <c r="N70" s="1"/>
-      <c r="O70" s="1"/>
-      <c r="P70" s="1"/>
-      <c r="Q70" s="1"/>
+      <c r="J70" s="2">
+        <v>0</v>
+      </c>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="2"/>
+      <c r="N70" s="2"/>
+      <c r="O70" s="2"/>
+      <c r="P70" s="2"/>
+      <c r="Q70" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="71">
-      <c r="A71" s="3">
+      <c r="A71" s="1">
         <v>30014</v>
       </c>
-      <c r="B71" s="1" t="str">
+      <c r="B71" s="2" t="str">
         <v>爆竹拖尾</v>
       </c>
-      <c r="C71" s="3" t="str">
+      <c r="C71" s="1" t="str">
         <v>Item_Name_20014</v>
       </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3">
+      <c r="D71" s="1"/>
+      <c r="E71" s="1">
         <v>145507</v>
       </c>
-      <c r="F71" s="1"/>
-      <c r="G71" s="3">
+      <c r="F71" s="2"/>
+      <c r="G71" s="1">
         <v>5</v>
       </c>
-      <c r="H71" s="3">
+      <c r="H71" s="1">
         <v>50</v>
       </c>
-      <c r="I71" s="1" t="str">
+      <c r="I71" s="2" t="str">
         <v>mode_145507</v>
       </c>
-      <c r="J71" s="1">
-        <v>0</v>
-      </c>
-      <c r="K71" s="3"/>
-      <c r="L71" s="3"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
+      <c r="J71" s="2">
+        <v>0</v>
+      </c>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="72">
-      <c r="A72" s="3">
+      <c r="A72" s="1">
         <v>30015</v>
       </c>
-      <c r="B72" s="1" t="str">
+      <c r="B72" s="2" t="str">
         <v>礼物拖尾</v>
       </c>
-      <c r="C72" s="3" t="str">
+      <c r="C72" s="1" t="str">
         <v>Item_Name_20015</v>
       </c>
-      <c r="D72" s="3"/>
-      <c r="E72" s="3">
+      <c r="D72" s="1"/>
+      <c r="E72" s="1">
         <v>145509</v>
       </c>
-      <c r="F72" s="1"/>
-      <c r="G72" s="3">
+      <c r="F72" s="2"/>
+      <c r="G72" s="1">
         <v>5</v>
       </c>
-      <c r="H72" s="3">
+      <c r="H72" s="1">
         <v>50</v>
       </c>
-      <c r="I72" s="1" t="str">
+      <c r="I72" s="2" t="str">
         <v>mode_145509</v>
       </c>
-      <c r="J72" s="1">
-        <v>0</v>
-      </c>
-      <c r="K72" s="3"/>
-      <c r="L72" s="3"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
+      <c r="J72" s="2">
+        <v>0</v>
+      </c>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="2"/>
+      <c r="N72" s="2"/>
+      <c r="O72" s="2"/>
+      <c r="P72" s="2"/>
+      <c r="Q72" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="73">
-      <c r="A73" s="3">
+      <c r="A73" s="1">
         <v>30016</v>
       </c>
-      <c r="B73" s="1" t="str">
+      <c r="B73" s="2" t="str">
         <v>糖果拖尾</v>
       </c>
-      <c r="C73" s="3" t="str">
+      <c r="C73" s="1" t="str">
         <v>Item_Name_20016</v>
       </c>
-      <c r="D73" s="3"/>
-      <c r="E73" s="3">
+      <c r="D73" s="1"/>
+      <c r="E73" s="1">
         <v>145495</v>
       </c>
-      <c r="F73" s="1"/>
-      <c r="G73" s="3">
+      <c r="F73" s="2"/>
+      <c r="G73" s="1">
         <v>5</v>
       </c>
-      <c r="H73" s="3">
+      <c r="H73" s="1">
         <v>50</v>
       </c>
-      <c r="I73" s="1" t="str">
+      <c r="I73" s="2" t="str">
         <v>mode_145495</v>
       </c>
-      <c r="J73" s="1">
-        <v>0</v>
-      </c>
-      <c r="K73" s="3"/>
-      <c r="L73" s="3"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
+      <c r="J73" s="2">
+        <v>0</v>
+      </c>
+      <c r="K73" s="1"/>
+      <c r="L73" s="1"/>
+      <c r="M73" s="2"/>
+      <c r="N73" s="2"/>
+      <c r="O73" s="2"/>
+      <c r="P73" s="2"/>
+      <c r="Q73" s="2"/>
     </row>
     <row customHeight="true" ht="29" r="74">
-      <c r="A74" s="3">
+      <c r="A74" s="1">
         <v>30017</v>
       </c>
-      <c r="B74" s="1" t="str">
+      <c r="B74" s="2" t="str">
         <v>便便拖尾</v>
       </c>
-      <c r="C74" s="3" t="str">
+      <c r="C74" s="1" t="str">
         <v>Item_Name_20017</v>
       </c>
-      <c r="D74" s="3"/>
-      <c r="E74" s="3">
+      <c r="D74" s="1"/>
+      <c r="E74" s="1">
         <v>186344</v>
       </c>
-      <c r="F74" s="1"/>
-      <c r="G74" s="3">
+      <c r="F74" s="2"/>
+      <c r="G74" s="1">
         <v>5</v>
       </c>
-      <c r="H74" s="3">
+      <c r="H74" s="1">
         <v>50</v>
       </c>
-      <c r="I74" s="1" t="str">
+      <c r="I74" s="2" t="str">
         <v>mode_186344</v>
       </c>
-      <c r="J74" s="1">
-        <v>0</v>
-      </c>
-      <c r="K74" s="3"/>
-      <c r="L74" s="3"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
+      <c r="J74" s="2">
+        <v>0</v>
+      </c>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="2"/>
+      <c r="N74" s="2"/>
+      <c r="O74" s="2"/>
+      <c r="P74" s="2"/>
+      <c r="Q74" s="2"/>
     </row>
     <row customHeight="true" ht="27" r="75">
       <c r="A75" s="11">
@@ -3701,1028 +3701,1028 @@
       <c r="H75" s="11">
         <v>5</v>
       </c>
-      <c r="I75" s="23"/>
-      <c r="J75" s="17"/>
-      <c r="K75" s="17"/>
-      <c r="L75" s="17"/>
+      <c r="I75" s="21"/>
+      <c r="J75" s="16"/>
+      <c r="K75" s="16"/>
+      <c r="L75" s="16"/>
       <c r="M75" s="12"/>
       <c r="N75" s="12"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
-      <c r="Q75" s="17"/>
+      <c r="Q75" s="16"/>
     </row>
     <row customHeight="true" ht="27" r="76">
-      <c r="A76" s="3">
+      <c r="A76" s="1">
         <v>40001</v>
       </c>
-      <c r="B76" s="1" t="str">
+      <c r="B76" s="2" t="str">
         <v>温柔学姐</v>
       </c>
-      <c r="C76" s="3" t="str">
+      <c r="C76" s="1" t="str">
         <v>Item_Name_30001</v>
       </c>
-      <c r="D76" s="3"/>
-      <c r="E76" s="3"/>
-      <c r="F76" s="1"/>
-      <c r="G76" s="3">
-        <v>0</v>
-      </c>
-      <c r="H76" s="3">
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="1">
+        <v>0</v>
+      </c>
+      <c r="H76" s="1">
         <v>100</v>
       </c>
-      <c r="I76" s="3">
+      <c r="I76" s="1">
         <v>86337</v>
       </c>
-      <c r="J76" s="2">
+      <c r="J76" s="5">
         <v>4</v>
       </c>
-      <c r="K76" s="2"/>
-      <c r="L76" s="2"/>
-      <c r="M76" s="2"/>
-      <c r="N76" s="1"/>
-      <c r="O76" s="3"/>
-      <c r="P76" s="1"/>
-      <c r="Q76" s="1">
+      <c r="K76" s="5"/>
+      <c r="L76" s="5"/>
+      <c r="M76" s="5"/>
+      <c r="N76" s="2"/>
+      <c r="O76" s="1"/>
+      <c r="P76" s="2"/>
+      <c r="Q76" s="2">
         <v>10001</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="77">
-      <c r="A77" s="3">
+      <c r="A77" s="1">
         <v>40002</v>
       </c>
-      <c r="B77" s="1" t="str">
+      <c r="B77" s="2" t="str">
         <v>风纪委员</v>
       </c>
-      <c r="C77" s="3" t="str">
+      <c r="C77" s="1" t="str">
         <v>Item_Name_30002</v>
       </c>
-      <c r="D77" s="3"/>
-      <c r="E77" s="3"/>
-      <c r="F77" s="1"/>
-      <c r="G77" s="3">
-        <v>0</v>
-      </c>
-      <c r="H77" s="3">
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
+      <c r="F77" s="2"/>
+      <c r="G77" s="1">
+        <v>0</v>
+      </c>
+      <c r="H77" s="1">
         <v>100</v>
       </c>
-      <c r="I77" s="3">
+      <c r="I77" s="1">
         <v>86335</v>
       </c>
-      <c r="J77" s="2">
+      <c r="J77" s="5">
         <v>4</v>
       </c>
-      <c r="K77" s="2"/>
-      <c r="L77" s="2"/>
-      <c r="M77" s="2"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="3"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1">
+      <c r="K77" s="5"/>
+      <c r="L77" s="5"/>
+      <c r="M77" s="5"/>
+      <c r="N77" s="2"/>
+      <c r="O77" s="1"/>
+      <c r="P77" s="2"/>
+      <c r="Q77" s="2">
         <v>10002</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="78">
-      <c r="A78" s="3">
+      <c r="A78" s="1">
         <v>40003</v>
       </c>
-      <c r="B78" s="1" t="str">
+      <c r="B78" s="2" t="str">
         <v>不良少女</v>
       </c>
-      <c r="C78" s="3" t="str">
+      <c r="C78" s="1" t="str">
         <v>Item_Name_30003</v>
       </c>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-      <c r="F78" s="1"/>
-      <c r="G78" s="3">
-        <v>0</v>
-      </c>
-      <c r="H78" s="3">
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
+      <c r="F78" s="2"/>
+      <c r="G78" s="1">
+        <v>0</v>
+      </c>
+      <c r="H78" s="1">
         <v>100</v>
       </c>
-      <c r="I78" s="3">
+      <c r="I78" s="1">
         <v>86333</v>
       </c>
-      <c r="J78" s="2">
+      <c r="J78" s="5">
         <v>4</v>
       </c>
-      <c r="K78" s="2"/>
-      <c r="L78" s="2"/>
-      <c r="M78" s="2"/>
-      <c r="N78" s="1"/>
-      <c r="O78" s="3"/>
-      <c r="P78" s="1"/>
-      <c r="Q78" s="1">
+      <c r="K78" s="5"/>
+      <c r="L78" s="5"/>
+      <c r="M78" s="5"/>
+      <c r="N78" s="2"/>
+      <c r="O78" s="1"/>
+      <c r="P78" s="2"/>
+      <c r="Q78" s="2">
         <v>20001</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="79">
-      <c r="A79" s="3">
+      <c r="A79" s="1">
         <v>40004</v>
       </c>
-      <c r="B79" s="1" t="str">
+      <c r="B79" s="2" t="str">
         <v>韩式淑女</v>
       </c>
-      <c r="C79" s="3" t="str">
+      <c r="C79" s="1" t="str">
         <v>Item_Name_30004</v>
       </c>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-      <c r="F79" s="1"/>
-      <c r="G79" s="3">
-        <v>0</v>
-      </c>
-      <c r="H79" s="3">
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
+      <c r="F79" s="2"/>
+      <c r="G79" s="1">
+        <v>0</v>
+      </c>
+      <c r="H79" s="1">
         <v>100</v>
       </c>
-      <c r="I79" s="3">
+      <c r="I79" s="1">
         <v>86334</v>
       </c>
-      <c r="J79" s="2">
+      <c r="J79" s="5">
         <v>4</v>
       </c>
-      <c r="K79" s="2"/>
-      <c r="L79" s="2"/>
-      <c r="M79" s="2"/>
-      <c r="N79" s="1"/>
-      <c r="O79" s="3"/>
-      <c r="P79" s="1"/>
-      <c r="Q79" s="1">
+      <c r="K79" s="5"/>
+      <c r="L79" s="5"/>
+      <c r="M79" s="5"/>
+      <c r="N79" s="2"/>
+      <c r="O79" s="1"/>
+      <c r="P79" s="2"/>
+      <c r="Q79" s="2">
         <v>20002</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="80">
-      <c r="A80" s="3">
+      <c r="A80" s="1">
         <v>40005</v>
       </c>
-      <c r="B80" s="1" t="str">
+      <c r="B80" s="2" t="str">
         <v>可爱学妹</v>
       </c>
-      <c r="C80" s="3" t="str">
+      <c r="C80" s="1" t="str">
         <v>Item_Name_30005</v>
       </c>
-      <c r="D80" s="3"/>
-      <c r="E80" s="3"/>
-      <c r="F80" s="1"/>
-      <c r="G80" s="3">
-        <v>0</v>
-      </c>
-      <c r="H80" s="3">
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
+      <c r="F80" s="2"/>
+      <c r="G80" s="1">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1">
         <v>100</v>
       </c>
-      <c r="I80" s="3">
+      <c r="I80" s="1">
         <v>94181</v>
       </c>
-      <c r="J80" s="2">
+      <c r="J80" s="5">
         <v>4</v>
       </c>
-      <c r="K80" s="2"/>
-      <c r="L80" s="2"/>
-      <c r="M80" s="2"/>
-      <c r="N80" s="1"/>
-      <c r="O80" s="3"/>
-      <c r="P80" s="1"/>
-      <c r="Q80" s="1">
+      <c r="K80" s="5"/>
+      <c r="L80" s="5"/>
+      <c r="M80" s="5"/>
+      <c r="N80" s="2"/>
+      <c r="O80" s="1"/>
+      <c r="P80" s="2"/>
+      <c r="Q80" s="2">
         <v>30001</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="81">
-      <c r="A81" s="3">
+      <c r="A81" s="1">
         <v>40006</v>
       </c>
-      <c r="B81" s="1" t="str">
+      <c r="B81" s="2" t="str">
         <v>奇幻少女</v>
       </c>
-      <c r="C81" s="3" t="str">
+      <c r="C81" s="1" t="str">
         <v>Item_Name_30006</v>
       </c>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-      <c r="F81" s="1"/>
-      <c r="G81" s="3">
-        <v>0</v>
-      </c>
-      <c r="H81" s="3">
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="1">
+        <v>0</v>
+      </c>
+      <c r="H81" s="1">
         <v>100</v>
       </c>
-      <c r="I81" s="3">
+      <c r="I81" s="1">
         <v>94180</v>
       </c>
-      <c r="J81" s="2">
+      <c r="J81" s="5">
         <v>4</v>
       </c>
-      <c r="K81" s="2"/>
-      <c r="L81" s="2"/>
-      <c r="M81" s="2"/>
-      <c r="N81" s="1"/>
-      <c r="O81" s="3"/>
-      <c r="P81" s="1"/>
-      <c r="Q81" s="1">
+      <c r="K81" s="5"/>
+      <c r="L81" s="5"/>
+      <c r="M81" s="5"/>
+      <c r="N81" s="2"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="2"/>
+      <c r="Q81" s="2">
         <v>30002</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="82">
-      <c r="A82" s="3">
+      <c r="A82" s="1">
         <v>40007</v>
       </c>
-      <c r="B82" s="1" t="str">
+      <c r="B82" s="2" t="str">
         <v>温柔学长</v>
       </c>
-      <c r="C82" s="3" t="str">
+      <c r="C82" s="1" t="str">
         <v>Item_Name_30007</v>
       </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" s="1"/>
-      <c r="G82" s="3">
-        <v>0</v>
-      </c>
-      <c r="H82" s="3">
+      <c r="D82" s="1"/>
+      <c r="E82" s="1"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="1">
+        <v>0</v>
+      </c>
+      <c r="H82" s="1">
         <v>100</v>
       </c>
-      <c r="I82" s="3">
+      <c r="I82" s="1">
         <v>94184</v>
       </c>
-      <c r="J82" s="2">
+      <c r="J82" s="5">
         <v>4</v>
       </c>
-      <c r="K82" s="2"/>
-      <c r="L82" s="2"/>
-      <c r="M82" s="2"/>
-      <c r="N82" s="1"/>
-      <c r="O82" s="3"/>
-      <c r="P82" s="1"/>
-      <c r="Q82" s="1">
+      <c r="K82" s="5"/>
+      <c r="L82" s="5"/>
+      <c r="M82" s="5"/>
+      <c r="N82" s="2"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="2"/>
+      <c r="Q82" s="2">
         <v>30003</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="83">
-      <c r="A83" s="3">
+      <c r="A83" s="1">
         <v>40008</v>
       </c>
-      <c r="B83" s="1" t="str">
+      <c r="B83" s="2" t="str">
         <v>不良少年</v>
       </c>
-      <c r="C83" s="3" t="str">
+      <c r="C83" s="1" t="str">
         <v>Item_Name_30008</v>
       </c>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-      <c r="F83" s="1"/>
-      <c r="G83" s="3">
-        <v>0</v>
-      </c>
-      <c r="H83" s="3">
+      <c r="D83" s="1"/>
+      <c r="E83" s="1"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="1">
+        <v>0</v>
+      </c>
+      <c r="H83" s="1">
         <v>100</v>
       </c>
-      <c r="I83" s="3">
+      <c r="I83" s="1">
         <v>94182</v>
       </c>
-      <c r="J83" s="2">
+      <c r="J83" s="5">
         <v>4</v>
       </c>
-      <c r="K83" s="2"/>
-      <c r="L83" s="2"/>
-      <c r="M83" s="2"/>
-      <c r="N83" s="1"/>
-      <c r="O83" s="3"/>
-      <c r="P83" s="1"/>
-      <c r="Q83" s="1">
+      <c r="K83" s="5"/>
+      <c r="L83" s="5"/>
+      <c r="M83" s="5"/>
+      <c r="N83" s="2"/>
+      <c r="O83" s="1"/>
+      <c r="P83" s="2"/>
+      <c r="Q83" s="2">
         <v>30004</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="84">
-      <c r="A84" s="3">
+      <c r="A84" s="1">
         <v>40009</v>
       </c>
-      <c r="B84" s="3" t="str">
+      <c r="B84" s="1" t="str">
         <v>啦啦队长</v>
       </c>
-      <c r="C84" s="3" t="str">
+      <c r="C84" s="1" t="str">
         <v>Item_Name_30009</v>
       </c>
-      <c r="D84" s="3"/>
-      <c r="E84" s="3"/>
-      <c r="F84" s="1"/>
-      <c r="G84" s="3">
-        <v>0</v>
-      </c>
-      <c r="H84" s="3">
+      <c r="D84" s="1"/>
+      <c r="E84" s="1"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="1">
+        <v>0</v>
+      </c>
+      <c r="H84" s="1">
         <v>100</v>
       </c>
-      <c r="I84" s="3">
+      <c r="I84" s="1">
         <v>110493</v>
       </c>
-      <c r="J84" s="2">
+      <c r="J84" s="5">
         <v>4</v>
       </c>
-      <c r="K84" s="2"/>
-      <c r="L84" s="2"/>
-      <c r="M84" s="2"/>
-      <c r="N84" s="1"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="1"/>
-      <c r="Q84" s="1">
+      <c r="K84" s="5"/>
+      <c r="L84" s="5"/>
+      <c r="M84" s="5"/>
+      <c r="N84" s="2"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="2"/>
+      <c r="Q84" s="2">
         <v>30009</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="85">
-      <c r="A85" s="3">
+      <c r="A85" s="1">
         <v>40010</v>
       </c>
-      <c r="B85" s="3" t="str">
+      <c r="B85" s="1" t="str">
         <v>艺术生</v>
       </c>
-      <c r="C85" s="3" t="str">
+      <c r="C85" s="1" t="str">
         <v>Item_Name_30010</v>
       </c>
-      <c r="D85" s="3"/>
-      <c r="E85" s="3"/>
-      <c r="F85" s="1"/>
-      <c r="G85" s="3">
-        <v>0</v>
-      </c>
-      <c r="H85" s="3">
+      <c r="D85" s="1"/>
+      <c r="E85" s="1"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="1">
+        <v>0</v>
+      </c>
+      <c r="H85" s="1">
         <v>100</v>
       </c>
-      <c r="I85" s="3">
+      <c r="I85" s="1">
         <v>110508</v>
       </c>
-      <c r="J85" s="2">
+      <c r="J85" s="5">
         <v>4</v>
       </c>
-      <c r="K85" s="2"/>
-      <c r="L85" s="2"/>
-      <c r="M85" s="2"/>
-      <c r="N85" s="1"/>
-      <c r="O85" s="3"/>
-      <c r="P85" s="1"/>
-      <c r="Q85" s="1">
+      <c r="K85" s="5"/>
+      <c r="L85" s="5"/>
+      <c r="M85" s="5"/>
+      <c r="N85" s="2"/>
+      <c r="O85" s="1"/>
+      <c r="P85" s="2"/>
+      <c r="Q85" s="2">
         <v>30010</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="86">
-      <c r="A86" s="3">
+      <c r="A86" s="1">
         <v>40011</v>
       </c>
-      <c r="B86" s="3" t="str">
+      <c r="B86" s="1" t="str">
         <v>二次元少女</v>
       </c>
-      <c r="C86" s="3" t="str">
+      <c r="C86" s="1" t="str">
         <v>Item_Name_30011</v>
       </c>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-      <c r="F86" s="1"/>
-      <c r="G86" s="3">
-        <v>0</v>
-      </c>
-      <c r="H86" s="3">
+      <c r="D86" s="1"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="1">
+        <v>0</v>
+      </c>
+      <c r="H86" s="1">
         <v>100</v>
       </c>
-      <c r="I86" s="3">
+      <c r="I86" s="1">
         <v>110522</v>
       </c>
-      <c r="J86" s="2">
+      <c r="J86" s="5">
         <v>4</v>
       </c>
-      <c r="K86" s="2"/>
-      <c r="L86" s="2"/>
-      <c r="M86" s="2"/>
-      <c r="N86" s="1"/>
-      <c r="O86" s="3"/>
-      <c r="P86" s="1"/>
-      <c r="Q86" s="1">
+      <c r="K86" s="5"/>
+      <c r="L86" s="5"/>
+      <c r="M86" s="5"/>
+      <c r="N86" s="2"/>
+      <c r="O86" s="1"/>
+      <c r="P86" s="2"/>
+      <c r="Q86" s="2">
         <v>30011</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="87">
-      <c r="A87" s="3">
+      <c r="A87" s="1">
         <v>40012</v>
       </c>
-      <c r="B87" s="3" t="str">
+      <c r="B87" s="1" t="str">
         <v>英语老师</v>
       </c>
-      <c r="C87" s="3" t="str">
+      <c r="C87" s="1" t="str">
         <v>Item_Name_30012</v>
       </c>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-      <c r="F87" s="1"/>
-      <c r="G87" s="3">
-        <v>0</v>
-      </c>
-      <c r="H87" s="3">
+      <c r="D87" s="1"/>
+      <c r="E87" s="1"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="1">
+        <v>0</v>
+      </c>
+      <c r="H87" s="1">
         <v>100</v>
       </c>
-      <c r="I87" s="3">
+      <c r="I87" s="1">
         <v>110490</v>
       </c>
-      <c r="J87" s="2">
+      <c r="J87" s="5">
         <v>4</v>
       </c>
-      <c r="K87" s="2"/>
-      <c r="L87" s="2"/>
-      <c r="M87" s="2"/>
-      <c r="N87" s="1"/>
-      <c r="O87" s="3"/>
-      <c r="P87" s="1"/>
-      <c r="Q87" s="1">
+      <c r="K87" s="5"/>
+      <c r="L87" s="5"/>
+      <c r="M87" s="5"/>
+      <c r="N87" s="2"/>
+      <c r="O87" s="1"/>
+      <c r="P87" s="2"/>
+      <c r="Q87" s="2">
         <v>30012</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="88">
-      <c r="A88" s="3">
+      <c r="A88" s="1">
         <v>40013</v>
       </c>
-      <c r="B88" s="3" t="str">
+      <c r="B88" s="1" t="str">
         <v>正义少年</v>
       </c>
-      <c r="C88" s="3" t="str">
+      <c r="C88" s="1" t="str">
         <v>Item_Name_30013</v>
       </c>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-      <c r="F88" s="1"/>
-      <c r="G88" s="3">
-        <v>0</v>
-      </c>
-      <c r="H88" s="3">
+      <c r="D88" s="1"/>
+      <c r="E88" s="1"/>
+      <c r="F88" s="2"/>
+      <c r="G88" s="1">
+        <v>0</v>
+      </c>
+      <c r="H88" s="1">
         <v>100</v>
       </c>
-      <c r="I88" s="3">
+      <c r="I88" s="1">
         <v>110500</v>
       </c>
-      <c r="J88" s="2">
+      <c r="J88" s="5">
         <v>4</v>
       </c>
-      <c r="K88" s="2"/>
-      <c r="L88" s="2"/>
-      <c r="M88" s="2"/>
-      <c r="N88" s="1"/>
-      <c r="O88" s="3"/>
-      <c r="P88" s="1"/>
-      <c r="Q88" s="1">
+      <c r="K88" s="5"/>
+      <c r="L88" s="5"/>
+      <c r="M88" s="5"/>
+      <c r="N88" s="2"/>
+      <c r="O88" s="1"/>
+      <c r="P88" s="2"/>
+      <c r="Q88" s="2">
         <v>30013</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="89">
-      <c r="A89" s="3">
+      <c r="A89" s="1">
         <v>40014</v>
       </c>
-      <c r="B89" s="3" t="str">
+      <c r="B89" s="1" t="str">
         <v>潮流少女</v>
       </c>
-      <c r="C89" s="3" t="str">
+      <c r="C89" s="1" t="str">
         <v>Item_Name_30014</v>
       </c>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-      <c r="F89" s="1"/>
-      <c r="G89" s="3">
-        <v>0</v>
-      </c>
-      <c r="H89" s="3">
+      <c r="D89" s="1"/>
+      <c r="E89" s="1"/>
+      <c r="F89" s="2"/>
+      <c r="G89" s="1">
+        <v>0</v>
+      </c>
+      <c r="H89" s="1">
         <v>100</v>
       </c>
-      <c r="I89" s="3">
+      <c r="I89" s="1">
         <v>110498</v>
       </c>
-      <c r="J89" s="2">
+      <c r="J89" s="5">
         <v>4</v>
       </c>
-      <c r="K89" s="2"/>
-      <c r="L89" s="2"/>
-      <c r="M89" s="2"/>
-      <c r="N89" s="1"/>
-      <c r="O89" s="3"/>
-      <c r="P89" s="1"/>
-      <c r="Q89" s="1">
+      <c r="K89" s="5"/>
+      <c r="L89" s="5"/>
+      <c r="M89" s="5"/>
+      <c r="N89" s="2"/>
+      <c r="O89" s="1"/>
+      <c r="P89" s="2"/>
+      <c r="Q89" s="2">
         <v>30014</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="90">
-      <c r="A90" s="3">
+      <c r="A90" s="1">
         <v>40015</v>
       </c>
-      <c r="B90" s="1" t="str">
+      <c r="B90" s="2" t="str">
         <v>学生会长</v>
       </c>
-      <c r="C90" s="3" t="str">
+      <c r="C90" s="1" t="str">
         <v>Item_Name_30015</v>
       </c>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-      <c r="F90" s="1"/>
-      <c r="G90" s="3">
-        <v>0</v>
-      </c>
-      <c r="H90" s="3">
+      <c r="D90" s="1"/>
+      <c r="E90" s="1"/>
+      <c r="F90" s="2"/>
+      <c r="G90" s="1">
+        <v>0</v>
+      </c>
+      <c r="H90" s="1">
         <v>100</v>
       </c>
-      <c r="I90" s="1">
+      <c r="I90" s="2">
         <v>141795</v>
       </c>
-      <c r="J90" s="2">
+      <c r="J90" s="5">
         <v>4</v>
       </c>
-      <c r="K90" s="2"/>
-      <c r="L90" s="2"/>
-      <c r="M90" s="2"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="3"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1">
+      <c r="K90" s="5"/>
+      <c r="L90" s="5"/>
+      <c r="M90" s="5"/>
+      <c r="N90" s="2"/>
+      <c r="O90" s="1"/>
+      <c r="P90" s="2"/>
+      <c r="Q90" s="2">
         <v>30015</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="91">
-      <c r="A91" s="3">
+      <c r="A91" s="1">
         <v>40016</v>
       </c>
-      <c r="B91" s="1" t="str">
+      <c r="B91" s="2" t="str">
         <v>女老师</v>
       </c>
-      <c r="C91" s="3" t="str">
+      <c r="C91" s="1" t="str">
         <v>Item_Name_30016</v>
       </c>
-      <c r="D91" s="3"/>
-      <c r="E91" s="3"/>
-      <c r="F91" s="1"/>
-      <c r="G91" s="3">
-        <v>0</v>
-      </c>
-      <c r="H91" s="3">
+      <c r="D91" s="1"/>
+      <c r="E91" s="1"/>
+      <c r="F91" s="2"/>
+      <c r="G91" s="1">
+        <v>0</v>
+      </c>
+      <c r="H91" s="1">
         <v>200</v>
       </c>
-      <c r="I91" s="1">
+      <c r="I91" s="2">
         <v>141819</v>
       </c>
-      <c r="J91" s="2">
+      <c r="J91" s="5">
         <v>3</v>
       </c>
-      <c r="K91" s="2"/>
-      <c r="L91" s="2"/>
-      <c r="M91" s="2"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="3"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1">
+      <c r="K91" s="5"/>
+      <c r="L91" s="5"/>
+      <c r="M91" s="5"/>
+      <c r="N91" s="2"/>
+      <c r="O91" s="1"/>
+      <c r="P91" s="2"/>
+      <c r="Q91" s="2">
         <v>30016</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="92">
-      <c r="A92" s="3">
+      <c r="A92" s="1">
         <v>40017</v>
       </c>
-      <c r="B92" s="1" t="str">
+      <c r="B92" s="2" t="str">
         <v>班主任</v>
       </c>
-      <c r="C92" s="3" t="str">
+      <c r="C92" s="1" t="str">
         <v>Item_Name_30017</v>
       </c>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-      <c r="F92" s="1"/>
-      <c r="G92" s="3">
-        <v>0</v>
-      </c>
-      <c r="H92" s="3">
+      <c r="D92" s="1"/>
+      <c r="E92" s="1"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="1">
+        <v>0</v>
+      </c>
+      <c r="H92" s="1">
         <v>200</v>
       </c>
-      <c r="I92" s="1">
+      <c r="I92" s="2">
         <v>141810</v>
       </c>
-      <c r="J92" s="2">
+      <c r="J92" s="5">
         <v>3</v>
       </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2"/>
-      <c r="M92" s="2"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="3"/>
-      <c r="P92" s="1"/>
-      <c r="Q92" s="1">
+      <c r="K92" s="5"/>
+      <c r="L92" s="5"/>
+      <c r="M92" s="5"/>
+      <c r="N92" s="2"/>
+      <c r="O92" s="1"/>
+      <c r="P92" s="2"/>
+      <c r="Q92" s="2">
         <v>30017</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="93">
-      <c r="A93" s="3">
+      <c r="A93" s="1">
         <v>40018</v>
       </c>
-      <c r="B93" s="1" t="str">
+      <c r="B93" s="2" t="str">
         <v>海边姐姐</v>
       </c>
-      <c r="C93" s="3" t="str">
+      <c r="C93" s="1" t="str">
         <v>Item_Name_30018</v>
       </c>
-      <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
-      <c r="F93" s="1"/>
-      <c r="G93" s="3">
-        <v>0</v>
-      </c>
-      <c r="H93" s="3">
+      <c r="D93" s="1"/>
+      <c r="E93" s="1"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="1">
+        <v>0</v>
+      </c>
+      <c r="H93" s="1">
         <v>200</v>
       </c>
-      <c r="I93" s="1">
+      <c r="I93" s="2">
         <v>141798</v>
       </c>
-      <c r="J93" s="2">
+      <c r="J93" s="5">
         <v>3</v>
       </c>
-      <c r="K93" s="2"/>
-      <c r="L93" s="2"/>
-      <c r="M93" s="2"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="3"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1">
+      <c r="K93" s="5"/>
+      <c r="L93" s="5"/>
+      <c r="M93" s="5"/>
+      <c r="N93" s="2"/>
+      <c r="O93" s="1"/>
+      <c r="P93" s="2"/>
+      <c r="Q93" s="2">
         <v>30018</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="94">
-      <c r="A94" s="3">
+      <c r="A94" s="1">
         <v>40019</v>
       </c>
-      <c r="B94" s="1" t="str">
+      <c r="B94" s="2" t="str">
         <v>邻家妹妹</v>
       </c>
-      <c r="C94" s="3" t="str">
+      <c r="C94" s="1" t="str">
         <v>Item_Name_30019</v>
       </c>
-      <c r="D94" s="3"/>
-      <c r="E94" s="3"/>
-      <c r="F94" s="1"/>
-      <c r="G94" s="3">
-        <v>0</v>
-      </c>
-      <c r="H94" s="3">
+      <c r="D94" s="1"/>
+      <c r="E94" s="1"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="1">
+        <v>0</v>
+      </c>
+      <c r="H94" s="1">
         <v>300</v>
       </c>
-      <c r="I94" s="1">
+      <c r="I94" s="2">
         <v>141787</v>
       </c>
-      <c r="J94" s="2">
+      <c r="J94" s="5">
         <v>2</v>
       </c>
-      <c r="K94" s="2"/>
-      <c r="L94" s="2"/>
-      <c r="M94" s="2"/>
-      <c r="N94" s="1"/>
-      <c r="O94" s="3"/>
-      <c r="P94" s="1"/>
-      <c r="Q94" s="1">
+      <c r="K94" s="5"/>
+      <c r="L94" s="5"/>
+      <c r="M94" s="5"/>
+      <c r="N94" s="2"/>
+      <c r="O94" s="1"/>
+      <c r="P94" s="2"/>
+      <c r="Q94" s="2">
         <v>30019</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="95">
-      <c r="A95" s="3">
+      <c r="A95" s="1">
         <v>40020</v>
       </c>
-      <c r="B95" s="1" t="str">
+      <c r="B95" s="2" t="str">
         <v>健身教练</v>
       </c>
-      <c r="C95" s="3" t="str">
+      <c r="C95" s="1" t="str">
         <v>Item_Name_30020</v>
       </c>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-      <c r="F95" s="1"/>
-      <c r="G95" s="3">
-        <v>0</v>
-      </c>
-      <c r="H95" s="3">
+      <c r="D95" s="1"/>
+      <c r="E95" s="1"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="1">
+        <v>0</v>
+      </c>
+      <c r="H95" s="1">
         <v>300</v>
       </c>
-      <c r="I95" s="1">
+      <c r="I95" s="2">
         <v>141814</v>
       </c>
-      <c r="J95" s="2">
+      <c r="J95" s="5">
         <v>2</v>
       </c>
-      <c r="K95" s="2"/>
-      <c r="L95" s="2"/>
-      <c r="M95" s="2"/>
-      <c r="N95" s="1"/>
-      <c r="O95" s="3"/>
-      <c r="P95" s="1"/>
-      <c r="Q95" s="1">
+      <c r="K95" s="5"/>
+      <c r="L95" s="5"/>
+      <c r="M95" s="5"/>
+      <c r="N95" s="2"/>
+      <c r="O95" s="1"/>
+      <c r="P95" s="2"/>
+      <c r="Q95" s="2">
         <v>30020</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="96">
-      <c r="A96" s="3">
+      <c r="A96" s="1">
         <v>40021</v>
       </c>
-      <c r="B96" s="1" t="str">
+      <c r="B96" s="2" t="str">
         <v>优雅少女</v>
       </c>
-      <c r="C96" s="3" t="str">
+      <c r="C96" s="1" t="str">
         <v>Item_Name_30021</v>
       </c>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-      <c r="F96" s="1"/>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
-      <c r="H96" s="3">
+      <c r="D96" s="1"/>
+      <c r="E96" s="1"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="1">
+        <v>0</v>
+      </c>
+      <c r="H96" s="1">
         <v>300</v>
       </c>
-      <c r="I96" s="1">
+      <c r="I96" s="2">
         <v>141803</v>
       </c>
-      <c r="J96" s="2">
+      <c r="J96" s="5">
         <v>2</v>
       </c>
-      <c r="K96" s="2"/>
-      <c r="L96" s="2"/>
-      <c r="M96" s="2"/>
-      <c r="N96" s="1"/>
-      <c r="O96" s="3"/>
-      <c r="P96" s="1"/>
-      <c r="Q96" s="1">
+      <c r="K96" s="5"/>
+      <c r="L96" s="5"/>
+      <c r="M96" s="5"/>
+      <c r="N96" s="2"/>
+      <c r="O96" s="1"/>
+      <c r="P96" s="2"/>
+      <c r="Q96" s="2">
         <v>30021</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="97">
-      <c r="A97" s="3">
+      <c r="A97" s="1">
         <v>40022</v>
       </c>
-      <c r="B97" s="1" t="str">
+      <c r="B97" s="2" t="str">
         <v>探险家</v>
       </c>
-      <c r="C97" s="3" t="str">
+      <c r="C97" s="1" t="str">
         <v>Item_Name_30022</v>
       </c>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-      <c r="F97" s="1"/>
-      <c r="G97" s="3">
-        <v>0</v>
-      </c>
-      <c r="H97" s="3">
+      <c r="D97" s="1"/>
+      <c r="E97" s="1"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="1">
+        <v>0</v>
+      </c>
+      <c r="H97" s="1">
         <v>400</v>
       </c>
-      <c r="I97" s="1">
+      <c r="I97" s="2">
         <v>141801</v>
       </c>
-      <c r="J97" s="2">
+      <c r="J97" s="5">
         <v>1</v>
       </c>
-      <c r="K97" s="2"/>
-      <c r="L97" s="2"/>
-      <c r="M97" s="2"/>
-      <c r="N97" s="1"/>
-      <c r="O97" s="3"/>
-      <c r="P97" s="1"/>
-      <c r="Q97" s="1">
+      <c r="K97" s="5"/>
+      <c r="L97" s="5"/>
+      <c r="M97" s="5"/>
+      <c r="N97" s="2"/>
+      <c r="O97" s="1"/>
+      <c r="P97" s="2"/>
+      <c r="Q97" s="2">
         <v>30022</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="98">
-      <c r="A98" s="3">
+      <c r="A98" s="1">
         <v>40023</v>
       </c>
-      <c r="B98" s="1" t="str">
+      <c r="B98" s="2" t="str">
         <v>民国学生</v>
       </c>
-      <c r="C98" s="3" t="str">
+      <c r="C98" s="1" t="str">
         <v>Item_Name_30023</v>
       </c>
-      <c r="D98" s="3"/>
-      <c r="E98" s="3"/>
-      <c r="F98" s="1"/>
-      <c r="G98" s="3">
-        <v>0</v>
-      </c>
-      <c r="H98" s="3">
+      <c r="D98" s="1"/>
+      <c r="E98" s="1"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="1">
+        <v>0</v>
+      </c>
+      <c r="H98" s="1">
         <v>400</v>
       </c>
-      <c r="I98" s="1">
+      <c r="I98" s="2">
         <v>141815</v>
       </c>
-      <c r="J98" s="2">
+      <c r="J98" s="5">
         <v>1</v>
       </c>
-      <c r="K98" s="2"/>
-      <c r="L98" s="2"/>
-      <c r="M98" s="2"/>
-      <c r="N98" s="1"/>
-      <c r="O98" s="3"/>
-      <c r="P98" s="1"/>
-      <c r="Q98" s="1">
+      <c r="K98" s="5"/>
+      <c r="L98" s="5"/>
+      <c r="M98" s="5"/>
+      <c r="N98" s="2"/>
+      <c r="O98" s="1"/>
+      <c r="P98" s="2"/>
+      <c r="Q98" s="2">
         <v>30023</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="99">
-      <c r="A99" s="3">
+      <c r="A99" s="1">
         <v>40024</v>
       </c>
-      <c r="B99" s="1" t="str">
+      <c r="B99" s="2" t="str">
         <v>可可少女</v>
       </c>
-      <c r="C99" s="3" t="str">
+      <c r="C99" s="1" t="str">
         <v>Item_Name_30024</v>
       </c>
-      <c r="D99" s="3"/>
-      <c r="E99" s="3"/>
-      <c r="F99" s="1"/>
-      <c r="G99" s="3">
-        <v>0</v>
-      </c>
-      <c r="H99" s="3">
+      <c r="D99" s="1"/>
+      <c r="E99" s="1"/>
+      <c r="F99" s="2"/>
+      <c r="G99" s="1">
+        <v>0</v>
+      </c>
+      <c r="H99" s="1">
         <v>400</v>
       </c>
-      <c r="I99" s="1">
+      <c r="I99" s="2">
         <v>141808</v>
       </c>
-      <c r="J99" s="2">
+      <c r="J99" s="5">
         <v>1</v>
       </c>
-      <c r="K99" s="2"/>
-      <c r="L99" s="2"/>
-      <c r="M99" s="2"/>
-      <c r="N99" s="1"/>
-      <c r="O99" s="3"/>
-      <c r="P99" s="1"/>
-      <c r="Q99" s="1">
+      <c r="K99" s="5"/>
+      <c r="L99" s="5"/>
+      <c r="M99" s="5"/>
+      <c r="N99" s="2"/>
+      <c r="O99" s="1"/>
+      <c r="P99" s="2"/>
+      <c r="Q99" s="2">
         <v>30024</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="100">
-      <c r="A100" s="3">
+      <c r="A100" s="1">
         <v>40025</v>
       </c>
-      <c r="B100" s="1" t="str">
+      <c r="B100" s="2" t="str">
         <v>猫猫店员</v>
       </c>
-      <c r="C100" s="3" t="str">
+      <c r="C100" s="1" t="str">
         <v>Item_Name_30025</v>
       </c>
-      <c r="D100" s="3"/>
-      <c r="E100" s="3"/>
-      <c r="F100" s="1"/>
-      <c r="G100" s="3">
-        <v>0</v>
-      </c>
-      <c r="H100" s="3">
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
+      <c r="F100" s="2"/>
+      <c r="G100" s="1">
+        <v>0</v>
+      </c>
+      <c r="H100" s="1">
         <v>500</v>
       </c>
-      <c r="I100" s="1">
+      <c r="I100" s="2">
         <v>141792</v>
       </c>
-      <c r="J100" s="2">
-        <v>0</v>
-      </c>
-      <c r="K100" s="2"/>
-      <c r="L100" s="2"/>
-      <c r="M100" s="2"/>
-      <c r="N100" s="1"/>
-      <c r="O100" s="3"/>
-      <c r="P100" s="1"/>
-      <c r="Q100" s="1">
+      <c r="J100" s="5">
+        <v>0</v>
+      </c>
+      <c r="K100" s="5"/>
+      <c r="L100" s="5"/>
+      <c r="M100" s="5"/>
+      <c r="N100" s="2"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="2"/>
+      <c r="Q100" s="2">
         <v>30025</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="101">
-      <c r="A101" s="3">
+      <c r="A101" s="1">
         <v>40026</v>
       </c>
-      <c r="B101" s="1" t="str">
+      <c r="B101" s="2" t="str">
         <v>女仆甜心</v>
       </c>
-      <c r="C101" s="3" t="str">
+      <c r="C101" s="1" t="str">
         <v>Item_Name_30026</v>
       </c>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-      <c r="F101" s="1"/>
-      <c r="G101" s="3">
-        <v>0</v>
-      </c>
-      <c r="H101" s="3">
+      <c r="D101" s="1"/>
+      <c r="E101" s="1"/>
+      <c r="F101" s="2"/>
+      <c r="G101" s="1">
+        <v>0</v>
+      </c>
+      <c r="H101" s="1">
         <v>500</v>
       </c>
-      <c r="I101" s="1">
+      <c r="I101" s="2">
         <v>141816</v>
       </c>
-      <c r="J101" s="2">
-        <v>0</v>
-      </c>
-      <c r="K101" s="2"/>
-      <c r="L101" s="2"/>
-      <c r="M101" s="2"/>
-      <c r="N101" s="1"/>
-      <c r="O101" s="3"/>
-      <c r="P101" s="1"/>
-      <c r="Q101" s="1">
+      <c r="J101" s="5">
+        <v>0</v>
+      </c>
+      <c r="K101" s="5"/>
+      <c r="L101" s="5"/>
+      <c r="M101" s="5"/>
+      <c r="N101" s="2"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="2"/>
+      <c r="Q101" s="2">
         <v>30026</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="102">
-      <c r="A102" s="3">
+      <c r="A102" s="1">
         <v>40027</v>
       </c>
-      <c r="B102" s="1" t="str">
+      <c r="B102" s="2" t="str">
         <v>猫耳女仆</v>
       </c>
-      <c r="C102" s="3" t="str">
+      <c r="C102" s="1" t="str">
         <v>Item_Name_30027</v>
       </c>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-      <c r="F102" s="1"/>
-      <c r="G102" s="3">
-        <v>0</v>
-      </c>
-      <c r="H102" s="3">
+      <c r="D102" s="1"/>
+      <c r="E102" s="1"/>
+      <c r="F102" s="2"/>
+      <c r="G102" s="1">
+        <v>0</v>
+      </c>
+      <c r="H102" s="1">
         <v>500</v>
       </c>
-      <c r="I102" s="1">
+      <c r="I102" s="2">
         <v>141807</v>
       </c>
-      <c r="J102" s="2">
-        <v>0</v>
-      </c>
-      <c r="K102" s="2"/>
-      <c r="L102" s="2"/>
-      <c r="M102" s="2"/>
-      <c r="N102" s="1"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="1"/>
-      <c r="Q102" s="1">
+      <c r="J102" s="5">
+        <v>0</v>
+      </c>
+      <c r="K102" s="5"/>
+      <c r="L102" s="5"/>
+      <c r="M102" s="5"/>
+      <c r="N102" s="2"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="2"/>
+      <c r="Q102" s="2">
         <v>30027</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="103">
-      <c r="A103" s="3">
+      <c r="A103" s="1">
         <v>40028</v>
       </c>
-      <c r="B103" s="1" t="str">
+      <c r="B103" s="2" t="str">
         <v>少女偶像</v>
       </c>
-      <c r="C103" s="3" t="str">
+      <c r="C103" s="1" t="str">
         <v>Item_Name_30028</v>
       </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="3"/>
-      <c r="F103" s="1"/>
-      <c r="G103" s="3">
-        <v>0</v>
-      </c>
-      <c r="H103" s="3">
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="1">
+        <v>0</v>
+      </c>
+      <c r="H103" s="1">
         <v>500</v>
       </c>
-      <c r="I103" s="1">
+      <c r="I103" s="2">
         <v>141799</v>
       </c>
-      <c r="J103" s="2">
-        <v>0</v>
-      </c>
-      <c r="K103" s="2"/>
-      <c r="L103" s="2"/>
-      <c r="M103" s="2"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="3"/>
-      <c r="P103" s="1"/>
-      <c r="Q103" s="1">
+      <c r="J103" s="5">
+        <v>0</v>
+      </c>
+      <c r="K103" s="5"/>
+      <c r="L103" s="5"/>
+      <c r="M103" s="5"/>
+      <c r="N103" s="2"/>
+      <c r="O103" s="1"/>
+      <c r="P103" s="2"/>
+      <c r="Q103" s="2">
         <v>30028</v>
       </c>
     </row>
     <row customHeight="true" ht="27" r="104">
-      <c r="A104" s="3">
+      <c r="A104" s="1">
         <v>40029</v>
       </c>
-      <c r="B104" s="1" t="str">
+      <c r="B104" s="2" t="str">
         <v>圣诞少女</v>
       </c>
-      <c r="C104" s="3" t="str">
+      <c r="C104" s="1" t="str">
         <v>Item_Name_30029</v>
       </c>
-      <c r="D104" s="3"/>
-      <c r="E104" s="3"/>
-      <c r="F104" s="1"/>
-      <c r="G104" s="3">
-        <v>0</v>
-      </c>
-      <c r="H104" s="3">
+      <c r="D104" s="1"/>
+      <c r="E104" s="1"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="1">
+        <v>0</v>
+      </c>
+      <c r="H104" s="1">
         <v>500</v>
       </c>
-      <c r="I104" s="1">
+      <c r="I104" s="2">
         <v>141789</v>
       </c>
-      <c r="J104" s="2">
-        <v>0</v>
-      </c>
-      <c r="K104" s="2"/>
-      <c r="L104" s="2"/>
-      <c r="M104" s="2"/>
-      <c r="N104" s="1"/>
-      <c r="O104" s="3"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1">
+      <c r="J104" s="5">
+        <v>0</v>
+      </c>
+      <c r="K104" s="5"/>
+      <c r="L104" s="5"/>
+      <c r="M104" s="5"/>
+      <c r="N104" s="2"/>
+      <c r="O104" s="1"/>
+      <c r="P104" s="2"/>
+      <c r="Q104" s="2">
         <v>30029</v>
       </c>
     </row>
@@ -4733,11 +4733,11 @@
       <c r="B105" s="12" t="str">
         <v>挂件数量</v>
       </c>
-      <c r="C105" s="17" t="str">
+      <c r="C105" s="16" t="str">
         <v>Shop_Name_40001</v>
       </c>
       <c r="D105" s="11">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E105" s="11"/>
       <c r="F105" s="12"/>
@@ -4756,692 +4756,925 @@
       <c r="Q105" s="12"/>
     </row>
     <row customHeight="true" ht="27" r="106">
-      <c r="A106" s="3">
+      <c r="A106" s="1">
         <v>50001</v>
       </c>
-      <c r="B106" s="1" t="str">
+      <c r="B106" s="2" t="str">
         <v>彩虹马桶人</v>
       </c>
-      <c r="C106" s="2" t="str">
+      <c r="C106" s="5" t="str">
         <v>Shop_Name_40001</v>
       </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3" t="str">
+      <c r="D106" s="1"/>
+      <c r="E106" s="1" t="str">
         <v>D0C568E94DC2EAAADE0303AC1A079AB8</v>
       </c>
-      <c r="F106" s="1"/>
-      <c r="G106" s="4">
-        <v>0</v>
-      </c>
-      <c r="H106" s="4">
+      <c r="F106" s="2"/>
+      <c r="G106" s="3">
+        <v>0</v>
+      </c>
+      <c r="H106" s="3">
         <v>10</v>
       </c>
-      <c r="I106" s="6">
+      <c r="I106" s="7">
         <v>186661</v>
       </c>
-      <c r="J106" s="5">
+      <c r="J106" s="4">
         <v>4</v>
       </c>
-      <c r="K106" s="3"/>
-      <c r="L106" s="1"/>
-      <c r="M106" s="1">
+      <c r="K106" s="1"/>
+      <c r="L106" s="2"/>
+      <c r="M106" s="2">
         <v>12</v>
       </c>
-      <c r="N106" s="1" t="str">
+      <c r="N106" s="2" t="str">
         <v>0.22|0.22|0.22</v>
       </c>
-      <c r="O106" s="1" t="str">
+      <c r="O106" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P106" s="1" t="str">
+      <c r="P106" s="2" t="str">
         <v>30|0|-40</v>
       </c>
-      <c r="Q106" s="1"/>
+      <c r="Q106" s="2"/>
     </row>
     <row customHeight="true" ht="27" r="107">
-      <c r="A107" s="3">
+      <c r="A107" s="1">
         <v>50002</v>
       </c>
-      <c r="B107" s="1" t="str">
+      <c r="B107" s="2" t="str">
         <v>公主马桶人</v>
       </c>
-      <c r="C107" s="2" t="str">
+      <c r="C107" s="5" t="str">
         <v>Shop_Name_40002</v>
       </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3" t="str">
+      <c r="D107" s="1"/>
+      <c r="E107" s="1" t="str">
         <v>45CC801843BCB421039107B2112267A6</v>
       </c>
-      <c r="F107" s="1"/>
-      <c r="G107" s="4">
-        <v>0</v>
-      </c>
-      <c r="H107" s="4">
+      <c r="F107" s="2"/>
+      <c r="G107" s="3">
+        <v>0</v>
+      </c>
+      <c r="H107" s="3">
         <v>500</v>
       </c>
-      <c r="I107" s="6">
+      <c r="I107" s="7">
         <v>186663</v>
       </c>
-      <c r="J107" s="5">
+      <c r="J107" s="4">
         <v>3</v>
       </c>
-      <c r="K107" s="3"/>
-      <c r="L107" s="1"/>
-      <c r="M107" s="1">
+      <c r="K107" s="1"/>
+      <c r="L107" s="2"/>
+      <c r="M107" s="2">
         <v>12</v>
       </c>
-      <c r="N107" s="1" t="str">
+      <c r="N107" s="2" t="str">
         <v>0.22|0.22|0.22</v>
       </c>
-      <c r="O107" s="1" t="str">
+      <c r="O107" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P107" s="1" t="str">
+      <c r="P107" s="2" t="str">
         <v>30|0|-40</v>
       </c>
-      <c r="Q107" s="1"/>
+      <c r="Q107" s="2"/>
     </row>
     <row customHeight="true" ht="27" r="108">
-      <c r="A108" s="3">
+      <c r="A108" s="1">
         <v>50003</v>
       </c>
-      <c r="B108" s="1" t="str">
+      <c r="B108" s="2" t="str">
         <v>太空马桶人</v>
       </c>
-      <c r="C108" s="2" t="str">
+      <c r="C108" s="5" t="str">
         <v>Shop_Name_40003</v>
       </c>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3" t="str">
+      <c r="D108" s="1"/>
+      <c r="E108" s="1" t="str">
         <v>C9292BC84BD8123269224ABBA8B007CB</v>
       </c>
-      <c r="F108" s="1"/>
-      <c r="G108" s="4">
-        <v>0</v>
-      </c>
-      <c r="H108" s="4">
+      <c r="F108" s="2"/>
+      <c r="G108" s="3">
+        <v>0</v>
+      </c>
+      <c r="H108" s="3">
         <v>1000</v>
       </c>
-      <c r="I108" s="6">
+      <c r="I108" s="7">
         <v>186662</v>
       </c>
-      <c r="J108" s="5">
+      <c r="J108" s="4">
         <v>2</v>
       </c>
-      <c r="K108" s="3"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="1">
+      <c r="K108" s="1"/>
+      <c r="L108" s="2"/>
+      <c r="M108" s="2">
         <v>12</v>
       </c>
-      <c r="N108" s="1" t="str">
+      <c r="N108" s="2" t="str">
         <v>0.22|0.22|0.22</v>
       </c>
-      <c r="O108" s="1" t="str">
+      <c r="O108" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P108" s="1" t="str">
+      <c r="P108" s="2" t="str">
         <v>30|0|-40</v>
       </c>
-      <c r="Q108" s="1"/>
+      <c r="Q108" s="2"/>
     </row>
     <row customHeight="true" ht="27" r="109">
-      <c r="A109" s="3">
+      <c r="A109" s="1">
         <v>50004</v>
       </c>
-      <c r="B109" s="1" t="str">
+      <c r="B109" s="2" t="str">
         <v>蜘蛛马桶人</v>
       </c>
-      <c r="C109" s="2" t="str">
+      <c r="C109" s="5" t="str">
         <v>Shop_Name_40004</v>
       </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3" t="str">
+      <c r="D109" s="1"/>
+      <c r="E109" s="1" t="str">
         <v>9369090F4F800E92F623348B8D94270A</v>
       </c>
-      <c r="F109" s="1"/>
-      <c r="G109" s="4">
-        <v>0</v>
-      </c>
-      <c r="H109" s="4">
+      <c r="F109" s="2"/>
+      <c r="G109" s="3">
+        <v>0</v>
+      </c>
+      <c r="H109" s="3">
         <v>3000</v>
       </c>
-      <c r="I109" s="6">
+      <c r="I109" s="7">
         <v>186664</v>
       </c>
-      <c r="J109" s="5">
+      <c r="J109" s="4">
         <v>1</v>
       </c>
-      <c r="K109" s="3"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="1">
+      <c r="K109" s="1"/>
+      <c r="L109" s="2"/>
+      <c r="M109" s="2">
         <v>12</v>
       </c>
-      <c r="N109" s="1" t="str">
+      <c r="N109" s="2" t="str">
         <v>0.22|0.22|0.22</v>
       </c>
-      <c r="O109" s="1" t="str">
+      <c r="O109" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P109" s="1" t="str">
+      <c r="P109" s="2" t="str">
         <v>30|0|-40</v>
       </c>
-      <c r="Q109" s="1"/>
+      <c r="Q109" s="2"/>
     </row>
     <row customHeight="true" ht="27" r="110">
-      <c r="A110" s="3">
+      <c r="A110" s="1">
         <v>50005</v>
       </c>
-      <c r="B110" s="1" t="str">
+      <c r="B110" s="2" t="str">
         <v>监控人</v>
       </c>
-      <c r="C110" s="2" t="str">
+      <c r="C110" s="5" t="str">
         <v>Shop_Name_40005</v>
       </c>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3">
+      <c r="D110" s="1"/>
+      <c r="E110" s="1">
         <v>184546</v>
       </c>
-      <c r="F110" s="1"/>
-      <c r="G110" s="4">
-        <v>0</v>
-      </c>
-      <c r="H110" s="4">
+      <c r="F110" s="2"/>
+      <c r="G110" s="3">
+        <v>0</v>
+      </c>
+      <c r="H110" s="3">
         <v>10</v>
       </c>
-      <c r="I110" s="6">
+      <c r="I110" s="7">
         <v>186110</v>
       </c>
-      <c r="J110" s="5">
+      <c r="J110" s="4">
         <v>4</v>
       </c>
-      <c r="K110" s="3"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="1">
+      <c r="K110" s="1"/>
+      <c r="L110" s="2"/>
+      <c r="M110" s="2">
         <v>1</v>
       </c>
-      <c r="N110" s="1" t="str">
+      <c r="N110" s="2" t="str">
         <v>1.4|0.9|1.3</v>
       </c>
-      <c r="O110" s="1" t="str">
+      <c r="O110" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P110" s="1" t="str">
+      <c r="P110" s="2" t="str">
         <v>0|4|-6</v>
       </c>
-      <c r="Q110" s="1"/>
+      <c r="Q110" s="2"/>
     </row>
     <row customHeight="true" ht="27" r="111">
-      <c r="A111" s="3">
+      <c r="A111" s="1">
         <v>50006</v>
       </c>
-      <c r="B111" s="1" t="str">
+      <c r="B111" s="2" t="str">
         <v>音响人</v>
       </c>
-      <c r="C111" s="2" t="str">
+      <c r="C111" s="5" t="str">
         <v>Shop_Name_40006</v>
       </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3">
+      <c r="D111" s="1"/>
+      <c r="E111" s="1">
         <v>37584</v>
       </c>
-      <c r="F111" s="1"/>
-      <c r="G111" s="4">
-        <v>0</v>
-      </c>
-      <c r="H111" s="4">
+      <c r="F111" s="2"/>
+      <c r="G111" s="3">
+        <v>0</v>
+      </c>
+      <c r="H111" s="3">
         <v>500</v>
       </c>
-      <c r="I111" s="6">
+      <c r="I111" s="7">
         <v>186115</v>
       </c>
-      <c r="J111" s="5">
+      <c r="J111" s="4">
         <v>3</v>
       </c>
-      <c r="K111" s="3"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="1">
+      <c r="K111" s="1"/>
+      <c r="L111" s="2"/>
+      <c r="M111" s="2">
         <v>1</v>
       </c>
-      <c r="N111" s="3" t="str">
+      <c r="N111" s="1" t="str">
         <v>0.9|0.95|0.8</v>
       </c>
-      <c r="O111" s="1" t="str">
+      <c r="O111" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P111" s="3" t="str">
+      <c r="P111" s="1" t="str">
         <v>0|-1|-6</v>
       </c>
-      <c r="Q111" s="1"/>
+      <c r="Q111" s="2"/>
     </row>
     <row customHeight="true" ht="27" r="112">
-      <c r="A112" s="3">
+      <c r="A112" s="1">
         <v>50007</v>
       </c>
-      <c r="B112" s="1" t="str">
+      <c r="B112" s="2" t="str">
         <v>电视人</v>
       </c>
-      <c r="C112" s="2" t="str">
+      <c r="C112" s="5" t="str">
         <v>Shop_Name_40007</v>
       </c>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3">
+      <c r="D112" s="1"/>
+      <c r="E112" s="1">
         <v>37562</v>
       </c>
-      <c r="F112" s="1"/>
-      <c r="G112" s="4">
-        <v>0</v>
-      </c>
-      <c r="H112" s="4">
+      <c r="F112" s="2"/>
+      <c r="G112" s="3">
+        <v>0</v>
+      </c>
+      <c r="H112" s="3">
         <v>1000</v>
       </c>
-      <c r="I112" s="6">
+      <c r="I112" s="7">
         <v>186121</v>
       </c>
-      <c r="J112" s="5">
+      <c r="J112" s="4">
         <v>2</v>
       </c>
-      <c r="K112" s="3"/>
-      <c r="L112" s="1"/>
-      <c r="M112" s="1">
+      <c r="K112" s="1"/>
+      <c r="L112" s="2"/>
+      <c r="M112" s="2">
         <v>1</v>
       </c>
-      <c r="N112" s="1" t="str">
+      <c r="N112" s="2" t="str">
         <v>0.6|0.6|0.6</v>
       </c>
-      <c r="O112" s="1" t="str">
+      <c r="O112" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P112" s="1" t="str">
+      <c r="P112" s="2" t="str">
         <v>0|0|-5</v>
       </c>
-      <c r="Q112" s="1"/>
+      <c r="Q112" s="2"/>
     </row>
     <row customHeight="true" ht="27" r="113">
-      <c r="A113" s="3">
+      <c r="A113" s="1">
         <v>50008</v>
       </c>
-      <c r="B113" s="1" t="str">
+      <c r="B113" s="2" t="str">
         <v>卡通音响人</v>
       </c>
-      <c r="C113" s="2" t="str">
+      <c r="C113" s="5" t="str">
         <v>Shop_Name_40008</v>
       </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3">
+      <c r="D113" s="1"/>
+      <c r="E113" s="1">
         <v>124423</v>
       </c>
-      <c r="F113" s="1"/>
-      <c r="G113" s="4">
-        <v>0</v>
-      </c>
-      <c r="H113" s="4">
+      <c r="F113" s="2"/>
+      <c r="G113" s="3">
+        <v>0</v>
+      </c>
+      <c r="H113" s="3">
         <v>3000</v>
       </c>
-      <c r="I113" s="6">
+      <c r="I113" s="7">
         <v>186130</v>
       </c>
-      <c r="J113" s="5">
+      <c r="J113" s="4">
         <v>1</v>
       </c>
-      <c r="K113" s="3"/>
-      <c r="L113" s="1"/>
-      <c r="M113" s="1">
+      <c r="K113" s="1"/>
+      <c r="L113" s="2"/>
+      <c r="M113" s="2">
         <v>1</v>
       </c>
-      <c r="N113" s="1" t="str">
+      <c r="N113" s="2" t="str">
         <v>0.28|0.48|0.28</v>
       </c>
-      <c r="O113" s="1" t="str">
+      <c r="O113" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P113" s="1" t="str">
+      <c r="P113" s="2" t="str">
         <v>0|-9|-5</v>
       </c>
-      <c r="Q113" s="1"/>
+      <c r="Q113" s="2"/>
     </row>
     <row customHeight="true" ht="27" r="114">
-      <c r="A114" s="3">
+      <c r="A114" s="1">
         <v>50009</v>
       </c>
-      <c r="B114" s="1" t="str">
+      <c r="B114" s="2" t="str">
         <v>卡通电视人</v>
       </c>
-      <c r="C114" s="2" t="str">
+      <c r="C114" s="5" t="str">
         <v>Shop_Name_40009</v>
       </c>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3">
+      <c r="D114" s="1"/>
+      <c r="E114" s="1">
         <v>124424</v>
       </c>
-      <c r="F114" s="1"/>
-      <c r="G114" s="4">
-        <v>0</v>
-      </c>
-      <c r="H114" s="4">
+      <c r="F114" s="2"/>
+      <c r="G114" s="3">
+        <v>0</v>
+      </c>
+      <c r="H114" s="3">
         <v>5000</v>
       </c>
-      <c r="I114" s="6">
+      <c r="I114" s="7">
         <v>186127</v>
       </c>
-      <c r="J114" s="5">
-        <v>0</v>
-      </c>
-      <c r="K114" s="3"/>
-      <c r="L114" s="1"/>
-      <c r="M114" s="1">
+      <c r="J114" s="4">
+        <v>0</v>
+      </c>
+      <c r="K114" s="1"/>
+      <c r="L114" s="2"/>
+      <c r="M114" s="2">
         <v>1</v>
       </c>
-      <c r="N114" s="1" t="str">
+      <c r="N114" s="2" t="str">
         <v>0.23|0.25|0.23</v>
       </c>
-      <c r="O114" s="1" t="str">
+      <c r="O114" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="P114" s="1" t="str">
+      <c r="P114" s="2" t="str">
         <v>0|1|-7</v>
       </c>
-      <c r="Q114" s="1"/>
+      <c r="Q114" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="115">
-      <c r="A115" s="3">
+      <c r="A115" s="1">
         <v>50010</v>
       </c>
-      <c r="B115" s="1" t="str" xml:space="preserve">
+      <c r="B115" s="2" t="str" xml:space="preserve">
         <v> 火焰翅膀</v>
       </c>
-      <c r="C115" s="2" t="str">
+      <c r="C115" s="5" t="str">
         <v>Shop_Name_40010</v>
       </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3">
+      <c r="D115" s="1"/>
+      <c r="E115" s="1">
         <v>223877</v>
       </c>
-      <c r="F115" s="1"/>
-      <c r="G115" s="3">
-        <v>0</v>
-      </c>
-      <c r="H115" s="3">
+      <c r="F115" s="2"/>
+      <c r="G115" s="1">
+        <v>0</v>
+      </c>
+      <c r="H115" s="1">
         <v>5000</v>
       </c>
-      <c r="I115" s="6" t="str">
+      <c r="I115" s="7" t="str">
         <v>mode_223877</v>
       </c>
-      <c r="J115" s="1">
-        <v>0</v>
-      </c>
-      <c r="K115" s="3"/>
-      <c r="L115" s="1"/>
-      <c r="M115" s="1">
+      <c r="J115" s="2">
+        <v>0</v>
+      </c>
+      <c r="K115" s="1"/>
+      <c r="L115" s="2"/>
+      <c r="M115" s="2">
         <v>12</v>
       </c>
-      <c r="N115" s="1" t="str">
+      <c r="N115" s="2" t="str">
         <v>2|2|2</v>
       </c>
-      <c r="O115" s="1" t="str">
+      <c r="O115" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P115" s="1" t="str">
+      <c r="P115" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q115" s="1"/>
+      <c r="Q115" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="116">
-      <c r="A116" s="3">
+      <c r="A116" s="1">
         <v>50011</v>
       </c>
-      <c r="B116" s="1" t="str">
+      <c r="B116" s="2" t="str">
         <v>火焰翅膀</v>
       </c>
-      <c r="C116" s="2" t="str">
+      <c r="C116" s="5" t="str">
         <v>Shop_Name_40011</v>
       </c>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3">
+      <c r="D116" s="1"/>
+      <c r="E116" s="1">
         <v>211667</v>
       </c>
-      <c r="F116" s="1"/>
-      <c r="G116" s="4">
-        <v>0</v>
-      </c>
-      <c r="H116" s="3">
+      <c r="F116" s="2"/>
+      <c r="G116" s="3">
+        <v>0</v>
+      </c>
+      <c r="H116" s="1">
         <v>5000</v>
       </c>
-      <c r="I116" s="6" t="str">
+      <c r="I116" s="7" t="str">
         <v>mode_211667</v>
       </c>
-      <c r="J116" s="1">
-        <v>0</v>
-      </c>
-      <c r="K116" s="3"/>
-      <c r="L116" s="1"/>
-      <c r="M116" s="1">
+      <c r="J116" s="2">
+        <v>0</v>
+      </c>
+      <c r="K116" s="1"/>
+      <c r="L116" s="2"/>
+      <c r="M116" s="2">
         <v>12</v>
       </c>
-      <c r="N116" s="1" t="str">
+      <c r="N116" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="O116" s="1" t="str">
+      <c r="O116" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P116" s="1" t="str">
+      <c r="P116" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q116" s="1"/>
+      <c r="Q116" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="117">
-      <c r="A117" s="3">
+      <c r="A117" s="1">
         <v>50012</v>
       </c>
-      <c r="B117" s="1" t="str">
+      <c r="B117" s="2" t="str">
         <v>水系翅膀</v>
       </c>
-      <c r="C117" s="2" t="str">
+      <c r="C117" s="5" t="str">
         <v>Shop_Name_40012</v>
       </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3">
+      <c r="D117" s="1"/>
+      <c r="E117" s="1">
         <v>375134</v>
       </c>
-      <c r="F117" s="1"/>
-      <c r="G117" s="4">
-        <v>0</v>
-      </c>
-      <c r="H117" s="3">
+      <c r="F117" s="2"/>
+      <c r="G117" s="3">
+        <v>0</v>
+      </c>
+      <c r="H117" s="1">
         <v>5000</v>
       </c>
-      <c r="I117" s="6" t="str">
+      <c r="I117" s="7" t="str">
         <v>mode_375134</v>
       </c>
-      <c r="J117" s="1">
-        <v>0</v>
-      </c>
-      <c r="K117" s="3"/>
-      <c r="L117" s="1"/>
-      <c r="M117" s="1">
+      <c r="J117" s="2">
+        <v>0</v>
+      </c>
+      <c r="K117" s="1"/>
+      <c r="L117" s="2"/>
+      <c r="M117" s="2">
         <v>12</v>
       </c>
-      <c r="N117" s="1" t="str">
+      <c r="N117" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="O117" s="1" t="str">
+      <c r="O117" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P117" s="1" t="str">
+      <c r="P117" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q117" s="1"/>
+      <c r="Q117" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="118">
-      <c r="A118" s="3">
+      <c r="A118" s="1">
         <v>50013</v>
       </c>
-      <c r="B118" s="1" t="str">
+      <c r="B118" s="2" t="str">
         <v>黑暗翅膀</v>
       </c>
-      <c r="C118" s="2" t="str">
+      <c r="C118" s="5" t="str">
         <v>Shop_Name_40013</v>
       </c>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3">
+      <c r="D118" s="1"/>
+      <c r="E118" s="1">
         <v>42828</v>
       </c>
-      <c r="F118" s="1"/>
-      <c r="G118" s="4">
-        <v>0</v>
-      </c>
-      <c r="H118" s="3">
+      <c r="F118" s="2"/>
+      <c r="G118" s="3">
+        <v>0</v>
+      </c>
+      <c r="H118" s="1">
         <v>5000</v>
       </c>
-      <c r="I118" s="18" t="str">
+      <c r="I118" s="6" t="str">
         <v>mode_42828</v>
       </c>
-      <c r="J118" s="1">
-        <v>0</v>
-      </c>
-      <c r="K118" s="3"/>
-      <c r="L118" s="1"/>
-      <c r="M118" s="1">
+      <c r="J118" s="2">
+        <v>0</v>
+      </c>
+      <c r="K118" s="1"/>
+      <c r="L118" s="2"/>
+      <c r="M118" s="2">
         <v>12</v>
       </c>
-      <c r="N118" s="1" t="str">
+      <c r="N118" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="O118" s="1" t="str">
+      <c r="O118" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P118" s="1" t="str">
+      <c r="P118" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q118" s="1"/>
+      <c r="Q118" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="119">
-      <c r="A119" s="3">
+      <c r="A119" s="1">
         <v>50014</v>
       </c>
-      <c r="B119" s="1" t="str">
+      <c r="B119" s="2" t="str">
         <v>恶魔翅膀</v>
       </c>
-      <c r="C119" s="2" t="str">
+      <c r="C119" s="5" t="str">
         <v>Shop_Name_40014</v>
       </c>
-      <c r="D119" s="3"/>
-      <c r="E119" s="3">
+      <c r="D119" s="1"/>
+      <c r="E119" s="1">
         <v>136966</v>
       </c>
-      <c r="F119" s="1"/>
-      <c r="G119" s="4">
-        <v>0</v>
-      </c>
-      <c r="H119" s="3">
+      <c r="F119" s="2"/>
+      <c r="G119" s="3">
+        <v>0</v>
+      </c>
+      <c r="H119" s="1">
         <v>5000</v>
       </c>
-      <c r="I119" s="18" t="str">
+      <c r="I119" s="6" t="str">
         <v>mode_136966</v>
       </c>
-      <c r="J119" s="1">
-        <v>0</v>
-      </c>
-      <c r="K119" s="3"/>
-      <c r="L119" s="1"/>
-      <c r="M119" s="1">
+      <c r="J119" s="2">
+        <v>0</v>
+      </c>
+      <c r="K119" s="1"/>
+      <c r="L119" s="2"/>
+      <c r="M119" s="2">
         <v>12</v>
       </c>
-      <c r="N119" s="1" t="str">
+      <c r="N119" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="O119" s="1" t="str">
+      <c r="O119" s="2" t="str">
         <v>0|0|180</v>
       </c>
-      <c r="P119" s="1" t="str">
+      <c r="P119" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q119" s="1"/>
+      <c r="Q119" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="120">
-      <c r="A120" s="3">
+      <c r="A120" s="1">
         <v>50015</v>
       </c>
-      <c r="B120" s="1" t="str">
+      <c r="B120" s="2" t="str">
         <v>恶灵翅膀</v>
       </c>
-      <c r="C120" s="2" t="str">
+      <c r="C120" s="5" t="str">
         <v>Shop_Name_40015</v>
       </c>
-      <c r="D120" s="3"/>
-      <c r="E120" s="3">
+      <c r="D120" s="1"/>
+      <c r="E120" s="1">
         <v>145912</v>
       </c>
-      <c r="F120" s="1"/>
-      <c r="G120" s="4">
-        <v>0</v>
-      </c>
-      <c r="H120" s="3">
+      <c r="F120" s="2"/>
+      <c r="G120" s="3">
+        <v>0</v>
+      </c>
+      <c r="H120" s="1">
         <v>5000</v>
       </c>
-      <c r="I120" s="18" t="str">
+      <c r="I120" s="6" t="str">
         <v>mode_145912</v>
       </c>
-      <c r="J120" s="1">
-        <v>0</v>
-      </c>
-      <c r="K120" s="3"/>
-      <c r="L120" s="1"/>
-      <c r="M120" s="1">
+      <c r="J120" s="2">
+        <v>0</v>
+      </c>
+      <c r="K120" s="1"/>
+      <c r="L120" s="2"/>
+      <c r="M120" s="2">
         <v>12</v>
       </c>
-      <c r="N120" s="1" t="str">
+      <c r="N120" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="O120" s="1" t="str">
+      <c r="O120" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P120" s="1" t="str">
+      <c r="P120" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q120" s="1"/>
+      <c r="Q120" s="2"/>
     </row>
     <row customHeight="true" ht="21" r="121">
-      <c r="A121" s="3">
+      <c r="A121" s="1">
         <v>50016</v>
       </c>
-      <c r="B121" s="1" t="str">
+      <c r="B121" s="2" t="str">
         <v>天使翅膀</v>
       </c>
-      <c r="C121" s="2" t="str">
+      <c r="C121" s="5" t="str">
         <v>Shop_Name_40016</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3">
+      <c r="D121" s="1"/>
+      <c r="E121" s="1">
         <v>145913</v>
       </c>
-      <c r="F121" s="1"/>
-      <c r="G121" s="4">
-        <v>0</v>
-      </c>
-      <c r="H121" s="3">
+      <c r="F121" s="2"/>
+      <c r="G121" s="3">
+        <v>0</v>
+      </c>
+      <c r="H121" s="1">
         <v>5000</v>
       </c>
-      <c r="I121" s="18" t="str">
+      <c r="I121" s="6" t="str">
         <v>mode_145913</v>
       </c>
-      <c r="J121" s="1">
-        <v>0</v>
-      </c>
-      <c r="K121" s="3"/>
-      <c r="L121" s="1"/>
-      <c r="M121" s="1">
+      <c r="J121" s="2">
+        <v>0</v>
+      </c>
+      <c r="K121" s="1"/>
+      <c r="L121" s="2"/>
+      <c r="M121" s="2">
         <v>12</v>
       </c>
-      <c r="N121" s="1" t="str">
+      <c r="N121" s="2" t="str">
         <v>1|1|1</v>
       </c>
-      <c r="O121" s="1" t="str">
+      <c r="O121" s="2" t="str">
         <v>0|0|90</v>
       </c>
-      <c r="P121" s="1" t="str">
+      <c r="P121" s="2" t="str">
         <v>0|0|0</v>
       </c>
-      <c r="Q121" s="1"/>
+      <c r="Q121" s="2"/>
+    </row>
+    <row r="122">
+      <c r="A122" s="1">
+        <v>50017</v>
+      </c>
+      <c r="B122" s="2" t="str">
+        <v>六翼翅膀</v>
+      </c>
+      <c r="C122" s="5" t="str">
+        <v>Shop_Name_40017</v>
+      </c>
+      <c r="D122" s="1"/>
+      <c r="E122" s="1">
+        <v>399002</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="3">
+        <v>5</v>
+      </c>
+      <c r="H122" s="1">
+        <v>1000</v>
+      </c>
+      <c r="I122" s="6" t="str">
+        <v>mode_399002</v>
+      </c>
+      <c r="J122" s="2">
+        <v>0</v>
+      </c>
+      <c r="K122" s="1"/>
+      <c r="L122" s="2"/>
+      <c r="M122" s="2">
+        <v>12</v>
+      </c>
+      <c r="N122" s="2" t="str">
+        <v>1|1|1</v>
+      </c>
+      <c r="O122" s="2" t="str">
+        <v>0|0|90</v>
+      </c>
+      <c r="P122" s="2" t="str">
+        <v>0|0|0</v>
+      </c>
+      <c r="Q122" s="2"/>
+    </row>
+    <row r="123">
+      <c r="A123" s="1"/>
+      <c r="B123" s="2"/>
+      <c r="C123" s="5"/>
+      <c r="D123" s="1"/>
+      <c r="E123" s="1"/>
+      <c r="F123" s="2"/>
+      <c r="G123" s="3"/>
+      <c r="H123" s="1"/>
+      <c r="I123" s="6"/>
+      <c r="J123" s="2"/>
+      <c r="K123" s="1"/>
+      <c r="L123" s="2"/>
+      <c r="M123" s="2"/>
+      <c r="N123" s="2"/>
+      <c r="O123" s="2"/>
+      <c r="P123" s="2"/>
+      <c r="Q123" s="2"/>
+    </row>
+    <row r="124">
+      <c r="A124" s="1"/>
+      <c r="B124" s="2"/>
+      <c r="C124" s="5"/>
+      <c r="D124" s="1"/>
+      <c r="E124" s="1"/>
+      <c r="F124" s="2"/>
+      <c r="G124" s="3"/>
+      <c r="H124" s="1"/>
+      <c r="I124" s="6"/>
+      <c r="J124" s="2"/>
+      <c r="K124" s="1"/>
+      <c r="L124" s="2"/>
+      <c r="M124" s="2"/>
+      <c r="N124" s="2"/>
+      <c r="O124" s="2"/>
+      <c r="P124" s="2"/>
+      <c r="Q124" s="2"/>
+    </row>
+    <row r="125">
+      <c r="A125" s="1"/>
+      <c r="B125" s="2"/>
+      <c r="C125" s="5"/>
+      <c r="D125" s="1"/>
+      <c r="E125" s="1"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="3"/>
+      <c r="H125" s="1"/>
+      <c r="I125" s="6"/>
+      <c r="J125" s="2"/>
+      <c r="K125" s="1"/>
+      <c r="L125" s="2"/>
+      <c r="M125" s="2"/>
+      <c r="N125" s="2"/>
+      <c r="O125" s="2"/>
+      <c r="P125" s="2"/>
+      <c r="Q125" s="2"/>
+    </row>
+    <row r="126">
+      <c r="A126" s="1"/>
+      <c r="B126" s="2"/>
+      <c r="C126" s="5"/>
+      <c r="D126" s="1"/>
+      <c r="E126" s="1"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="3"/>
+      <c r="H126" s="1"/>
+      <c r="I126" s="6"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="1"/>
+      <c r="L126" s="2"/>
+      <c r="M126" s="2"/>
+      <c r="N126" s="2"/>
+      <c r="O126" s="2"/>
+      <c r="P126" s="2"/>
+      <c r="Q126" s="2"/>
+    </row>
+    <row r="127">
+      <c r="A127" s="1"/>
+      <c r="B127" s="2"/>
+      <c r="C127" s="5"/>
+      <c r="D127" s="1"/>
+      <c r="E127" s="1"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="3"/>
+      <c r="H127" s="1"/>
+      <c r="I127" s="6"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="1"/>
+      <c r="L127" s="2"/>
+      <c r="M127" s="2"/>
+      <c r="N127" s="2"/>
+      <c r="O127" s="2"/>
+      <c r="P127" s="2"/>
+      <c r="Q127" s="2"/>
+    </row>
+    <row r="128">
+      <c r="A128" s="1"/>
+      <c r="B128" s="2"/>
+      <c r="C128" s="5"/>
+      <c r="D128" s="1"/>
+      <c r="E128" s="1"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="3"/>
+      <c r="H128" s="1"/>
+      <c r="I128" s="6"/>
+      <c r="J128" s="2"/>
+      <c r="K128" s="1"/>
+      <c r="L128" s="2"/>
+      <c r="M128" s="2"/>
+      <c r="N128" s="2"/>
+      <c r="O128" s="2"/>
+      <c r="P128" s="2"/>
+      <c r="Q128" s="2"/>
+    </row>
+    <row r="129">
+      <c r="A129" s="1"/>
+      <c r="B129" s="2"/>
+      <c r="C129" s="5"/>
+      <c r="D129" s="1"/>
+      <c r="E129" s="1"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="3"/>
+      <c r="H129" s="1"/>
+      <c r="I129" s="6"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="1"/>
+      <c r="L129" s="2"/>
+      <c r="M129" s="2"/>
+      <c r="N129" s="2"/>
+      <c r="O129" s="2"/>
+      <c r="P129" s="2"/>
+      <c r="Q129" s="2"/>
+    </row>
+    <row r="130">
+      <c r="A130" s="1"/>
+      <c r="B130" s="2"/>
+      <c r="C130" s="5"/>
+      <c r="D130" s="1"/>
+      <c r="E130" s="1"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="3"/>
+      <c r="H130" s="1"/>
+      <c r="I130" s="6"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="1"/>
+      <c r="L130" s="2"/>
+      <c r="M130" s="2"/>
+      <c r="N130" s="2"/>
+      <c r="O130" s="2"/>
+      <c r="P130" s="2"/>
+      <c r="Q130" s="2"/>
+    </row>
+    <row r="131">
+      <c r="A131" s="1"/>
+      <c r="B131" s="2"/>
+      <c r="C131" s="5"/>
+      <c r="D131" s="1"/>
+      <c r="E131" s="1"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="3"/>
+      <c r="H131" s="1"/>
+      <c r="I131" s="6"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="1"/>
+      <c r="L131" s="2"/>
+      <c r="M131" s="2"/>
+      <c r="N131" s="2"/>
+      <c r="O131" s="2"/>
+      <c r="P131" s="2"/>
+      <c r="Q131" s="2"/>
+    </row>
+    <row r="132">
+      <c r="A132" s="1"/>
+      <c r="B132" s="2"/>
+      <c r="C132" s="5"/>
+      <c r="D132" s="1"/>
+      <c r="E132" s="1"/>
+      <c r="F132" s="2"/>
+      <c r="G132" s="3"/>
+      <c r="H132" s="1"/>
+      <c r="I132" s="6"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="1"/>
+      <c r="L132" s="2"/>
+      <c r="M132" s="2"/>
+      <c r="N132" s="2"/>
+      <c r="O132" s="2"/>
+      <c r="P132" s="2"/>
+      <c r="Q132" s="2"/>
     </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
@@ -5482,29 +5715,29 @@
   </cols>
   <sheetData>
     <row customHeight="true" ht="27" r="1">
-      <c r="A1" s="27">
+      <c r="A1" s="25">
         <v>40000</v>
       </c>
-      <c r="B1" s="25" t="str">
+      <c r="B1" s="27" t="str">
         <v>种类三数量</v>
       </c>
-      <c r="C1" s="27" t="str">
+      <c r="C1" s="25" t="str">
         <v>Item_Name_20001</v>
       </c>
-      <c r="D1" s="27">
+      <c r="D1" s="25">
         <v>29</v>
       </c>
-      <c r="E1" s="27"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="27">
-        <v>0</v>
-      </c>
-      <c r="H1" s="27"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="25">
+        <v>0</v>
+      </c>
+      <c r="H1" s="25"/>
       <c r="I1" s="28"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="25"/>
+      <c r="M1" s="25"/>
       <c r="N1" s="26"/>
       <c r="O1" s="26"/>
       <c r="P1" s="26"/>
@@ -5514,33 +5747,33 @@
       <c r="T1" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="2">
-      <c r="A2" s="27">
+      <c r="A2" s="25">
         <v>40001</v>
       </c>
-      <c r="B2" s="25" t="str">
+      <c r="B2" s="27" t="str">
         <v>温柔学姐</v>
       </c>
-      <c r="C2" s="27" t="str">
+      <c r="C2" s="25" t="str">
         <v>Item_Name_30001</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="27">
-        <v>0</v>
-      </c>
-      <c r="H2" s="27">
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="27"/>
+      <c r="G2" s="25">
+        <v>0</v>
+      </c>
+      <c r="H2" s="25">
         <v>300</v>
       </c>
-      <c r="I2" s="27">
+      <c r="I2" s="25">
         <v>86337</v>
       </c>
-      <c r="J2" s="25">
+      <c r="J2" s="27">
         <v>10001</v>
       </c>
-      <c r="K2" s="25"/>
-      <c r="L2" s="27"/>
-      <c r="M2" s="25"/>
+      <c r="K2" s="27"/>
+      <c r="L2" s="25"/>
+      <c r="M2" s="27"/>
       <c r="N2" s="26"/>
       <c r="O2" s="26"/>
       <c r="P2" s="26"/>
@@ -5550,33 +5783,33 @@
       <c r="T2" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="3">
-      <c r="A3" s="27">
+      <c r="A3" s="25">
         <v>40002</v>
       </c>
-      <c r="B3" s="25" t="str">
+      <c r="B3" s="27" t="str">
         <v>风纪委员</v>
       </c>
-      <c r="C3" s="27" t="str">
+      <c r="C3" s="25" t="str">
         <v>Item_Name_30002</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="27">
-        <v>0</v>
-      </c>
-      <c r="H3" s="27">
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="27"/>
+      <c r="G3" s="25">
+        <v>0</v>
+      </c>
+      <c r="H3" s="25">
         <v>300</v>
       </c>
-      <c r="I3" s="27">
+      <c r="I3" s="25">
         <v>86335</v>
       </c>
-      <c r="J3" s="25">
+      <c r="J3" s="27">
         <v>10002</v>
       </c>
-      <c r="K3" s="25"/>
-      <c r="L3" s="27"/>
-      <c r="M3" s="25"/>
+      <c r="K3" s="27"/>
+      <c r="L3" s="25"/>
+      <c r="M3" s="27"/>
       <c r="N3" s="26"/>
       <c r="O3" s="26"/>
       <c r="P3" s="26"/>
@@ -5586,33 +5819,33 @@
       <c r="T3" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="4">
-      <c r="A4" s="27">
+      <c r="A4" s="25">
         <v>40003</v>
       </c>
-      <c r="B4" s="25" t="str">
+      <c r="B4" s="27" t="str">
         <v>不良少女</v>
       </c>
-      <c r="C4" s="27" t="str">
+      <c r="C4" s="25" t="str">
         <v>Item_Name_30003</v>
       </c>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="25"/>
-      <c r="G4" s="27">
-        <v>0</v>
-      </c>
-      <c r="H4" s="27">
+      <c r="D4" s="25"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="25">
+        <v>0</v>
+      </c>
+      <c r="H4" s="25">
         <v>300</v>
       </c>
-      <c r="I4" s="27">
+      <c r="I4" s="25">
         <v>86333</v>
       </c>
-      <c r="J4" s="25">
+      <c r="J4" s="27">
         <v>20001</v>
       </c>
-      <c r="K4" s="25"/>
-      <c r="L4" s="27"/>
-      <c r="M4" s="25"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="25"/>
+      <c r="M4" s="27"/>
       <c r="N4" s="26"/>
       <c r="O4" s="26"/>
       <c r="P4" s="26"/>
@@ -5622,33 +5855,33 @@
       <c r="T4" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="5">
-      <c r="A5" s="27">
+      <c r="A5" s="25">
         <v>40004</v>
       </c>
-      <c r="B5" s="25" t="str">
+      <c r="B5" s="27" t="str">
         <v>韩式淑女</v>
       </c>
-      <c r="C5" s="27" t="str">
+      <c r="C5" s="25" t="str">
         <v>Item_Name_30004</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="27">
-        <v>0</v>
-      </c>
-      <c r="H5" s="27">
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="25">
+        <v>0</v>
+      </c>
+      <c r="H5" s="25">
         <v>300</v>
       </c>
-      <c r="I5" s="27">
+      <c r="I5" s="25">
         <v>86334</v>
       </c>
-      <c r="J5" s="25">
+      <c r="J5" s="27">
         <v>20002</v>
       </c>
-      <c r="K5" s="25"/>
-      <c r="L5" s="27"/>
-      <c r="M5" s="25"/>
+      <c r="K5" s="27"/>
+      <c r="L5" s="25"/>
+      <c r="M5" s="27"/>
       <c r="N5" s="26"/>
       <c r="O5" s="26"/>
       <c r="P5" s="26"/>
@@ -5658,33 +5891,33 @@
       <c r="T5" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="6">
-      <c r="A6" s="27">
+      <c r="A6" s="25">
         <v>40005</v>
       </c>
-      <c r="B6" s="25" t="str">
+      <c r="B6" s="27" t="str">
         <v>可爱学妹</v>
       </c>
-      <c r="C6" s="27" t="str">
+      <c r="C6" s="25" t="str">
         <v>Item_Name_30005</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="25"/>
-      <c r="G6" s="27">
-        <v>0</v>
-      </c>
-      <c r="H6" s="27">
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="27"/>
+      <c r="G6" s="25">
+        <v>0</v>
+      </c>
+      <c r="H6" s="25">
         <v>300</v>
       </c>
-      <c r="I6" s="27">
+      <c r="I6" s="25">
         <v>94181</v>
       </c>
-      <c r="J6" s="25">
+      <c r="J6" s="27">
         <v>30001</v>
       </c>
-      <c r="K6" s="25"/>
-      <c r="L6" s="27"/>
-      <c r="M6" s="25"/>
+      <c r="K6" s="27"/>
+      <c r="L6" s="25"/>
+      <c r="M6" s="27"/>
       <c r="N6" s="26"/>
       <c r="O6" s="26"/>
       <c r="P6" s="26"/>
@@ -5694,33 +5927,33 @@
       <c r="T6" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="7">
-      <c r="A7" s="27">
+      <c r="A7" s="25">
         <v>40006</v>
       </c>
-      <c r="B7" s="25" t="str">
+      <c r="B7" s="27" t="str">
         <v>奇幻少女</v>
       </c>
-      <c r="C7" s="27" t="str">
+      <c r="C7" s="25" t="str">
         <v>Item_Name_30006</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="25"/>
-      <c r="G7" s="27">
-        <v>0</v>
-      </c>
-      <c r="H7" s="27">
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="25">
+        <v>0</v>
+      </c>
+      <c r="H7" s="25">
         <v>300</v>
       </c>
-      <c r="I7" s="27">
+      <c r="I7" s="25">
         <v>94180</v>
       </c>
-      <c r="J7" s="25">
+      <c r="J7" s="27">
         <v>30002</v>
       </c>
-      <c r="K7" s="25"/>
-      <c r="L7" s="27"/>
-      <c r="M7" s="25"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="27"/>
       <c r="N7" s="26"/>
       <c r="O7" s="26"/>
       <c r="P7" s="26"/>
@@ -5730,33 +5963,33 @@
       <c r="T7" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="8">
-      <c r="A8" s="27">
+      <c r="A8" s="25">
         <v>40007</v>
       </c>
-      <c r="B8" s="25" t="str">
+      <c r="B8" s="27" t="str">
         <v>温柔学长</v>
       </c>
-      <c r="C8" s="27" t="str">
+      <c r="C8" s="25" t="str">
         <v>Item_Name_30007</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="25"/>
-      <c r="G8" s="27">
-        <v>0</v>
-      </c>
-      <c r="H8" s="27">
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="27"/>
+      <c r="G8" s="25">
+        <v>0</v>
+      </c>
+      <c r="H8" s="25">
         <v>300</v>
       </c>
-      <c r="I8" s="27">
+      <c r="I8" s="25">
         <v>94184</v>
       </c>
-      <c r="J8" s="25">
+      <c r="J8" s="27">
         <v>30003</v>
       </c>
-      <c r="K8" s="25"/>
-      <c r="L8" s="27"/>
-      <c r="M8" s="25"/>
+      <c r="K8" s="27"/>
+      <c r="L8" s="25"/>
+      <c r="M8" s="27"/>
       <c r="N8" s="26"/>
       <c r="O8" s="26"/>
       <c r="P8" s="26"/>
@@ -5766,33 +5999,33 @@
       <c r="T8" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="9">
-      <c r="A9" s="27">
+      <c r="A9" s="25">
         <v>40008</v>
       </c>
-      <c r="B9" s="25" t="str">
+      <c r="B9" s="27" t="str">
         <v>不良少年</v>
       </c>
-      <c r="C9" s="27" t="str">
+      <c r="C9" s="25" t="str">
         <v>Item_Name_30008</v>
       </c>
-      <c r="D9" s="27"/>
-      <c r="E9" s="27"/>
-      <c r="F9" s="25"/>
-      <c r="G9" s="27">
-        <v>0</v>
-      </c>
-      <c r="H9" s="27">
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="27"/>
+      <c r="G9" s="25">
+        <v>0</v>
+      </c>
+      <c r="H9" s="25">
         <v>300</v>
       </c>
-      <c r="I9" s="27">
+      <c r="I9" s="25">
         <v>94182</v>
       </c>
-      <c r="J9" s="25">
+      <c r="J9" s="27">
         <v>30004</v>
       </c>
-      <c r="K9" s="25"/>
-      <c r="L9" s="27"/>
-      <c r="M9" s="25"/>
+      <c r="K9" s="27"/>
+      <c r="L9" s="25"/>
+      <c r="M9" s="27"/>
       <c r="N9" s="26"/>
       <c r="O9" s="26"/>
       <c r="P9" s="26"/>
@@ -5802,33 +6035,33 @@
       <c r="T9" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="10">
-      <c r="A10" s="27">
+      <c r="A10" s="25">
         <v>40009</v>
       </c>
-      <c r="B10" s="27" t="str">
+      <c r="B10" s="25" t="str">
         <v>啦啦队长</v>
       </c>
-      <c r="C10" s="27" t="str">
+      <c r="C10" s="25" t="str">
         <v>Item_Name_30009</v>
       </c>
-      <c r="D10" s="27"/>
-      <c r="E10" s="27"/>
-      <c r="F10" s="25"/>
-      <c r="G10" s="27">
-        <v>0</v>
-      </c>
-      <c r="H10" s="27">
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="27"/>
+      <c r="G10" s="25">
+        <v>0</v>
+      </c>
+      <c r="H10" s="25">
         <v>1000</v>
       </c>
-      <c r="I10" s="27">
+      <c r="I10" s="25">
         <v>110493</v>
       </c>
-      <c r="J10" s="25">
+      <c r="J10" s="27">
         <v>30009</v>
       </c>
-      <c r="K10" s="25"/>
-      <c r="L10" s="27"/>
-      <c r="M10" s="25"/>
+      <c r="K10" s="27"/>
+      <c r="L10" s="25"/>
+      <c r="M10" s="27"/>
       <c r="N10" s="26"/>
       <c r="O10" s="26"/>
       <c r="P10" s="26"/>
@@ -5838,33 +6071,33 @@
       <c r="T10" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="11">
-      <c r="A11" s="27">
+      <c r="A11" s="25">
         <v>40010</v>
       </c>
-      <c r="B11" s="27" t="str">
+      <c r="B11" s="25" t="str">
         <v>艺术生</v>
       </c>
-      <c r="C11" s="27" t="str">
+      <c r="C11" s="25" t="str">
         <v>Item_Name_30010</v>
       </c>
-      <c r="D11" s="27"/>
-      <c r="E11" s="27"/>
-      <c r="F11" s="25"/>
-      <c r="G11" s="27">
-        <v>0</v>
-      </c>
-      <c r="H11" s="27">
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="25">
+        <v>0</v>
+      </c>
+      <c r="H11" s="25">
         <v>1000</v>
       </c>
-      <c r="I11" s="27">
+      <c r="I11" s="25">
         <v>110508</v>
       </c>
-      <c r="J11" s="25">
+      <c r="J11" s="27">
         <v>30010</v>
       </c>
-      <c r="K11" s="25"/>
-      <c r="L11" s="27"/>
-      <c r="M11" s="25"/>
+      <c r="K11" s="27"/>
+      <c r="L11" s="25"/>
+      <c r="M11" s="27"/>
       <c r="N11" s="26"/>
       <c r="O11" s="26"/>
       <c r="P11" s="26"/>
@@ -5874,33 +6107,33 @@
       <c r="T11" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="12">
-      <c r="A12" s="27">
+      <c r="A12" s="25">
         <v>40011</v>
       </c>
-      <c r="B12" s="27" t="str">
+      <c r="B12" s="25" t="str">
         <v>二次元少女</v>
       </c>
-      <c r="C12" s="27" t="str">
+      <c r="C12" s="25" t="str">
         <v>Item_Name_30011</v>
       </c>
-      <c r="D12" s="27"/>
-      <c r="E12" s="27"/>
-      <c r="F12" s="25"/>
-      <c r="G12" s="27">
-        <v>0</v>
-      </c>
-      <c r="H12" s="27">
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="27"/>
+      <c r="G12" s="25">
+        <v>0</v>
+      </c>
+      <c r="H12" s="25">
         <v>1000</v>
       </c>
-      <c r="I12" s="27">
+      <c r="I12" s="25">
         <v>110522</v>
       </c>
-      <c r="J12" s="25">
+      <c r="J12" s="27">
         <v>30011</v>
       </c>
-      <c r="K12" s="25"/>
-      <c r="L12" s="27"/>
-      <c r="M12" s="25"/>
+      <c r="K12" s="27"/>
+      <c r="L12" s="25"/>
+      <c r="M12" s="27"/>
       <c r="N12" s="26"/>
       <c r="O12" s="26"/>
       <c r="P12" s="26"/>
@@ -5910,33 +6143,33 @@
       <c r="T12" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="13">
-      <c r="A13" s="27">
+      <c r="A13" s="25">
         <v>40012</v>
       </c>
-      <c r="B13" s="27" t="str">
+      <c r="B13" s="25" t="str">
         <v>英语老师</v>
       </c>
-      <c r="C13" s="27" t="str">
+      <c r="C13" s="25" t="str">
         <v>Item_Name_30012</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="25"/>
-      <c r="G13" s="27">
-        <v>0</v>
-      </c>
-      <c r="H13" s="27">
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="25">
+        <v>0</v>
+      </c>
+      <c r="H13" s="25">
         <v>1000</v>
       </c>
-      <c r="I13" s="27">
+      <c r="I13" s="25">
         <v>110490</v>
       </c>
-      <c r="J13" s="25">
+      <c r="J13" s="27">
         <v>30012</v>
       </c>
-      <c r="K13" s="25"/>
-      <c r="L13" s="27"/>
-      <c r="M13" s="25"/>
+      <c r="K13" s="27"/>
+      <c r="L13" s="25"/>
+      <c r="M13" s="27"/>
       <c r="N13" s="26"/>
       <c r="O13" s="26"/>
       <c r="P13" s="26"/>
@@ -5946,33 +6179,33 @@
       <c r="T13" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="14">
-      <c r="A14" s="27">
+      <c r="A14" s="25">
         <v>40013</v>
       </c>
-      <c r="B14" s="27" t="str">
+      <c r="B14" s="25" t="str">
         <v>正义少年</v>
       </c>
-      <c r="C14" s="27" t="str">
+      <c r="C14" s="25" t="str">
         <v>Item_Name_30013</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="27">
-        <v>0</v>
-      </c>
-      <c r="H14" s="27">
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="25">
+        <v>0</v>
+      </c>
+      <c r="H14" s="25">
         <v>1000</v>
       </c>
-      <c r="I14" s="27">
+      <c r="I14" s="25">
         <v>110500</v>
       </c>
-      <c r="J14" s="25">
+      <c r="J14" s="27">
         <v>30013</v>
       </c>
-      <c r="K14" s="25"/>
-      <c r="L14" s="27"/>
-      <c r="M14" s="25"/>
+      <c r="K14" s="27"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="27"/>
       <c r="N14" s="26"/>
       <c r="O14" s="26"/>
       <c r="P14" s="26"/>
@@ -5982,33 +6215,33 @@
       <c r="T14" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="15">
-      <c r="A15" s="27">
+      <c r="A15" s="25">
         <v>40014</v>
       </c>
-      <c r="B15" s="27" t="str">
+      <c r="B15" s="25" t="str">
         <v>潮流少女</v>
       </c>
-      <c r="C15" s="27" t="str">
+      <c r="C15" s="25" t="str">
         <v>Item_Name_30014</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="27">
-        <v>0</v>
-      </c>
-      <c r="H15" s="27">
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="27"/>
+      <c r="G15" s="25">
+        <v>0</v>
+      </c>
+      <c r="H15" s="25">
         <v>1000</v>
       </c>
-      <c r="I15" s="27">
+      <c r="I15" s="25">
         <v>110498</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="27">
         <v>30014</v>
       </c>
-      <c r="K15" s="25"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="25"/>
+      <c r="K15" s="27"/>
+      <c r="L15" s="25"/>
+      <c r="M15" s="27"/>
       <c r="N15" s="26"/>
       <c r="O15" s="26"/>
       <c r="P15" s="26"/>
@@ -6018,33 +6251,33 @@
       <c r="T15" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="16">
-      <c r="A16" s="27">
+      <c r="A16" s="25">
         <v>40015</v>
       </c>
-      <c r="B16" s="25" t="str">
+      <c r="B16" s="27" t="str">
         <v>学生会长</v>
       </c>
-      <c r="C16" s="27" t="str">
+      <c r="C16" s="25" t="str">
         <v>Item_Name_30015</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="27">
-        <v>0</v>
-      </c>
-      <c r="H16" s="27">
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="25">
+        <v>0</v>
+      </c>
+      <c r="H16" s="25">
         <v>1000</v>
       </c>
-      <c r="I16" s="25">
+      <c r="I16" s="27">
         <v>141795</v>
       </c>
-      <c r="J16" s="25">
+      <c r="J16" s="27">
         <v>30015</v>
       </c>
-      <c r="K16" s="25"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="25"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="27"/>
       <c r="N16" s="26"/>
       <c r="O16" s="26"/>
       <c r="P16" s="26"/>
@@ -6054,33 +6287,33 @@
       <c r="T16" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="17">
-      <c r="A17" s="27">
+      <c r="A17" s="25">
         <v>40016</v>
       </c>
-      <c r="B17" s="25" t="str">
+      <c r="B17" s="27" t="str">
         <v>女老师</v>
       </c>
-      <c r="C17" s="27" t="str">
+      <c r="C17" s="25" t="str">
         <v>Item_Name_30016</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="27">
-        <v>0</v>
-      </c>
-      <c r="H17" s="27">
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="27"/>
+      <c r="G17" s="25">
+        <v>0</v>
+      </c>
+      <c r="H17" s="25">
         <v>2000</v>
       </c>
-      <c r="I17" s="25">
+      <c r="I17" s="27">
         <v>141819</v>
       </c>
-      <c r="J17" s="25">
+      <c r="J17" s="27">
         <v>30016</v>
       </c>
-      <c r="K17" s="25"/>
-      <c r="L17" s="27"/>
-      <c r="M17" s="25"/>
+      <c r="K17" s="27"/>
+      <c r="L17" s="25"/>
+      <c r="M17" s="27"/>
       <c r="N17" s="26"/>
       <c r="O17" s="26"/>
       <c r="P17" s="26"/>
@@ -6090,33 +6323,33 @@
       <c r="T17" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="18">
-      <c r="A18" s="27">
+      <c r="A18" s="25">
         <v>40017</v>
       </c>
-      <c r="B18" s="25" t="str">
+      <c r="B18" s="27" t="str">
         <v>班主任</v>
       </c>
-      <c r="C18" s="27" t="str">
+      <c r="C18" s="25" t="str">
         <v>Item_Name_30017</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="27">
-        <v>0</v>
-      </c>
-      <c r="H18" s="27">
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="27"/>
+      <c r="G18" s="25">
+        <v>0</v>
+      </c>
+      <c r="H18" s="25">
         <v>2000</v>
       </c>
-      <c r="I18" s="25">
+      <c r="I18" s="27">
         <v>141810</v>
       </c>
-      <c r="J18" s="25">
+      <c r="J18" s="27">
         <v>30017</v>
       </c>
-      <c r="K18" s="25"/>
-      <c r="L18" s="27"/>
-      <c r="M18" s="25"/>
+      <c r="K18" s="27"/>
+      <c r="L18" s="25"/>
+      <c r="M18" s="27"/>
       <c r="N18" s="26"/>
       <c r="O18" s="26"/>
       <c r="P18" s="26"/>
@@ -6126,33 +6359,33 @@
       <c r="T18" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="19">
-      <c r="A19" s="27">
+      <c r="A19" s="25">
         <v>40018</v>
       </c>
-      <c r="B19" s="25" t="str">
+      <c r="B19" s="27" t="str">
         <v>海边姐姐</v>
       </c>
-      <c r="C19" s="27" t="str">
+      <c r="C19" s="25" t="str">
         <v>Item_Name_30018</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="25"/>
-      <c r="G19" s="27">
-        <v>0</v>
-      </c>
-      <c r="H19" s="27">
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="27"/>
+      <c r="G19" s="25">
+        <v>0</v>
+      </c>
+      <c r="H19" s="25">
         <v>2000</v>
       </c>
-      <c r="I19" s="25">
+      <c r="I19" s="27">
         <v>141798</v>
       </c>
-      <c r="J19" s="25">
+      <c r="J19" s="27">
         <v>30018</v>
       </c>
-      <c r="K19" s="25"/>
-      <c r="L19" s="27"/>
-      <c r="M19" s="25"/>
+      <c r="K19" s="27"/>
+      <c r="L19" s="25"/>
+      <c r="M19" s="27"/>
       <c r="N19" s="26"/>
       <c r="O19" s="26"/>
       <c r="P19" s="26"/>
@@ -6162,33 +6395,33 @@
       <c r="T19" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="20">
-      <c r="A20" s="27">
+      <c r="A20" s="25">
         <v>40019</v>
       </c>
-      <c r="B20" s="25" t="str">
+      <c r="B20" s="27" t="str">
         <v>邻家妹妹</v>
       </c>
-      <c r="C20" s="27" t="str">
+      <c r="C20" s="25" t="str">
         <v>Item_Name_30019</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="25"/>
-      <c r="G20" s="27">
-        <v>0</v>
-      </c>
-      <c r="H20" s="27">
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="27"/>
+      <c r="G20" s="25">
+        <v>0</v>
+      </c>
+      <c r="H20" s="25">
         <v>3000</v>
       </c>
-      <c r="I20" s="25">
+      <c r="I20" s="27">
         <v>141787</v>
       </c>
-      <c r="J20" s="25">
+      <c r="J20" s="27">
         <v>30019</v>
       </c>
-      <c r="K20" s="25"/>
-      <c r="L20" s="27"/>
-      <c r="M20" s="25"/>
+      <c r="K20" s="27"/>
+      <c r="L20" s="25"/>
+      <c r="M20" s="27"/>
       <c r="N20" s="26"/>
       <c r="O20" s="26"/>
       <c r="P20" s="26"/>
@@ -6198,33 +6431,33 @@
       <c r="T20" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="21">
-      <c r="A21" s="27">
+      <c r="A21" s="25">
         <v>40020</v>
       </c>
-      <c r="B21" s="25" t="str">
+      <c r="B21" s="27" t="str">
         <v>健身教练</v>
       </c>
-      <c r="C21" s="27" t="str">
+      <c r="C21" s="25" t="str">
         <v>Item_Name_30020</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="27">
-        <v>0</v>
-      </c>
-      <c r="H21" s="27">
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="25">
+        <v>0</v>
+      </c>
+      <c r="H21" s="25">
         <v>3000</v>
       </c>
-      <c r="I21" s="25">
+      <c r="I21" s="27">
         <v>141814</v>
       </c>
-      <c r="J21" s="25">
+      <c r="J21" s="27">
         <v>30020</v>
       </c>
-      <c r="K21" s="25"/>
-      <c r="L21" s="27"/>
-      <c r="M21" s="25"/>
+      <c r="K21" s="27"/>
+      <c r="L21" s="25"/>
+      <c r="M21" s="27"/>
       <c r="N21" s="26"/>
       <c r="O21" s="26"/>
       <c r="P21" s="26"/>
@@ -6234,33 +6467,33 @@
       <c r="T21" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="22">
-      <c r="A22" s="27">
+      <c r="A22" s="25">
         <v>40021</v>
       </c>
-      <c r="B22" s="25" t="str">
+      <c r="B22" s="27" t="str">
         <v>优雅少女</v>
       </c>
-      <c r="C22" s="27" t="str">
+      <c r="C22" s="25" t="str">
         <v>Item_Name_30021</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="25"/>
-      <c r="G22" s="27">
-        <v>0</v>
-      </c>
-      <c r="H22" s="27">
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="25">
+        <v>0</v>
+      </c>
+      <c r="H22" s="25">
         <v>3000</v>
       </c>
-      <c r="I22" s="25">
+      <c r="I22" s="27">
         <v>141803</v>
       </c>
-      <c r="J22" s="25">
+      <c r="J22" s="27">
         <v>30021</v>
       </c>
-      <c r="K22" s="25"/>
-      <c r="L22" s="27"/>
-      <c r="M22" s="25"/>
+      <c r="K22" s="27"/>
+      <c r="L22" s="25"/>
+      <c r="M22" s="27"/>
       <c r="N22" s="26"/>
       <c r="O22" s="26"/>
       <c r="P22" s="26"/>
@@ -6270,33 +6503,33 @@
       <c r="T22" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="23">
-      <c r="A23" s="27">
+      <c r="A23" s="25">
         <v>40022</v>
       </c>
-      <c r="B23" s="25" t="str">
+      <c r="B23" s="27" t="str">
         <v>探险家</v>
       </c>
-      <c r="C23" s="27" t="str">
+      <c r="C23" s="25" t="str">
         <v>Item_Name_30022</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="25"/>
-      <c r="G23" s="27">
-        <v>0</v>
-      </c>
-      <c r="H23" s="27">
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="27"/>
+      <c r="G23" s="25">
+        <v>0</v>
+      </c>
+      <c r="H23" s="25">
         <v>4000</v>
       </c>
-      <c r="I23" s="25">
+      <c r="I23" s="27">
         <v>141801</v>
       </c>
-      <c r="J23" s="25">
+      <c r="J23" s="27">
         <v>30022</v>
       </c>
-      <c r="K23" s="25"/>
-      <c r="L23" s="27"/>
-      <c r="M23" s="25"/>
+      <c r="K23" s="27"/>
+      <c r="L23" s="25"/>
+      <c r="M23" s="27"/>
       <c r="N23" s="26"/>
       <c r="O23" s="26"/>
       <c r="P23" s="26"/>
@@ -6306,33 +6539,33 @@
       <c r="T23" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="24">
-      <c r="A24" s="27">
+      <c r="A24" s="25">
         <v>40023</v>
       </c>
-      <c r="B24" s="25" t="str">
+      <c r="B24" s="27" t="str">
         <v>民国学生</v>
       </c>
-      <c r="C24" s="27" t="str">
+      <c r="C24" s="25" t="str">
         <v>Item_Name_30023</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="27">
-        <v>0</v>
-      </c>
-      <c r="H24" s="27">
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="27"/>
+      <c r="G24" s="25">
+        <v>0</v>
+      </c>
+      <c r="H24" s="25">
         <v>4000</v>
       </c>
-      <c r="I24" s="25">
+      <c r="I24" s="27">
         <v>141815</v>
       </c>
-      <c r="J24" s="25">
+      <c r="J24" s="27">
         <v>30023</v>
       </c>
-      <c r="K24" s="25"/>
-      <c r="L24" s="27"/>
-      <c r="M24" s="25"/>
+      <c r="K24" s="27"/>
+      <c r="L24" s="25"/>
+      <c r="M24" s="27"/>
       <c r="N24" s="26"/>
       <c r="O24" s="26"/>
       <c r="P24" s="26"/>
@@ -6342,33 +6575,33 @@
       <c r="T24" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="25">
-      <c r="A25" s="27">
+      <c r="A25" s="25">
         <v>40024</v>
       </c>
-      <c r="B25" s="25" t="str">
+      <c r="B25" s="27" t="str">
         <v>可可少女</v>
       </c>
-      <c r="C25" s="27" t="str">
+      <c r="C25" s="25" t="str">
         <v>Item_Name_30024</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="27">
-        <v>0</v>
-      </c>
-      <c r="H25" s="27">
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="27"/>
+      <c r="G25" s="25">
+        <v>0</v>
+      </c>
+      <c r="H25" s="25">
         <v>4000</v>
       </c>
-      <c r="I25" s="25">
+      <c r="I25" s="27">
         <v>141808</v>
       </c>
-      <c r="J25" s="25">
+      <c r="J25" s="27">
         <v>30024</v>
       </c>
-      <c r="K25" s="25"/>
-      <c r="L25" s="27"/>
-      <c r="M25" s="25"/>
+      <c r="K25" s="27"/>
+      <c r="L25" s="25"/>
+      <c r="M25" s="27"/>
       <c r="N25" s="26"/>
       <c r="O25" s="26"/>
       <c r="P25" s="26"/>
@@ -6378,33 +6611,33 @@
       <c r="T25" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="26">
-      <c r="A26" s="27">
+      <c r="A26" s="25">
         <v>40025</v>
       </c>
-      <c r="B26" s="25" t="str">
+      <c r="B26" s="27" t="str">
         <v>猫猫店员</v>
       </c>
-      <c r="C26" s="27" t="str">
+      <c r="C26" s="25" t="str">
         <v>Item_Name_30025</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="27">
-        <v>0</v>
-      </c>
-      <c r="H26" s="27">
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="25">
+        <v>0</v>
+      </c>
+      <c r="H26" s="25">
         <v>5000</v>
       </c>
-      <c r="I26" s="25">
+      <c r="I26" s="27">
         <v>141792</v>
       </c>
-      <c r="J26" s="25">
+      <c r="J26" s="27">
         <v>30025</v>
       </c>
-      <c r="K26" s="25"/>
-      <c r="L26" s="27"/>
-      <c r="M26" s="25"/>
+      <c r="K26" s="27"/>
+      <c r="L26" s="25"/>
+      <c r="M26" s="27"/>
       <c r="N26" s="26"/>
       <c r="O26" s="26"/>
       <c r="P26" s="26"/>
@@ -6414,33 +6647,33 @@
       <c r="T26" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="27">
-      <c r="A27" s="27">
+      <c r="A27" s="25">
         <v>40026</v>
       </c>
-      <c r="B27" s="25" t="str">
+      <c r="B27" s="27" t="str">
         <v>女仆甜心</v>
       </c>
-      <c r="C27" s="27" t="str">
+      <c r="C27" s="25" t="str">
         <v>Item_Name_30026</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="25"/>
-      <c r="G27" s="27">
-        <v>0</v>
-      </c>
-      <c r="H27" s="27">
+      <c r="D27" s="25"/>
+      <c r="E27" s="25"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="25">
+        <v>0</v>
+      </c>
+      <c r="H27" s="25">
         <v>5000</v>
       </c>
-      <c r="I27" s="25">
+      <c r="I27" s="27">
         <v>141816</v>
       </c>
-      <c r="J27" s="25">
+      <c r="J27" s="27">
         <v>30026</v>
       </c>
-      <c r="K27" s="25"/>
-      <c r="L27" s="27"/>
-      <c r="M27" s="25"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="25"/>
+      <c r="M27" s="27"/>
       <c r="N27" s="26"/>
       <c r="O27" s="26"/>
       <c r="P27" s="26"/>
@@ -6450,33 +6683,33 @@
       <c r="T27" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="28">
-      <c r="A28" s="27">
+      <c r="A28" s="25">
         <v>40027</v>
       </c>
-      <c r="B28" s="25" t="str">
+      <c r="B28" s="27" t="str">
         <v>猫耳女仆</v>
       </c>
-      <c r="C28" s="27" t="str">
+      <c r="C28" s="25" t="str">
         <v>Item_Name_30027</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="27">
-        <v>0</v>
-      </c>
-      <c r="H28" s="27">
+      <c r="D28" s="25"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="25">
+        <v>0</v>
+      </c>
+      <c r="H28" s="25">
         <v>5000</v>
       </c>
-      <c r="I28" s="25">
+      <c r="I28" s="27">
         <v>141807</v>
       </c>
-      <c r="J28" s="25">
+      <c r="J28" s="27">
         <v>30027</v>
       </c>
-      <c r="K28" s="25"/>
-      <c r="L28" s="27"/>
-      <c r="M28" s="25"/>
+      <c r="K28" s="27"/>
+      <c r="L28" s="25"/>
+      <c r="M28" s="27"/>
       <c r="N28" s="26"/>
       <c r="O28" s="26"/>
       <c r="P28" s="26"/>
@@ -6486,33 +6719,33 @@
       <c r="T28" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="29">
-      <c r="A29" s="27">
+      <c r="A29" s="25">
         <v>40028</v>
       </c>
-      <c r="B29" s="25" t="str">
+      <c r="B29" s="27" t="str">
         <v>少女偶像</v>
       </c>
-      <c r="C29" s="27" t="str">
+      <c r="C29" s="25" t="str">
         <v>Item_Name_30028</v>
       </c>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-      <c r="F29" s="25"/>
-      <c r="G29" s="27">
-        <v>0</v>
-      </c>
-      <c r="H29" s="27">
+      <c r="D29" s="25"/>
+      <c r="E29" s="25"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="25">
+        <v>0</v>
+      </c>
+      <c r="H29" s="25">
         <v>5000</v>
       </c>
-      <c r="I29" s="25">
+      <c r="I29" s="27">
         <v>141799</v>
       </c>
-      <c r="J29" s="25">
+      <c r="J29" s="27">
         <v>30028</v>
       </c>
-      <c r="K29" s="25"/>
-      <c r="L29" s="27"/>
-      <c r="M29" s="25"/>
+      <c r="K29" s="27"/>
+      <c r="L29" s="25"/>
+      <c r="M29" s="27"/>
       <c r="N29" s="26"/>
       <c r="O29" s="26"/>
       <c r="P29" s="26"/>
@@ -6522,33 +6755,33 @@
       <c r="T29" s="26"/>
     </row>
     <row customHeight="true" ht="27" r="30">
-      <c r="A30" s="27">
+      <c r="A30" s="25">
         <v>40029</v>
       </c>
-      <c r="B30" s="25" t="str">
+      <c r="B30" s="27" t="str">
         <v>圣诞少女</v>
       </c>
-      <c r="C30" s="27" t="str">
+      <c r="C30" s="25" t="str">
         <v>Item_Name_30029</v>
       </c>
-      <c r="D30" s="27"/>
-      <c r="E30" s="27"/>
-      <c r="F30" s="25"/>
-      <c r="G30" s="27">
-        <v>0</v>
-      </c>
-      <c r="H30" s="27">
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="25">
+        <v>0</v>
+      </c>
+      <c r="H30" s="25">
         <v>5000</v>
       </c>
-      <c r="I30" s="25">
+      <c r="I30" s="27">
         <v>141789</v>
       </c>
-      <c r="J30" s="25">
+      <c r="J30" s="27">
         <v>30029</v>
       </c>
-      <c r="K30" s="25"/>
-      <c r="L30" s="27"/>
-      <c r="M30" s="25"/>
+      <c r="K30" s="27"/>
+      <c r="L30" s="25"/>
+      <c r="M30" s="27"/>
       <c r="N30" s="26"/>
       <c r="O30" s="26"/>
       <c r="P30" s="26"/>
